--- a/app/src/main/res/raw/cards.xlsx
+++ b/app/src/main/res/raw/cards.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1106">
   <si>
     <t>Black Cards</t>
   </si>
@@ -1802,75 +1802,147 @@
     <t>όταν διαχωριστεί η εκκλησία κ το κράτος</t>
   </si>
   <si>
+    <t>Ο γιος του Τακη αυτοκτονησε επειδη ___</t>
+  </si>
+  <si>
     <t>του Αγίου Βαλεντίνου</t>
   </si>
   <si>
+    <t>Μπαινω σπιτι και τι να δω?</t>
+  </si>
+  <si>
     <t>φυστίκι αράπικο</t>
   </si>
   <si>
+    <t>Μεσα στην σκηνη με τον Αυγουστη ____</t>
+  </si>
+  <si>
     <t>τούμπανο</t>
   </si>
   <si>
+    <t>Ο παπαμητουκας ____</t>
+  </si>
+  <si>
     <t>ταιζοντας χριστιανούς στα λεονταρια</t>
   </si>
   <si>
+    <t>Οπου φυσαει ο ανεμος ___</t>
+  </si>
+  <si>
     <t>έγκυες γυναίκες, χοντροί και ιδρωμενοι άντρες</t>
   </si>
   <si>
+    <t>Ασε το μπιρι μπιρι και _______</t>
+  </si>
+  <si>
     <t>Μπαμπινιώτης</t>
   </si>
   <si>
+    <t>Να φασ ωσω πρεπει κι οχι ______</t>
+  </si>
+  <si>
     <t>χελωνονιντζάκια</t>
   </si>
   <si>
+    <t>Πηρε κεφαλι στο ________</t>
+  </si>
+  <si>
     <t>το χαμόγελο της Τζοκόντα</t>
   </si>
   <si>
+    <t>Δε μπορουσε να βλεπει κομματιασμενο το bacon και τα ενωσε να γινουν ______</t>
+  </si>
+  <si>
     <t>σογκοκου</t>
   </si>
   <si>
+    <t>Tα μεγαλα πνευματα ________</t>
+  </si>
+  <si>
     <t>Οσάμα μπιν Λάντεν</t>
   </si>
   <si>
+    <t>Μακρια απ τον κωλο μας κι οπου θελεις ______</t>
+  </si>
+  <si>
     <t>σκίουροι να τρώνε πίτσα</t>
   </si>
   <si>
+    <t>Εκει που οδηγουσε ο ψηλος _______</t>
+  </si>
+  <si>
     <t>χαριμπο σε σχημα σκατου</t>
   </si>
   <si>
+    <t>Με τσιμπησε μια μεδουσα και _______</t>
+  </si>
+  <si>
     <t>Μερέντα στη κλειτορίδα</t>
   </si>
   <si>
+    <t>Οσο η καρδια κι αν λαχταρα δε θα ____</t>
+  </si>
+  <si>
     <t>του κώλου τα εννιάμερα</t>
   </si>
   <si>
+    <t>_____, πιο νόστιμο κ από τα πισία του Κώστα</t>
+  </si>
+  <si>
     <t>του Αγίου φουφουτου</t>
   </si>
   <si>
+    <t>Τρελή ιστορία! Πέρσι στην πενθήμερη, _____</t>
+  </si>
+  <si>
     <t>Τόνυ σφηνος</t>
   </si>
   <si>
+    <t>Η δε γυνή να φοβήται _____</t>
+  </si>
+  <si>
     <t>ο Ταμτάκος πάει στη Ζιμπάμπουε</t>
   </si>
   <si>
+    <t>Χθες πέτυχα τον γείτονά μου ___</t>
+  </si>
+  <si>
     <t>της μικρής τσουτσους οι τρίχες της φταίνε</t>
   </si>
   <si>
+    <t>Που πάει το παπάκι?</t>
+  </si>
+  <si>
     <t>ο Βαγγέλης Γιαννόπουλος στο mega star</t>
   </si>
   <si>
+    <t>Το σχέδιο είναι τέλειο. Θα ληστεψουμε την Εθνική τράπεζα με ______</t>
+  </si>
+  <si>
     <t>τα πόδια της Σκλεναρίκοβα</t>
   </si>
   <si>
+    <t>Σήκωσε το, το γαμημενο, _____</t>
+  </si>
+  <si>
     <t>ο λεκές της Μόνικα</t>
   </si>
   <si>
+    <t>Βρήκα το βρακί του Κώστα κάτω από ____</t>
+  </si>
+  <si>
     <t>Δάφνη μπογκοτα</t>
   </si>
   <si>
+    <t>Απίστευτο! Μου έκανε επιτέλους πρόταση γάμου με ______</t>
+  </si>
+  <si>
     <t>παιχνίδια χωρίς σύνορα</t>
   </si>
   <si>
+    <t>Γαμας που δε γαμας, δεν πας για ______</t>
+  </si>
+  <si>
     <t>όσες κ οι ελιές του Σημίτη</t>
   </si>
   <si>
@@ -2963,9 +3035,6 @@
     <t>Ταιζω Χριστιανους στα λιονταρια</t>
   </si>
   <si>
-    <t>Οσο η καρδια κι αν λαχταρα δε θα .....</t>
-  </si>
-  <si>
     <t>Πανω απο 200 πτωματα</t>
   </si>
   <si>
@@ -3047,9 +3116,6 @@
     <t>O Μανωλης με τον Σετακαρο χορευουν Ποντιακα</t>
   </si>
   <si>
-    <t>Με τσιμπησε μια μεδουσα και ...........</t>
-  </si>
-  <si>
     <t>Ο Σετακης με τον Ραλλο</t>
   </si>
   <si>
@@ -3146,45 +3212,24 @@
     <t>Σημειο g male</t>
   </si>
   <si>
-    <t>Ασε το μπιρι μπιρι και _______</t>
-  </si>
-  <si>
     <t>Τριβει τα χερια του σαν μυγα</t>
   </si>
   <si>
-    <t>Να φασ ωσω πρεπει κι οχι ______</t>
-  </si>
-  <si>
     <t>Ο doppelganger του Κωτσακλα στο μετρο</t>
   </si>
   <si>
-    <t>Πηρε κεφαλι στο ________</t>
-  </si>
-  <si>
     <t>Το γνωστο ειδος των μηκουραστικων</t>
   </si>
   <si>
-    <t>Δε μπορουσε να βλεπει κομματιασμενο το bacon και τα ενωσε να γινουν ______</t>
-  </si>
-  <si>
     <t>Καλος ειναι αλλα πολλες τριχες</t>
   </si>
   <si>
-    <t>Tα μεγαλα πνευματα ________</t>
-  </si>
-  <si>
     <t>Δε δουλευει σαν το Λεντο</t>
   </si>
   <si>
-    <t>Μακρια απ τον κωλο μας κι οπου θελεις ______</t>
-  </si>
-  <si>
     <t>Τελειωσε στα γυαλια του Τζον Ολιβερ</t>
   </si>
   <si>
-    <t>Εκει που οδηγουσε ο ψηλος _______</t>
-  </si>
-  <si>
     <t>Μπιριμπιτζιδης</t>
   </si>
   <si>
@@ -3243,6 +3288,48 @@
   </si>
   <si>
     <t>Κι ο πρωτος Τσιαντακιας</t>
+  </si>
+  <si>
+    <t>Επειδη δεν ηπιε τις μπυρες που αγορασε</t>
+  </si>
+  <si>
+    <t>τα άσπρα μαλλιά του Καρβέλα</t>
+  </si>
+  <si>
+    <t>ο Δογκανος και η Δεβόρα</t>
+  </si>
+  <si>
+    <t>ο Σημίτης πάνω σε μια Harley Davidson</t>
+  </si>
+  <si>
+    <t>ο Megatron παρέα με τον Ταμτάκο</t>
+  </si>
+  <si>
+    <t>κολυμπώντας σα τον Σολωμό</t>
+  </si>
+  <si>
+    <t>φασωσα μια καρέτα καρέτα</t>
+  </si>
+  <si>
+    <t>θα πηδηχτω από το παράθυρο</t>
+  </si>
+  <si>
+    <t>τα ντωσει μπεναλτι ντο ΟΦΗ</t>
+  </si>
+  <si>
+    <t>η σιδηρά κυρία</t>
+  </si>
+  <si>
+    <t>το τείχος του Βερολίνου</t>
+  </si>
+  <si>
+    <t>το παιδί του Χίτλερ κ του Παπαθεμελή</t>
+  </si>
+  <si>
+    <t>τα γυαλιά της Ματίνας Μανταρινάκη</t>
+  </si>
+  <si>
+    <t>ο Ποπωτας σε ερωτικές περιπτύξεις με τον Διονύση Δαγκα</t>
   </si>
 </sst>
 </file>
@@ -3290,7 +3377,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3313,9 +3400,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -9638,9 +9722,11 @@
       <c r="O299" s="2"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="A300" s="8"/>
+      <c r="A300" s="4" t="s">
+        <v>596</v>
+      </c>
       <c r="B300" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -9657,9 +9743,11 @@
       <c r="O300" s="2"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="A301" s="2"/>
+      <c r="A301" s="4" t="s">
+        <v>598</v>
+      </c>
       <c r="B301" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -9676,9 +9764,11 @@
       <c r="O301" s="2"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="A302" s="2"/>
+      <c r="A302" s="4" t="s">
+        <v>600</v>
+      </c>
       <c r="B302" s="4" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -9695,9 +9785,11 @@
       <c r="O302" s="2"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="A303" s="2"/>
+      <c r="A303" s="4" t="s">
+        <v>602</v>
+      </c>
       <c r="B303" s="4" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -9714,9 +9806,11 @@
       <c r="O303" s="2"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="A304" s="2"/>
+      <c r="A304" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="B304" s="4" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -9733,9 +9827,11 @@
       <c r="O304" s="2"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="A305" s="2"/>
+      <c r="A305" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="B305" s="4" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -9752,9 +9848,11 @@
       <c r="O305" s="2"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="A306" s="2"/>
+      <c r="A306" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="B306" s="4" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -9771,9 +9869,11 @@
       <c r="O306" s="2"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="A307" s="2"/>
+      <c r="A307" s="4" t="s">
+        <v>610</v>
+      </c>
       <c r="B307" s="4" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -9790,9 +9890,11 @@
       <c r="O307" s="2"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="A308" s="2"/>
+      <c r="A308" s="4" t="s">
+        <v>612</v>
+      </c>
       <c r="B308" s="4" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -9809,9 +9911,11 @@
       <c r="O308" s="2"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="A309" s="2"/>
+      <c r="A309" s="4" t="s">
+        <v>614</v>
+      </c>
       <c r="B309" s="4" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -9828,9 +9932,11 @@
       <c r="O309" s="2"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="A310" s="2"/>
+      <c r="A310" s="4" t="s">
+        <v>616</v>
+      </c>
       <c r="B310" s="4" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -9847,9 +9953,11 @@
       <c r="O310" s="2"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="A311" s="2"/>
+      <c r="A311" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="B311" s="4" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -9866,9 +9974,11 @@
       <c r="O311" s="2"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="A312" s="2"/>
+      <c r="A312" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="B312" s="4" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -9885,9 +9995,11 @@
       <c r="O312" s="2"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="A313" s="2"/>
+      <c r="A313" s="4" t="s">
+        <v>622</v>
+      </c>
       <c r="B313" s="4" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -9904,9 +10016,11 @@
       <c r="O313" s="2"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="A314" s="2"/>
+      <c r="A314" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="B314" s="4" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -9923,9 +10037,11 @@
       <c r="O314" s="2"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="A315" s="2"/>
+      <c r="A315" s="4" t="s">
+        <v>626</v>
+      </c>
       <c r="B315" s="4" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -9942,9 +10058,11 @@
       <c r="O315" s="2"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="A316" s="2"/>
+      <c r="A316" s="4" t="s">
+        <v>628</v>
+      </c>
       <c r="B316" s="4" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -9961,9 +10079,11 @@
       <c r="O316" s="2"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="A317" s="2"/>
+      <c r="A317" s="4" t="s">
+        <v>630</v>
+      </c>
       <c r="B317" s="4" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -9980,9 +10100,11 @@
       <c r="O317" s="2"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="A318" s="2"/>
+      <c r="A318" s="4" t="s">
+        <v>632</v>
+      </c>
       <c r="B318" s="4" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -9999,9 +10121,11 @@
       <c r="O318" s="2"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="A319" s="2"/>
+      <c r="A319" s="4" t="s">
+        <v>634</v>
+      </c>
       <c r="B319" s="4" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -10018,9 +10142,11 @@
       <c r="O319" s="2"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="A320" s="2"/>
+      <c r="A320" s="4" t="s">
+        <v>636</v>
+      </c>
       <c r="B320" s="4" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -10037,9 +10163,11 @@
       <c r="O320" s="2"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="A321" s="2"/>
+      <c r="A321" s="4" t="s">
+        <v>638</v>
+      </c>
       <c r="B321" s="4" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -10056,9 +10184,11 @@
       <c r="O321" s="2"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="A322" s="2"/>
+      <c r="A322" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="B322" s="4" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -10075,9 +10205,11 @@
       <c r="O322" s="2"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="A323" s="2"/>
+      <c r="A323" s="4" t="s">
+        <v>642</v>
+      </c>
       <c r="B323" s="4" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -10096,7 +10228,7 @@
     <row r="324" ht="14.25" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="4" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -10115,7 +10247,7 @@
     <row r="325" ht="14.25" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="4" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -10134,7 +10266,7 @@
     <row r="326" ht="14.25" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="4" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -10153,7 +10285,7 @@
     <row r="327" ht="14.25" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="4" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -10172,7 +10304,7 @@
     <row r="328" ht="14.25" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="4" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -10191,7 +10323,7 @@
     <row r="329" ht="14.25" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="4" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -10210,7 +10342,7 @@
     <row r="330" ht="14.25" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="4" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -10229,7 +10361,7 @@
     <row r="331" ht="14.25" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="4" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -10248,7 +10380,7 @@
     <row r="332" ht="14.25" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="4" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -10267,7 +10399,7 @@
     <row r="333" ht="14.25" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="4" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -10286,7 +10418,7 @@
     <row r="334" ht="14.25" customHeight="1">
       <c r="A334" s="2"/>
       <c r="B334" s="4" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -10305,7 +10437,7 @@
     <row r="335" ht="14.25" customHeight="1">
       <c r="A335" s="2"/>
       <c r="B335" s="4" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -10324,7 +10456,7 @@
     <row r="336" ht="14.25" customHeight="1">
       <c r="A336" s="2"/>
       <c r="B336" s="4" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -10343,7 +10475,7 @@
     <row r="337" ht="14.25" customHeight="1">
       <c r="A337" s="2"/>
       <c r="B337" s="4" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -10362,7 +10494,7 @@
     <row r="338" ht="14.25" customHeight="1">
       <c r="A338" s="2"/>
       <c r="B338" s="4" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -10381,7 +10513,7 @@
     <row r="339" ht="14.25" customHeight="1">
       <c r="A339" s="2"/>
       <c r="B339" s="4" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -10400,7 +10532,7 @@
     <row r="340" ht="14.25" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" s="4" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -10419,7 +10551,7 @@
     <row r="341" ht="14.25" customHeight="1">
       <c r="A341" s="2"/>
       <c r="B341" s="4" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -10438,7 +10570,7 @@
     <row r="342" ht="14.25" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" s="4" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -10457,7 +10589,7 @@
     <row r="343" ht="14.25" customHeight="1">
       <c r="A343" s="2"/>
       <c r="B343" s="4" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -10476,7 +10608,7 @@
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="2"/>
       <c r="B344" s="4" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -10495,7 +10627,7 @@
     <row r="345" ht="14.25" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" s="4" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -10514,7 +10646,7 @@
     <row r="346" ht="14.25" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" s="4" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -10533,7 +10665,7 @@
     <row r="347" ht="14.25" customHeight="1">
       <c r="A347" s="2"/>
       <c r="B347" s="4" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -10552,7 +10684,7 @@
     <row r="348" ht="14.25" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" s="4" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -10571,7 +10703,7 @@
     <row r="349" ht="14.25" customHeight="1">
       <c r="A349" s="2"/>
       <c r="B349" s="4" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -10590,7 +10722,7 @@
     <row r="350" ht="14.25" customHeight="1">
       <c r="A350" s="2"/>
       <c r="B350" s="4" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -10609,7 +10741,7 @@
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" s="4" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -10628,7 +10760,7 @@
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" s="4" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -10647,7 +10779,7 @@
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="2"/>
       <c r="B353" s="4" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -10666,7 +10798,7 @@
     <row r="354" ht="14.25" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" s="4" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -10685,7 +10817,7 @@
     <row r="355" ht="14.25" customHeight="1">
       <c r="A355" s="2"/>
       <c r="B355" s="4" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -10704,7 +10836,7 @@
     <row r="356" ht="14.25" customHeight="1">
       <c r="A356" s="2"/>
       <c r="B356" s="4" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -10723,7 +10855,7 @@
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" s="4" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -10742,7 +10874,7 @@
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" s="4" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -10761,7 +10893,7 @@
     <row r="359" ht="14.25" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" s="4" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -10780,7 +10912,7 @@
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" s="4" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -10799,7 +10931,7 @@
     <row r="361" ht="14.25" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" s="4" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -10818,7 +10950,7 @@
     <row r="362" ht="14.25" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" s="4" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -10837,7 +10969,7 @@
     <row r="363" ht="14.25" customHeight="1">
       <c r="A363" s="2"/>
       <c r="B363" s="4" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -10856,7 +10988,7 @@
     <row r="364" ht="14.25" customHeight="1">
       <c r="A364" s="2"/>
       <c r="B364" s="4" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -10875,7 +11007,7 @@
     <row r="365" ht="14.25" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" s="4" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -10894,7 +11026,7 @@
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="2"/>
       <c r="B366" s="4" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -10913,7 +11045,7 @@
     <row r="367" ht="14.25" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" s="4" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -10932,7 +11064,7 @@
     <row r="368" ht="14.25" customHeight="1">
       <c r="A368" s="2"/>
       <c r="B368" s="4" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -10951,7 +11083,7 @@
     <row r="369" ht="14.25" customHeight="1">
       <c r="A369" s="2"/>
       <c r="B369" s="4" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -10970,7 +11102,7 @@
     <row r="370" ht="14.25" customHeight="1">
       <c r="A370" s="2"/>
       <c r="B370" s="4" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -10989,7 +11121,7 @@
     <row r="371" ht="14.25" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" s="4" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -11008,7 +11140,7 @@
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="2"/>
       <c r="B372" s="4" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -11027,7 +11159,7 @@
     <row r="373" ht="14.25" customHeight="1">
       <c r="A373" s="2"/>
       <c r="B373" s="4" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -11046,7 +11178,7 @@
     <row r="374" ht="14.25" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" s="4" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -11065,7 +11197,7 @@
     <row r="375" ht="14.25" customHeight="1">
       <c r="A375" s="2"/>
       <c r="B375" s="4" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -11084,7 +11216,7 @@
     <row r="376" ht="14.25" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" s="4" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -11103,7 +11235,7 @@
     <row r="377" ht="14.25" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" s="4" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -11122,7 +11254,7 @@
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" s="4" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -11141,7 +11273,7 @@
     <row r="379" ht="14.25" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" s="4" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -11160,7 +11292,7 @@
     <row r="380" ht="14.25" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" s="4" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -11179,7 +11311,7 @@
     <row r="381" ht="14.25" customHeight="1">
       <c r="A381" s="2"/>
       <c r="B381" s="4" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -11198,7 +11330,7 @@
     <row r="382" ht="14.25" customHeight="1">
       <c r="A382" s="2"/>
       <c r="B382" s="4" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -11217,7 +11349,7 @@
     <row r="383" ht="14.25" customHeight="1">
       <c r="A383" s="2"/>
       <c r="B383" s="4" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -11236,7 +11368,7 @@
     <row r="384" ht="14.25" customHeight="1">
       <c r="A384" s="2"/>
       <c r="B384" s="4" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -11255,7 +11387,7 @@
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="2"/>
       <c r="B385" s="4" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -11274,7 +11406,7 @@
     <row r="386" ht="14.25" customHeight="1">
       <c r="A386" s="2"/>
       <c r="B386" s="4" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -11293,7 +11425,7 @@
     <row r="387" ht="14.25" customHeight="1">
       <c r="A387" s="2"/>
       <c r="B387" s="4" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -11312,7 +11444,7 @@
     <row r="388" ht="14.25" customHeight="1">
       <c r="A388" s="2"/>
       <c r="B388" s="4" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -11331,7 +11463,7 @@
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" s="4" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -11350,7 +11482,7 @@
     <row r="390" ht="14.25" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" s="4" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -11369,7 +11501,7 @@
     <row r="391" ht="14.25" customHeight="1">
       <c r="A391" s="2"/>
       <c r="B391" s="4" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -11388,7 +11520,7 @@
     <row r="392" ht="14.25" customHeight="1">
       <c r="A392" s="2"/>
       <c r="B392" s="4" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -11407,7 +11539,7 @@
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="2"/>
       <c r="B393" s="4" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -11426,7 +11558,7 @@
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" s="4" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -11445,7 +11577,7 @@
     <row r="395" ht="14.25" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" s="4" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -11464,7 +11596,7 @@
     <row r="396" ht="14.25" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" s="4" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -11483,7 +11615,7 @@
     <row r="397" ht="14.25" customHeight="1">
       <c r="A397" s="2"/>
       <c r="B397" s="4" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -11502,7 +11634,7 @@
     <row r="398" ht="14.25" customHeight="1">
       <c r="A398" s="2"/>
       <c r="B398" s="4" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -11521,7 +11653,7 @@
     <row r="399" ht="14.25" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" s="4" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -11540,7 +11672,7 @@
     <row r="400" ht="14.25" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" s="4" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -11559,7 +11691,7 @@
     <row r="401" ht="14.25" customHeight="1">
       <c r="A401" s="2"/>
       <c r="B401" s="4" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -11578,7 +11710,7 @@
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" s="4" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -11597,7 +11729,7 @@
     <row r="403" ht="14.25" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" s="4" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -11616,7 +11748,7 @@
     <row r="404" ht="14.25" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" s="4" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -11635,7 +11767,7 @@
     <row r="405" ht="14.25" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" s="4" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -11654,7 +11786,7 @@
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="2"/>
       <c r="B406" s="4" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -11673,7 +11805,7 @@
     <row r="407" ht="14.25" customHeight="1">
       <c r="A407" s="2"/>
       <c r="B407" s="4" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -11692,7 +11824,7 @@
     <row r="408" ht="14.25" customHeight="1">
       <c r="A408" s="2"/>
       <c r="B408" s="4" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -11711,7 +11843,7 @@
     <row r="409" ht="14.25" customHeight="1">
       <c r="A409" s="2"/>
       <c r="B409" s="4" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -11730,7 +11862,7 @@
     <row r="410" ht="14.25" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" s="4" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -11749,7 +11881,7 @@
     <row r="411" ht="14.25" customHeight="1">
       <c r="A411" s="2"/>
       <c r="B411" s="4" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -11768,7 +11900,7 @@
     <row r="412" ht="14.25" customHeight="1">
       <c r="A412" s="2"/>
       <c r="B412" s="4" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -11787,7 +11919,7 @@
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="2"/>
       <c r="B413" s="4" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -11806,7 +11938,7 @@
     <row r="414" ht="14.25" customHeight="1">
       <c r="A414" s="2"/>
       <c r="B414" s="4" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -11825,7 +11957,7 @@
     <row r="415" ht="14.25" customHeight="1">
       <c r="A415" s="2"/>
       <c r="B415" s="4" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -11844,7 +11976,7 @@
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" s="4" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -11863,7 +11995,7 @@
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" s="4" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -11882,7 +12014,7 @@
     <row r="418" ht="14.25" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" s="4" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -11901,7 +12033,7 @@
     <row r="419" ht="14.25" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" s="4" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -11920,7 +12052,7 @@
     <row r="420" ht="14.25" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" s="4" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -11939,7 +12071,7 @@
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" s="4" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -11958,7 +12090,7 @@
     <row r="422" ht="14.25" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" s="4" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -11977,7 +12109,7 @@
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" s="4" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -11996,7 +12128,7 @@
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="2"/>
       <c r="B424" s="4" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -12015,7 +12147,7 @@
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" s="4" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -12034,7 +12166,7 @@
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" s="4" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -12053,7 +12185,7 @@
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="2"/>
       <c r="B427" s="4" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -12072,7 +12204,7 @@
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" s="4" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -12091,7 +12223,7 @@
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="2"/>
       <c r="B429" s="4" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -12110,7 +12242,7 @@
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" s="4" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -12129,7 +12261,7 @@
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" s="4" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -12148,7 +12280,7 @@
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" s="4" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -12167,7 +12299,7 @@
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" s="4" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -12186,7 +12318,7 @@
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" s="4" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -12205,7 +12337,7 @@
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="2"/>
       <c r="B435" s="4" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -12224,7 +12356,7 @@
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="2"/>
       <c r="B436" s="4" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -12243,7 +12375,7 @@
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="2"/>
       <c r="B437" s="4" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -12262,7 +12394,7 @@
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="2"/>
       <c r="B438" s="4" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -12281,7 +12413,7 @@
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" s="4" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -12300,7 +12432,7 @@
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" s="4" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -12319,7 +12451,7 @@
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="2"/>
       <c r="B441" s="4" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -12338,7 +12470,7 @@
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" s="4" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -12357,7 +12489,7 @@
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="2"/>
       <c r="B443" s="4" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -12376,7 +12508,7 @@
     <row r="444" ht="14.25" customHeight="1">
       <c r="A444" s="2"/>
       <c r="B444" s="1" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -12395,7 +12527,7 @@
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" s="4" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -12414,7 +12546,7 @@
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="2"/>
       <c r="B446" s="4" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -12433,7 +12565,7 @@
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="2"/>
       <c r="B447" s="4" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -12452,7 +12584,7 @@
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="2"/>
       <c r="B448" s="4" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -12471,7 +12603,7 @@
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" s="4" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -12490,7 +12622,7 @@
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="2"/>
       <c r="B450" s="4" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -12509,7 +12641,7 @@
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="2"/>
       <c r="B451" s="4" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -12528,7 +12660,7 @@
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" s="4" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -12547,7 +12679,7 @@
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="2"/>
       <c r="B453" s="4" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -12566,7 +12698,7 @@
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="2"/>
       <c r="B454" s="4" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -12585,7 +12717,7 @@
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" s="4" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -12604,7 +12736,7 @@
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="2"/>
       <c r="B456" s="4" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -12623,7 +12755,7 @@
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="2"/>
       <c r="B457" s="4" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -12642,7 +12774,7 @@
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" s="4" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -12661,7 +12793,7 @@
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" s="4" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -12680,7 +12812,7 @@
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="2"/>
       <c r="B460" s="4" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -12699,7 +12831,7 @@
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="2"/>
       <c r="B461" s="4" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -12718,7 +12850,7 @@
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" s="4" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -12756,7 +12888,7 @@
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="2"/>
       <c r="B464" s="4" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -12775,7 +12907,7 @@
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" s="4" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -12794,7 +12926,7 @@
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="2"/>
       <c r="B466" s="4" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -12813,7 +12945,7 @@
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" s="4" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -12832,7 +12964,7 @@
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="2"/>
       <c r="B468" s="4" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -12851,7 +12983,7 @@
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" s="4" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -12870,7 +13002,7 @@
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" s="4" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -12889,7 +13021,7 @@
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" s="4" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -12908,7 +13040,7 @@
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" s="4" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -12927,7 +13059,7 @@
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" s="4" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -12946,7 +13078,7 @@
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" s="4" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -12965,7 +13097,7 @@
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" s="4" t="s">
-        <v>770</v>
+        <v>794</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -12984,7 +13116,7 @@
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" s="4" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -13003,7 +13135,7 @@
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" s="4" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -13022,7 +13154,7 @@
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" s="4" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -13041,7 +13173,7 @@
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" s="4" t="s">
-        <v>774</v>
+        <v>798</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -13060,7 +13192,7 @@
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" s="4" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -13079,7 +13211,7 @@
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" s="4" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -13098,7 +13230,7 @@
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" s="4" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -13117,7 +13249,7 @@
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="2"/>
       <c r="B483" s="4" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -13136,7 +13268,7 @@
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="2"/>
       <c r="B484" s="4" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -13155,7 +13287,7 @@
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" s="4" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -13174,7 +13306,7 @@
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="2"/>
       <c r="B486" s="4" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -13193,7 +13325,7 @@
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="2"/>
       <c r="B487" s="4" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -13212,7 +13344,7 @@
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="2"/>
       <c r="B488" s="4" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -13231,7 +13363,7 @@
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" s="4" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -13250,7 +13382,7 @@
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" s="4" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -13269,7 +13401,7 @@
     <row r="491" ht="14.25" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" s="4" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -13288,7 +13420,7 @@
     <row r="492" ht="14.25" customHeight="1">
       <c r="A492" s="2"/>
       <c r="B492" s="4" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -13307,7 +13439,7 @@
     <row r="493" ht="14.25" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" s="4" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -13326,7 +13458,7 @@
     <row r="494" ht="14.25" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" s="4" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -13345,7 +13477,7 @@
     <row r="495" ht="14.25" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" s="4" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -13364,7 +13496,7 @@
     <row r="496" ht="14.25" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" s="4" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -13383,7 +13515,7 @@
     <row r="497" ht="14.25" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" s="4" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -13402,7 +13534,7 @@
     <row r="498" ht="14.25" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" s="4" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -13421,7 +13553,7 @@
     <row r="499" ht="14.25" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" s="4" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -13440,7 +13572,7 @@
     <row r="500" ht="14.25" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" s="4" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -13459,7 +13591,7 @@
     <row r="501" ht="14.25" customHeight="1">
       <c r="A501" s="2"/>
       <c r="B501" s="4" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -13478,7 +13610,7 @@
     <row r="502" ht="14.25" customHeight="1">
       <c r="A502" s="2"/>
       <c r="B502" s="4" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -13497,7 +13629,7 @@
     <row r="503" ht="14.25" customHeight="1">
       <c r="A503" s="2"/>
       <c r="B503" s="4" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -13516,7 +13648,7 @@
     <row r="504" ht="14.25" customHeight="1">
       <c r="A504" s="2"/>
       <c r="B504" s="4" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -13535,7 +13667,7 @@
     <row r="505" ht="14.25" customHeight="1">
       <c r="A505" s="2"/>
       <c r="B505" s="4" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -13554,7 +13686,7 @@
     <row r="506" ht="14.25" customHeight="1">
       <c r="A506" s="2"/>
       <c r="B506" s="4" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -13573,7 +13705,7 @@
     <row r="507" ht="14.25" customHeight="1">
       <c r="A507" s="2"/>
       <c r="B507" s="4" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -13592,7 +13724,7 @@
     <row r="508" ht="14.25" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" s="4" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -13611,7 +13743,7 @@
     <row r="509" ht="14.25" customHeight="1">
       <c r="A509" s="2"/>
       <c r="B509" s="4" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -13630,7 +13762,7 @@
     <row r="510" ht="14.25" customHeight="1">
       <c r="A510" s="2"/>
       <c r="B510" s="4" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -13649,7 +13781,7 @@
     <row r="511" ht="14.25" customHeight="1">
       <c r="A511" s="2"/>
       <c r="B511" s="4" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -13668,7 +13800,7 @@
     <row r="512" ht="14.25" customHeight="1">
       <c r="A512" s="2"/>
       <c r="B512" s="4" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -13687,7 +13819,7 @@
     <row r="513" ht="14.25" customHeight="1">
       <c r="A513" s="2"/>
       <c r="B513" s="4" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -13706,7 +13838,7 @@
     <row r="514" ht="14.25" customHeight="1">
       <c r="A514" s="2"/>
       <c r="B514" s="4" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -13725,7 +13857,7 @@
     <row r="515" ht="14.25" customHeight="1">
       <c r="A515" s="2"/>
       <c r="B515" s="4" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -13744,7 +13876,7 @@
     <row r="516" ht="14.25" customHeight="1">
       <c r="A516" s="2"/>
       <c r="B516" s="4" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -13763,7 +13895,7 @@
     <row r="517" ht="14.25" customHeight="1">
       <c r="A517" s="2"/>
       <c r="B517" s="4" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -13782,7 +13914,7 @@
     <row r="518" ht="14.25" customHeight="1">
       <c r="A518" s="2"/>
       <c r="B518" s="4" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -13801,7 +13933,7 @@
     <row r="519" ht="14.25" customHeight="1">
       <c r="A519" s="2"/>
       <c r="B519" s="4" t="s">
-        <v>814</v>
+        <v>838</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -13820,7 +13952,7 @@
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="2"/>
       <c r="B520" s="4" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -13839,7 +13971,7 @@
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="2"/>
       <c r="B521" s="4" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -13858,7 +13990,7 @@
     <row r="522" ht="14.25" customHeight="1">
       <c r="A522" s="2"/>
       <c r="B522" s="4" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -13877,7 +14009,7 @@
     <row r="523" ht="14.25" customHeight="1">
       <c r="A523" s="2"/>
       <c r="B523" s="4" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -13896,7 +14028,7 @@
     <row r="524" ht="14.25" customHeight="1">
       <c r="A524" s="2"/>
       <c r="B524" s="4" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -13915,7 +14047,7 @@
     <row r="525" ht="14.25" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="4" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -13934,7 +14066,7 @@
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="4" t="s">
-        <v>821</v>
+        <v>845</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -13953,7 +14085,7 @@
     <row r="527" ht="14.25" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="4" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -13972,7 +14104,7 @@
     <row r="528" ht="14.25" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="4" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -13991,7 +14123,7 @@
     <row r="529" ht="14.25" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="4" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -14010,7 +14142,7 @@
     <row r="530" ht="14.25" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="1" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -14029,7 +14161,7 @@
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="4" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -14048,7 +14180,7 @@
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="4" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -14067,7 +14199,7 @@
     <row r="533" ht="14.25" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="4" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -14086,7 +14218,7 @@
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="4" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -14105,7 +14237,7 @@
     <row r="535" ht="14.25" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="4" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -14124,7 +14256,7 @@
     <row r="536" ht="14.25" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="4" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -14143,7 +14275,7 @@
     <row r="537" ht="14.25" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="4" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -14162,7 +14294,7 @@
     <row r="538" ht="14.25" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="1" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -14181,7 +14313,7 @@
     <row r="539" ht="14.25" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="1" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -14200,7 +14332,7 @@
     <row r="540" ht="14.25" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="1" t="s">
-        <v>835</v>
+        <v>859</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -14219,7 +14351,7 @@
     <row r="541" ht="14.25" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="1" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -14238,7 +14370,7 @@
     <row r="542" ht="14.25" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="1" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -14257,7 +14389,7 @@
     <row r="543" ht="14.25" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="1" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -14276,7 +14408,7 @@
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="1" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -14295,7 +14427,7 @@
     <row r="545" ht="14.25" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="1" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -14314,7 +14446,7 @@
     <row r="546" ht="14.25" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="1" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -14333,7 +14465,7 @@
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="1" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -14352,7 +14484,7 @@
     <row r="548" ht="14.25" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="1" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -14371,7 +14503,7 @@
     <row r="549" ht="14.25" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="1" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -14390,7 +14522,7 @@
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="1" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -14409,7 +14541,7 @@
     <row r="551" ht="14.25" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="1" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -14428,7 +14560,7 @@
     <row r="552" ht="14.25" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="1" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -14447,7 +14579,7 @@
     <row r="553" ht="14.25" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="1" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -14466,7 +14598,7 @@
     <row r="554" ht="14.25" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="1" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -14485,7 +14617,7 @@
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="1" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -14504,7 +14636,7 @@
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="1" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -14523,7 +14655,7 @@
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="1" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -14542,7 +14674,7 @@
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="1" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -14561,7 +14693,7 @@
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="1" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -14580,7 +14712,7 @@
     <row r="560" ht="14.25" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="1" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -14599,7 +14731,7 @@
     <row r="561" ht="14.25" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="1" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -14618,7 +14750,7 @@
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="1" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -14637,7 +14769,7 @@
     <row r="563" ht="14.25" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="1" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -14656,7 +14788,7 @@
     <row r="564" ht="14.25" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="1" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -14675,7 +14807,7 @@
     <row r="565" ht="14.25" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="1" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -14694,7 +14826,7 @@
     <row r="566" ht="14.25" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="1" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -14713,7 +14845,7 @@
     <row r="567" ht="14.25" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="1" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -14732,7 +14864,7 @@
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="1" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -14751,7 +14883,7 @@
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="1" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -14770,7 +14902,7 @@
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="1" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -14789,7 +14921,7 @@
     <row r="571" ht="14.25" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="1" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -14808,7 +14940,7 @@
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="1" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -14827,7 +14959,7 @@
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="1" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -14846,7 +14978,7 @@
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="1" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -14865,7 +14997,7 @@
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="1" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -14884,7 +15016,7 @@
     <row r="576" ht="14.25" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="1" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -14903,7 +15035,7 @@
     <row r="577" ht="14.25" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="1" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -14922,7 +15054,7 @@
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="1" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -14941,7 +15073,7 @@
     <row r="579" ht="14.25" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="1" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -14960,7 +15092,7 @@
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="1" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -14979,7 +15111,7 @@
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="1" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -14998,7 +15130,7 @@
     <row r="582" ht="14.25" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="1" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -15017,7 +15149,7 @@
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="1" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -15036,7 +15168,7 @@
     <row r="584" ht="14.25" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="1" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -15055,7 +15187,7 @@
     <row r="585" ht="14.25" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="1" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -15074,7 +15206,7 @@
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="1" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -15093,7 +15225,7 @@
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="1" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -15112,7 +15244,7 @@
     <row r="588" ht="14.25" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="1" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -15131,7 +15263,7 @@
     <row r="589" ht="14.25" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="1" t="s">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -15150,7 +15282,7 @@
     <row r="590" ht="14.25" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="1" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -15169,7 +15301,7 @@
     <row r="591" ht="14.25" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="1" t="s">
-        <v>886</v>
+        <v>910</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -15188,7 +15320,7 @@
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="1" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -15207,7 +15339,7 @@
     <row r="593" ht="14.25" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="1" t="s">
-        <v>888</v>
+        <v>912</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -15226,7 +15358,7 @@
     <row r="594" ht="14.25" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="1" t="s">
-        <v>889</v>
+        <v>913</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -15245,7 +15377,7 @@
     <row r="595" ht="14.25" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="1" t="s">
-        <v>890</v>
+        <v>914</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -15264,7 +15396,7 @@
     <row r="596" ht="14.25" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="1" t="s">
-        <v>891</v>
+        <v>915</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -15283,7 +15415,7 @@
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="1" t="s">
-        <v>892</v>
+        <v>916</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -15302,7 +15434,7 @@
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="1" t="s">
-        <v>893</v>
+        <v>917</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -15321,7 +15453,7 @@
     <row r="599" ht="14.25" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="1" t="s">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -15340,7 +15472,7 @@
     <row r="600" ht="14.25" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="1" t="s">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -15359,7 +15491,7 @@
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="1" t="s">
-        <v>896</v>
+        <v>920</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -15378,7 +15510,7 @@
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="1" t="s">
-        <v>897</v>
+        <v>921</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -15397,7 +15529,7 @@
     <row r="603" ht="14.25" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="1" t="s">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -15416,7 +15548,7 @@
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="1" t="s">
-        <v>899</v>
+        <v>923</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -15435,7 +15567,7 @@
     <row r="605" ht="14.25" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="1" t="s">
-        <v>900</v>
+        <v>924</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -15454,7 +15586,7 @@
     <row r="606" ht="14.25" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="1" t="s">
-        <v>901</v>
+        <v>925</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -15473,7 +15605,7 @@
     <row r="607" ht="14.25" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="1" t="s">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -15492,7 +15624,7 @@
     <row r="608" ht="14.25" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="1" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -15511,7 +15643,7 @@
     <row r="609" ht="14.25" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="1" t="s">
-        <v>904</v>
+        <v>928</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -15530,7 +15662,7 @@
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="1" t="s">
-        <v>905</v>
+        <v>929</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -15549,7 +15681,7 @@
     <row r="611" ht="14.25" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="1" t="s">
-        <v>906</v>
+        <v>930</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -15568,7 +15700,7 @@
     <row r="612" ht="14.25" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="1" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -15587,7 +15719,7 @@
     <row r="613" ht="14.25" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="1" t="s">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -15606,7 +15738,7 @@
     <row r="614" ht="14.25" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="1" t="s">
-        <v>909</v>
+        <v>933</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -15625,7 +15757,7 @@
     <row r="615" ht="14.25" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="1" t="s">
-        <v>910</v>
+        <v>934</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -15644,7 +15776,7 @@
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="1" t="s">
-        <v>911</v>
+        <v>935</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -15663,7 +15795,7 @@
     <row r="617" ht="14.25" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="1" t="s">
-        <v>912</v>
+        <v>936</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -15682,7 +15814,7 @@
     <row r="618" ht="14.25" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="1" t="s">
-        <v>913</v>
+        <v>937</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -15701,7 +15833,7 @@
     <row r="619" ht="14.25" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="1" t="s">
-        <v>914</v>
+        <v>938</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -15720,7 +15852,7 @@
     <row r="620" ht="14.25" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="1" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -15739,7 +15871,7 @@
     <row r="621" ht="14.25" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="1" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -15758,7 +15890,7 @@
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="1" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -15777,7 +15909,7 @@
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="1" t="s">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -15796,7 +15928,7 @@
     <row r="624" ht="14.25" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="1" t="s">
-        <v>919</v>
+        <v>943</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -15815,7 +15947,7 @@
     <row r="625" ht="14.25" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="1" t="s">
-        <v>920</v>
+        <v>944</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -15834,7 +15966,7 @@
     <row r="626" ht="14.25" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="1" t="s">
-        <v>921</v>
+        <v>945</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -15853,7 +15985,7 @@
     <row r="627" ht="14.25" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="1" t="s">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -15872,7 +16004,7 @@
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="1" t="s">
-        <v>923</v>
+        <v>947</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -15891,7 +16023,7 @@
     <row r="629" ht="14.25" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="1" t="s">
-        <v>924</v>
+        <v>948</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -15910,7 +16042,7 @@
     <row r="630" ht="14.25" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="1" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -15929,7 +16061,7 @@
     <row r="631" ht="14.25" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="1" t="s">
-        <v>926</v>
+        <v>950</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -15948,7 +16080,7 @@
     <row r="632" ht="14.25" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="1" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -15967,7 +16099,7 @@
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -15986,7 +16118,7 @@
     <row r="634" ht="14.25" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="1" t="s">
-        <v>929</v>
+        <v>953</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -16005,7 +16137,7 @@
     <row r="635" ht="14.25" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="1" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -16024,7 +16156,7 @@
     <row r="636" ht="14.25" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="1" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -16043,7 +16175,7 @@
     <row r="637" ht="14.25" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="1" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -16062,7 +16194,7 @@
     <row r="638" ht="14.25" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="1" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -16081,7 +16213,7 @@
     <row r="639" ht="14.25" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="1" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -16100,7 +16232,7 @@
     <row r="640" ht="14.25" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="1" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -16119,7 +16251,7 @@
     <row r="641" ht="14.25" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="1" t="s">
-        <v>936</v>
+        <v>960</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -16138,7 +16270,7 @@
     <row r="642" ht="14.25" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="1" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -16157,7 +16289,7 @@
     <row r="643" ht="14.25" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="1" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -16176,7 +16308,7 @@
     <row r="644" ht="14.25" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="1" t="s">
-        <v>939</v>
+        <v>963</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -16195,7 +16327,7 @@
     <row r="645" ht="14.25" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="1" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -16214,7 +16346,7 @@
     <row r="646" ht="14.25" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="1" t="s">
-        <v>941</v>
+        <v>965</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -16233,7 +16365,7 @@
     <row r="647" ht="14.25" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="1" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -16252,7 +16384,7 @@
     <row r="648" ht="14.25" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="1" t="s">
-        <v>943</v>
+        <v>967</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -16271,7 +16403,7 @@
     <row r="649" ht="14.25" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="1" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -16290,7 +16422,7 @@
     <row r="650" ht="14.25" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="1" t="s">
-        <v>945</v>
+        <v>969</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -16309,7 +16441,7 @@
     <row r="651" ht="14.25" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="1" t="s">
-        <v>946</v>
+        <v>970</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -16328,7 +16460,7 @@
     <row r="652" ht="14.25" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="1" t="s">
-        <v>947</v>
+        <v>971</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -16347,7 +16479,7 @@
     <row r="653" ht="14.25" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="1" t="s">
-        <v>948</v>
+        <v>972</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -16366,7 +16498,7 @@
     <row r="654" ht="14.25" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="1" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -16385,7 +16517,7 @@
     <row r="655" ht="14.25" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="1" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -16404,7 +16536,7 @@
     <row r="656" ht="14.25" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="1" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -16423,7 +16555,7 @@
     <row r="657" ht="14.25" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="1" t="s">
-        <v>952</v>
+        <v>976</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -16442,7 +16574,7 @@
     <row r="658" ht="14.25" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="1" t="s">
-        <v>953</v>
+        <v>977</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -16461,7 +16593,7 @@
     <row r="659" ht="14.25" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="4" t="s">
-        <v>954</v>
+        <v>978</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -16480,7 +16612,7 @@
     <row r="660" ht="14.25" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="4" t="s">
-        <v>955</v>
+        <v>979</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -16499,7 +16631,7 @@
     <row r="661" ht="14.25" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="4" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -16518,7 +16650,7 @@
     <row r="662" ht="14.25" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="4" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -16537,7 +16669,7 @@
     <row r="663" ht="14.25" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="4" t="s">
-        <v>958</v>
+        <v>982</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -16556,7 +16688,7 @@
     <row r="664" ht="14.25" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="4" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -16575,7 +16707,7 @@
     <row r="665" ht="14.25" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="4" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -16594,7 +16726,7 @@
     <row r="666" ht="14.25" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="4" t="s">
-        <v>961</v>
+        <v>985</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -16613,7 +16745,7 @@
     <row r="667" ht="14.25" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="4" t="s">
-        <v>962</v>
+        <v>986</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -16632,7 +16764,7 @@
     <row r="668" ht="14.25" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="4" t="s">
-        <v>963</v>
+        <v>987</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -16651,7 +16783,7 @@
     <row r="669" ht="14.25" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="4" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -16670,7 +16802,7 @@
     <row r="670" ht="14.25" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="4" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -16689,7 +16821,7 @@
     <row r="671" ht="14.25" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="4" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -16708,7 +16840,7 @@
     <row r="672" ht="14.25" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="4" t="s">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -16727,7 +16859,7 @@
     <row r="673" ht="14.25" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="4" t="s">
-        <v>968</v>
+        <v>992</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -16746,7 +16878,7 @@
     <row r="674" ht="14.25" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="4" t="s">
-        <v>969</v>
+        <v>993</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -16765,7 +16897,7 @@
     <row r="675" ht="14.25" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="4" t="s">
-        <v>970</v>
+        <v>994</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -16784,7 +16916,7 @@
     <row r="676" ht="14.25" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="1" t="s">
-        <v>971</v>
+        <v>995</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -16803,7 +16935,7 @@
     <row r="677" ht="14.25" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="1" t="s">
-        <v>972</v>
+        <v>996</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -16822,7 +16954,7 @@
     <row r="678" ht="14.25" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="1" t="s">
-        <v>973</v>
+        <v>997</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -16841,7 +16973,7 @@
     <row r="679" ht="14.25" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="1" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -16860,7 +16992,7 @@
     <row r="680" ht="14.25" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="1" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -16879,7 +17011,7 @@
     <row r="681" ht="14.25" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="1" t="s">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -16898,7 +17030,7 @@
     <row r="682" ht="14.25" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="1" t="s">
-        <v>977</v>
+        <v>1001</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -16917,7 +17049,7 @@
     <row r="683" ht="14.25" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="1" t="s">
-        <v>978</v>
+        <v>1002</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -16936,7 +17068,7 @@
     <row r="684" ht="14.25" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="4" t="s">
-        <v>979</v>
+        <v>1003</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -16955,7 +17087,7 @@
     <row r="685" ht="14.25" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="4" t="s">
-        <v>980</v>
+        <v>1004</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -16974,7 +17106,7 @@
     <row r="686" ht="14.25" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="4" t="s">
-        <v>981</v>
+        <v>1005</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -16993,7 +17125,7 @@
     <row r="687" ht="14.25" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="4" t="s">
-        <v>982</v>
+        <v>1006</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -17010,11 +17142,8 @@
       <c r="O687" s="2"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="A688" s="4" t="s">
-        <v>983</v>
-      </c>
       <c r="B688" s="4" t="s">
-        <v>984</v>
+        <v>1007</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -17033,7 +17162,7 @@
     <row r="689" ht="14.25" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="4" t="s">
-        <v>985</v>
+        <v>1008</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -17052,7 +17181,7 @@
     <row r="690" ht="14.25" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="4" t="s">
-        <v>986</v>
+        <v>1009</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -17071,7 +17200,7 @@
     <row r="691" ht="14.25" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="4" t="s">
-        <v>987</v>
+        <v>1010</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -17090,7 +17219,7 @@
     <row r="692" ht="14.25" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="4" t="s">
-        <v>988</v>
+        <v>1011</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -17109,7 +17238,7 @@
     <row r="693" ht="14.25" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="4" t="s">
-        <v>989</v>
+        <v>1012</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -17128,7 +17257,7 @@
     <row r="694" ht="14.25" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="4" t="s">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -17147,7 +17276,7 @@
     <row r="695" ht="14.25" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="4" t="s">
-        <v>991</v>
+        <v>1014</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -17166,7 +17295,7 @@
     <row r="696" ht="14.25" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="4" t="s">
-        <v>992</v>
+        <v>1015</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -17185,7 +17314,7 @@
     <row r="697" ht="14.25" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="4" t="s">
-        <v>993</v>
+        <v>1016</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -17204,7 +17333,7 @@
     <row r="698" ht="14.25" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="4" t="s">
-        <v>994</v>
+        <v>1017</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -17223,7 +17352,7 @@
     <row r="699" ht="14.25" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="4" t="s">
-        <v>995</v>
+        <v>1018</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -17242,7 +17371,7 @@
     <row r="700" ht="14.25" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="4" t="s">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -17261,7 +17390,7 @@
     <row r="701" ht="14.25" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="4" t="s">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -17280,7 +17409,7 @@
     <row r="702" ht="14.25" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="4" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -17299,7 +17428,7 @@
     <row r="703" ht="14.25" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="4" t="s">
-        <v>999</v>
+        <v>1022</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -17318,7 +17447,7 @@
     <row r="704" ht="14.25" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="4" t="s">
-        <v>1000</v>
+        <v>1023</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -17337,7 +17466,7 @@
     <row r="705" ht="14.25" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="4" t="s">
-        <v>1001</v>
+        <v>1024</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -17356,7 +17485,7 @@
     <row r="706" ht="14.25" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="4" t="s">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -17394,7 +17523,7 @@
     <row r="708" ht="14.25" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="4" t="s">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -17413,7 +17542,7 @@
     <row r="709" ht="14.25" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="4" t="s">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -17432,7 +17561,7 @@
     <row r="710" ht="14.25" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="4" t="s">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -17451,7 +17580,7 @@
     <row r="711" ht="14.25" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="4" t="s">
-        <v>1006</v>
+        <v>1029</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -17470,7 +17599,7 @@
     <row r="712" ht="14.25" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="4" t="s">
-        <v>1007</v>
+        <v>1030</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -17489,7 +17618,7 @@
     <row r="713" ht="14.25" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="4" t="s">
-        <v>1008</v>
+        <v>1031</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -17508,7 +17637,7 @@
     <row r="714" ht="14.25" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="4" t="s">
-        <v>1009</v>
+        <v>1032</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -17527,7 +17656,7 @@
     <row r="715" ht="14.25" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="4" t="s">
-        <v>1010</v>
+        <v>1033</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -17544,11 +17673,8 @@
       <c r="O715" s="2"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="A716" s="4" t="s">
-        <v>1011</v>
-      </c>
       <c r="B716" s="4" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -17567,7 +17693,7 @@
     <row r="717" ht="14.25" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="4" t="s">
-        <v>1013</v>
+        <v>1035</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -17586,7 +17712,7 @@
     <row r="718" ht="14.25" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="4" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -17605,7 +17731,7 @@
     <row r="719" ht="14.25" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="4" t="s">
-        <v>1015</v>
+        <v>1037</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -17624,7 +17750,7 @@
     <row r="720" ht="14.25" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="4" t="s">
-        <v>1016</v>
+        <v>1038</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -17643,7 +17769,7 @@
     <row r="721" ht="14.25" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="4" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -17662,7 +17788,7 @@
     <row r="722" ht="14.25" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="4" t="s">
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -17681,7 +17807,7 @@
     <row r="723" ht="14.25" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="4" t="s">
-        <v>1019</v>
+        <v>1041</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -17700,7 +17826,7 @@
     <row r="724" ht="14.25" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="4" t="s">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -17719,7 +17845,7 @@
     <row r="725" ht="14.25" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="4" t="s">
-        <v>1021</v>
+        <v>1043</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -17738,7 +17864,7 @@
     <row r="726" ht="14.25" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="4" t="s">
-        <v>1022</v>
+        <v>1044</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -17757,7 +17883,7 @@
     <row r="727" ht="14.25" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="4" t="s">
-        <v>1023</v>
+        <v>1045</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -17776,7 +17902,7 @@
     <row r="728" ht="14.25" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="4" t="s">
-        <v>1024</v>
+        <v>1046</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -17795,7 +17921,7 @@
     <row r="729" ht="14.25" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="4" t="s">
-        <v>1025</v>
+        <v>1047</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -17814,7 +17940,7 @@
     <row r="730" ht="14.25" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="4" t="s">
-        <v>1026</v>
+        <v>1048</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -17833,7 +17959,7 @@
     <row r="731" ht="14.25" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="4" t="s">
-        <v>1027</v>
+        <v>1049</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -17852,7 +17978,7 @@
     <row r="732" ht="14.25" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="4" t="s">
-        <v>1028</v>
+        <v>1050</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -17871,7 +17997,7 @@
     <row r="733" ht="14.25" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="4" t="s">
-        <v>1029</v>
+        <v>1051</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -17890,7 +18016,7 @@
     <row r="734" ht="14.25" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="4" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -17909,7 +18035,7 @@
     <row r="735" ht="14.25" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="4" t="s">
-        <v>1031</v>
+        <v>1053</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -17928,7 +18054,7 @@
     <row r="736" ht="14.25" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="4" t="s">
-        <v>1032</v>
+        <v>1054</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -17947,7 +18073,7 @@
     <row r="737" ht="14.25" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="4" t="s">
-        <v>1033</v>
+        <v>1055</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -17966,7 +18092,7 @@
     <row r="738" ht="14.25" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="4" t="s">
-        <v>1034</v>
+        <v>1056</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -17985,7 +18111,7 @@
     <row r="739" ht="14.25" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="4" t="s">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -18004,7 +18130,7 @@
     <row r="740" ht="14.25" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="4" t="s">
-        <v>1036</v>
+        <v>1058</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -18023,7 +18149,7 @@
     <row r="741" ht="14.25" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="4" t="s">
-        <v>1037</v>
+        <v>1059</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -18042,7 +18168,7 @@
     <row r="742" ht="14.25" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="4" t="s">
-        <v>1038</v>
+        <v>1060</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -18061,7 +18187,7 @@
     <row r="743" ht="14.25" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="4" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -18080,7 +18206,7 @@
     <row r="744" ht="14.25" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="4" t="s">
-        <v>1040</v>
+        <v>1062</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -18099,7 +18225,7 @@
     <row r="745" ht="14.25" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="4" t="s">
-        <v>1041</v>
+        <v>1063</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -18118,7 +18244,7 @@
     <row r="746" ht="14.25" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="4" t="s">
-        <v>1042</v>
+        <v>1064</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -18135,9 +18261,8 @@
       <c r="O746" s="2"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="A747" s="2"/>
       <c r="B747" s="4" t="s">
-        <v>1043</v>
+        <v>1065</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -18154,11 +18279,8 @@
       <c r="O747" s="2"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="A748" s="4" t="s">
-        <v>1044</v>
-      </c>
       <c r="B748" s="4" t="s">
-        <v>1045</v>
+        <v>1066</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -18175,11 +18297,8 @@
       <c r="O748" s="2"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="A749" s="4" t="s">
-        <v>1046</v>
-      </c>
       <c r="B749" s="4" t="s">
-        <v>1047</v>
+        <v>1067</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -18196,11 +18315,8 @@
       <c r="O749" s="2"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="A750" s="4" t="s">
-        <v>1048</v>
-      </c>
       <c r="B750" s="4" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -18217,11 +18333,8 @@
       <c r="O750" s="2"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="A751" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="B751" s="4" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -18238,11 +18351,8 @@
       <c r="O751" s="2"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="A752" s="4" t="s">
-        <v>1052</v>
-      </c>
       <c r="B752" s="4" t="s">
-        <v>1053</v>
+        <v>1070</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -18259,11 +18369,8 @@
       <c r="O752" s="2"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="A753" s="4" t="s">
-        <v>1054</v>
-      </c>
       <c r="B753" s="4" t="s">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -18280,11 +18387,8 @@
       <c r="O753" s="2"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="A754" s="4" t="s">
-        <v>1056</v>
-      </c>
       <c r="B754" s="4" t="s">
-        <v>1057</v>
+        <v>1072</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -18303,7 +18407,7 @@
     <row r="755" ht="14.25" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="4" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -18322,7 +18426,7 @@
     <row r="756" ht="14.25" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="4" t="s">
-        <v>1059</v>
+        <v>1074</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -18341,7 +18445,7 @@
     <row r="757" ht="14.25" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="4" t="s">
-        <v>1060</v>
+        <v>1075</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -18360,7 +18464,7 @@
     <row r="758" ht="14.25" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="4" t="s">
-        <v>1061</v>
+        <v>1076</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -18379,7 +18483,7 @@
     <row r="759" ht="14.25" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="4" t="s">
-        <v>1062</v>
+        <v>1077</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -18398,7 +18502,7 @@
     <row r="760" ht="14.25" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="4" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -18417,7 +18521,7 @@
     <row r="761" ht="14.25" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="4" t="s">
-        <v>1064</v>
+        <v>1079</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -18436,7 +18540,7 @@
     <row r="762" ht="14.25" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="4" t="s">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -18455,7 +18559,7 @@
     <row r="763" ht="14.25" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="4" t="s">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -18474,7 +18578,7 @@
     <row r="764" ht="14.25" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="4" t="s">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -18493,7 +18597,7 @@
     <row r="765" ht="14.25" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="4" t="s">
-        <v>1068</v>
+        <v>1083</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -18512,7 +18616,7 @@
     <row r="766" ht="14.25" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="4" t="s">
-        <v>1069</v>
+        <v>1084</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -18531,7 +18635,7 @@
     <row r="767" ht="14.25" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="4" t="s">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -18550,7 +18654,7 @@
     <row r="768" ht="14.25" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="4" t="s">
-        <v>1071</v>
+        <v>1086</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -18569,7 +18673,7 @@
     <row r="769" ht="14.25" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="4" t="s">
-        <v>1072</v>
+        <v>1087</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -18588,7 +18692,7 @@
     <row r="770" ht="14.25" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="4" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -18607,7 +18711,7 @@
     <row r="771" ht="14.25" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="4" t="s">
-        <v>1074</v>
+        <v>1089</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -18626,7 +18730,7 @@
     <row r="772" ht="14.25" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="4" t="s">
-        <v>1075</v>
+        <v>1090</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -18645,7 +18749,7 @@
     <row r="773" ht="14.25" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="4" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -18663,7 +18767,9 @@
     </row>
     <row r="774" ht="14.25" customHeight="1">
       <c r="A774" s="2"/>
-      <c r="B774" s="2"/>
+      <c r="B774" s="4" t="s">
+        <v>1092</v>
+      </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
@@ -18680,7 +18786,9 @@
     </row>
     <row r="775" ht="14.25" customHeight="1">
       <c r="A775" s="2"/>
-      <c r="B775" s="2"/>
+      <c r="B775" s="4" t="s">
+        <v>1093</v>
+      </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
@@ -18697,7 +18805,9 @@
     </row>
     <row r="776" ht="14.25" customHeight="1">
       <c r="A776" s="2"/>
-      <c r="B776" s="2"/>
+      <c r="B776" s="4" t="s">
+        <v>1094</v>
+      </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
@@ -18714,7 +18824,9 @@
     </row>
     <row r="777" ht="14.25" customHeight="1">
       <c r="A777" s="2"/>
-      <c r="B777" s="2"/>
+      <c r="B777" s="4" t="s">
+        <v>1095</v>
+      </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
@@ -18731,7 +18843,9 @@
     </row>
     <row r="778" ht="14.25" customHeight="1">
       <c r="A778" s="2"/>
-      <c r="B778" s="2"/>
+      <c r="B778" s="4" t="s">
+        <v>1096</v>
+      </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
@@ -18748,7 +18862,9 @@
     </row>
     <row r="779" ht="14.25" customHeight="1">
       <c r="A779" s="2"/>
-      <c r="B779" s="2"/>
+      <c r="B779" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
@@ -18765,7 +18881,9 @@
     </row>
     <row r="780" ht="14.25" customHeight="1">
       <c r="A780" s="2"/>
-      <c r="B780" s="2"/>
+      <c r="B780" s="4" t="s">
+        <v>1098</v>
+      </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
@@ -18782,7 +18900,9 @@
     </row>
     <row r="781" ht="14.25" customHeight="1">
       <c r="A781" s="2"/>
-      <c r="B781" s="2"/>
+      <c r="B781" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
@@ -18799,7 +18919,9 @@
     </row>
     <row r="782" ht="14.25" customHeight="1">
       <c r="A782" s="2"/>
-      <c r="B782" s="2"/>
+      <c r="B782" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
       <c r="E782" s="2"/>
@@ -18816,7 +18938,9 @@
     </row>
     <row r="783" ht="14.25" customHeight="1">
       <c r="A783" s="2"/>
-      <c r="B783" s="2"/>
+      <c r="B783" s="4" t="s">
+        <v>1101</v>
+      </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
       <c r="E783" s="2"/>
@@ -18833,7 +18957,9 @@
     </row>
     <row r="784" ht="14.25" customHeight="1">
       <c r="A784" s="2"/>
-      <c r="B784" s="2"/>
+      <c r="B784" s="4" t="s">
+        <v>1102</v>
+      </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
@@ -18850,7 +18976,9 @@
     </row>
     <row r="785" ht="14.25" customHeight="1">
       <c r="A785" s="2"/>
-      <c r="B785" s="2"/>
+      <c r="B785" s="4" t="s">
+        <v>1103</v>
+      </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
@@ -18867,7 +18995,9 @@
     </row>
     <row r="786" ht="14.25" customHeight="1">
       <c r="A786" s="2"/>
-      <c r="B786" s="2"/>
+      <c r="B786" s="4" t="s">
+        <v>1104</v>
+      </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
@@ -18884,7 +19014,9 @@
     </row>
     <row r="787" ht="14.25" customHeight="1">
       <c r="A787" s="2"/>
-      <c r="B787" s="2"/>
+      <c r="B787" s="4" t="s">
+        <v>1105</v>
+      </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>

--- a/app/src/main/res/raw/cards.xlsx
+++ b/app/src/main/res/raw/cards.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1168">
   <si>
     <t>Black Cards</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Την ήπια ολη</t>
   </si>
   <si>
-    <t>Πολύ μου αρέσει να ______ και να _______ κάτω απ' τη βροχή</t>
+    <t>Πολύ μου αρέσει ______ και _______ κάτω απ' τη βροχή</t>
   </si>
   <si>
     <t>Κούρεμα απ' τον Σετάκη</t>
@@ -143,7 +143,7 @@
     <t>Ξεσκίζοντας το κουμπί του Νίκου</t>
   </si>
   <si>
-    <t>Ευτυχώς που θυμήθηκα να ___________</t>
+    <t>Ευτυχώς που θυμήθηκα ___________</t>
   </si>
   <si>
     <t>Το γερούνδιο</t>
@@ -257,7 +257,7 @@
     <t>Κάποτε στις Κρέσνας</t>
   </si>
   <si>
-    <t>Ο Γρηγόρης πηγαίνει γυμναστήριο για να _______</t>
+    <t>Ο Γρηγόρης πηγαίνει γυμναστήριο γιατί _______</t>
   </si>
   <si>
     <t>Κι ακόμη αλλάζει τα στέφανα</t>
@@ -335,7 +335,7 @@
     <t>Η κοτσίδα του Αλκίνοου</t>
   </si>
   <si>
-    <t>Δεν έιναι ένα το ψέμα, 2 η __________</t>
+    <t>Δεν έιναι ένα το ψέμα, 2 __________</t>
   </si>
   <si>
     <t>Makedonikos FM</t>
@@ -353,7 +353,7 @@
     <t>Στο μετρό της Θεσσαλονίκης</t>
   </si>
   <si>
-    <t>Ανέβηκα στο 12ο και μου την έπεσε ένας _________</t>
+    <t>Ανέβηκα στοv 12ο και μου την έπεσε _________</t>
   </si>
   <si>
     <t>Στο Cube</t>
@@ -371,7 +371,7 @@
     <t>Παίρνω αγκαλιά</t>
   </si>
   <si>
-    <t>Πιστεύω εις έναν __________</t>
+    <t>Πιστεύω εις ένα __________</t>
   </si>
   <si>
     <t>Τσιαντάκης</t>
@@ -443,7 +443,7 @@
     <t>Τελείωσε η Λάμψη</t>
   </si>
   <si>
-    <t>πουτσα μια κ πουτσα δύο, της ζωής το__</t>
+    <t>πουτσα μια κ πουτσα δύο, της ζωής __</t>
   </si>
   <si>
     <t>Ευλογητός</t>
@@ -479,7 +479,7 @@
     <t>Δεν πληρώνω</t>
   </si>
   <si>
-    <t>σήμερα στο καρουζέλ, η κυρία σιμενα και ο __</t>
+    <t>σήμερα στο καρουζέλ, η κυρία σιμενα και ο/η/το __</t>
   </si>
   <si>
     <t>Το κλαρίνο του Πέτρου</t>
@@ -515,19 +515,25 @@
     <t>Καυλόσπυρο</t>
   </si>
   <si>
+    <t>Αυτόγραφο</t>
+  </si>
+  <si>
     <t>κόλλησα στην κίνηση προχθές. είχε __</t>
   </si>
   <si>
     <t>Ξανθιά περούκα</t>
   </si>
   <si>
+    <t>Η Μπερναντέτ να με κράζει</t>
+  </si>
+  <si>
     <t>το παιδί του κουασιμοδου είναι σαν __</t>
   </si>
   <si>
     <t>Motorboat</t>
   </si>
   <si>
-    <t>η αεροσυνοδός μ ζήτησε να __</t>
+    <t>η αεροσυνοδός μ ζήτησε __</t>
   </si>
   <si>
     <t>Ο Μπάμπης ο Σουγιάς</t>
@@ -563,7 +569,7 @@
     <t>Το τρίκαλο</t>
   </si>
   <si>
-    <t>για ποιον χτυπάει η καμπάνα</t>
+    <t>για ποιον χτυπάει ο/η/το _________;</t>
   </si>
   <si>
     <t>Μπακαρά</t>
@@ -593,7 +599,7 @@
     <t>2 μαύροι</t>
   </si>
   <si>
-    <t>αν είχα μια ευχή, θα ήθελα να __</t>
+    <t>αν είχα μια ευχή, θα ήθελα ______</t>
   </si>
   <si>
     <t>Batman</t>
@@ -623,7 +629,7 @@
     <t>Στέλλα Μπεζαντάκου</t>
   </si>
   <si>
-    <t>θέλω με έχεις κ γκόμενο κ __</t>
+    <t>θέλω με έχεις κ γκόμενο και __</t>
   </si>
   <si>
     <t>Βασίλισσα</t>
@@ -809,7 +815,7 @@
     <t>Να ναι καλά η Καιτούλα</t>
   </si>
   <si>
-    <t>Μαλακια εκανα. Επρεπε να ___</t>
+    <t>Μαλακια εκανα. Επρεπε ___</t>
   </si>
   <si>
     <t>Όταν ήμουν παπαδοπαίδι του Άνθιμου</t>
@@ -911,7 +917,7 @@
     <t>Τα πίνω όλα</t>
   </si>
   <si>
-    <t>Εφαγα αποβολη γιατι με πιασανε στις τουαλετες να ____</t>
+    <t>Εφαγα αποβολη γιατι με πιασανε στις τουαλετες ____</t>
   </si>
   <si>
     <t>Βότκα πορτοκάλι</t>
@@ -941,7 +947,7 @@
     <t>Κόρη</t>
   </si>
   <si>
-    <t>Κατεβα απο το Βουκεφαλα, θελει να _______</t>
+    <t>Κατεβα απο το Βουκεφαλα, θελει _______</t>
   </si>
   <si>
     <t>Ο Ζεββεδαίος</t>
@@ -953,13 +959,13 @@
     <t>Ενέργεια</t>
   </si>
   <si>
-    <t>Προχθες μου ηρθε ο ΕΝΦΙΑ, για τον πληρωσω πρεπει να ____</t>
+    <t>Προχθες μου ηρθε ο ΕΝΦΙΑ, για τον πληρωσω χρειαζομαι ____</t>
   </si>
   <si>
     <t>Google</t>
   </si>
   <si>
-    <t>Κανε ενα θαυμα τζινι, να ______</t>
+    <t>Κανε ενα θαυμα τζινι, ______</t>
   </si>
   <si>
     <t>Sick leave</t>
@@ -980,7 +986,7 @@
     <t>_____απο τα Lidl</t>
   </si>
   <si>
-    <t>Τα μπούνια</t>
+    <t>Με τα μπούνια</t>
   </si>
   <si>
     <t>Πηγα σε μαγισσες σε _____</t>
@@ -1292,7 +1298,7 @@
     <t>η δασκάλα με έβαλε να γραψω 100 φορές στον πίνακα ___</t>
   </si>
   <si>
-    <t>εκεί που κάναμε γυμναστική __</t>
+    <t>Κι εκεί που κάναμε γυμναστική __</t>
   </si>
   <si>
     <t>Μπουνίδια</t>
@@ -1541,7 +1547,7 @@
     <t>Δεν ξαναψηφιζω άλλο πολιτικό στην Ελλάδα, απ την επόμενη φορά__</t>
   </si>
   <si>
-    <t>η μιλφαρα κυρία σιμενα</t>
+    <t>η μιλφαρα κυρία Σιμενα</t>
   </si>
   <si>
     <t>Ήρθε το room service στις 3 το βράδυ και__</t>
@@ -1601,7 +1607,7 @@
     <t>__ μη το δοκιμάσεις αυτό στο σπίτι</t>
   </si>
   <si>
-    <t>πορεία για τις διεφυλικες Πεταλούδες</t>
+    <t>πορεία για τις διεμφυλικες Πεταλούδες</t>
   </si>
   <si>
     <t>Οι 12 __ του Ολύμπου</t>
@@ -1667,13 +1673,13 @@
     <t>Τι είναι χειρότερο από πυρηνική βόμβα;</t>
   </si>
   <si>
-    <t>Τζένη Καρέζη Κώστας κακαβας</t>
+    <t>Τζένη Καρέζη Κώστας Κακαβας</t>
   </si>
   <si>
     <t>Οι γενετιστες λένε πως __ σε συνδυασμό με σύνδρομο down δίνει Μινώταυρο</t>
   </si>
   <si>
-    <t>η κόρη μ η σοσιαλίστρια</t>
+    <t>η κόρη μου η σοσιαλίστρια</t>
   </si>
   <si>
     <t>Έχουμε γίνει ένα έθνος __</t>
@@ -1709,7 +1715,7 @@
     <t>Ας στο πω λιανα: __</t>
   </si>
   <si>
-    <t>ο τζιτζηρας, ο μιτζηρας κ ο Γιάννης ο Κότσιρας</t>
+    <t>ο τζιτζηρας, ο μιτζηρας κι ο Γιάννης ο Κότσιρας</t>
   </si>
   <si>
     <t>Αυτό δεν είναι πολιτική, αυτό είναι __</t>
@@ -1862,7 +1868,7 @@
     <t>Οσάμα μπιν Λάντεν</t>
   </si>
   <si>
-    <t>Μακρια απ τον κωλο μας κι οπου θελεις ______</t>
+    <t>Μακρια απ τον κωλο μας κι οπου θελει ______</t>
   </si>
   <si>
     <t>σκίουροι να τρώνε πίτσα</t>
@@ -1901,7 +1907,7 @@
     <t>Η δε γυνή να φοβήται _____</t>
   </si>
   <si>
-    <t>ο Ταμτάκος πάει στη Ζιμπάμπουε</t>
+    <t>ο Ταμτάκος στη Ζιμπάμπουε</t>
   </si>
   <si>
     <t>Χθες πέτυχα τον γείτονά μου ___</t>
@@ -1922,75 +1928,123 @@
     <t>τα πόδια της Σκλεναρίκοβα</t>
   </si>
   <si>
-    <t>Σήκωσε το, το γαμημενο, _____</t>
+    <t>Σήκωσε το, το γαμημενο, δεν μπορώ _____</t>
   </si>
   <si>
     <t>ο λεκές της Μόνικα</t>
   </si>
   <si>
-    <t>Βρήκα το βρακί του Κώστα κάτω από ____</t>
-  </si>
-  <si>
-    <t>Δάφνη μπογκοτα</t>
-  </si>
-  <si>
-    <t>Απίστευτο! Μου έκανε επιτέλους πρόταση γάμου με ______</t>
+    <t>Βρήκα το βρακί του Κώστα και ____</t>
+  </si>
+  <si>
+    <t>Δάφνη Μπογκοτα</t>
+  </si>
+  <si>
+    <t>Απίστευτο! Μου έκανε επιτέλους πρόταση γάμου ______</t>
   </si>
   <si>
     <t>παιχνίδια χωρίς σύνορα</t>
   </si>
   <si>
-    <t>Γαμας που δε γαμας, δεν πας για ______</t>
+    <t>Δε γαμας που δε γαμας, δεν πας για ______</t>
   </si>
   <si>
     <t>όσες κ οι ελιές του Σημίτη</t>
   </si>
   <si>
+    <t>Η Χριστίνα γκρινιάζει γιατί _____</t>
+  </si>
+  <si>
     <t>Διονύσης δαγκας</t>
   </si>
   <si>
+    <t>Η Χριστίνα ενθουσιάστηκε με το καινούριο _____ που αγόρασε.</t>
+  </si>
+  <si>
     <t>το αποχετευτικό σύστημα στο Βυζάντιο</t>
   </si>
   <si>
+    <t>Επεισόδιο στα Φιλαράκια: Ο Ρος και _____</t>
+  </si>
+  <si>
     <t>μου τελείωσε η κάρτα στην παναφον</t>
   </si>
   <si>
+    <t>Ρε πού πάμε ρε; ______</t>
+  </si>
+  <si>
     <t>το λάμε του φλωρινιωτη</t>
   </si>
   <si>
+    <t>Έκανα βουτιά και βρήκα στο βυθό _____</t>
+  </si>
+  <si>
     <t>τρύπα να ναι κ ότι να ναι</t>
   </si>
   <si>
-    <t>η αυτοβιογραφία του Κώστα μελλισανιδη</t>
+    <t>Δοκίμασα ________. Τώρα κατάλαβα τι θα πει ζωή.</t>
+  </si>
+  <si>
+    <t>η αυτοβιογραφία του Κώστα Μελλισανιδη</t>
+  </si>
+  <si>
+    <t>Ξεβράκωτος στα ________</t>
   </si>
   <si>
     <t>το μουσκουλο του Πύρρου</t>
   </si>
   <si>
+    <t>Ενα μήλο την ημέρα ________</t>
+  </si>
+  <si>
     <t>τα μουσκουλα της Θάνου</t>
   </si>
   <si>
+    <t>Κι εκεί που σκουπιζόμουν μετά το χέσιμο, τι να δω στο χαρτί; ________</t>
+  </si>
+  <si>
     <t>σσδομαζωνακης</t>
   </si>
   <si>
+    <t>Τι μυρίζει; ________</t>
+  </si>
+  <si>
     <t>ελαφρύς σαδομαζοχισμός</t>
   </si>
   <si>
+    <t>Το ζευγάρι της χρονίας: _______ + ________</t>
+  </si>
+  <si>
     <t>ο Κλέαρχος η μαρίνα κ ο κοντός</t>
   </si>
   <si>
+    <t>Οπώς θα έρχεσαι από _______ φέρε ________</t>
+  </si>
+  <si>
     <t>μπαίνει σε περίοδο αναπαραγωγής</t>
   </si>
   <si>
+    <t>Πήγα Μπακαρά και παρήγγειλα _______ με ________</t>
+  </si>
+  <si>
     <t>πονάει η μέση του Φούλη</t>
   </si>
   <si>
+    <t>Πίτσα με ζαμπόν, _______ και _______</t>
+  </si>
+  <si>
     <t>ο Φούλης κάνει breakdance</t>
   </si>
   <si>
+    <t>Αναποδογύρισε η τσάντα και έπεσε ________ , ________ και _________</t>
+  </si>
+  <si>
     <t>ο Φούλης τερμάτισε το τιντερ</t>
   </si>
   <si>
+    <t>Ο Σερ Τάκης απολύθηκε από _______ και πήγε ________</t>
+  </si>
+  <si>
     <t>το ύψος του Φούλη</t>
   </si>
   <si>
@@ -2066,7 +2120,7 @@
     <t>Κλαψιμαμουθ</t>
   </si>
   <si>
-    <t>Αλοιφψ βουτυρο</t>
+    <t>Αλοιφω βουτυρο</t>
   </si>
   <si>
     <t>Βαλε φαντασια</t>
@@ -2132,7 +2186,7 @@
     <t>Ο Καραπιαλης θα σκοραρει 3 φορες</t>
   </si>
   <si>
-    <t>Εχωπονοκερφαλο!</t>
+    <t>Εχω πορνοκέφαλο</t>
   </si>
   <si>
     <t>Το διαβασα στο Cosmopolitan</t>
@@ -2150,7 +2204,7 @@
     <t>Τσοπανης</t>
   </si>
   <si>
-    <t>Να σου πηδηξει ο Λακης τη γκομνεα</t>
+    <t>Να σου πηδηξει ο Λακης την αδερφή</t>
   </si>
   <si>
     <t>S.A.G.A.P.O.</t>
@@ -2336,7 +2390,7 @@
     <t>Του DPG μου η μαχαιρια</t>
   </si>
   <si>
-    <t>Μανκικι Μπορατ</t>
+    <t>Μανκινι Μπορατ</t>
   </si>
   <si>
     <t>Οικος τελετων Φανη Μπαμπουλα</t>
@@ -2417,7 +2471,7 @@
     <t>Ελια θρουμπα</t>
   </si>
   <si>
-    <t>Πουριτανος Ζαχαρωτος</t>
+    <t>Πουριτανος Ζαχαράτος</t>
   </si>
   <si>
     <t>Αιμα, δακρυα και ιδρωτας</t>
@@ -3330,6 +3384,138 @@
   </si>
   <si>
     <t>ο Ποπωτας σε ερωτικές περιπτύξεις με τον Διονύση Δαγκα</t>
+  </si>
+  <si>
+    <t>dividends</t>
+  </si>
+  <si>
+    <t>Πρωτοχρονιά στο σπίτι της στριπτιτζούς</t>
+  </si>
+  <si>
+    <t>Σολωμό με haribo</t>
+  </si>
+  <si>
+    <t>Ζαμπόν κασέρι</t>
+  </si>
+  <si>
+    <t>Έχει τζάμπα φαί</t>
+  </si>
+  <si>
+    <t>Η Ρωσίδα έχει καύλες</t>
+  </si>
+  <si>
+    <t>Τα γκομενάκια τον φωνάζουν, αυτός δε θέλει</t>
+  </si>
+  <si>
+    <t>Κάτω από τη φούστα της Αννούλας</t>
+  </si>
+  <si>
+    <t>Να φας ένα κουβά σκατά</t>
+  </si>
+  <si>
+    <t>Χύσια, από εκείνα που είχε στα μαλλιά της η Μαίρυ</t>
+  </si>
+  <si>
+    <t>Το ύγρο από το σπυράκι</t>
+  </si>
+  <si>
+    <t>Διπλομάτης με 3 μάτια</t>
+  </si>
+  <si>
+    <t>Φάσκελα</t>
+  </si>
+  <si>
+    <t>Μαζί τα φάγαμε</t>
+  </si>
+  <si>
+    <t>Χούφτωσ΄ την, χούφτωσ΄ την</t>
+  </si>
+  <si>
+    <t>Την κουτούπωσε</t>
+  </si>
+  <si>
+    <t>Εδώ μέσα γίνονται Σόδομμα και Γόμορρα</t>
+  </si>
+  <si>
+    <t>Σπανοβαγγελοδημήτρης Νικόλας του Νίκολα, κύριε Πρόεδρε</t>
+  </si>
+  <si>
+    <t>Από ένα νάνο</t>
+  </si>
+  <si>
+    <t>Την Παρθένα από το Εμείς κι Εμείς</t>
+  </si>
+  <si>
+    <t>Την παρθενιά του Γρηγόρη</t>
+  </si>
+  <si>
+    <t>Καλόγριες</t>
+  </si>
+  <si>
+    <t>Μπεναλτάδικα</t>
+  </si>
+  <si>
+    <t>Παράλυτους μυρμηγκοφάγους</t>
+  </si>
+  <si>
+    <t>Μπύρες, ούζα και μετά παρτούζα</t>
+  </si>
+  <si>
+    <t>Τό όνειρο κάθε άντρα που σέβεται τον εαυτό του</t>
+  </si>
+  <si>
+    <t>Brexit</t>
+  </si>
+  <si>
+    <t>Τα βυζιά της Μενεγάκης</t>
+  </si>
+  <si>
+    <t>Καλόγερος Ρασπούτιν</t>
+  </si>
+  <si>
+    <t>Πυξ Λαξ</t>
+  </si>
+  <si>
+    <t>Χιώτης Μάμπο</t>
+  </si>
+  <si>
+    <t>Γιατί έτσι ρε γαμιόλη</t>
+  </si>
+  <si>
+    <t>Δεν ήξερα πως είσαι κάτω των 18</t>
+  </si>
+  <si>
+    <t>Διάλεξε με! Διάλεξε με!</t>
+  </si>
+  <si>
+    <t>Ο πιγκολίνος που τα ξεκίνησε όλα</t>
+  </si>
+  <si>
+    <t>Κορονο (Υ)ιός</t>
+  </si>
+  <si>
+    <t>Ντα γκασπαζά</t>
+  </si>
+  <si>
+    <t>Δε βρίσκω φτηνό εισιτήριο</t>
+  </si>
+  <si>
+    <t>Εχει bug</t>
+  </si>
+  <si>
+    <t>Μας γαμησε ο Κωτσακλανιάς</t>
+  </si>
+  <si>
+    <t>Σπερμαντολίνη</t>
+  </si>
+  <si>
+    <t>Χύσια, πολλά χύσια</t>
+  </si>
+  <si>
+    <t>Το μοναδικό καλό αστείο του Στάθη</t>
+  </si>
+  <si>
+    <t>Η μικρή Αννούλα</t>
   </si>
 </sst>
 </file>
@@ -3411,15 +3597,15 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
@@ -3470,7 +3656,7 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3491,7 +3677,6 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -3512,7 +3697,6 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3533,7 +3717,6 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3554,7 +3737,6 @@
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3575,7 +3757,6 @@
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3596,7 +3777,6 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3617,7 +3797,6 @@
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3638,7 +3817,6 @@
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3659,7 +3837,6 @@
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3680,7 +3857,6 @@
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3701,7 +3877,6 @@
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -3722,7 +3897,6 @@
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -3743,7 +3917,6 @@
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3764,7 +3937,6 @@
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3785,7 +3957,6 @@
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3806,7 +3977,6 @@
       <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3827,7 +3997,6 @@
       <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3848,7 +4017,6 @@
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3869,7 +4037,6 @@
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3890,7 +4057,6 @@
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3911,7 +4077,6 @@
       <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3932,7 +4097,6 @@
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3953,7 +4117,6 @@
       <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3974,7 +4137,6 @@
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3995,7 +4157,6 @@
       <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -4016,7 +4177,6 @@
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -4037,7 +4197,6 @@
       <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -4058,7 +4217,6 @@
       <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -4079,7 +4237,6 @@
       <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -4100,7 +4257,6 @@
       <c r="B32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -4121,7 +4277,6 @@
       <c r="B33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4142,7 +4297,6 @@
       <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -5192,7 +5346,9 @@
       <c r="B84" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -5208,12 +5364,14 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -5229,10 +5387,10 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -5250,10 +5408,10 @@
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -5271,10 +5429,10 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -5292,10 +5450,10 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -5313,10 +5471,10 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -5334,10 +5492,10 @@
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -5355,10 +5513,10 @@
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -5376,10 +5534,10 @@
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -5397,10 +5555,10 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -5418,10 +5576,10 @@
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -5439,10 +5597,10 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -5460,10 +5618,10 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -5481,10 +5639,10 @@
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -5502,10 +5660,10 @@
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -5523,10 +5681,10 @@
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -5544,10 +5702,10 @@
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -5565,10 +5723,10 @@
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -5586,10 +5744,10 @@
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -5607,10 +5765,10 @@
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -5628,10 +5786,10 @@
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -5649,10 +5807,10 @@
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -5670,10 +5828,10 @@
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -5691,10 +5849,10 @@
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -5712,10 +5870,10 @@
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -5733,10 +5891,10 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -5754,10 +5912,10 @@
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -5775,10 +5933,10 @@
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -5796,10 +5954,10 @@
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -5817,10 +5975,10 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -5838,10 +5996,10 @@
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -5859,10 +6017,10 @@
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -5880,10 +6038,10 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -5901,10 +6059,10 @@
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -5922,10 +6080,10 @@
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -5943,10 +6101,10 @@
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5964,10 +6122,10 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5985,10 +6143,10 @@
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -6006,10 +6164,10 @@
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -6027,10 +6185,10 @@
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -6048,10 +6206,10 @@
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -6069,10 +6227,10 @@
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -6090,10 +6248,10 @@
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -6111,10 +6269,10 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -6132,10 +6290,10 @@
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -6153,10 +6311,10 @@
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -6174,10 +6332,10 @@
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -6195,10 +6353,10 @@
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -6216,10 +6374,10 @@
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -6237,10 +6395,10 @@
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -6258,10 +6416,10 @@
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -6279,10 +6437,10 @@
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -6300,10 +6458,10 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -6321,10 +6479,10 @@
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -6342,10 +6500,10 @@
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -6363,10 +6521,10 @@
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -6384,10 +6542,10 @@
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -6405,10 +6563,10 @@
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -6426,10 +6584,10 @@
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -6447,10 +6605,10 @@
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -6468,10 +6626,10 @@
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -6489,10 +6647,10 @@
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -6510,10 +6668,10 @@
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -6531,10 +6689,10 @@
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -6552,10 +6710,10 @@
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -6573,10 +6731,10 @@
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -6594,10 +6752,10 @@
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -6615,10 +6773,10 @@
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6636,10 +6794,10 @@
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6657,10 +6815,10 @@
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6678,10 +6836,10 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6699,10 +6857,10 @@
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6720,10 +6878,10 @@
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6741,10 +6899,10 @@
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6762,10 +6920,10 @@
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6783,10 +6941,10 @@
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6804,10 +6962,10 @@
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6825,10 +6983,10 @@
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6846,10 +7004,10 @@
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6867,10 +7025,10 @@
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6888,10 +7046,10 @@
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6909,10 +7067,10 @@
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6930,10 +7088,10 @@
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6951,10 +7109,10 @@
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6972,10 +7130,10 @@
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6993,10 +7151,10 @@
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -7014,10 +7172,10 @@
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -7035,10 +7193,10 @@
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -7056,10 +7214,10 @@
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -7077,10 +7235,10 @@
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -7098,10 +7256,10 @@
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -7119,10 +7277,10 @@
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -7140,10 +7298,10 @@
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -7161,10 +7319,10 @@
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -7182,10 +7340,10 @@
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -7203,10 +7361,10 @@
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -7224,10 +7382,10 @@
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -7245,10 +7403,10 @@
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -7266,10 +7424,10 @@
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -7287,10 +7445,10 @@
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -7308,10 +7466,10 @@
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -7329,10 +7487,10 @@
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -7350,10 +7508,10 @@
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -7371,10 +7529,10 @@
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="A188" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -7392,10 +7550,10 @@
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="A189" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -7413,10 +7571,10 @@
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -7434,10 +7592,10 @@
     </row>
     <row r="191" ht="14.25" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -7455,10 +7613,10 @@
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -7476,10 +7634,10 @@
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -7497,10 +7655,10 @@
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="A194" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -7518,10 +7676,10 @@
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="A195" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -7539,10 +7697,10 @@
     </row>
     <row r="196" ht="14.25" customHeight="1">
       <c r="A196" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -7560,10 +7718,10 @@
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="A197" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -7581,10 +7739,10 @@
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -7602,10 +7760,10 @@
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -7623,10 +7781,10 @@
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -7644,10 +7802,10 @@
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="A201" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -7665,10 +7823,10 @@
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="A202" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -7686,10 +7844,10 @@
     </row>
     <row r="203" ht="14.25" customHeight="1">
       <c r="A203" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -7707,10 +7865,10 @@
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="A204" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -7728,10 +7886,10 @@
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -7749,10 +7907,10 @@
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -7770,10 +7928,10 @@
     </row>
     <row r="207" ht="14.25" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -7791,10 +7949,10 @@
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -7812,10 +7970,10 @@
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -7833,10 +7991,10 @@
     </row>
     <row r="210" ht="14.25" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -7854,10 +8012,10 @@
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -7875,10 +8033,10 @@
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -7896,10 +8054,10 @@
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -7917,10 +8075,10 @@
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -7938,10 +8096,10 @@
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -7959,10 +8117,10 @@
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -7980,10 +8138,10 @@
     </row>
     <row r="217" ht="14.25" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -8001,10 +8159,10 @@
     </row>
     <row r="218" ht="14.25" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -8022,10 +8180,10 @@
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -8043,10 +8201,10 @@
     </row>
     <row r="220" ht="14.25" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -8064,10 +8222,10 @@
     </row>
     <row r="221" ht="14.25" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -8085,10 +8243,10 @@
     </row>
     <row r="222" ht="14.25" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -8106,10 +8264,10 @@
     </row>
     <row r="223" ht="14.25" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -8127,10 +8285,10 @@
     </row>
     <row r="224" ht="14.25" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -8148,10 +8306,10 @@
     </row>
     <row r="225" ht="14.25" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -8169,10 +8327,10 @@
     </row>
     <row r="226" ht="14.25" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -8190,10 +8348,10 @@
     </row>
     <row r="227" ht="14.25" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -8211,10 +8369,10 @@
     </row>
     <row r="228" ht="14.25" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -8232,10 +8390,10 @@
     </row>
     <row r="229" ht="14.25" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -8253,10 +8411,10 @@
     </row>
     <row r="230" ht="14.25" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -8274,10 +8432,10 @@
     </row>
     <row r="231" ht="14.25" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -8295,10 +8453,10 @@
     </row>
     <row r="232" ht="14.25" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -8316,10 +8474,10 @@
     </row>
     <row r="233" ht="14.25" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -8337,10 +8495,10 @@
     </row>
     <row r="234" ht="14.25" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -8358,10 +8516,10 @@
     </row>
     <row r="235" ht="14.25" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -8379,10 +8537,10 @@
     </row>
     <row r="236" ht="14.25" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -8400,10 +8558,10 @@
     </row>
     <row r="237" ht="14.25" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -8421,10 +8579,10 @@
     </row>
     <row r="238" ht="14.25" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -8442,10 +8600,10 @@
     </row>
     <row r="239" ht="14.25" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -8463,10 +8621,10 @@
     </row>
     <row r="240" ht="14.25" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -8484,10 +8642,10 @@
     </row>
     <row r="241" ht="14.25" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -8505,10 +8663,10 @@
     </row>
     <row r="242" ht="14.25" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -8526,10 +8684,10 @@
     </row>
     <row r="243" ht="14.25" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -8547,10 +8705,10 @@
     </row>
     <row r="244" ht="14.25" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -8568,10 +8726,10 @@
     </row>
     <row r="245" ht="14.25" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -8589,10 +8747,10 @@
     </row>
     <row r="246" ht="14.25" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -8610,10 +8768,10 @@
     </row>
     <row r="247" ht="14.25" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -8631,10 +8789,10 @@
     </row>
     <row r="248" ht="14.25" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -8652,10 +8810,10 @@
     </row>
     <row r="249" ht="14.25" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -8673,10 +8831,10 @@
     </row>
     <row r="250" ht="14.25" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -8694,10 +8852,10 @@
     </row>
     <row r="251" ht="14.25" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -8715,10 +8873,10 @@
     </row>
     <row r="252" ht="14.25" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -8736,10 +8894,10 @@
     </row>
     <row r="253" ht="14.25" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -8757,10 +8915,10 @@
     </row>
     <row r="254" ht="14.25" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -8778,10 +8936,10 @@
     </row>
     <row r="255" ht="14.25" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -8799,10 +8957,10 @@
     </row>
     <row r="256" ht="14.25" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -8820,10 +8978,10 @@
     </row>
     <row r="257" ht="14.25" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -8841,10 +8999,10 @@
     </row>
     <row r="258" ht="14.25" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -8862,10 +9020,10 @@
     </row>
     <row r="259" ht="14.25" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -8883,10 +9041,10 @@
     </row>
     <row r="260" ht="14.25" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -8904,10 +9062,10 @@
     </row>
     <row r="261" ht="14.25" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -8925,10 +9083,10 @@
     </row>
     <row r="262" ht="14.25" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -8946,10 +9104,10 @@
     </row>
     <row r="263" ht="14.25" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -8967,10 +9125,10 @@
     </row>
     <row r="264" ht="14.25" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -8988,10 +9146,10 @@
     </row>
     <row r="265" ht="14.25" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -9009,10 +9167,10 @@
     </row>
     <row r="266" ht="14.25" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -9030,10 +9188,10 @@
     </row>
     <row r="267" ht="14.25" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -9051,10 +9209,10 @@
     </row>
     <row r="268" ht="14.25" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -9072,10 +9230,10 @@
     </row>
     <row r="269" ht="14.25" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -9093,10 +9251,10 @@
     </row>
     <row r="270" ht="14.25" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -9114,10 +9272,10 @@
     </row>
     <row r="271" ht="14.25" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -9135,10 +9293,10 @@
     </row>
     <row r="272" ht="14.25" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -9156,10 +9314,10 @@
     </row>
     <row r="273" ht="14.25" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -9177,10 +9335,10 @@
     </row>
     <row r="274" ht="14.25" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -9198,10 +9356,10 @@
     </row>
     <row r="275" ht="14.25" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -9219,10 +9377,10 @@
     </row>
     <row r="276" ht="14.25" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -9240,10 +9398,10 @@
     </row>
     <row r="277" ht="14.25" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -9261,10 +9419,10 @@
     </row>
     <row r="278" ht="14.25" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -9282,10 +9440,10 @@
     </row>
     <row r="279" ht="14.25" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -9303,10 +9461,10 @@
     </row>
     <row r="280" ht="14.25" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -9324,10 +9482,10 @@
     </row>
     <row r="281" ht="14.25" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -9345,10 +9503,10 @@
     </row>
     <row r="282" ht="14.25" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -9366,10 +9524,10 @@
     </row>
     <row r="283" ht="14.25" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -9387,10 +9545,10 @@
     </row>
     <row r="284" ht="14.25" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -9408,10 +9566,10 @@
     </row>
     <row r="285" ht="14.25" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -9429,10 +9587,10 @@
     </row>
     <row r="286" ht="14.25" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -9450,10 +9608,10 @@
     </row>
     <row r="287" ht="14.25" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -9471,10 +9629,10 @@
     </row>
     <row r="288" ht="14.25" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -9492,10 +9650,10 @@
     </row>
     <row r="289" ht="14.25" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -9513,10 +9671,10 @@
     </row>
     <row r="290" ht="14.25" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -9534,10 +9692,10 @@
     </row>
     <row r="291" ht="14.25" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -9555,10 +9713,10 @@
     </row>
     <row r="292" ht="14.25" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -9576,10 +9734,10 @@
     </row>
     <row r="293" ht="14.25" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -9597,10 +9755,10 @@
     </row>
     <row r="294" ht="14.25" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -9618,10 +9776,10 @@
     </row>
     <row r="295" ht="14.25" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -9639,10 +9797,10 @@
     </row>
     <row r="296" ht="14.25" customHeight="1">
       <c r="A296" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -9660,10 +9818,10 @@
     </row>
     <row r="297" ht="14.25" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -9681,10 +9839,10 @@
     </row>
     <row r="298" ht="14.25" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -9702,10 +9860,10 @@
     </row>
     <row r="299" ht="14.25" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -9723,10 +9881,10 @@
     </row>
     <row r="300" ht="14.25" customHeight="1">
       <c r="A300" s="4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -9744,10 +9902,10 @@
     </row>
     <row r="301" ht="14.25" customHeight="1">
       <c r="A301" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -9765,10 +9923,10 @@
     </row>
     <row r="302" ht="14.25" customHeight="1">
       <c r="A302" s="4" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -9786,10 +9944,10 @@
     </row>
     <row r="303" ht="14.25" customHeight="1">
       <c r="A303" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -9807,10 +9965,10 @@
     </row>
     <row r="304" ht="14.25" customHeight="1">
       <c r="A304" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -9828,10 +9986,10 @@
     </row>
     <row r="305" ht="14.25" customHeight="1">
       <c r="A305" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -9849,10 +10007,10 @@
     </row>
     <row r="306" ht="14.25" customHeight="1">
       <c r="A306" s="4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -9870,10 +10028,10 @@
     </row>
     <row r="307" ht="14.25" customHeight="1">
       <c r="A307" s="4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -9891,10 +10049,10 @@
     </row>
     <row r="308" ht="14.25" customHeight="1">
       <c r="A308" s="4" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -9912,10 +10070,10 @@
     </row>
     <row r="309" ht="14.25" customHeight="1">
       <c r="A309" s="4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -9933,10 +10091,10 @@
     </row>
     <row r="310" ht="14.25" customHeight="1">
       <c r="A310" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -9954,10 +10112,10 @@
     </row>
     <row r="311" ht="14.25" customHeight="1">
       <c r="A311" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -9975,10 +10133,10 @@
     </row>
     <row r="312" ht="14.25" customHeight="1">
       <c r="A312" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -9996,10 +10154,10 @@
     </row>
     <row r="313" ht="14.25" customHeight="1">
       <c r="A313" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -10017,10 +10175,10 @@
     </row>
     <row r="314" ht="14.25" customHeight="1">
       <c r="A314" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -10038,10 +10196,10 @@
     </row>
     <row r="315" ht="14.25" customHeight="1">
       <c r="A315" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -10059,10 +10217,10 @@
     </row>
     <row r="316" ht="14.25" customHeight="1">
       <c r="A316" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -10080,10 +10238,10 @@
     </row>
     <row r="317" ht="14.25" customHeight="1">
       <c r="A317" s="4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -10101,10 +10259,10 @@
     </row>
     <row r="318" ht="14.25" customHeight="1">
       <c r="A318" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -10122,10 +10280,10 @@
     </row>
     <row r="319" ht="14.25" customHeight="1">
       <c r="A319" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -10143,10 +10301,10 @@
     </row>
     <row r="320" ht="14.25" customHeight="1">
       <c r="A320" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -10164,10 +10322,10 @@
     </row>
     <row r="321" ht="14.25" customHeight="1">
       <c r="A321" s="4" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -10185,10 +10343,10 @@
     </row>
     <row r="322" ht="14.25" customHeight="1">
       <c r="A322" s="4" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -10206,10 +10364,10 @@
     </row>
     <row r="323" ht="14.25" customHeight="1">
       <c r="A323" s="4" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -10226,9 +10384,11 @@
       <c r="O323" s="2"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="A324" s="2"/>
+      <c r="A324" s="4" t="s">
+        <v>646</v>
+      </c>
       <c r="B324" s="4" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -10245,9 +10405,11 @@
       <c r="O324" s="2"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="A325" s="2"/>
+      <c r="A325" s="4" t="s">
+        <v>648</v>
+      </c>
       <c r="B325" s="4" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -10264,9 +10426,11 @@
       <c r="O325" s="2"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="A326" s="2"/>
+      <c r="A326" s="4" t="s">
+        <v>650</v>
+      </c>
       <c r="B326" s="4" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -10283,9 +10447,11 @@
       <c r="O326" s="2"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="A327" s="2"/>
+      <c r="A327" s="4" t="s">
+        <v>652</v>
+      </c>
       <c r="B327" s="4" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -10302,9 +10468,11 @@
       <c r="O327" s="2"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="A328" s="2"/>
+      <c r="A328" s="4" t="s">
+        <v>654</v>
+      </c>
       <c r="B328" s="4" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -10321,9 +10489,11 @@
       <c r="O328" s="2"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="A329" s="2"/>
+      <c r="A329" s="4" t="s">
+        <v>656</v>
+      </c>
       <c r="B329" s="4" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -10340,9 +10510,11 @@
       <c r="O329" s="2"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="A330" s="2"/>
+      <c r="A330" s="4" t="s">
+        <v>658</v>
+      </c>
       <c r="B330" s="4" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -10359,9 +10531,11 @@
       <c r="O330" s="2"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="A331" s="2"/>
+      <c r="A331" s="4" t="s">
+        <v>660</v>
+      </c>
       <c r="B331" s="4" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -10378,9 +10552,11 @@
       <c r="O331" s="2"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="A332" s="2"/>
+      <c r="A332" s="4" t="s">
+        <v>662</v>
+      </c>
       <c r="B332" s="4" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -10397,9 +10573,11 @@
       <c r="O332" s="2"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="A333" s="2"/>
+      <c r="A333" s="4" t="s">
+        <v>664</v>
+      </c>
       <c r="B333" s="4" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -10416,9 +10594,11 @@
       <c r="O333" s="2"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="A334" s="2"/>
+      <c r="A334" s="4" t="s">
+        <v>666</v>
+      </c>
       <c r="B334" s="4" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -10435,9 +10615,11 @@
       <c r="O334" s="2"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="A335" s="2"/>
+      <c r="A335" s="4" t="s">
+        <v>668</v>
+      </c>
       <c r="B335" s="4" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -10454,9 +10636,11 @@
       <c r="O335" s="2"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="A336" s="2"/>
+      <c r="A336" s="4" t="s">
+        <v>670</v>
+      </c>
       <c r="B336" s="4" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -10473,9 +10657,11 @@
       <c r="O336" s="2"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="A337" s="2"/>
+      <c r="A337" s="4" t="s">
+        <v>672</v>
+      </c>
       <c r="B337" s="4" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -10492,9 +10678,11 @@
       <c r="O337" s="2"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="A338" s="2"/>
+      <c r="A338" s="4" t="s">
+        <v>674</v>
+      </c>
       <c r="B338" s="4" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -10511,9 +10699,11 @@
       <c r="O338" s="2"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="A339" s="2"/>
+      <c r="A339" s="4" t="s">
+        <v>676</v>
+      </c>
       <c r="B339" s="4" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -10532,7 +10722,7 @@
     <row r="340" ht="14.25" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" s="4" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -10551,7 +10741,7 @@
     <row r="341" ht="14.25" customHeight="1">
       <c r="A341" s="2"/>
       <c r="B341" s="4" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -10570,7 +10760,7 @@
     <row r="342" ht="14.25" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" s="4" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -10589,7 +10779,7 @@
     <row r="343" ht="14.25" customHeight="1">
       <c r="A343" s="2"/>
       <c r="B343" s="4" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -10608,7 +10798,7 @@
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="2"/>
       <c r="B344" s="4" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -10627,7 +10817,7 @@
     <row r="345" ht="14.25" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" s="4" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -10646,7 +10836,7 @@
     <row r="346" ht="14.25" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" s="4" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -10665,7 +10855,7 @@
     <row r="347" ht="14.25" customHeight="1">
       <c r="A347" s="2"/>
       <c r="B347" s="4" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -10684,7 +10874,7 @@
     <row r="348" ht="14.25" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" s="4" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -10703,7 +10893,7 @@
     <row r="349" ht="14.25" customHeight="1">
       <c r="A349" s="2"/>
       <c r="B349" s="4" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -10722,7 +10912,7 @@
     <row r="350" ht="14.25" customHeight="1">
       <c r="A350" s="2"/>
       <c r="B350" s="4" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -10741,7 +10931,7 @@
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" s="4" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -10760,7 +10950,7 @@
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" s="4" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -10779,7 +10969,7 @@
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="2"/>
       <c r="B353" s="4" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -10798,7 +10988,7 @@
     <row r="354" ht="14.25" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" s="4" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -10817,7 +11007,7 @@
     <row r="355" ht="14.25" customHeight="1">
       <c r="A355" s="2"/>
       <c r="B355" s="4" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -10836,7 +11026,7 @@
     <row r="356" ht="14.25" customHeight="1">
       <c r="A356" s="2"/>
       <c r="B356" s="4" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -10855,7 +11045,7 @@
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" s="4" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -10874,7 +11064,7 @@
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" s="4" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -10893,7 +11083,7 @@
     <row r="359" ht="14.25" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" s="4" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -10912,7 +11102,7 @@
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" s="4" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -10931,7 +11121,7 @@
     <row r="361" ht="14.25" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" s="4" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -10950,7 +11140,7 @@
     <row r="362" ht="14.25" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" s="4" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -10969,7 +11159,7 @@
     <row r="363" ht="14.25" customHeight="1">
       <c r="A363" s="2"/>
       <c r="B363" s="4" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -10988,7 +11178,7 @@
     <row r="364" ht="14.25" customHeight="1">
       <c r="A364" s="2"/>
       <c r="B364" s="4" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -11007,7 +11197,7 @@
     <row r="365" ht="14.25" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" s="4" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -11026,7 +11216,7 @@
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="2"/>
       <c r="B366" s="4" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -11045,7 +11235,7 @@
     <row r="367" ht="14.25" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" s="4" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -11064,7 +11254,7 @@
     <row r="368" ht="14.25" customHeight="1">
       <c r="A368" s="2"/>
       <c r="B368" s="4" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -11083,7 +11273,7 @@
     <row r="369" ht="14.25" customHeight="1">
       <c r="A369" s="2"/>
       <c r="B369" s="4" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -11102,7 +11292,7 @@
     <row r="370" ht="14.25" customHeight="1">
       <c r="A370" s="2"/>
       <c r="B370" s="4" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -11121,7 +11311,7 @@
     <row r="371" ht="14.25" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" s="4" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -11140,7 +11330,7 @@
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="2"/>
       <c r="B372" s="4" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -11159,7 +11349,7 @@
     <row r="373" ht="14.25" customHeight="1">
       <c r="A373" s="2"/>
       <c r="B373" s="4" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -11178,7 +11368,7 @@
     <row r="374" ht="14.25" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" s="4" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -11197,7 +11387,7 @@
     <row r="375" ht="14.25" customHeight="1">
       <c r="A375" s="2"/>
       <c r="B375" s="4" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -11216,7 +11406,7 @@
     <row r="376" ht="14.25" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" s="4" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -11235,7 +11425,7 @@
     <row r="377" ht="14.25" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" s="4" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -11254,7 +11444,7 @@
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" s="4" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -11273,7 +11463,7 @@
     <row r="379" ht="14.25" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" s="4" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -11292,7 +11482,7 @@
     <row r="380" ht="14.25" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" s="4" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -11311,7 +11501,7 @@
     <row r="381" ht="14.25" customHeight="1">
       <c r="A381" s="2"/>
       <c r="B381" s="4" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -11330,7 +11520,7 @@
     <row r="382" ht="14.25" customHeight="1">
       <c r="A382" s="2"/>
       <c r="B382" s="4" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -11349,7 +11539,7 @@
     <row r="383" ht="14.25" customHeight="1">
       <c r="A383" s="2"/>
       <c r="B383" s="4" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -11368,7 +11558,7 @@
     <row r="384" ht="14.25" customHeight="1">
       <c r="A384" s="2"/>
       <c r="B384" s="4" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -11387,7 +11577,7 @@
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="2"/>
       <c r="B385" s="4" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -11406,7 +11596,7 @@
     <row r="386" ht="14.25" customHeight="1">
       <c r="A386" s="2"/>
       <c r="B386" s="4" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -11425,7 +11615,7 @@
     <row r="387" ht="14.25" customHeight="1">
       <c r="A387" s="2"/>
       <c r="B387" s="4" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -11444,7 +11634,7 @@
     <row r="388" ht="14.25" customHeight="1">
       <c r="A388" s="2"/>
       <c r="B388" s="4" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -11463,7 +11653,7 @@
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" s="4" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -11482,7 +11672,7 @@
     <row r="390" ht="14.25" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" s="4" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -11501,7 +11691,7 @@
     <row r="391" ht="14.25" customHeight="1">
       <c r="A391" s="2"/>
       <c r="B391" s="4" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -11520,7 +11710,7 @@
     <row r="392" ht="14.25" customHeight="1">
       <c r="A392" s="2"/>
       <c r="B392" s="4" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -11539,7 +11729,7 @@
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="2"/>
       <c r="B393" s="4" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -11558,7 +11748,7 @@
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" s="4" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -11577,7 +11767,7 @@
     <row r="395" ht="14.25" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" s="4" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -11596,7 +11786,7 @@
     <row r="396" ht="14.25" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" s="4" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -11615,7 +11805,7 @@
     <row r="397" ht="14.25" customHeight="1">
       <c r="A397" s="2"/>
       <c r="B397" s="4" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -11634,7 +11824,7 @@
     <row r="398" ht="14.25" customHeight="1">
       <c r="A398" s="2"/>
       <c r="B398" s="4" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -11653,7 +11843,7 @@
     <row r="399" ht="14.25" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" s="4" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -11672,7 +11862,7 @@
     <row r="400" ht="14.25" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" s="4" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -11691,7 +11881,7 @@
     <row r="401" ht="14.25" customHeight="1">
       <c r="A401" s="2"/>
       <c r="B401" s="4" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -11710,7 +11900,7 @@
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" s="4" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -11729,7 +11919,7 @@
     <row r="403" ht="14.25" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" s="4" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -11748,7 +11938,7 @@
     <row r="404" ht="14.25" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" s="4" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -11767,7 +11957,7 @@
     <row r="405" ht="14.25" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" s="4" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -11786,7 +11976,7 @@
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="2"/>
       <c r="B406" s="4" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -11805,7 +11995,7 @@
     <row r="407" ht="14.25" customHeight="1">
       <c r="A407" s="2"/>
       <c r="B407" s="4" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -11824,7 +12014,7 @@
     <row r="408" ht="14.25" customHeight="1">
       <c r="A408" s="2"/>
       <c r="B408" s="4" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -11843,7 +12033,7 @@
     <row r="409" ht="14.25" customHeight="1">
       <c r="A409" s="2"/>
       <c r="B409" s="4" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -11862,7 +12052,7 @@
     <row r="410" ht="14.25" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" s="4" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -11881,7 +12071,7 @@
     <row r="411" ht="14.25" customHeight="1">
       <c r="A411" s="2"/>
       <c r="B411" s="4" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -11900,7 +12090,7 @@
     <row r="412" ht="14.25" customHeight="1">
       <c r="A412" s="2"/>
       <c r="B412" s="4" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -11919,7 +12109,7 @@
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="2"/>
       <c r="B413" s="4" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -11938,7 +12128,7 @@
     <row r="414" ht="14.25" customHeight="1">
       <c r="A414" s="2"/>
       <c r="B414" s="4" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -11957,7 +12147,7 @@
     <row r="415" ht="14.25" customHeight="1">
       <c r="A415" s="2"/>
       <c r="B415" s="4" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -11976,7 +12166,7 @@
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" s="4" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -11995,7 +12185,7 @@
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" s="4" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -12014,7 +12204,7 @@
     <row r="418" ht="14.25" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" s="4" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -12033,7 +12223,7 @@
     <row r="419" ht="14.25" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" s="4" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -12052,7 +12242,7 @@
     <row r="420" ht="14.25" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" s="4" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -12071,7 +12261,7 @@
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" s="4" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -12090,7 +12280,7 @@
     <row r="422" ht="14.25" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" s="4" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -12109,7 +12299,7 @@
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" s="4" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -12128,7 +12318,7 @@
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="2"/>
       <c r="B424" s="4" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -12147,7 +12337,7 @@
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" s="4" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -12166,7 +12356,7 @@
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" s="4" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -12185,7 +12375,7 @@
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="2"/>
       <c r="B427" s="4" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -12204,7 +12394,7 @@
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" s="4" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -12223,7 +12413,7 @@
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="2"/>
       <c r="B429" s="4" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -12242,7 +12432,7 @@
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" s="4" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -12261,7 +12451,7 @@
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" s="4" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -12280,7 +12470,7 @@
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" s="4" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -12299,7 +12489,7 @@
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" s="4" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -12318,7 +12508,7 @@
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" s="4" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -12337,7 +12527,7 @@
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="2"/>
       <c r="B435" s="4" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -12356,7 +12546,7 @@
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="2"/>
       <c r="B436" s="4" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -12375,7 +12565,7 @@
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="2"/>
       <c r="B437" s="4" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -12394,7 +12584,7 @@
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="2"/>
       <c r="B438" s="4" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -12413,7 +12603,7 @@
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" s="4" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -12432,7 +12622,7 @@
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" s="4" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -12451,7 +12641,7 @@
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="2"/>
       <c r="B441" s="4" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -12470,7 +12660,7 @@
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" s="4" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -12489,7 +12679,7 @@
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="2"/>
       <c r="B443" s="4" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -12508,7 +12698,7 @@
     <row r="444" ht="14.25" customHeight="1">
       <c r="A444" s="2"/>
       <c r="B444" s="1" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -12527,7 +12717,7 @@
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" s="4" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -12546,7 +12736,7 @@
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="2"/>
       <c r="B446" s="4" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -12565,7 +12755,7 @@
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="2"/>
       <c r="B447" s="4" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -12584,7 +12774,7 @@
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="2"/>
       <c r="B448" s="4" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -12603,7 +12793,7 @@
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" s="4" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -12622,7 +12812,7 @@
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="2"/>
       <c r="B450" s="4" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -12641,7 +12831,7 @@
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="2"/>
       <c r="B451" s="4" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -12660,7 +12850,7 @@
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" s="4" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -12679,7 +12869,7 @@
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="2"/>
       <c r="B453" s="4" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -12698,7 +12888,7 @@
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="2"/>
       <c r="B454" s="4" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -12717,7 +12907,7 @@
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" s="4" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -12736,7 +12926,7 @@
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="2"/>
       <c r="B456" s="4" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -12755,7 +12945,7 @@
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="2"/>
       <c r="B457" s="4" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -12774,7 +12964,7 @@
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" s="4" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -12793,7 +12983,7 @@
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" s="4" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -12812,7 +13002,7 @@
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="2"/>
       <c r="B460" s="4" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -12831,7 +13021,7 @@
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="2"/>
       <c r="B461" s="4" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -12850,7 +13040,7 @@
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" s="4" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -12869,7 +13059,7 @@
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="2"/>
       <c r="B463" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -12888,7 +13078,7 @@
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="2"/>
       <c r="B464" s="4" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -12907,7 +13097,7 @@
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" s="4" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -12926,7 +13116,7 @@
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="2"/>
       <c r="B466" s="4" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -12945,7 +13135,7 @@
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" s="4" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -12964,7 +13154,7 @@
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="2"/>
       <c r="B468" s="4" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -12983,7 +13173,7 @@
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" s="4" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -13002,7 +13192,7 @@
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" s="4" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -13021,7 +13211,7 @@
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" s="4" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -13040,7 +13230,7 @@
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" s="4" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -13059,7 +13249,7 @@
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" s="4" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -13078,7 +13268,7 @@
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" s="4" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -13097,7 +13287,7 @@
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" s="4" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -13116,7 +13306,7 @@
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" s="4" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -13135,7 +13325,7 @@
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" s="4" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -13154,7 +13344,7 @@
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" s="4" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -13173,7 +13363,7 @@
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" s="4" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -13192,7 +13382,7 @@
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" s="4" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -13211,7 +13401,7 @@
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" s="4" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -13230,7 +13420,7 @@
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" s="4" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -13249,7 +13439,7 @@
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="2"/>
       <c r="B483" s="4" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -13268,7 +13458,7 @@
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="2"/>
       <c r="B484" s="4" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -13287,7 +13477,7 @@
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" s="4" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -13306,7 +13496,7 @@
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="2"/>
       <c r="B486" s="4" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -13325,7 +13515,7 @@
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="2"/>
       <c r="B487" s="4" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -13344,7 +13534,7 @@
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="2"/>
       <c r="B488" s="4" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -13363,7 +13553,7 @@
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" s="4" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -13382,7 +13572,7 @@
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" s="4" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -13401,7 +13591,7 @@
     <row r="491" ht="14.25" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" s="4" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -13420,7 +13610,7 @@
     <row r="492" ht="14.25" customHeight="1">
       <c r="A492" s="2"/>
       <c r="B492" s="4" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -13439,7 +13629,7 @@
     <row r="493" ht="14.25" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" s="4" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -13458,7 +13648,7 @@
     <row r="494" ht="14.25" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" s="4" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -13477,7 +13667,7 @@
     <row r="495" ht="14.25" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" s="4" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -13496,7 +13686,7 @@
     <row r="496" ht="14.25" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" s="4" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -13515,7 +13705,7 @@
     <row r="497" ht="14.25" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" s="4" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -13534,7 +13724,7 @@
     <row r="498" ht="14.25" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" s="4" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -13553,7 +13743,7 @@
     <row r="499" ht="14.25" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" s="4" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -13572,7 +13762,7 @@
     <row r="500" ht="14.25" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" s="4" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -13591,7 +13781,7 @@
     <row r="501" ht="14.25" customHeight="1">
       <c r="A501" s="2"/>
       <c r="B501" s="4" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -13610,7 +13800,7 @@
     <row r="502" ht="14.25" customHeight="1">
       <c r="A502" s="2"/>
       <c r="B502" s="4" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -13629,7 +13819,7 @@
     <row r="503" ht="14.25" customHeight="1">
       <c r="A503" s="2"/>
       <c r="B503" s="4" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -13648,7 +13838,7 @@
     <row r="504" ht="14.25" customHeight="1">
       <c r="A504" s="2"/>
       <c r="B504" s="4" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -13667,7 +13857,7 @@
     <row r="505" ht="14.25" customHeight="1">
       <c r="A505" s="2"/>
       <c r="B505" s="4" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -13686,7 +13876,7 @@
     <row r="506" ht="14.25" customHeight="1">
       <c r="A506" s="2"/>
       <c r="B506" s="4" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -13705,7 +13895,7 @@
     <row r="507" ht="14.25" customHeight="1">
       <c r="A507" s="2"/>
       <c r="B507" s="4" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -13724,7 +13914,7 @@
     <row r="508" ht="14.25" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" s="4" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -13743,7 +13933,7 @@
     <row r="509" ht="14.25" customHeight="1">
       <c r="A509" s="2"/>
       <c r="B509" s="4" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -13762,7 +13952,7 @@
     <row r="510" ht="14.25" customHeight="1">
       <c r="A510" s="2"/>
       <c r="B510" s="4" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -13781,7 +13971,7 @@
     <row r="511" ht="14.25" customHeight="1">
       <c r="A511" s="2"/>
       <c r="B511" s="4" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -13800,7 +13990,7 @@
     <row r="512" ht="14.25" customHeight="1">
       <c r="A512" s="2"/>
       <c r="B512" s="4" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -13819,7 +14009,7 @@
     <row r="513" ht="14.25" customHeight="1">
       <c r="A513" s="2"/>
       <c r="B513" s="4" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -13838,7 +14028,7 @@
     <row r="514" ht="14.25" customHeight="1">
       <c r="A514" s="2"/>
       <c r="B514" s="4" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -13857,7 +14047,7 @@
     <row r="515" ht="14.25" customHeight="1">
       <c r="A515" s="2"/>
       <c r="B515" s="4" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -13876,7 +14066,7 @@
     <row r="516" ht="14.25" customHeight="1">
       <c r="A516" s="2"/>
       <c r="B516" s="4" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -13895,7 +14085,7 @@
     <row r="517" ht="14.25" customHeight="1">
       <c r="A517" s="2"/>
       <c r="B517" s="4" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -13914,7 +14104,7 @@
     <row r="518" ht="14.25" customHeight="1">
       <c r="A518" s="2"/>
       <c r="B518" s="4" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -13933,7 +14123,7 @@
     <row r="519" ht="14.25" customHeight="1">
       <c r="A519" s="2"/>
       <c r="B519" s="4" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -13952,7 +14142,7 @@
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="2"/>
       <c r="B520" s="4" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -13971,7 +14161,7 @@
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="2"/>
       <c r="B521" s="4" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -13990,7 +14180,7 @@
     <row r="522" ht="14.25" customHeight="1">
       <c r="A522" s="2"/>
       <c r="B522" s="4" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -14009,7 +14199,7 @@
     <row r="523" ht="14.25" customHeight="1">
       <c r="A523" s="2"/>
       <c r="B523" s="4" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -14028,7 +14218,7 @@
     <row r="524" ht="14.25" customHeight="1">
       <c r="A524" s="2"/>
       <c r="B524" s="4" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -14047,7 +14237,7 @@
     <row r="525" ht="14.25" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="4" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -14066,7 +14256,7 @@
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="4" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -14085,7 +14275,7 @@
     <row r="527" ht="14.25" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="4" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -14104,7 +14294,7 @@
     <row r="528" ht="14.25" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="4" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -14123,7 +14313,7 @@
     <row r="529" ht="14.25" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="4" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -14142,7 +14332,7 @@
     <row r="530" ht="14.25" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="1" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -14161,7 +14351,7 @@
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="4" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -14180,7 +14370,7 @@
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="4" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -14199,7 +14389,7 @@
     <row r="533" ht="14.25" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="4" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -14218,7 +14408,7 @@
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="4" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -14237,7 +14427,7 @@
     <row r="535" ht="14.25" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="4" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -14256,7 +14446,7 @@
     <row r="536" ht="14.25" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="4" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -14275,7 +14465,7 @@
     <row r="537" ht="14.25" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="4" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -14294,7 +14484,7 @@
     <row r="538" ht="14.25" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="1" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -14313,7 +14503,7 @@
     <row r="539" ht="14.25" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="1" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -14332,7 +14522,7 @@
     <row r="540" ht="14.25" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="1" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -14351,7 +14541,7 @@
     <row r="541" ht="14.25" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="1" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -14370,7 +14560,7 @@
     <row r="542" ht="14.25" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="1" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -14389,7 +14579,7 @@
     <row r="543" ht="14.25" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="1" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -14408,7 +14598,7 @@
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="1" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -14427,7 +14617,7 @@
     <row r="545" ht="14.25" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="1" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -14446,7 +14636,7 @@
     <row r="546" ht="14.25" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="1" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -14465,7 +14655,7 @@
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="1" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -14484,7 +14674,7 @@
     <row r="548" ht="14.25" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="1" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -14503,7 +14693,7 @@
     <row r="549" ht="14.25" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="1" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -14522,7 +14712,7 @@
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="1" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -14541,7 +14731,7 @@
     <row r="551" ht="14.25" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="1" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -14560,7 +14750,7 @@
     <row r="552" ht="14.25" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="1" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -14579,7 +14769,7 @@
     <row r="553" ht="14.25" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="1" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -14598,7 +14788,7 @@
     <row r="554" ht="14.25" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="1" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -14617,7 +14807,7 @@
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="1" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -14636,7 +14826,7 @@
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="1" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -14655,7 +14845,7 @@
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="1" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -14674,7 +14864,7 @@
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="1" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -14693,7 +14883,7 @@
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="1" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -14712,7 +14902,7 @@
     <row r="560" ht="14.25" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="1" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -14731,7 +14921,7 @@
     <row r="561" ht="14.25" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="1" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -14750,7 +14940,7 @@
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="1" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -14769,7 +14959,7 @@
     <row r="563" ht="14.25" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="1" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -14788,7 +14978,7 @@
     <row r="564" ht="14.25" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="1" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -14807,7 +14997,7 @@
     <row r="565" ht="14.25" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="1" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -14826,7 +15016,7 @@
     <row r="566" ht="14.25" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="1" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -14845,7 +15035,7 @@
     <row r="567" ht="14.25" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="1" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -14864,7 +15054,7 @@
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="1" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -14883,7 +15073,7 @@
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="1" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -14902,7 +15092,7 @@
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="1" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -14921,7 +15111,7 @@
     <row r="571" ht="14.25" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="1" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -14940,7 +15130,7 @@
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="1" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -14959,7 +15149,7 @@
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="1" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -14978,7 +15168,7 @@
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="1" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -14997,7 +15187,7 @@
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="1" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -15016,7 +15206,7 @@
     <row r="576" ht="14.25" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="1" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -15035,7 +15225,7 @@
     <row r="577" ht="14.25" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="1" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -15054,7 +15244,7 @@
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="1" t="s">
-        <v>897</v>
+        <v>915</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -15073,7 +15263,7 @@
     <row r="579" ht="14.25" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="1" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -15092,7 +15282,7 @@
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="1" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -15111,7 +15301,7 @@
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="1" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -15130,7 +15320,7 @@
     <row r="582" ht="14.25" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="1" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -15149,7 +15339,7 @@
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="1" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -15168,7 +15358,7 @@
     <row r="584" ht="14.25" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="1" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -15187,7 +15377,7 @@
     <row r="585" ht="14.25" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="1" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -15206,7 +15396,7 @@
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="1" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -15225,7 +15415,7 @@
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="1" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -15244,7 +15434,7 @@
     <row r="588" ht="14.25" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="1" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -15263,7 +15453,7 @@
     <row r="589" ht="14.25" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="1" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -15282,7 +15472,7 @@
     <row r="590" ht="14.25" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="1" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -15301,7 +15491,7 @@
     <row r="591" ht="14.25" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="1" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -15320,7 +15510,7 @@
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="1" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -15339,7 +15529,7 @@
     <row r="593" ht="14.25" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="1" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -15358,7 +15548,7 @@
     <row r="594" ht="14.25" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="1" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -15377,7 +15567,7 @@
     <row r="595" ht="14.25" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="1" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -15396,7 +15586,7 @@
     <row r="596" ht="14.25" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="1" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -15415,7 +15605,7 @@
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="1" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -15434,7 +15624,7 @@
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="1" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -15453,7 +15643,7 @@
     <row r="599" ht="14.25" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="1" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -15472,7 +15662,7 @@
     <row r="600" ht="14.25" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="1" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -15491,7 +15681,7 @@
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="1" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -15510,7 +15700,7 @@
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="1" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -15529,7 +15719,7 @@
     <row r="603" ht="14.25" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="1" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -15548,7 +15738,7 @@
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="1" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -15567,7 +15757,7 @@
     <row r="605" ht="14.25" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="1" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -15586,7 +15776,7 @@
     <row r="606" ht="14.25" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="1" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -15605,7 +15795,7 @@
     <row r="607" ht="14.25" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="1" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -15624,7 +15814,7 @@
     <row r="608" ht="14.25" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="1" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -15643,7 +15833,7 @@
     <row r="609" ht="14.25" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="1" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -15662,7 +15852,7 @@
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="1" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -15681,7 +15871,7 @@
     <row r="611" ht="14.25" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="1" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -15700,7 +15890,7 @@
     <row r="612" ht="14.25" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="1" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -15719,7 +15909,7 @@
     <row r="613" ht="14.25" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="1" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -15738,7 +15928,7 @@
     <row r="614" ht="14.25" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="1" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -15757,7 +15947,7 @@
     <row r="615" ht="14.25" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="1" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -15776,7 +15966,7 @@
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="1" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -15795,7 +15985,7 @@
     <row r="617" ht="14.25" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="1" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -15814,7 +16004,7 @@
     <row r="618" ht="14.25" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="1" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -15833,7 +16023,7 @@
     <row r="619" ht="14.25" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="1" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -15852,7 +16042,7 @@
     <row r="620" ht="14.25" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="1" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -15871,7 +16061,7 @@
     <row r="621" ht="14.25" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="1" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -15890,7 +16080,7 @@
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="1" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -15909,7 +16099,7 @@
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="1" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -15928,7 +16118,7 @@
     <row r="624" ht="14.25" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="1" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -15947,7 +16137,7 @@
     <row r="625" ht="14.25" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="1" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -15966,7 +16156,7 @@
     <row r="626" ht="14.25" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="1" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -15985,7 +16175,7 @@
     <row r="627" ht="14.25" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="1" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -16004,7 +16194,7 @@
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="1" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -16023,7 +16213,7 @@
     <row r="629" ht="14.25" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="1" t="s">
-        <v>948</v>
+        <v>966</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -16042,7 +16232,7 @@
     <row r="630" ht="14.25" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="1" t="s">
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -16061,7 +16251,7 @@
     <row r="631" ht="14.25" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="1" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -16080,7 +16270,7 @@
     <row r="632" ht="14.25" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="1" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -16099,7 +16289,7 @@
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="1" t="s">
-        <v>952</v>
+        <v>970</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -16118,7 +16308,7 @@
     <row r="634" ht="14.25" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="1" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -16137,7 +16327,7 @@
     <row r="635" ht="14.25" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="1" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -16156,7 +16346,7 @@
     <row r="636" ht="14.25" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="1" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -16175,7 +16365,7 @@
     <row r="637" ht="14.25" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="1" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -16194,7 +16384,7 @@
     <row r="638" ht="14.25" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="1" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -16213,7 +16403,7 @@
     <row r="639" ht="14.25" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="1" t="s">
-        <v>958</v>
+        <v>976</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -16232,7 +16422,7 @@
     <row r="640" ht="14.25" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="1" t="s">
-        <v>959</v>
+        <v>977</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -16251,7 +16441,7 @@
     <row r="641" ht="14.25" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="1" t="s">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -16270,7 +16460,7 @@
     <row r="642" ht="14.25" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="1" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -16289,7 +16479,7 @@
     <row r="643" ht="14.25" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="1" t="s">
-        <v>962</v>
+        <v>980</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -16308,7 +16498,7 @@
     <row r="644" ht="14.25" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="1" t="s">
-        <v>963</v>
+        <v>981</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -16327,7 +16517,7 @@
     <row r="645" ht="14.25" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="1" t="s">
-        <v>964</v>
+        <v>982</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -16346,7 +16536,7 @@
     <row r="646" ht="14.25" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="1" t="s">
-        <v>965</v>
+        <v>983</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -16365,7 +16555,7 @@
     <row r="647" ht="14.25" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="1" t="s">
-        <v>966</v>
+        <v>984</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -16384,7 +16574,7 @@
     <row r="648" ht="14.25" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="1" t="s">
-        <v>967</v>
+        <v>985</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -16403,7 +16593,7 @@
     <row r="649" ht="14.25" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="1" t="s">
-        <v>968</v>
+        <v>986</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -16422,7 +16612,7 @@
     <row r="650" ht="14.25" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="1" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -16441,7 +16631,7 @@
     <row r="651" ht="14.25" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="1" t="s">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -16460,7 +16650,7 @@
     <row r="652" ht="14.25" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="1" t="s">
-        <v>971</v>
+        <v>989</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -16479,7 +16669,7 @@
     <row r="653" ht="14.25" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="1" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -16498,7 +16688,7 @@
     <row r="654" ht="14.25" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="1" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -16517,7 +16707,7 @@
     <row r="655" ht="14.25" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="1" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -16536,7 +16726,7 @@
     <row r="656" ht="14.25" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="1" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -16555,7 +16745,7 @@
     <row r="657" ht="14.25" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="1" t="s">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -16574,7 +16764,7 @@
     <row r="658" ht="14.25" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="1" t="s">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -16593,7 +16783,7 @@
     <row r="659" ht="14.25" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="4" t="s">
-        <v>978</v>
+        <v>996</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -16612,7 +16802,7 @@
     <row r="660" ht="14.25" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="4" t="s">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -16631,7 +16821,7 @@
     <row r="661" ht="14.25" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="4" t="s">
-        <v>980</v>
+        <v>998</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -16650,7 +16840,7 @@
     <row r="662" ht="14.25" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="4" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -16669,7 +16859,7 @@
     <row r="663" ht="14.25" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="4" t="s">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -16688,7 +16878,7 @@
     <row r="664" ht="14.25" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="4" t="s">
-        <v>983</v>
+        <v>1001</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -16707,7 +16897,7 @@
     <row r="665" ht="14.25" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="4" t="s">
-        <v>984</v>
+        <v>1002</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -16726,7 +16916,7 @@
     <row r="666" ht="14.25" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="4" t="s">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -16745,7 +16935,7 @@
     <row r="667" ht="14.25" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="4" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -16764,7 +16954,7 @@
     <row r="668" ht="14.25" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="4" t="s">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -16783,7 +16973,7 @@
     <row r="669" ht="14.25" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="4" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -16802,7 +16992,7 @@
     <row r="670" ht="14.25" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="4" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -16821,7 +17011,7 @@
     <row r="671" ht="14.25" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="4" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -16840,7 +17030,7 @@
     <row r="672" ht="14.25" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="4" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -16859,7 +17049,7 @@
     <row r="673" ht="14.25" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="4" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -16878,7 +17068,7 @@
     <row r="674" ht="14.25" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="4" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -16897,7 +17087,7 @@
     <row r="675" ht="14.25" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="4" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -16916,7 +17106,7 @@
     <row r="676" ht="14.25" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="1" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -16935,7 +17125,7 @@
     <row r="677" ht="14.25" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="1" t="s">
-        <v>996</v>
+        <v>1014</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -16954,7 +17144,7 @@
     <row r="678" ht="14.25" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="1" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -16973,7 +17163,7 @@
     <row r="679" ht="14.25" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="1" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -16992,7 +17182,7 @@
     <row r="680" ht="14.25" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="1" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -17011,7 +17201,7 @@
     <row r="681" ht="14.25" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="1" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -17030,7 +17220,7 @@
     <row r="682" ht="14.25" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="1" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -17049,7 +17239,7 @@
     <row r="683" ht="14.25" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="1" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -17068,7 +17258,7 @@
     <row r="684" ht="14.25" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="4" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -17087,7 +17277,7 @@
     <row r="685" ht="14.25" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="4" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -17106,7 +17296,7 @@
     <row r="686" ht="14.25" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="4" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -17125,7 +17315,7 @@
     <row r="687" ht="14.25" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="4" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -17143,7 +17333,7 @@
     </row>
     <row r="688" ht="14.25" customHeight="1">
       <c r="B688" s="4" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -17162,7 +17352,7 @@
     <row r="689" ht="14.25" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="4" t="s">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -17181,7 +17371,7 @@
     <row r="690" ht="14.25" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="4" t="s">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -17200,7 +17390,7 @@
     <row r="691" ht="14.25" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="4" t="s">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -17219,7 +17409,7 @@
     <row r="692" ht="14.25" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="4" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -17238,7 +17428,7 @@
     <row r="693" ht="14.25" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="4" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -17257,7 +17447,7 @@
     <row r="694" ht="14.25" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="4" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -17276,7 +17466,7 @@
     <row r="695" ht="14.25" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="4" t="s">
-        <v>1014</v>
+        <v>1032</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -17295,7 +17485,7 @@
     <row r="696" ht="14.25" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="4" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -17314,7 +17504,7 @@
     <row r="697" ht="14.25" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="4" t="s">
-        <v>1016</v>
+        <v>1034</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -17333,7 +17523,7 @@
     <row r="698" ht="14.25" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="4" t="s">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -17352,7 +17542,7 @@
     <row r="699" ht="14.25" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="4" t="s">
-        <v>1018</v>
+        <v>1036</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -17371,7 +17561,7 @@
     <row r="700" ht="14.25" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="4" t="s">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -17390,7 +17580,7 @@
     <row r="701" ht="14.25" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="4" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -17409,7 +17599,7 @@
     <row r="702" ht="14.25" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="4" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -17428,7 +17618,7 @@
     <row r="703" ht="14.25" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="4" t="s">
-        <v>1022</v>
+        <v>1040</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -17447,7 +17637,7 @@
     <row r="704" ht="14.25" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="4" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -17466,7 +17656,7 @@
     <row r="705" ht="14.25" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="4" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -17485,7 +17675,7 @@
     <row r="706" ht="14.25" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="4" t="s">
-        <v>1025</v>
+        <v>1043</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -17504,7 +17694,7 @@
     <row r="707" ht="14.25" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -17523,7 +17713,7 @@
     <row r="708" ht="14.25" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="4" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -17542,7 +17732,7 @@
     <row r="709" ht="14.25" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="4" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -17561,7 +17751,7 @@
     <row r="710" ht="14.25" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="4" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -17580,7 +17770,7 @@
     <row r="711" ht="14.25" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="4" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -17599,7 +17789,7 @@
     <row r="712" ht="14.25" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="4" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -17618,7 +17808,7 @@
     <row r="713" ht="14.25" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="4" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -17637,7 +17827,7 @@
     <row r="714" ht="14.25" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="4" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -17656,7 +17846,7 @@
     <row r="715" ht="14.25" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="4" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -17674,7 +17864,7 @@
     </row>
     <row r="716" ht="14.25" customHeight="1">
       <c r="B716" s="4" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -17693,7 +17883,7 @@
     <row r="717" ht="14.25" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="4" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -17712,7 +17902,7 @@
     <row r="718" ht="14.25" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="4" t="s">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -17731,7 +17921,7 @@
     <row r="719" ht="14.25" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="4" t="s">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -17750,7 +17940,7 @@
     <row r="720" ht="14.25" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="4" t="s">
-        <v>1038</v>
+        <v>1056</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -17769,7 +17959,7 @@
     <row r="721" ht="14.25" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="4" t="s">
-        <v>1039</v>
+        <v>1057</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -17788,7 +17978,7 @@
     <row r="722" ht="14.25" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="4" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -17807,7 +17997,7 @@
     <row r="723" ht="14.25" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="4" t="s">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -17826,7 +18016,7 @@
     <row r="724" ht="14.25" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="4" t="s">
-        <v>1042</v>
+        <v>1060</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -17845,7 +18035,7 @@
     <row r="725" ht="14.25" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="4" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -17864,7 +18054,7 @@
     <row r="726" ht="14.25" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="4" t="s">
-        <v>1044</v>
+        <v>1062</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -17883,7 +18073,7 @@
     <row r="727" ht="14.25" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="4" t="s">
-        <v>1045</v>
+        <v>1063</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -17902,7 +18092,7 @@
     <row r="728" ht="14.25" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="4" t="s">
-        <v>1046</v>
+        <v>1064</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -17921,7 +18111,7 @@
     <row r="729" ht="14.25" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="4" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -17940,7 +18130,7 @@
     <row r="730" ht="14.25" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="4" t="s">
-        <v>1048</v>
+        <v>1066</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -17959,7 +18149,7 @@
     <row r="731" ht="14.25" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="4" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -17978,7 +18168,7 @@
     <row r="732" ht="14.25" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="4" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -17997,7 +18187,7 @@
     <row r="733" ht="14.25" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="4" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -18016,7 +18206,7 @@
     <row r="734" ht="14.25" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="4" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -18035,7 +18225,7 @@
     <row r="735" ht="14.25" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="4" t="s">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -18054,7 +18244,7 @@
     <row r="736" ht="14.25" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="4" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -18073,7 +18263,7 @@
     <row r="737" ht="14.25" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="4" t="s">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -18092,7 +18282,7 @@
     <row r="738" ht="14.25" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="4" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -18111,7 +18301,7 @@
     <row r="739" ht="14.25" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="4" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -18130,7 +18320,7 @@
     <row r="740" ht="14.25" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="4" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -18149,7 +18339,7 @@
     <row r="741" ht="14.25" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="4" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -18168,7 +18358,7 @@
     <row r="742" ht="14.25" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="4" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -18187,7 +18377,7 @@
     <row r="743" ht="14.25" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="4" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -18206,7 +18396,7 @@
     <row r="744" ht="14.25" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="4" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -18225,7 +18415,7 @@
     <row r="745" ht="14.25" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="4" t="s">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -18244,7 +18434,7 @@
     <row r="746" ht="14.25" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="4" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -18262,7 +18452,7 @@
     </row>
     <row r="747" ht="14.25" customHeight="1">
       <c r="B747" s="4" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -18280,7 +18470,7 @@
     </row>
     <row r="748" ht="14.25" customHeight="1">
       <c r="B748" s="4" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -18298,7 +18488,7 @@
     </row>
     <row r="749" ht="14.25" customHeight="1">
       <c r="B749" s="4" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -18316,7 +18506,7 @@
     </row>
     <row r="750" ht="14.25" customHeight="1">
       <c r="B750" s="4" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -18334,7 +18524,7 @@
     </row>
     <row r="751" ht="14.25" customHeight="1">
       <c r="B751" s="4" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -18352,7 +18542,7 @@
     </row>
     <row r="752" ht="14.25" customHeight="1">
       <c r="B752" s="4" t="s">
-        <v>1070</v>
+        <v>1088</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -18370,7 +18560,7 @@
     </row>
     <row r="753" ht="14.25" customHeight="1">
       <c r="B753" s="4" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -18388,7 +18578,7 @@
     </row>
     <row r="754" ht="14.25" customHeight="1">
       <c r="B754" s="4" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -18407,7 +18597,7 @@
     <row r="755" ht="14.25" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="4" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -18426,7 +18616,7 @@
     <row r="756" ht="14.25" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="4" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -18445,7 +18635,7 @@
     <row r="757" ht="14.25" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="4" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -18464,7 +18654,7 @@
     <row r="758" ht="14.25" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="4" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -18483,7 +18673,7 @@
     <row r="759" ht="14.25" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="4" t="s">
-        <v>1077</v>
+        <v>1095</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -18502,7 +18692,7 @@
     <row r="760" ht="14.25" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="4" t="s">
-        <v>1078</v>
+        <v>1096</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -18521,7 +18711,7 @@
     <row r="761" ht="14.25" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="4" t="s">
-        <v>1079</v>
+        <v>1097</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -18540,7 +18730,7 @@
     <row r="762" ht="14.25" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="4" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -18559,7 +18749,7 @@
     <row r="763" ht="14.25" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="4" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -18578,7 +18768,7 @@
     <row r="764" ht="14.25" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="4" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -18597,7 +18787,7 @@
     <row r="765" ht="14.25" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="4" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -18616,7 +18806,7 @@
     <row r="766" ht="14.25" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="4" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -18635,7 +18825,7 @@
     <row r="767" ht="14.25" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="4" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -18654,7 +18844,7 @@
     <row r="768" ht="14.25" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="4" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -18673,7 +18863,7 @@
     <row r="769" ht="14.25" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="4" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -18692,7 +18882,7 @@
     <row r="770" ht="14.25" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="4" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -18711,7 +18901,7 @@
     <row r="771" ht="14.25" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="4" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -18730,7 +18920,7 @@
     <row r="772" ht="14.25" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="4" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -18749,7 +18939,7 @@
     <row r="773" ht="14.25" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="4" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -18768,7 +18958,7 @@
     <row r="774" ht="14.25" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="4" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -18787,7 +18977,7 @@
     <row r="775" ht="14.25" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="4" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -18806,7 +18996,7 @@
     <row r="776" ht="14.25" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="4" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -18825,7 +19015,7 @@
     <row r="777" ht="14.25" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="4" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -18844,7 +19034,7 @@
     <row r="778" ht="14.25" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="4" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -18863,7 +19053,7 @@
     <row r="779" ht="14.25" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="4" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -18882,7 +19072,7 @@
     <row r="780" ht="14.25" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="4" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -18901,7 +19091,7 @@
     <row r="781" ht="14.25" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="4" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -18920,7 +19110,7 @@
     <row r="782" ht="14.25" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="4" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -18939,7 +19129,7 @@
     <row r="783" ht="14.25" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="4" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -18958,7 +19148,7 @@
     <row r="784" ht="14.25" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="4" t="s">
-        <v>1102</v>
+        <v>1120</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -18977,7 +19167,7 @@
     <row r="785" ht="14.25" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="4" t="s">
-        <v>1103</v>
+        <v>1121</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -18996,7 +19186,7 @@
     <row r="786" ht="14.25" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="4" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -19015,7 +19205,7 @@
     <row r="787" ht="14.25" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="4" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -19033,7 +19223,9 @@
     </row>
     <row r="788" ht="14.25" customHeight="1">
       <c r="A788" s="2"/>
-      <c r="B788" s="2"/>
+      <c r="B788" s="4" t="s">
+        <v>1124</v>
+      </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
@@ -19050,7 +19242,9 @@
     </row>
     <row r="789" ht="14.25" customHeight="1">
       <c r="A789" s="2"/>
-      <c r="B789" s="2"/>
+      <c r="B789" s="4" t="s">
+        <v>1125</v>
+      </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
@@ -19067,7 +19261,9 @@
     </row>
     <row r="790" ht="14.25" customHeight="1">
       <c r="A790" s="2"/>
-      <c r="B790" s="2"/>
+      <c r="B790" s="4" t="s">
+        <v>1126</v>
+      </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
@@ -19084,7 +19280,9 @@
     </row>
     <row r="791" ht="14.25" customHeight="1">
       <c r="A791" s="2"/>
-      <c r="B791" s="2"/>
+      <c r="B791" s="4" t="s">
+        <v>1127</v>
+      </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
@@ -19101,7 +19299,9 @@
     </row>
     <row r="792" ht="14.25" customHeight="1">
       <c r="A792" s="2"/>
-      <c r="B792" s="2"/>
+      <c r="B792" s="4" t="s">
+        <v>1128</v>
+      </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
@@ -19118,7 +19318,9 @@
     </row>
     <row r="793" ht="14.25" customHeight="1">
       <c r="A793" s="2"/>
-      <c r="B793" s="2"/>
+      <c r="B793" s="4" t="s">
+        <v>1129</v>
+      </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
@@ -19135,7 +19337,9 @@
     </row>
     <row r="794" ht="14.25" customHeight="1">
       <c r="A794" s="2"/>
-      <c r="B794" s="2"/>
+      <c r="B794" s="4" t="s">
+        <v>1130</v>
+      </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
@@ -19152,7 +19356,9 @@
     </row>
     <row r="795" ht="14.25" customHeight="1">
       <c r="A795" s="2"/>
-      <c r="B795" s="2"/>
+      <c r="B795" s="4" t="s">
+        <v>1131</v>
+      </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
@@ -19169,7 +19375,9 @@
     </row>
     <row r="796" ht="14.25" customHeight="1">
       <c r="A796" s="2"/>
-      <c r="B796" s="2"/>
+      <c r="B796" s="4" t="s">
+        <v>1132</v>
+      </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
@@ -19186,7 +19394,9 @@
     </row>
     <row r="797" ht="14.25" customHeight="1">
       <c r="A797" s="2"/>
-      <c r="B797" s="2"/>
+      <c r="B797" s="4" t="s">
+        <v>1133</v>
+      </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
       <c r="E797" s="2"/>
@@ -19203,7 +19413,9 @@
     </row>
     <row r="798" ht="14.25" customHeight="1">
       <c r="A798" s="2"/>
-      <c r="B798" s="2"/>
+      <c r="B798" s="4" t="s">
+        <v>1134</v>
+      </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
@@ -19220,7 +19432,9 @@
     </row>
     <row r="799" ht="14.25" customHeight="1">
       <c r="A799" s="2"/>
-      <c r="B799" s="2"/>
+      <c r="B799" s="4" t="s">
+        <v>1135</v>
+      </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
@@ -19237,7 +19451,9 @@
     </row>
     <row r="800" ht="14.25" customHeight="1">
       <c r="A800" s="2"/>
-      <c r="B800" s="2"/>
+      <c r="B800" s="4" t="s">
+        <v>1136</v>
+      </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
@@ -19254,7 +19470,9 @@
     </row>
     <row r="801" ht="14.25" customHeight="1">
       <c r="A801" s="2"/>
-      <c r="B801" s="2"/>
+      <c r="B801" s="4" t="s">
+        <v>1137</v>
+      </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
@@ -19271,7 +19489,9 @@
     </row>
     <row r="802" ht="14.25" customHeight="1">
       <c r="A802" s="2"/>
-      <c r="B802" s="2"/>
+      <c r="B802" s="4" t="s">
+        <v>1138</v>
+      </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
@@ -19288,7 +19508,9 @@
     </row>
     <row r="803" ht="14.25" customHeight="1">
       <c r="A803" s="2"/>
-      <c r="B803" s="2"/>
+      <c r="B803" s="4" t="s">
+        <v>1139</v>
+      </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
@@ -19305,7 +19527,9 @@
     </row>
     <row r="804" ht="14.25" customHeight="1">
       <c r="A804" s="2"/>
-      <c r="B804" s="2"/>
+      <c r="B804" s="4" t="s">
+        <v>1140</v>
+      </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
       <c r="E804" s="2"/>
@@ -19322,7 +19546,9 @@
     </row>
     <row r="805" ht="14.25" customHeight="1">
       <c r="A805" s="2"/>
-      <c r="B805" s="2"/>
+      <c r="B805" s="4" t="s">
+        <v>1141</v>
+      </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
       <c r="E805" s="2"/>
@@ -19339,7 +19565,9 @@
     </row>
     <row r="806" ht="14.25" customHeight="1">
       <c r="A806" s="2"/>
-      <c r="B806" s="2"/>
+      <c r="B806" s="4" t="s">
+        <v>1142</v>
+      </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
       <c r="E806" s="2"/>
@@ -19356,7 +19584,9 @@
     </row>
     <row r="807" ht="14.25" customHeight="1">
       <c r="A807" s="2"/>
-      <c r="B807" s="2"/>
+      <c r="B807" s="4" t="s">
+        <v>1143</v>
+      </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
@@ -19373,7 +19603,9 @@
     </row>
     <row r="808" ht="14.25" customHeight="1">
       <c r="A808" s="2"/>
-      <c r="B808" s="2"/>
+      <c r="B808" s="4" t="s">
+        <v>1144</v>
+      </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
@@ -19390,7 +19622,9 @@
     </row>
     <row r="809" ht="14.25" customHeight="1">
       <c r="A809" s="2"/>
-      <c r="B809" s="2"/>
+      <c r="B809" s="4" t="s">
+        <v>1145</v>
+      </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
@@ -19407,7 +19641,9 @@
     </row>
     <row r="810" ht="14.25" customHeight="1">
       <c r="A810" s="2"/>
-      <c r="B810" s="2"/>
+      <c r="B810" s="4" t="s">
+        <v>1146</v>
+      </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
@@ -19424,7 +19660,9 @@
     </row>
     <row r="811" ht="14.25" customHeight="1">
       <c r="A811" s="2"/>
-      <c r="B811" s="2"/>
+      <c r="B811" s="4" t="s">
+        <v>1147</v>
+      </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
@@ -19441,7 +19679,9 @@
     </row>
     <row r="812" ht="14.25" customHeight="1">
       <c r="A812" s="2"/>
-      <c r="B812" s="2"/>
+      <c r="B812" s="4" t="s">
+        <v>1148</v>
+      </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
@@ -19458,7 +19698,9 @@
     </row>
     <row r="813" ht="14.25" customHeight="1">
       <c r="A813" s="2"/>
-      <c r="B813" s="2"/>
+      <c r="B813" s="4" t="s">
+        <v>1149</v>
+      </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
@@ -19475,7 +19717,9 @@
     </row>
     <row r="814" ht="14.25" customHeight="1">
       <c r="A814" s="2"/>
-      <c r="B814" s="2"/>
+      <c r="B814" s="4" t="s">
+        <v>1150</v>
+      </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
@@ -19492,7 +19736,9 @@
     </row>
     <row r="815" ht="14.25" customHeight="1">
       <c r="A815" s="2"/>
-      <c r="B815" s="2"/>
+      <c r="B815" s="4" t="s">
+        <v>1151</v>
+      </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
@@ -19509,7 +19755,9 @@
     </row>
     <row r="816" ht="14.25" customHeight="1">
       <c r="A816" s="2"/>
-      <c r="B816" s="2"/>
+      <c r="B816" s="4" t="s">
+        <v>1152</v>
+      </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
@@ -19526,7 +19774,9 @@
     </row>
     <row r="817" ht="14.25" customHeight="1">
       <c r="A817" s="2"/>
-      <c r="B817" s="2"/>
+      <c r="B817" s="4" t="s">
+        <v>1153</v>
+      </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
@@ -19543,7 +19793,9 @@
     </row>
     <row r="818" ht="14.25" customHeight="1">
       <c r="A818" s="2"/>
-      <c r="B818" s="2"/>
+      <c r="B818" s="4" t="s">
+        <v>1154</v>
+      </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
@@ -19560,7 +19812,9 @@
     </row>
     <row r="819" ht="14.25" customHeight="1">
       <c r="A819" s="2"/>
-      <c r="B819" s="2"/>
+      <c r="B819" s="4" t="s">
+        <v>1155</v>
+      </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
@@ -19577,7 +19831,9 @@
     </row>
     <row r="820" ht="14.25" customHeight="1">
       <c r="A820" s="2"/>
-      <c r="B820" s="2"/>
+      <c r="B820" s="4" t="s">
+        <v>1156</v>
+      </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
       <c r="E820" s="2"/>
@@ -19594,7 +19850,9 @@
     </row>
     <row r="821" ht="14.25" customHeight="1">
       <c r="A821" s="2"/>
-      <c r="B821" s="2"/>
+      <c r="B821" s="4" t="s">
+        <v>1157</v>
+      </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
@@ -19611,7 +19869,9 @@
     </row>
     <row r="822" ht="14.25" customHeight="1">
       <c r="A822" s="2"/>
-      <c r="B822" s="2"/>
+      <c r="B822" s="4" t="s">
+        <v>1158</v>
+      </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
@@ -19628,7 +19888,9 @@
     </row>
     <row r="823" ht="14.25" customHeight="1">
       <c r="A823" s="2"/>
-      <c r="B823" s="2"/>
+      <c r="B823" s="4" t="s">
+        <v>1159</v>
+      </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
@@ -19645,7 +19907,9 @@
     </row>
     <row r="824" ht="14.25" customHeight="1">
       <c r="A824" s="2"/>
-      <c r="B824" s="2"/>
+      <c r="B824" s="4" t="s">
+        <v>1160</v>
+      </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
@@ -19662,7 +19926,9 @@
     </row>
     <row r="825" ht="14.25" customHeight="1">
       <c r="A825" s="2"/>
-      <c r="B825" s="2"/>
+      <c r="B825" s="4" t="s">
+        <v>1161</v>
+      </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
       <c r="E825" s="2"/>
@@ -19679,7 +19945,9 @@
     </row>
     <row r="826" ht="14.25" customHeight="1">
       <c r="A826" s="2"/>
-      <c r="B826" s="2"/>
+      <c r="B826" s="4" t="s">
+        <v>1162</v>
+      </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
       <c r="E826" s="2"/>
@@ -19696,7 +19964,9 @@
     </row>
     <row r="827" ht="14.25" customHeight="1">
       <c r="A827" s="2"/>
-      <c r="B827" s="2"/>
+      <c r="B827" s="4" t="s">
+        <v>1163</v>
+      </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
       <c r="E827" s="2"/>
@@ -19713,7 +19983,9 @@
     </row>
     <row r="828" ht="14.25" customHeight="1">
       <c r="A828" s="2"/>
-      <c r="B828" s="2"/>
+      <c r="B828" s="4" t="s">
+        <v>1164</v>
+      </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
       <c r="E828" s="2"/>
@@ -19730,7 +20002,9 @@
     </row>
     <row r="829" ht="14.25" customHeight="1">
       <c r="A829" s="2"/>
-      <c r="B829" s="2"/>
+      <c r="B829" s="4" t="s">
+        <v>1165</v>
+      </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
       <c r="E829" s="2"/>
@@ -19747,7 +20021,9 @@
     </row>
     <row r="830" ht="14.25" customHeight="1">
       <c r="A830" s="2"/>
-      <c r="B830" s="2"/>
+      <c r="B830" s="4" t="s">
+        <v>1165</v>
+      </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
       <c r="E830" s="2"/>
@@ -19764,7 +20040,9 @@
     </row>
     <row r="831" ht="14.25" customHeight="1">
       <c r="A831" s="2"/>
-      <c r="B831" s="2"/>
+      <c r="B831" s="4" t="s">
+        <v>1165</v>
+      </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
       <c r="E831" s="2"/>
@@ -19781,7 +20059,9 @@
     </row>
     <row r="832" ht="14.25" customHeight="1">
       <c r="A832" s="2"/>
-      <c r="B832" s="2"/>
+      <c r="B832" s="4" t="s">
+        <v>1165</v>
+      </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
       <c r="E832" s="2"/>
@@ -19798,7 +20078,9 @@
     </row>
     <row r="833" ht="14.25" customHeight="1">
       <c r="A833" s="2"/>
-      <c r="B833" s="2"/>
+      <c r="B833" s="4" t="s">
+        <v>1166</v>
+      </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
       <c r="E833" s="2"/>
@@ -19815,7 +20097,9 @@
     </row>
     <row r="834" ht="14.25" customHeight="1">
       <c r="A834" s="2"/>
-      <c r="B834" s="2"/>
+      <c r="B834" s="4" t="s">
+        <v>1167</v>
+      </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
       <c r="E834" s="2"/>
@@ -22678,7 +22962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/app/src/main/res/raw/cards.xlsx
+++ b/app/src/main/res/raw/cards.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1918">
   <si>
     <t>Black Cards</t>
   </si>
@@ -211,7 +211,7 @@
     <t>Τον παίζω αβησαλέα</t>
   </si>
   <si>
-    <t>Η αγαπημένη μου στάση μου είναι __________</t>
+    <t>Η αγαπημένη μου στάση είναι __________</t>
   </si>
   <si>
     <t>Να με πιάσει ο Ψινάκης</t>
@@ -325,7 +325,7 @@
     <t>(Στο/το) Μεταξουργείο</t>
   </si>
   <si>
-    <t>Πήγα στον Τζώρτζη για κούρεμα κι έφυγα ________</t>
+    <t>Πήγα στου Τζώρτζη για κούρεμα κι έφυγα ________</t>
   </si>
   <si>
     <t>Πάω για χέσιμο</t>
@@ -1652,7 +1652,7 @@
     <t>__ ήταν η αγαπημένη ταινία του Χίτλερ</t>
   </si>
   <si>
-    <t>η Χρυσή σερβιετα της βασιλομήτωρ</t>
+    <t>η Χρυσή σερβιετα της βασιλομήτωρος</t>
   </si>
   <si>
     <t>Ο πρώτος παγκόσμιος πόλεμος ξεκίνησε γιατί __</t>
@@ -2309,7 +2309,7 @@
     <t>Στα παπαρια μου</t>
   </si>
   <si>
-    <t>Αλτέντε μακαρόνια πιο σκληρά κι από _______</t>
+    <t>Αλντέντε μακαρόνια πιο σκληρά κι από _______</t>
   </si>
   <si>
     <t>Καει το πελεκουδι</t>
@@ -3050,55 +3050,109 @@
     <t>(Ο/Τον/Οι/Τους) Χιπστερ</t>
   </si>
   <si>
+    <t>__________ + __________ = ___________</t>
+  </si>
+  <si>
     <t>(Ο/Τον/Οι/Τους) Emo</t>
   </si>
   <si>
+    <t>__________ - __________ = ___________</t>
+  </si>
+  <si>
     <t>(Οι) Εβραιοι</t>
   </si>
   <si>
+    <t>__________ x __________ = ___________</t>
+  </si>
+  <si>
     <t>Απαπαπαπαπα εγω δεν κανα τετοια πραγματα</t>
   </si>
   <si>
+    <t>__________ + __________ - _________  = ___________</t>
+  </si>
+  <si>
     <t>Επεπερδευτηκα</t>
   </si>
   <si>
+    <t>__________ - __________ + _________  = ___________</t>
+  </si>
+  <si>
     <t>(Ο) Μαλακοκαυλης</t>
   </si>
   <si>
+    <t>__________ + __________ = _________  - ___________</t>
+  </si>
+  <si>
     <t>(Το) μεγαλο πεος</t>
   </si>
   <si>
+    <t>__________ + __________ &gt; _________  - ___________</t>
+  </si>
+  <si>
     <t>(Το) στραβο πεος</t>
   </si>
   <si>
+    <t>__________ + __________ = _________  + ___________</t>
+  </si>
+  <si>
     <t>(Το) πεος του Ηρακλεος</t>
   </si>
   <si>
+    <t>__________ + __________ &gt; _________  + ___________</t>
+  </si>
+  <si>
     <t>Οιδιπόδειο</t>
   </si>
   <si>
+    <t>Παίξανε μπουκάλα ο Λέντος, __________ και __________</t>
+  </si>
+  <si>
     <t>Ολο στην πουτσα με κοιτουσε</t>
   </si>
   <si>
+    <t>Ρίζα κωλότριχας = __________</t>
+  </si>
+  <si>
     <t>Φασωθηκαμε μεχρι να κλεισει ο Καλφας</t>
   </si>
   <si>
+    <t>Ντέλικασι στην Κίνα: _________ με _________</t>
+  </si>
+  <si>
     <t>Στα 4</t>
   </si>
   <si>
+    <t>Πήδηξον men __________</t>
+  </si>
+  <si>
     <t>(Το) Ladyboy</t>
   </si>
   <si>
+    <t>Η νέα αποστολή της NASA θα λέγεται _________</t>
+  </si>
+  <si>
     <t>Μου πηρε πιπα ladyboy</t>
   </si>
   <si>
+    <t>Βρέθηκαν οι πρώτοι εξωγήινοι, τελικά μοιάζουν με __________</t>
+  </si>
+  <si>
     <t>Αχ αυτη η Σιμελα</t>
   </si>
   <si>
+    <t>Ημερολόγιο καταστρώμματος μέρα 127: Τελικά οι ιθαγενείς δεν ήθελαν _________, ήθελαν _________</t>
+  </si>
+  <si>
     <t>Κωλο δινω</t>
   </si>
   <si>
+    <t>Ποιός Ανέστης;</t>
+  </si>
+  <si>
     <t>Πουτσα παλι, πουτσα παλι οε οε</t>
+  </si>
+  <si>
+    <t>Τι θέλεις για τα Χριστούγεννα?</t>
   </si>
   <si>
     <t>(Γαμιεται) ο Πειραιας</t>
@@ -4419,7 +4473,7 @@
     <t>(Η/Την) καμπάνα</t>
   </si>
   <si>
-    <t>(Ο/ένας) άμφισεξουαλικός λοχίας από την Αμφιλοχία</t>
+    <t>(Ο/ένας) αμφισεξουαλικός λοχίας από την Αμφιλοχία</t>
   </si>
   <si>
     <t>(Η/την) Πουτανέσκα</t>
@@ -4623,7 +4677,7 @@
     <t>(Η/την) φιλαρμονική του Δήμου</t>
   </si>
   <si>
-    <t>(Ο) κοκάκιας στο Κουκάκι με μια Κόκα Κόλα κι ένα κωκάκι</t>
+    <t>(Ο) κοκάκιας στο Κουκάκι με μια Κόκα κι ένα κωκάκι</t>
   </si>
   <si>
     <t>Το μέλλον είναι τώρα</t>
@@ -4869,7 +4923,7 @@
     <t>(Ο) κύκλος των τουρλωμένων πισινών</t>
   </si>
   <si>
-    <t>(Ο) οδηγός της ανώμαλης Νταίζη</t>
+    <t>Πήγα σε gastro pub κι έφυγα γκαστρωμένος</t>
   </si>
   <si>
     <t>Κώλιγουντ</t>
@@ -5049,7 +5103,7 @@
     <t>(Το/ένα) σκληρό καυλί για καληνύχτα</t>
   </si>
   <si>
-    <t>(Η) θεία από το Κωλο Ράντο</t>
+    <t>(Η) θεία από το Κωλάντερο</t>
   </si>
   <si>
     <t>Και οι παντρεμένες έχουν μουνί</t>
@@ -5433,7 +5487,7 @@
     <t>Καύλωσαν μέχρι και τα μπιμπίκια</t>
   </si>
   <si>
-    <t>(Ο) καρνίβαλος που με τσίμπησε ένα αρχίδι</t>
+    <t>(Ο) καρνίβαλος που μου τσίμπησε ένα αρχίδι</t>
   </si>
   <si>
     <t>Δίνω κώλορ μπλάιντ</t>
@@ -5588,6 +5642,135 @@
   </si>
   <si>
     <t>Πήγα να παραγγείλω φρέντο αλλά μάλλον κάτι είπα λάθος γιατί μου φέρανε ένα χόμπιτ μέτριο</t>
+  </si>
+  <si>
+    <t>Κατευθείαν στα μπουντρούμια της κολάσεως</t>
+  </si>
+  <si>
+    <t>(Τα) παπάρια πάνε στην πορναριά</t>
+  </si>
+  <si>
+    <t>(Τον) πλησίον σου</t>
+  </si>
+  <si>
+    <t>A νόμιζα θα μας περάσεις κανά δυο χεράκια και χάρηκα</t>
+  </si>
+  <si>
+    <t>Λύνει μια δορυφορική εξίσωση για να καταφέρει να πιάσει τζάμπα σήμα στη Nova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O καυλέουρας ο Μαθηματικός μας δίδαξε CPR σήμερα. Αχ πόσο μ' αρέσουν τώρα οι σέξυ σώσεις </t>
+  </si>
+  <si>
+    <t>Happy ending</t>
+  </si>
+  <si>
+    <t>Σε κατάλαβα από τη φωνή</t>
+  </si>
+  <si>
+    <t>Δεν είμαι εδώ τώρα. Είμαι στον όγκο</t>
+  </si>
+  <si>
+    <t>Έκανα ματς στο Grindr με τον θείο μου. Είναι αιμομιξία αν του κάτσω;</t>
+  </si>
+  <si>
+    <t>8 ολόκληρους πόντους να τους βάλεις όπου αγαπάς κοκόνα μου</t>
+  </si>
+  <si>
+    <t>Το Τρύφεις το πιπερι</t>
+  </si>
+  <si>
+    <t>Πήδηξον men, άκουσον δε</t>
+  </si>
+  <si>
+    <t>Έβγαλε χωλή με fisting</t>
+  </si>
+  <si>
+    <t>(Το) δεξί χέρι του Σόρου και τ' αριστερό του Γκέιτς</t>
+  </si>
+  <si>
+    <t>Τον παίρνει και γέρνει γιατι έχει το δεξί ποδι του Κράουτς και τ' αριστερό του Βαμβακούλα</t>
+  </si>
+  <si>
+    <t>Βαμβα Κούλα, πολύ κωλόπαιδο ο Κυριάκος</t>
+  </si>
+  <si>
+    <t>Έχει πόδι όσο ο Σακίλ ολόκληρος</t>
+  </si>
+  <si>
+    <t>(Η) Μελανία Ουσταμπασίδου από το Σακιλκίς</t>
+  </si>
+  <si>
+    <t>Ο χεσμένος τα παίρνει όλα</t>
+  </si>
+  <si>
+    <t>Δεν έχω χρόνο ούτε για χέσιμο</t>
+  </si>
+  <si>
+    <t>Το έκανα προώθηση στο λάθος γκρουπ</t>
+  </si>
+  <si>
+    <t>Ο προαγωγός μου</t>
+  </si>
+  <si>
+    <t>(Ο) ξυλουργός που τον κάρφεντερ</t>
+  </si>
+  <si>
+    <t>Γεια σου Mariah. Τι Careyς?</t>
+  </si>
+  <si>
+    <t>Το μαλακίζειν εστί φιλοσοφείν</t>
+  </si>
+  <si>
+    <t>Kαρότο και μαστίγιο</t>
+  </si>
+  <si>
+    <t>(Οι) τυχαίες λέξεις</t>
+  </si>
+  <si>
+    <t>Έφαγα ένα ψάρι τόσο με το seabassιο</t>
+  </si>
+  <si>
+    <t>May day μ' έχει πιάσει κόψιμο τριρλιπιπί και ντέι βρε γαιδαράκο ντέι</t>
+  </si>
+  <si>
+    <t>Πέτρος Πέτρος Χάλι Γκάλι</t>
+  </si>
+  <si>
+    <t>Μη τις πετάς ρε μαλάκα, είναι μπύρες</t>
+  </si>
+  <si>
+    <t>Cut it you</t>
+  </si>
+  <si>
+    <t>Παίζω κιθάρα μόνο με οιδιπόδειο και άναλ από λόγιο</t>
+  </si>
+  <si>
+    <t>Βάζω τον Βρασίδα στην πρίζα να μου ζεστάνει το νερό</t>
+  </si>
+  <si>
+    <t>Κάνω surfing στα μικροκύμματα</t>
+  </si>
+  <si>
+    <t>Ο πούτσος μου ο πυροσβέστης</t>
+  </si>
+  <si>
+    <t>(Ο) Πέτρος στα νεφρά</t>
+  </si>
+  <si>
+    <t>Μου έβαλε ο Μπάμπης ορυκτέλαιο στην μηχανή και πήγε να με πηδήξει γαμώ το baby oil του</t>
+  </si>
+  <si>
+    <t>Ενα giftο</t>
+  </si>
+  <si>
+    <t>Analσταση</t>
+  </si>
+  <si>
+    <t>Τέντωσα με το κατσίκι και το κοκορέτσι</t>
+  </si>
+  <si>
+    <t>(H/μία) δαφνοστεφανωμένη πούτσα</t>
   </si>
 </sst>
 </file>
@@ -5614,12 +5797,12 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF191E1E"/>
@@ -5678,10 +5861,10 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -16326,9 +16509,11 @@
       <c r="O506" s="2"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
-      <c r="A507" s="2"/>
+      <c r="A507" s="4" t="s">
+        <v>1011</v>
+      </c>
       <c r="B507" s="4" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -16345,9 +16530,11 @@
       <c r="O507" s="2"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
-      <c r="A508" s="2"/>
+      <c r="A508" s="4" t="s">
+        <v>1013</v>
+      </c>
       <c r="B508" s="4" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -16364,9 +16551,11 @@
       <c r="O508" s="2"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
-      <c r="A509" s="2"/>
+      <c r="A509" s="4" t="s">
+        <v>1015</v>
+      </c>
       <c r="B509" s="4" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -16383,9 +16572,11 @@
       <c r="O509" s="2"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
-      <c r="A510" s="2"/>
+      <c r="A510" s="4" t="s">
+        <v>1017</v>
+      </c>
       <c r="B510" s="4" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -16402,9 +16593,11 @@
       <c r="O510" s="2"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
-      <c r="A511" s="2"/>
+      <c r="A511" s="4" t="s">
+        <v>1019</v>
+      </c>
       <c r="B511" s="4" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -16421,9 +16614,11 @@
       <c r="O511" s="2"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
-      <c r="A512" s="2"/>
+      <c r="A512" s="4" t="s">
+        <v>1021</v>
+      </c>
       <c r="B512" s="4" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -16440,9 +16635,11 @@
       <c r="O512" s="2"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="A513" s="2"/>
+      <c r="A513" s="4" t="s">
+        <v>1023</v>
+      </c>
       <c r="B513" s="4" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -16459,9 +16656,11 @@
       <c r="O513" s="2"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="A514" s="2"/>
+      <c r="A514" s="4" t="s">
+        <v>1025</v>
+      </c>
       <c r="B514" s="4" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -16478,9 +16677,11 @@
       <c r="O514" s="2"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="A515" s="2"/>
+      <c r="A515" s="4" t="s">
+        <v>1027</v>
+      </c>
       <c r="B515" s="4" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -16497,9 +16698,11 @@
       <c r="O515" s="2"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="A516" s="2"/>
+      <c r="A516" s="4" t="s">
+        <v>1029</v>
+      </c>
       <c r="B516" s="4" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -16516,9 +16719,11 @@
       <c r="O516" s="2"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="A517" s="2"/>
+      <c r="A517" s="4" t="s">
+        <v>1031</v>
+      </c>
       <c r="B517" s="4" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -16535,9 +16740,11 @@
       <c r="O517" s="2"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="A518" s="2"/>
+      <c r="A518" s="8" t="s">
+        <v>1033</v>
+      </c>
       <c r="B518" s="4" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -16554,9 +16761,11 @@
       <c r="O518" s="2"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="A519" s="2"/>
+      <c r="A519" s="8" t="s">
+        <v>1035</v>
+      </c>
       <c r="B519" s="4" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -16573,9 +16782,11 @@
       <c r="O519" s="2"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="A520" s="2"/>
+      <c r="A520" s="8" t="s">
+        <v>1037</v>
+      </c>
       <c r="B520" s="4" t="s">
-        <v>1024</v>
+        <v>1038</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -16592,9 +16803,11 @@
       <c r="O520" s="2"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="A521" s="2"/>
+      <c r="A521" s="4" t="s">
+        <v>1039</v>
+      </c>
       <c r="B521" s="4" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -16611,9 +16824,11 @@
       <c r="O521" s="2"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="A522" s="2"/>
+      <c r="A522" s="4" t="s">
+        <v>1041</v>
+      </c>
       <c r="B522" s="4" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -16630,9 +16845,11 @@
       <c r="O522" s="2"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="A523" s="2"/>
+      <c r="A523" s="4" t="s">
+        <v>1043</v>
+      </c>
       <c r="B523" s="4" t="s">
-        <v>1027</v>
+        <v>1044</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -16649,9 +16866,11 @@
       <c r="O523" s="2"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="A524" s="2"/>
+      <c r="A524" s="4" t="s">
+        <v>1045</v>
+      </c>
       <c r="B524" s="4" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -16670,7 +16889,7 @@
     <row r="525" ht="14.25" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="4" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -16689,7 +16908,7 @@
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="4" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -16708,7 +16927,7 @@
     <row r="527" ht="14.25" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="4" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -16727,7 +16946,7 @@
     <row r="528" ht="14.25" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="4" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -16746,7 +16965,7 @@
     <row r="529" ht="14.25" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="4" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -16765,7 +16984,7 @@
     <row r="530" ht="14.25" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="1" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -16784,7 +17003,7 @@
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="4" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -16803,7 +17022,7 @@
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="4" t="s">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -16822,7 +17041,7 @@
     <row r="533" ht="14.25" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="4" t="s">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -16841,7 +17060,7 @@
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="4" t="s">
-        <v>1038</v>
+        <v>1056</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -16860,7 +17079,7 @@
     <row r="535" ht="14.25" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="4" t="s">
-        <v>1039</v>
+        <v>1057</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -16879,7 +17098,7 @@
     <row r="536" ht="14.25" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="4" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -16898,7 +17117,7 @@
     <row r="537" ht="14.25" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="4" t="s">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -16917,7 +17136,7 @@
     <row r="538" ht="14.25" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="1" t="s">
-        <v>1042</v>
+        <v>1060</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -16936,7 +17155,7 @@
     <row r="539" ht="14.25" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="1" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -16955,7 +17174,7 @@
     <row r="540" ht="14.25" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="1" t="s">
-        <v>1044</v>
+        <v>1062</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -16974,7 +17193,7 @@
     <row r="541" ht="14.25" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="1" t="s">
-        <v>1045</v>
+        <v>1063</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -16993,7 +17212,7 @@
     <row r="542" ht="14.25" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="1" t="s">
-        <v>1046</v>
+        <v>1064</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -17012,7 +17231,7 @@
     <row r="543" ht="14.25" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="1" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -17031,7 +17250,7 @@
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="1" t="s">
-        <v>1048</v>
+        <v>1066</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -17050,7 +17269,7 @@
     <row r="545" ht="14.25" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="1" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -17069,7 +17288,7 @@
     <row r="546" ht="14.25" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="1" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -17088,7 +17307,7 @@
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="1" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -17107,7 +17326,7 @@
     <row r="548" ht="14.25" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="1" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -17126,7 +17345,7 @@
     <row r="549" ht="14.25" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="1" t="s">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -17145,7 +17364,7 @@
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="1" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -17164,7 +17383,7 @@
     <row r="551" ht="14.25" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="1" t="s">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -17183,7 +17402,7 @@
     <row r="552" ht="14.25" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="1" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -17202,7 +17421,7 @@
     <row r="553" ht="14.25" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="1" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -17221,7 +17440,7 @@
     <row r="554" ht="14.25" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="1" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -17240,7 +17459,7 @@
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="1" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -17259,7 +17478,7 @@
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="1" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -17278,7 +17497,7 @@
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="1" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -17297,7 +17516,7 @@
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="1" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -17316,7 +17535,7 @@
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="1" t="s">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -17335,7 +17554,7 @@
     <row r="560" ht="14.25" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="1" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -17354,7 +17573,7 @@
     <row r="561" ht="14.25" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="1" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -17373,7 +17592,7 @@
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="1" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -17392,7 +17611,7 @@
     <row r="563" ht="14.25" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="1" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -17411,7 +17630,7 @@
     <row r="564" ht="14.25" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="1" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -17430,7 +17649,7 @@
     <row r="565" ht="14.25" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="1" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -17449,7 +17668,7 @@
     <row r="566" ht="14.25" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="1" t="s">
-        <v>1070</v>
+        <v>1088</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -17468,7 +17687,7 @@
     <row r="567" ht="14.25" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="1" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -17487,7 +17706,7 @@
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="1" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -17506,7 +17725,7 @@
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="1" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -17525,7 +17744,7 @@
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="1" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -17544,7 +17763,7 @@
     <row r="571" ht="14.25" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="1" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -17563,7 +17782,7 @@
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="1" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -17582,7 +17801,7 @@
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="1" t="s">
-        <v>1077</v>
+        <v>1095</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -17601,7 +17820,7 @@
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="1" t="s">
-        <v>1078</v>
+        <v>1096</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -17620,7 +17839,7 @@
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="1" t="s">
-        <v>1079</v>
+        <v>1097</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -17639,7 +17858,7 @@
     <row r="576" ht="14.25" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="1" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -17658,7 +17877,7 @@
     <row r="577" ht="14.25" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="1" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -17677,7 +17896,7 @@
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="1" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -17696,7 +17915,7 @@
     <row r="579" ht="14.25" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="1" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -17715,7 +17934,7 @@
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="1" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -17734,7 +17953,7 @@
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="1" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -17753,7 +17972,7 @@
     <row r="582" ht="14.25" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="1" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -17772,7 +17991,7 @@
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="1" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -17791,7 +18010,7 @@
     <row r="584" ht="14.25" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="1" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -17810,7 +18029,7 @@
     <row r="585" ht="14.25" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="1" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -17829,7 +18048,7 @@
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="1" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -17848,7 +18067,7 @@
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="1" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -17867,7 +18086,7 @@
     <row r="588" ht="14.25" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="1" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -17886,7 +18105,7 @@
     <row r="589" ht="14.25" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="1" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -17905,7 +18124,7 @@
     <row r="590" ht="14.25" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="1" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -17924,7 +18143,7 @@
     <row r="591" ht="14.25" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="1" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -17943,7 +18162,7 @@
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="1" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -17962,7 +18181,7 @@
     <row r="593" ht="14.25" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="1" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -17981,7 +18200,7 @@
     <row r="594" ht="14.25" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="1" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -18000,7 +18219,7 @@
     <row r="595" ht="14.25" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="1" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -18019,7 +18238,7 @@
     <row r="596" ht="14.25" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="1" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -18038,7 +18257,7 @@
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="1" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -18057,7 +18276,7 @@
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="1" t="s">
-        <v>1102</v>
+        <v>1120</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -18076,7 +18295,7 @@
     <row r="599" ht="14.25" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="1" t="s">
-        <v>1103</v>
+        <v>1121</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -18095,7 +18314,7 @@
     <row r="600" ht="14.25" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="1" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -18114,7 +18333,7 @@
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="1" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -18133,7 +18352,7 @@
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="1" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -18152,7 +18371,7 @@
     <row r="603" ht="14.25" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="1" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -18171,7 +18390,7 @@
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="1" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -18190,7 +18409,7 @@
     <row r="605" ht="14.25" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="1" t="s">
-        <v>1109</v>
+        <v>1127</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -18209,7 +18428,7 @@
     <row r="606" ht="14.25" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="1" t="s">
-        <v>1110</v>
+        <v>1128</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -18228,7 +18447,7 @@
     <row r="607" ht="14.25" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="1" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -18247,7 +18466,7 @@
     <row r="608" ht="14.25" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="1" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -18266,7 +18485,7 @@
     <row r="609" ht="14.25" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="1" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -18285,7 +18504,7 @@
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="1" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -18304,7 +18523,7 @@
     <row r="611" ht="14.25" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="1" t="s">
-        <v>1115</v>
+        <v>1133</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -18323,7 +18542,7 @@
     <row r="612" ht="14.25" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="1" t="s">
-        <v>1116</v>
+        <v>1134</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -18342,7 +18561,7 @@
     <row r="613" ht="14.25" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="1" t="s">
-        <v>1117</v>
+        <v>1135</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -18361,7 +18580,7 @@
     <row r="614" ht="14.25" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="1" t="s">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -18380,7 +18599,7 @@
     <row r="615" ht="14.25" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="1" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -18399,7 +18618,7 @@
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="1" t="s">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -18418,7 +18637,7 @@
     <row r="617" ht="14.25" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="1" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -18437,7 +18656,7 @@
     <row r="618" ht="14.25" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="1" t="s">
-        <v>1122</v>
+        <v>1140</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -18456,7 +18675,7 @@
     <row r="619" ht="14.25" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="1" t="s">
-        <v>1123</v>
+        <v>1141</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -18475,7 +18694,7 @@
     <row r="620" ht="14.25" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="1" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -18494,7 +18713,7 @@
     <row r="621" ht="14.25" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="1" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -18513,7 +18732,7 @@
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="1" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -18532,7 +18751,7 @@
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="1" t="s">
-        <v>1127</v>
+        <v>1145</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -18551,7 +18770,7 @@
     <row r="624" ht="14.25" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="1" t="s">
-        <v>1128</v>
+        <v>1146</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -18570,7 +18789,7 @@
     <row r="625" ht="14.25" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="1" t="s">
-        <v>1129</v>
+        <v>1147</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -18589,7 +18808,7 @@
     <row r="626" ht="14.25" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="1" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -18608,7 +18827,7 @@
     <row r="627" ht="14.25" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="1" t="s">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -18627,7 +18846,7 @@
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="1" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -18646,7 +18865,7 @@
     <row r="629" ht="14.25" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="1" t="s">
-        <v>1133</v>
+        <v>1151</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -18665,7 +18884,7 @@
     <row r="630" ht="14.25" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="1" t="s">
-        <v>1134</v>
+        <v>1152</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -18684,7 +18903,7 @@
     <row r="631" ht="14.25" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="1" t="s">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -18703,7 +18922,7 @@
     <row r="632" ht="14.25" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="1" t="s">
-        <v>1136</v>
+        <v>1154</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -18722,7 +18941,7 @@
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="1" t="s">
-        <v>1137</v>
+        <v>1155</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -18741,7 +18960,7 @@
     <row r="634" ht="14.25" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="1" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -18760,7 +18979,7 @@
     <row r="635" ht="14.25" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="1" t="s">
-        <v>1139</v>
+        <v>1157</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -18779,7 +18998,7 @@
     <row r="636" ht="14.25" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="1" t="s">
-        <v>1140</v>
+        <v>1158</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -18798,7 +19017,7 @@
     <row r="637" ht="14.25" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="1" t="s">
-        <v>1141</v>
+        <v>1159</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -18817,7 +19036,7 @@
     <row r="638" ht="14.25" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="1" t="s">
-        <v>1142</v>
+        <v>1160</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -18836,7 +19055,7 @@
     <row r="639" ht="14.25" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="1" t="s">
-        <v>1143</v>
+        <v>1161</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -18855,7 +19074,7 @@
     <row r="640" ht="14.25" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="1" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -18874,7 +19093,7 @@
     <row r="641" ht="14.25" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="1" t="s">
-        <v>1145</v>
+        <v>1163</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -18893,7 +19112,7 @@
     <row r="642" ht="14.25" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="1" t="s">
-        <v>1146</v>
+        <v>1164</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -18912,7 +19131,7 @@
     <row r="643" ht="14.25" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="1" t="s">
-        <v>1147</v>
+        <v>1165</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -18931,7 +19150,7 @@
     <row r="644" ht="14.25" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="1" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -18950,7 +19169,7 @@
     <row r="645" ht="14.25" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="1" t="s">
-        <v>1149</v>
+        <v>1167</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -18969,7 +19188,7 @@
     <row r="646" ht="14.25" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="1" t="s">
-        <v>1150</v>
+        <v>1168</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -18988,7 +19207,7 @@
     <row r="647" ht="14.25" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="1" t="s">
-        <v>1151</v>
+        <v>1169</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -19007,7 +19226,7 @@
     <row r="648" ht="14.25" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="1" t="s">
-        <v>1152</v>
+        <v>1170</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -19026,7 +19245,7 @@
     <row r="649" ht="14.25" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="1" t="s">
-        <v>1153</v>
+        <v>1171</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -19045,7 +19264,7 @@
     <row r="650" ht="14.25" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="1" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -19064,7 +19283,7 @@
     <row r="651" ht="14.25" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="1" t="s">
-        <v>1155</v>
+        <v>1173</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -19083,7 +19302,7 @@
     <row r="652" ht="14.25" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="1" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -19102,7 +19321,7 @@
     <row r="653" ht="14.25" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="1" t="s">
-        <v>1157</v>
+        <v>1175</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -19121,7 +19340,7 @@
     <row r="654" ht="14.25" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="1" t="s">
-        <v>1158</v>
+        <v>1176</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -19140,7 +19359,7 @@
     <row r="655" ht="14.25" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="1" t="s">
-        <v>1159</v>
+        <v>1177</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -19159,7 +19378,7 @@
     <row r="656" ht="14.25" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="1" t="s">
-        <v>1160</v>
+        <v>1178</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -19178,7 +19397,7 @@
     <row r="657" ht="14.25" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="1" t="s">
-        <v>1161</v>
+        <v>1179</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -19197,7 +19416,7 @@
     <row r="658" ht="14.25" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="1" t="s">
-        <v>1162</v>
+        <v>1180</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -19216,7 +19435,7 @@
     <row r="659" ht="14.25" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="4" t="s">
-        <v>1163</v>
+        <v>1181</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -19235,7 +19454,7 @@
     <row r="660" ht="14.25" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="4" t="s">
-        <v>1164</v>
+        <v>1182</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -19254,7 +19473,7 @@
     <row r="661" ht="14.25" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="4" t="s">
-        <v>1165</v>
+        <v>1183</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -19273,7 +19492,7 @@
     <row r="662" ht="14.25" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="4" t="s">
-        <v>1166</v>
+        <v>1184</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -19292,7 +19511,7 @@
     <row r="663" ht="14.25" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="4" t="s">
-        <v>1167</v>
+        <v>1185</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -19311,7 +19530,7 @@
     <row r="664" ht="14.25" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="4" t="s">
-        <v>1168</v>
+        <v>1186</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -19330,7 +19549,7 @@
     <row r="665" ht="14.25" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="4" t="s">
-        <v>1169</v>
+        <v>1187</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -19349,7 +19568,7 @@
     <row r="666" ht="14.25" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="4" t="s">
-        <v>1170</v>
+        <v>1188</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -19368,7 +19587,7 @@
     <row r="667" ht="14.25" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="4" t="s">
-        <v>1171</v>
+        <v>1189</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -19387,7 +19606,7 @@
     <row r="668" ht="14.25" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="4" t="s">
-        <v>1172</v>
+        <v>1190</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -19406,7 +19625,7 @@
     <row r="669" ht="14.25" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="4" t="s">
-        <v>1173</v>
+        <v>1191</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -19425,7 +19644,7 @@
     <row r="670" ht="14.25" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="4" t="s">
-        <v>1174</v>
+        <v>1192</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -19444,7 +19663,7 @@
     <row r="671" ht="14.25" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="4" t="s">
-        <v>1175</v>
+        <v>1193</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -19463,7 +19682,7 @@
     <row r="672" ht="14.25" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="4" t="s">
-        <v>1176</v>
+        <v>1194</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -19482,7 +19701,7 @@
     <row r="673" ht="14.25" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="4" t="s">
-        <v>1177</v>
+        <v>1195</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -19501,7 +19720,7 @@
     <row r="674" ht="14.25" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="4" t="s">
-        <v>1178</v>
+        <v>1196</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -19520,7 +19739,7 @@
     <row r="675" ht="14.25" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="4" t="s">
-        <v>1179</v>
+        <v>1197</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -19539,7 +19758,7 @@
     <row r="676" ht="14.25" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="1" t="s">
-        <v>1180</v>
+        <v>1198</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -19558,7 +19777,7 @@
     <row r="677" ht="14.25" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="1" t="s">
-        <v>1181</v>
+        <v>1199</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -19577,7 +19796,7 @@
     <row r="678" ht="14.25" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="1" t="s">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -19596,7 +19815,7 @@
     <row r="679" ht="14.25" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="1" t="s">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -19615,7 +19834,7 @@
     <row r="680" ht="14.25" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="1" t="s">
-        <v>1184</v>
+        <v>1202</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -19634,7 +19853,7 @@
     <row r="681" ht="14.25" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="1" t="s">
-        <v>1185</v>
+        <v>1203</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -19653,7 +19872,7 @@
     <row r="682" ht="14.25" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="1" t="s">
-        <v>1186</v>
+        <v>1204</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -19672,7 +19891,7 @@
     <row r="683" ht="14.25" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="1" t="s">
-        <v>1187</v>
+        <v>1205</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -19691,7 +19910,7 @@
     <row r="684" ht="14.25" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="4" t="s">
-        <v>1188</v>
+        <v>1206</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -19710,7 +19929,7 @@
     <row r="685" ht="14.25" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="4" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -19729,7 +19948,7 @@
     <row r="686" ht="14.25" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="4" t="s">
-        <v>1190</v>
+        <v>1208</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -19748,7 +19967,7 @@
     <row r="687" ht="14.25" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="4" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -19767,7 +19986,7 @@
     <row r="688" ht="14.25" customHeight="1">
       <c r="A688" s="2"/>
       <c r="B688" s="4" t="s">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -19786,7 +20005,7 @@
     <row r="689" ht="14.25" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="4" t="s">
-        <v>1193</v>
+        <v>1211</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -19805,7 +20024,7 @@
     <row r="690" ht="14.25" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="4" t="s">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -19824,7 +20043,7 @@
     <row r="691" ht="14.25" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="4" t="s">
-        <v>1195</v>
+        <v>1213</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -19843,7 +20062,7 @@
     <row r="692" ht="14.25" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="4" t="s">
-        <v>1196</v>
+        <v>1214</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -19862,7 +20081,7 @@
     <row r="693" ht="14.25" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="4" t="s">
-        <v>1197</v>
+        <v>1215</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -19881,7 +20100,7 @@
     <row r="694" ht="14.25" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="4" t="s">
-        <v>1198</v>
+        <v>1216</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -19900,7 +20119,7 @@
     <row r="695" ht="14.25" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="4" t="s">
-        <v>1199</v>
+        <v>1217</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -19919,7 +20138,7 @@
     <row r="696" ht="14.25" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="4" t="s">
-        <v>1200</v>
+        <v>1218</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -19938,7 +20157,7 @@
     <row r="697" ht="14.25" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="4" t="s">
-        <v>1201</v>
+        <v>1219</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -19957,7 +20176,7 @@
     <row r="698" ht="14.25" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="4" t="s">
-        <v>1202</v>
+        <v>1220</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -19976,7 +20195,7 @@
     <row r="699" ht="14.25" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="4" t="s">
-        <v>1203</v>
+        <v>1221</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -19995,7 +20214,7 @@
     <row r="700" ht="14.25" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="4" t="s">
-        <v>1204</v>
+        <v>1222</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -20014,7 +20233,7 @@
     <row r="701" ht="14.25" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="4" t="s">
-        <v>1205</v>
+        <v>1223</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -20033,7 +20252,7 @@
     <row r="702" ht="14.25" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="4" t="s">
-        <v>1206</v>
+        <v>1224</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -20052,7 +20271,7 @@
     <row r="703" ht="14.25" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="4" t="s">
-        <v>1207</v>
+        <v>1225</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -20071,7 +20290,7 @@
     <row r="704" ht="14.25" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="4" t="s">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -20090,7 +20309,7 @@
     <row r="705" ht="14.25" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="4" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -20109,7 +20328,7 @@
     <row r="706" ht="14.25" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="4" t="s">
-        <v>1210</v>
+        <v>1228</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -20128,7 +20347,7 @@
     <row r="707" ht="14.25" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="4" t="s">
-        <v>1211</v>
+        <v>1229</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -20147,7 +20366,7 @@
     <row r="708" ht="14.25" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="4" t="s">
-        <v>1212</v>
+        <v>1230</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -20166,7 +20385,7 @@
     <row r="709" ht="14.25" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="4" t="s">
-        <v>1213</v>
+        <v>1231</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -20185,7 +20404,7 @@
     <row r="710" ht="14.25" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="4" t="s">
-        <v>1214</v>
+        <v>1232</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -20204,7 +20423,7 @@
     <row r="711" ht="14.25" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="4" t="s">
-        <v>1215</v>
+        <v>1233</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -20223,7 +20442,7 @@
     <row r="712" ht="14.25" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="4" t="s">
-        <v>1216</v>
+        <v>1234</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -20242,7 +20461,7 @@
     <row r="713" ht="14.25" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="4" t="s">
-        <v>1217</v>
+        <v>1235</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -20261,7 +20480,7 @@
     <row r="714" ht="14.25" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="4" t="s">
-        <v>1218</v>
+        <v>1236</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -20280,7 +20499,7 @@
     <row r="715" ht="14.25" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="4" t="s">
-        <v>1219</v>
+        <v>1237</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -20299,7 +20518,7 @@
     <row r="716" ht="14.25" customHeight="1">
       <c r="A716" s="2"/>
       <c r="B716" s="4" t="s">
-        <v>1220</v>
+        <v>1238</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -20318,7 +20537,7 @@
     <row r="717" ht="14.25" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="4" t="s">
-        <v>1221</v>
+        <v>1239</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -20337,7 +20556,7 @@
     <row r="718" ht="14.25" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="4" t="s">
-        <v>1222</v>
+        <v>1240</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -20356,7 +20575,7 @@
     <row r="719" ht="14.25" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="4" t="s">
-        <v>1223</v>
+        <v>1241</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -20375,7 +20594,7 @@
     <row r="720" ht="14.25" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="4" t="s">
-        <v>1224</v>
+        <v>1242</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -20394,7 +20613,7 @@
     <row r="721" ht="14.25" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="4" t="s">
-        <v>1225</v>
+        <v>1243</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -20413,7 +20632,7 @@
     <row r="722" ht="14.25" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="4" t="s">
-        <v>1226</v>
+        <v>1244</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -20432,7 +20651,7 @@
     <row r="723" ht="14.25" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="4" t="s">
-        <v>1227</v>
+        <v>1245</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -20451,7 +20670,7 @@
     <row r="724" ht="14.25" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="4" t="s">
-        <v>1228</v>
+        <v>1246</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -20470,7 +20689,7 @@
     <row r="725" ht="14.25" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="4" t="s">
-        <v>1229</v>
+        <v>1247</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -20489,7 +20708,7 @@
     <row r="726" ht="14.25" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="4" t="s">
-        <v>1230</v>
+        <v>1248</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -20508,7 +20727,7 @@
     <row r="727" ht="14.25" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="4" t="s">
-        <v>1231</v>
+        <v>1249</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -20527,7 +20746,7 @@
     <row r="728" ht="14.25" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="4" t="s">
-        <v>1232</v>
+        <v>1250</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -20546,7 +20765,7 @@
     <row r="729" ht="14.25" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="4" t="s">
-        <v>1233</v>
+        <v>1251</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -20565,7 +20784,7 @@
     <row r="730" ht="14.25" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="4" t="s">
-        <v>1234</v>
+        <v>1252</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -20584,7 +20803,7 @@
     <row r="731" ht="14.25" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="4" t="s">
-        <v>1235</v>
+        <v>1253</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -20603,7 +20822,7 @@
     <row r="732" ht="14.25" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="4" t="s">
-        <v>1236</v>
+        <v>1254</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -20622,7 +20841,7 @@
     <row r="733" ht="14.25" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="4" t="s">
-        <v>1237</v>
+        <v>1255</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -20641,7 +20860,7 @@
     <row r="734" ht="14.25" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="4" t="s">
-        <v>1238</v>
+        <v>1256</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -20660,7 +20879,7 @@
     <row r="735" ht="14.25" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="4" t="s">
-        <v>1239</v>
+        <v>1257</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -20679,7 +20898,7 @@
     <row r="736" ht="14.25" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="4" t="s">
-        <v>1240</v>
+        <v>1258</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -20698,7 +20917,7 @@
     <row r="737" ht="14.25" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="4" t="s">
-        <v>1241</v>
+        <v>1259</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -20717,7 +20936,7 @@
     <row r="738" ht="14.25" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="4" t="s">
-        <v>1242</v>
+        <v>1260</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -20736,7 +20955,7 @@
     <row r="739" ht="14.25" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="4" t="s">
-        <v>1243</v>
+        <v>1261</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -20755,7 +20974,7 @@
     <row r="740" ht="14.25" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="4" t="s">
-        <v>1244</v>
+        <v>1262</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -20774,7 +20993,7 @@
     <row r="741" ht="14.25" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="4" t="s">
-        <v>1245</v>
+        <v>1263</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -20793,7 +21012,7 @@
     <row r="742" ht="14.25" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="4" t="s">
-        <v>1246</v>
+        <v>1264</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -20812,7 +21031,7 @@
     <row r="743" ht="14.25" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="4" t="s">
-        <v>1247</v>
+        <v>1265</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -20831,7 +21050,7 @@
     <row r="744" ht="14.25" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="4" t="s">
-        <v>1248</v>
+        <v>1266</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -20850,7 +21069,7 @@
     <row r="745" ht="14.25" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="4" t="s">
-        <v>1249</v>
+        <v>1267</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -20869,7 +21088,7 @@
     <row r="746" ht="14.25" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="4" t="s">
-        <v>1250</v>
+        <v>1268</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -20888,7 +21107,7 @@
     <row r="747" ht="14.25" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="4" t="s">
-        <v>1251</v>
+        <v>1269</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -20907,7 +21126,7 @@
     <row r="748" ht="14.25" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="4" t="s">
-        <v>1252</v>
+        <v>1270</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -20926,7 +21145,7 @@
     <row r="749" ht="14.25" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="4" t="s">
-        <v>1253</v>
+        <v>1271</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -20945,7 +21164,7 @@
     <row r="750" ht="14.25" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="4" t="s">
-        <v>1254</v>
+        <v>1272</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -20964,7 +21183,7 @@
     <row r="751" ht="14.25" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="4" t="s">
-        <v>1255</v>
+        <v>1273</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -20983,7 +21202,7 @@
     <row r="752" ht="14.25" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="4" t="s">
-        <v>1256</v>
+        <v>1274</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -21002,7 +21221,7 @@
     <row r="753" ht="14.25" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="4" t="s">
-        <v>1257</v>
+        <v>1275</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -21021,7 +21240,7 @@
     <row r="754" ht="14.25" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="4" t="s">
-        <v>1258</v>
+        <v>1276</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -21040,7 +21259,7 @@
     <row r="755" ht="14.25" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="4" t="s">
-        <v>1259</v>
+        <v>1277</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -21059,7 +21278,7 @@
     <row r="756" ht="14.25" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="4" t="s">
-        <v>1260</v>
+        <v>1278</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -21078,7 +21297,7 @@
     <row r="757" ht="14.25" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="4" t="s">
-        <v>1261</v>
+        <v>1279</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -21097,7 +21316,7 @@
     <row r="758" ht="14.25" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="4" t="s">
-        <v>1262</v>
+        <v>1280</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -21116,7 +21335,7 @@
     <row r="759" ht="14.25" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="4" t="s">
-        <v>1263</v>
+        <v>1281</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -21135,7 +21354,7 @@
     <row r="760" ht="14.25" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="4" t="s">
-        <v>1264</v>
+        <v>1282</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -21154,7 +21373,7 @@
     <row r="761" ht="14.25" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="4" t="s">
-        <v>1265</v>
+        <v>1283</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -21173,7 +21392,7 @@
     <row r="762" ht="14.25" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="4" t="s">
-        <v>1266</v>
+        <v>1284</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -21192,7 +21411,7 @@
     <row r="763" ht="14.25" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="4" t="s">
-        <v>1267</v>
+        <v>1285</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -21211,7 +21430,7 @@
     <row r="764" ht="14.25" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="4" t="s">
-        <v>1268</v>
+        <v>1286</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -21230,7 +21449,7 @@
     <row r="765" ht="14.25" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="4" t="s">
-        <v>1269</v>
+        <v>1287</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -21249,7 +21468,7 @@
     <row r="766" ht="14.25" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="4" t="s">
-        <v>1270</v>
+        <v>1288</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -21268,7 +21487,7 @@
     <row r="767" ht="14.25" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="4" t="s">
-        <v>1271</v>
+        <v>1289</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -21287,7 +21506,7 @@
     <row r="768" ht="14.25" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="4" t="s">
-        <v>1272</v>
+        <v>1290</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -21306,7 +21525,7 @@
     <row r="769" ht="14.25" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="4" t="s">
-        <v>1273</v>
+        <v>1291</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -21325,7 +21544,7 @@
     <row r="770" ht="14.25" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="4" t="s">
-        <v>1274</v>
+        <v>1292</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -21344,7 +21563,7 @@
     <row r="771" ht="14.25" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="4" t="s">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -21363,7 +21582,7 @@
     <row r="772" ht="14.25" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="4" t="s">
-        <v>1276</v>
+        <v>1294</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -21382,7 +21601,7 @@
     <row r="773" ht="14.25" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="4" t="s">
-        <v>1277</v>
+        <v>1295</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -21401,7 +21620,7 @@
     <row r="774" ht="14.25" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="4" t="s">
-        <v>1278</v>
+        <v>1296</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -21420,7 +21639,7 @@
     <row r="775" ht="14.25" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="4" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -21439,7 +21658,7 @@
     <row r="776" ht="14.25" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="4" t="s">
-        <v>1280</v>
+        <v>1298</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -21458,7 +21677,7 @@
     <row r="777" ht="14.25" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="4" t="s">
-        <v>1281</v>
+        <v>1299</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -21477,7 +21696,7 @@
     <row r="778" ht="14.25" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="4" t="s">
-        <v>1282</v>
+        <v>1300</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -21496,7 +21715,7 @@
     <row r="779" ht="14.25" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="4" t="s">
-        <v>1283</v>
+        <v>1301</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -21515,7 +21734,7 @@
     <row r="780" ht="14.25" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="4" t="s">
-        <v>1284</v>
+        <v>1302</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -21534,7 +21753,7 @@
     <row r="781" ht="14.25" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="4" t="s">
-        <v>1285</v>
+        <v>1303</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -21553,7 +21772,7 @@
     <row r="782" ht="14.25" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="4" t="s">
-        <v>1286</v>
+        <v>1304</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -21572,7 +21791,7 @@
     <row r="783" ht="14.25" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="4" t="s">
-        <v>1287</v>
+        <v>1305</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -21591,7 +21810,7 @@
     <row r="784" ht="14.25" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="4" t="s">
-        <v>1288</v>
+        <v>1306</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -21610,7 +21829,7 @@
     <row r="785" ht="14.25" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="4" t="s">
-        <v>1289</v>
+        <v>1307</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -21629,7 +21848,7 @@
     <row r="786" ht="14.25" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="4" t="s">
-        <v>1290</v>
+        <v>1308</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -21648,7 +21867,7 @@
     <row r="787" ht="14.25" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="4" t="s">
-        <v>1291</v>
+        <v>1309</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -21667,7 +21886,7 @@
     <row r="788" ht="14.25" customHeight="1">
       <c r="A788" s="2"/>
       <c r="B788" s="4" t="s">
-        <v>1292</v>
+        <v>1310</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -21686,7 +21905,7 @@
     <row r="789" ht="14.25" customHeight="1">
       <c r="A789" s="2"/>
       <c r="B789" s="4" t="s">
-        <v>1293</v>
+        <v>1311</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -21705,7 +21924,7 @@
     <row r="790" ht="14.25" customHeight="1">
       <c r="A790" s="2"/>
       <c r="B790" s="4" t="s">
-        <v>1294</v>
+        <v>1312</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -21724,7 +21943,7 @@
     <row r="791" ht="14.25" customHeight="1">
       <c r="A791" s="2"/>
       <c r="B791" s="4" t="s">
-        <v>1295</v>
+        <v>1313</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -21743,7 +21962,7 @@
     <row r="792" ht="14.25" customHeight="1">
       <c r="A792" s="2"/>
       <c r="B792" s="4" t="s">
-        <v>1296</v>
+        <v>1314</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -21762,7 +21981,7 @@
     <row r="793" ht="14.25" customHeight="1">
       <c r="A793" s="2"/>
       <c r="B793" s="4" t="s">
-        <v>1297</v>
+        <v>1315</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -21781,7 +22000,7 @@
     <row r="794" ht="14.25" customHeight="1">
       <c r="A794" s="2"/>
       <c r="B794" s="4" t="s">
-        <v>1298</v>
+        <v>1316</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -21800,7 +22019,7 @@
     <row r="795" ht="14.25" customHeight="1">
       <c r="A795" s="2"/>
       <c r="B795" s="4" t="s">
-        <v>1299</v>
+        <v>1317</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -21819,7 +22038,7 @@
     <row r="796" ht="14.25" customHeight="1">
       <c r="A796" s="2"/>
       <c r="B796" s="4" t="s">
-        <v>1300</v>
+        <v>1318</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -21838,7 +22057,7 @@
     <row r="797" ht="14.25" customHeight="1">
       <c r="A797" s="2"/>
       <c r="B797" s="4" t="s">
-        <v>1301</v>
+        <v>1319</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -21857,7 +22076,7 @@
     <row r="798" ht="14.25" customHeight="1">
       <c r="A798" s="2"/>
       <c r="B798" s="4" t="s">
-        <v>1302</v>
+        <v>1320</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -21876,7 +22095,7 @@
     <row r="799" ht="14.25" customHeight="1">
       <c r="A799" s="2"/>
       <c r="B799" s="4" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -21895,7 +22114,7 @@
     <row r="800" ht="14.25" customHeight="1">
       <c r="A800" s="2"/>
       <c r="B800" s="4" t="s">
-        <v>1304</v>
+        <v>1322</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -21914,7 +22133,7 @@
     <row r="801" ht="14.25" customHeight="1">
       <c r="A801" s="2"/>
       <c r="B801" s="4" t="s">
-        <v>1305</v>
+        <v>1323</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -21933,7 +22152,7 @@
     <row r="802" ht="14.25" customHeight="1">
       <c r="A802" s="2"/>
       <c r="B802" s="4" t="s">
-        <v>1306</v>
+        <v>1324</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -21952,7 +22171,7 @@
     <row r="803" ht="14.25" customHeight="1">
       <c r="A803" s="2"/>
       <c r="B803" s="4" t="s">
-        <v>1307</v>
+        <v>1325</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -21971,7 +22190,7 @@
     <row r="804" ht="14.25" customHeight="1">
       <c r="A804" s="2"/>
       <c r="B804" s="4" t="s">
-        <v>1308</v>
+        <v>1326</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -21990,7 +22209,7 @@
     <row r="805" ht="14.25" customHeight="1">
       <c r="A805" s="2"/>
       <c r="B805" s="4" t="s">
-        <v>1309</v>
+        <v>1327</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -22009,7 +22228,7 @@
     <row r="806" ht="14.25" customHeight="1">
       <c r="A806" s="2"/>
       <c r="B806" s="4" t="s">
-        <v>1310</v>
+        <v>1328</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -22028,7 +22247,7 @@
     <row r="807" ht="14.25" customHeight="1">
       <c r="A807" s="2"/>
       <c r="B807" s="4" t="s">
-        <v>1311</v>
+        <v>1329</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -22047,7 +22266,7 @@
     <row r="808" ht="14.25" customHeight="1">
       <c r="A808" s="2"/>
       <c r="B808" s="4" t="s">
-        <v>1312</v>
+        <v>1330</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -22066,7 +22285,7 @@
     <row r="809" ht="14.25" customHeight="1">
       <c r="A809" s="2"/>
       <c r="B809" s="4" t="s">
-        <v>1313</v>
+        <v>1331</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -22085,7 +22304,7 @@
     <row r="810" ht="14.25" customHeight="1">
       <c r="A810" s="2"/>
       <c r="B810" s="4" t="s">
-        <v>1314</v>
+        <v>1332</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -22104,7 +22323,7 @@
     <row r="811" ht="14.25" customHeight="1">
       <c r="A811" s="2"/>
       <c r="B811" s="4" t="s">
-        <v>1315</v>
+        <v>1333</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -22123,7 +22342,7 @@
     <row r="812" ht="14.25" customHeight="1">
       <c r="A812" s="2"/>
       <c r="B812" s="4" t="s">
-        <v>1316</v>
+        <v>1334</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -22142,7 +22361,7 @@
     <row r="813" ht="14.25" customHeight="1">
       <c r="A813" s="2"/>
       <c r="B813" s="4" t="s">
-        <v>1317</v>
+        <v>1335</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -22161,7 +22380,7 @@
     <row r="814" ht="14.25" customHeight="1">
       <c r="A814" s="2"/>
       <c r="B814" s="4" t="s">
-        <v>1318</v>
+        <v>1336</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -22180,7 +22399,7 @@
     <row r="815" ht="14.25" customHeight="1">
       <c r="A815" s="2"/>
       <c r="B815" s="4" t="s">
-        <v>1319</v>
+        <v>1337</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -22199,7 +22418,7 @@
     <row r="816" ht="14.25" customHeight="1">
       <c r="A816" s="2"/>
       <c r="B816" s="4" t="s">
-        <v>1320</v>
+        <v>1338</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -22218,7 +22437,7 @@
     <row r="817" ht="14.25" customHeight="1">
       <c r="A817" s="2"/>
       <c r="B817" s="4" t="s">
-        <v>1321</v>
+        <v>1339</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -22237,7 +22456,7 @@
     <row r="818" ht="14.25" customHeight="1">
       <c r="A818" s="2"/>
       <c r="B818" s="4" t="s">
-        <v>1322</v>
+        <v>1340</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -22256,7 +22475,7 @@
     <row r="819" ht="14.25" customHeight="1">
       <c r="A819" s="2"/>
       <c r="B819" s="4" t="s">
-        <v>1323</v>
+        <v>1341</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -22275,7 +22494,7 @@
     <row r="820" ht="14.25" customHeight="1">
       <c r="A820" s="2"/>
       <c r="B820" s="4" t="s">
-        <v>1324</v>
+        <v>1342</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -22294,7 +22513,7 @@
     <row r="821" ht="14.25" customHeight="1">
       <c r="A821" s="2"/>
       <c r="B821" s="4" t="s">
-        <v>1325</v>
+        <v>1343</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -22313,7 +22532,7 @@
     <row r="822" ht="14.25" customHeight="1">
       <c r="A822" s="2"/>
       <c r="B822" s="4" t="s">
-        <v>1326</v>
+        <v>1344</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -22332,7 +22551,7 @@
     <row r="823" ht="14.25" customHeight="1">
       <c r="A823" s="2"/>
       <c r="B823" s="4" t="s">
-        <v>1327</v>
+        <v>1345</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -22351,7 +22570,7 @@
     <row r="824" ht="14.25" customHeight="1">
       <c r="A824" s="2"/>
       <c r="B824" s="4" t="s">
-        <v>1328</v>
+        <v>1346</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -22370,7 +22589,7 @@
     <row r="825" ht="14.25" customHeight="1">
       <c r="A825" s="2"/>
       <c r="B825" s="4" t="s">
-        <v>1329</v>
+        <v>1347</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -22389,7 +22608,7 @@
     <row r="826" ht="14.25" customHeight="1">
       <c r="A826" s="2"/>
       <c r="B826" s="4" t="s">
-        <v>1330</v>
+        <v>1348</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -22408,7 +22627,7 @@
     <row r="827" ht="14.25" customHeight="1">
       <c r="A827" s="2"/>
       <c r="B827" s="4" t="s">
-        <v>1331</v>
+        <v>1349</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -22427,7 +22646,7 @@
     <row r="828" ht="14.25" customHeight="1">
       <c r="A828" s="2"/>
       <c r="B828" s="4" t="s">
-        <v>1332</v>
+        <v>1350</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -22446,7 +22665,7 @@
     <row r="829" ht="14.25" customHeight="1">
       <c r="A829" s="2"/>
       <c r="B829" s="4" t="s">
-        <v>1333</v>
+        <v>1351</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -22465,7 +22684,7 @@
     <row r="830" ht="14.25" customHeight="1">
       <c r="A830" s="2"/>
       <c r="B830" s="4" t="s">
-        <v>1333</v>
+        <v>1351</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -22484,7 +22703,7 @@
     <row r="831" ht="14.25" customHeight="1">
       <c r="A831" s="2"/>
       <c r="B831" s="4" t="s">
-        <v>1334</v>
+        <v>1352</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -22503,7 +22722,7 @@
     <row r="832" ht="14.25" customHeight="1">
       <c r="A832" s="2"/>
       <c r="B832" s="4" t="s">
-        <v>1335</v>
+        <v>1353</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -22522,7 +22741,7 @@
     <row r="833" ht="14.25" customHeight="1">
       <c r="A833" s="2"/>
       <c r="B833" s="4" t="s">
-        <v>1336</v>
+        <v>1354</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -22541,7 +22760,7 @@
     <row r="834" ht="14.25" customHeight="1">
       <c r="A834" s="2"/>
       <c r="B834" s="4" t="s">
-        <v>1337</v>
+        <v>1355</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -22560,7 +22779,7 @@
     <row r="835" ht="14.25" customHeight="1">
       <c r="A835" s="2"/>
       <c r="B835" s="4" t="s">
-        <v>1338</v>
+        <v>1356</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -22579,7 +22798,7 @@
     <row r="836" ht="14.25" customHeight="1">
       <c r="A836" s="2"/>
       <c r="B836" s="4" t="s">
-        <v>1339</v>
+        <v>1357</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -22598,7 +22817,7 @@
     <row r="837" ht="14.25" customHeight="1">
       <c r="A837" s="2"/>
       <c r="B837" s="4" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -22617,7 +22836,7 @@
     <row r="838" ht="14.25" customHeight="1">
       <c r="A838" s="2"/>
       <c r="B838" s="4" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -22636,7 +22855,7 @@
     <row r="839" ht="14.25" customHeight="1">
       <c r="A839" s="2"/>
       <c r="B839" s="4" t="s">
-        <v>1342</v>
+        <v>1360</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -22655,7 +22874,7 @@
     <row r="840" ht="14.25" customHeight="1">
       <c r="A840" s="2"/>
       <c r="B840" s="4" t="s">
-        <v>1343</v>
+        <v>1361</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -22674,7 +22893,7 @@
     <row r="841" ht="14.25" customHeight="1">
       <c r="A841" s="2"/>
       <c r="B841" s="4" t="s">
-        <v>1344</v>
+        <v>1362</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -22693,7 +22912,7 @@
     <row r="842" ht="14.25" customHeight="1">
       <c r="A842" s="2"/>
       <c r="B842" s="4" t="s">
-        <v>1345</v>
+        <v>1363</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -22712,7 +22931,7 @@
     <row r="843" ht="14.25" customHeight="1">
       <c r="A843" s="2"/>
       <c r="B843" s="4" t="s">
-        <v>1346</v>
+        <v>1364</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -22731,7 +22950,7 @@
     <row r="844" ht="14.25" customHeight="1">
       <c r="A844" s="2"/>
       <c r="B844" s="4" t="s">
-        <v>1347</v>
+        <v>1365</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -22750,7 +22969,7 @@
     <row r="845" ht="14.25" customHeight="1">
       <c r="A845" s="2"/>
       <c r="B845" s="4" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -22769,7 +22988,7 @@
     <row r="846" ht="14.25" customHeight="1">
       <c r="A846" s="2"/>
       <c r="B846" s="4" t="s">
-        <v>1349</v>
+        <v>1367</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -22788,7 +23007,7 @@
     <row r="847" ht="14.25" customHeight="1">
       <c r="A847" s="2"/>
       <c r="B847" s="4" t="s">
-        <v>1350</v>
+        <v>1368</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -22807,7 +23026,7 @@
     <row r="848" ht="14.25" customHeight="1">
       <c r="A848" s="2"/>
       <c r="B848" s="4" t="s">
-        <v>1351</v>
+        <v>1369</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -22826,7 +23045,7 @@
     <row r="849" ht="14.25" customHeight="1">
       <c r="A849" s="2"/>
       <c r="B849" s="4" t="s">
-        <v>1352</v>
+        <v>1370</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -22845,7 +23064,7 @@
     <row r="850">
       <c r="A850" s="2"/>
       <c r="B850" s="4" t="s">
-        <v>1353</v>
+        <v>1371</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -22864,7 +23083,7 @@
     <row r="851" ht="14.25" customHeight="1">
       <c r="A851" s="2"/>
       <c r="B851" s="4" t="s">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -22883,7 +23102,7 @@
     <row r="852" ht="14.25" customHeight="1">
       <c r="A852" s="2"/>
       <c r="B852" s="4" t="s">
-        <v>1355</v>
+        <v>1373</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -22902,7 +23121,7 @@
     <row r="853">
       <c r="A853" s="2"/>
       <c r="B853" s="4" t="s">
-        <v>1356</v>
+        <v>1374</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -22921,7 +23140,7 @@
     <row r="854" ht="14.25" customHeight="1">
       <c r="A854" s="2"/>
       <c r="B854" s="4" t="s">
-        <v>1357</v>
+        <v>1375</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -22940,7 +23159,7 @@
     <row r="855" ht="14.25" customHeight="1">
       <c r="A855" s="2"/>
       <c r="B855" s="4" t="s">
-        <v>1358</v>
+        <v>1376</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -22959,7 +23178,7 @@
     <row r="856" ht="14.25" customHeight="1">
       <c r="A856" s="2"/>
       <c r="B856" s="4" t="s">
-        <v>1359</v>
+        <v>1377</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -22978,7 +23197,7 @@
     <row r="857" ht="14.25" customHeight="1">
       <c r="A857" s="2"/>
       <c r="B857" s="4" t="s">
-        <v>1360</v>
+        <v>1378</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -22997,7 +23216,7 @@
     <row r="858" ht="14.25" customHeight="1">
       <c r="A858" s="2"/>
       <c r="B858" s="4" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -23016,7 +23235,7 @@
     <row r="859" ht="14.25" customHeight="1">
       <c r="A859" s="2"/>
       <c r="B859" s="4" t="s">
-        <v>1362</v>
+        <v>1380</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -23035,7 +23254,7 @@
     <row r="860" ht="14.25" customHeight="1">
       <c r="A860" s="2"/>
       <c r="B860" s="4" t="s">
-        <v>1363</v>
+        <v>1381</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -23054,7 +23273,7 @@
     <row r="861" ht="14.25" customHeight="1">
       <c r="A861" s="2"/>
       <c r="B861" s="4" t="s">
-        <v>1364</v>
+        <v>1382</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -23073,7 +23292,7 @@
     <row r="862" ht="14.25" customHeight="1">
       <c r="A862" s="2"/>
       <c r="B862" s="4" t="s">
-        <v>1365</v>
+        <v>1383</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -23092,7 +23311,7 @@
     <row r="863" ht="14.25" customHeight="1">
       <c r="A863" s="2"/>
       <c r="B863" s="4" t="s">
-        <v>1366</v>
+        <v>1384</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -23111,7 +23330,7 @@
     <row r="864" ht="14.25" customHeight="1">
       <c r="A864" s="2"/>
       <c r="B864" s="4" t="s">
-        <v>1367</v>
+        <v>1385</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -23130,7 +23349,7 @@
     <row r="865" ht="14.25" customHeight="1">
       <c r="A865" s="2"/>
       <c r="B865" s="4" t="s">
-        <v>1368</v>
+        <v>1386</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -23149,7 +23368,7 @@
     <row r="866" ht="14.25" customHeight="1">
       <c r="A866" s="2"/>
       <c r="B866" s="4" t="s">
-        <v>1369</v>
+        <v>1387</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -23168,7 +23387,7 @@
     <row r="867" ht="14.25" customHeight="1">
       <c r="A867" s="2"/>
       <c r="B867" s="4" t="s">
-        <v>1370</v>
+        <v>1388</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -23187,7 +23406,7 @@
     <row r="868" ht="14.25" customHeight="1">
       <c r="A868" s="2"/>
       <c r="B868" s="4" t="s">
-        <v>1371</v>
+        <v>1389</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -23206,7 +23425,7 @@
     <row r="869" ht="14.25" customHeight="1">
       <c r="A869" s="2"/>
       <c r="B869" s="4" t="s">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -23225,7 +23444,7 @@
     <row r="870" ht="14.25" customHeight="1">
       <c r="A870" s="2"/>
       <c r="B870" s="4" t="s">
-        <v>1373</v>
+        <v>1391</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -23244,7 +23463,7 @@
     <row r="871" ht="14.25" customHeight="1">
       <c r="A871" s="2"/>
       <c r="B871" s="4" t="s">
-        <v>1374</v>
+        <v>1392</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -23263,7 +23482,7 @@
     <row r="872" ht="14.25" customHeight="1">
       <c r="A872" s="2"/>
       <c r="B872" s="4" t="s">
-        <v>1375</v>
+        <v>1393</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -23282,7 +23501,7 @@
     <row r="873" ht="14.25" customHeight="1">
       <c r="A873" s="2"/>
       <c r="B873" s="4" t="s">
-        <v>1376</v>
+        <v>1394</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -23301,7 +23520,7 @@
     <row r="874" ht="14.25" customHeight="1">
       <c r="A874" s="2"/>
       <c r="B874" s="4" t="s">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -23320,7 +23539,7 @@
     <row r="875" ht="14.25" customHeight="1">
       <c r="A875" s="2"/>
       <c r="B875" s="4" t="s">
-        <v>1378</v>
+        <v>1396</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -23339,7 +23558,7 @@
     <row r="876" ht="14.25" customHeight="1">
       <c r="A876" s="2"/>
       <c r="B876" s="4" t="s">
-        <v>1379</v>
+        <v>1397</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -23358,7 +23577,7 @@
     <row r="877" ht="14.25" customHeight="1">
       <c r="A877" s="2"/>
       <c r="B877" s="4" t="s">
-        <v>1380</v>
+        <v>1398</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -23377,7 +23596,7 @@
     <row r="878" ht="14.25" customHeight="1">
       <c r="A878" s="2"/>
       <c r="B878" s="4" t="s">
-        <v>1381</v>
+        <v>1399</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -23396,7 +23615,7 @@
     <row r="879" ht="14.25" customHeight="1">
       <c r="A879" s="2"/>
       <c r="B879" s="4" t="s">
-        <v>1382</v>
+        <v>1400</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -23415,7 +23634,7 @@
     <row r="880" ht="14.25" customHeight="1">
       <c r="A880" s="2"/>
       <c r="B880" s="4" t="s">
-        <v>1383</v>
+        <v>1401</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -23434,7 +23653,7 @@
     <row r="881" ht="14.25" customHeight="1">
       <c r="A881" s="2"/>
       <c r="B881" s="4" t="s">
-        <v>1384</v>
+        <v>1402</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -23453,7 +23672,7 @@
     <row r="882" ht="14.25" customHeight="1">
       <c r="A882" s="2"/>
       <c r="B882" s="4" t="s">
-        <v>1385</v>
+        <v>1403</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -23472,7 +23691,7 @@
     <row r="883" ht="14.25" customHeight="1">
       <c r="A883" s="2"/>
       <c r="B883" s="4" t="s">
-        <v>1386</v>
+        <v>1404</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -23491,7 +23710,7 @@
     <row r="884" ht="14.25" customHeight="1">
       <c r="A884" s="2"/>
       <c r="B884" s="4" t="s">
-        <v>1387</v>
+        <v>1405</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -23510,7 +23729,7 @@
     <row r="885" ht="14.25" customHeight="1">
       <c r="A885" s="2"/>
       <c r="B885" s="4" t="s">
-        <v>1388</v>
+        <v>1406</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -23529,7 +23748,7 @@
     <row r="886" ht="14.25" customHeight="1">
       <c r="A886" s="2"/>
       <c r="B886" s="4" t="s">
-        <v>1389</v>
+        <v>1407</v>
       </c>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
@@ -23548,7 +23767,7 @@
     <row r="887" ht="14.25" customHeight="1">
       <c r="A887" s="2"/>
       <c r="B887" s="4" t="s">
-        <v>1390</v>
+        <v>1408</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -23567,7 +23786,7 @@
     <row r="888" ht="14.25" customHeight="1">
       <c r="A888" s="2"/>
       <c r="B888" s="4" t="s">
-        <v>1391</v>
+        <v>1409</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -23586,7 +23805,7 @@
     <row r="889" ht="14.25" customHeight="1">
       <c r="A889" s="2"/>
       <c r="B889" s="4" t="s">
-        <v>1392</v>
+        <v>1410</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -23605,7 +23824,7 @@
     <row r="890" ht="14.25" customHeight="1">
       <c r="A890" s="2"/>
       <c r="B890" s="4" t="s">
-        <v>1393</v>
+        <v>1411</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -23624,7 +23843,7 @@
     <row r="891" ht="14.25" customHeight="1">
       <c r="A891" s="2"/>
       <c r="B891" s="4" t="s">
-        <v>1394</v>
+        <v>1412</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -23642,8 +23861,8 @@
     </row>
     <row r="892" ht="14.25" customHeight="1">
       <c r="A892" s="2"/>
-      <c r="B892" s="8" t="s">
-        <v>1395</v>
+      <c r="B892" s="9" t="s">
+        <v>1413</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -23662,7 +23881,7 @@
     <row r="893" ht="14.25" customHeight="1">
       <c r="A893" s="2"/>
       <c r="B893" s="4" t="s">
-        <v>1396</v>
+        <v>1414</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -23681,7 +23900,7 @@
     <row r="894" ht="14.25" customHeight="1">
       <c r="A894" s="2"/>
       <c r="B894" s="4" t="s">
-        <v>1397</v>
+        <v>1415</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -23700,7 +23919,7 @@
     <row r="895" ht="14.25" customHeight="1">
       <c r="A895" s="2"/>
       <c r="B895" s="4" t="s">
-        <v>1398</v>
+        <v>1416</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -23719,7 +23938,7 @@
     <row r="896" ht="14.25" customHeight="1">
       <c r="A896" s="2"/>
       <c r="B896" s="4" t="s">
-        <v>1399</v>
+        <v>1417</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -23738,7 +23957,7 @@
     <row r="897" ht="14.25" customHeight="1">
       <c r="A897" s="2"/>
       <c r="B897" s="4" t="s">
-        <v>1400</v>
+        <v>1418</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -23757,7 +23976,7 @@
     <row r="898" ht="14.25" customHeight="1">
       <c r="A898" s="2"/>
       <c r="B898" s="4" t="s">
-        <v>1401</v>
+        <v>1419</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -23776,7 +23995,7 @@
     <row r="899" ht="14.25" customHeight="1">
       <c r="A899" s="2"/>
       <c r="B899" s="4" t="s">
-        <v>1402</v>
+        <v>1420</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -23795,7 +24014,7 @@
     <row r="900" ht="14.25" customHeight="1">
       <c r="A900" s="2"/>
       <c r="B900" s="4" t="s">
-        <v>1403</v>
+        <v>1421</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -23814,7 +24033,7 @@
     <row r="901" ht="14.25" customHeight="1">
       <c r="A901" s="2"/>
       <c r="B901" s="4" t="s">
-        <v>1404</v>
+        <v>1422</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -23833,7 +24052,7 @@
     <row r="902" ht="14.25" customHeight="1">
       <c r="A902" s="2"/>
       <c r="B902" s="4" t="s">
-        <v>1405</v>
+        <v>1423</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -23852,7 +24071,7 @@
     <row r="903" ht="14.25" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="4" t="s">
-        <v>1406</v>
+        <v>1424</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -23871,7 +24090,7 @@
     <row r="904" ht="14.25" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="4" t="s">
-        <v>1407</v>
+        <v>1425</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -23890,7 +24109,7 @@
     <row r="905" ht="14.25" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="4" t="s">
-        <v>1408</v>
+        <v>1426</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -23909,7 +24128,7 @@
     <row r="906" ht="14.25" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="4" t="s">
-        <v>1409</v>
+        <v>1427</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -23928,7 +24147,7 @@
     <row r="907" ht="14.25" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="4" t="s">
-        <v>1410</v>
+        <v>1428</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -23947,7 +24166,7 @@
     <row r="908" ht="14.25" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="4" t="s">
-        <v>1411</v>
+        <v>1429</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -23966,7 +24185,7 @@
     <row r="909" ht="14.25" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="4" t="s">
-        <v>1412</v>
+        <v>1430</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -23985,7 +24204,7 @@
     <row r="910" ht="14.25" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="4" t="s">
-        <v>1413</v>
+        <v>1431</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -24004,7 +24223,7 @@
     <row r="911" ht="14.25" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="4" t="s">
-        <v>1414</v>
+        <v>1432</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -24023,7 +24242,7 @@
     <row r="912" ht="14.25" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="4" t="s">
-        <v>1415</v>
+        <v>1433</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -24042,7 +24261,7 @@
     <row r="913" ht="14.25" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="4" t="s">
-        <v>1416</v>
+        <v>1434</v>
       </c>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
@@ -24060,8 +24279,8 @@
     </row>
     <row r="914" ht="14.25" customHeight="1">
       <c r="A914" s="2"/>
-      <c r="B914" s="9" t="s">
-        <v>1417</v>
+      <c r="B914" s="8" t="s">
+        <v>1435</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -24080,7 +24299,7 @@
     <row r="915" ht="14.25" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="4" t="s">
-        <v>1418</v>
+        <v>1436</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -24099,7 +24318,7 @@
     <row r="916" ht="14.25" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="4" t="s">
-        <v>1419</v>
+        <v>1437</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -24118,7 +24337,7 @@
     <row r="917" ht="14.25" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="4" t="s">
-        <v>1420</v>
+        <v>1438</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -24137,7 +24356,7 @@
     <row r="918" ht="14.25" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="4" t="s">
-        <v>1421</v>
+        <v>1439</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -24156,7 +24375,7 @@
     <row r="919" ht="14.25" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="4" t="s">
-        <v>1422</v>
+        <v>1440</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -24174,8 +24393,8 @@
     </row>
     <row r="920" ht="14.25" customHeight="1">
       <c r="A920" s="2"/>
-      <c r="B920" s="9" t="s">
-        <v>1423</v>
+      <c r="B920" s="8" t="s">
+        <v>1441</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -24193,8 +24412,8 @@
     </row>
     <row r="921" ht="14.25" customHeight="1">
       <c r="A921" s="2"/>
-      <c r="B921" s="9" t="s">
-        <v>1424</v>
+      <c r="B921" s="8" t="s">
+        <v>1442</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -24212,8 +24431,8 @@
     </row>
     <row r="922" ht="14.25" customHeight="1">
       <c r="A922" s="2"/>
-      <c r="B922" s="9" t="s">
-        <v>1425</v>
+      <c r="B922" s="8" t="s">
+        <v>1443</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -24232,7 +24451,7 @@
     <row r="923" ht="14.25" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="4" t="s">
-        <v>1426</v>
+        <v>1444</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -24251,7 +24470,7 @@
     <row r="924" ht="14.25" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="4" t="s">
-        <v>1427</v>
+        <v>1445</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -24270,7 +24489,7 @@
     <row r="925" ht="14.25" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="4" t="s">
-        <v>1428</v>
+        <v>1446</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -24289,7 +24508,7 @@
     <row r="926" ht="14.25" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="4" t="s">
-        <v>1429</v>
+        <v>1447</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -24308,7 +24527,7 @@
     <row r="927" ht="14.25" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="4" t="s">
-        <v>1430</v>
+        <v>1448</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -24327,7 +24546,7 @@
     <row r="928" ht="14.25" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="4" t="s">
-        <v>1431</v>
+        <v>1449</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -24346,7 +24565,7 @@
     <row r="929" ht="14.25" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="4" t="s">
-        <v>1432</v>
+        <v>1450</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -24365,7 +24584,7 @@
     <row r="930" ht="14.25" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="4" t="s">
-        <v>1433</v>
+        <v>1451</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -24383,8 +24602,8 @@
     </row>
     <row r="931" ht="14.25" customHeight="1">
       <c r="A931" s="2"/>
-      <c r="B931" s="9" t="s">
-        <v>1434</v>
+      <c r="B931" s="8" t="s">
+        <v>1452</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -24402,8 +24621,8 @@
     </row>
     <row r="932" ht="14.25" customHeight="1">
       <c r="A932" s="2"/>
-      <c r="B932" s="9" t="s">
-        <v>1435</v>
+      <c r="B932" s="8" t="s">
+        <v>1453</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -24421,8 +24640,8 @@
     </row>
     <row r="933" ht="14.25" customHeight="1">
       <c r="A933" s="2"/>
-      <c r="B933" s="9" t="s">
-        <v>1436</v>
+      <c r="B933" s="8" t="s">
+        <v>1454</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -24440,8 +24659,8 @@
     </row>
     <row r="934" ht="14.25" customHeight="1">
       <c r="A934" s="2"/>
-      <c r="B934" s="9" t="s">
-        <v>1437</v>
+      <c r="B934" s="8" t="s">
+        <v>1455</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -24459,8 +24678,8 @@
     </row>
     <row r="935" ht="14.25" customHeight="1">
       <c r="A935" s="2"/>
-      <c r="B935" s="9" t="s">
-        <v>1438</v>
+      <c r="B935" s="8" t="s">
+        <v>1456</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -24478,8 +24697,8 @@
     </row>
     <row r="936" ht="14.25" customHeight="1">
       <c r="A936" s="2"/>
-      <c r="B936" s="9" t="s">
-        <v>1439</v>
+      <c r="B936" s="8" t="s">
+        <v>1457</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -24497,8 +24716,8 @@
     </row>
     <row r="937" ht="14.25" customHeight="1">
       <c r="A937" s="2"/>
-      <c r="B937" s="9" t="s">
-        <v>1440</v>
+      <c r="B937" s="8" t="s">
+        <v>1458</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -24516,8 +24735,8 @@
     </row>
     <row r="938" ht="14.25" customHeight="1">
       <c r="A938" s="2"/>
-      <c r="B938" s="9" t="s">
-        <v>1441</v>
+      <c r="B938" s="8" t="s">
+        <v>1459</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -24535,8 +24754,8 @@
     </row>
     <row r="939" ht="14.25" customHeight="1">
       <c r="A939" s="2"/>
-      <c r="B939" s="9" t="s">
-        <v>1442</v>
+      <c r="B939" s="8" t="s">
+        <v>1460</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -24554,8 +24773,8 @@
     </row>
     <row r="940" ht="14.25" customHeight="1">
       <c r="A940" s="2"/>
-      <c r="B940" s="9" t="s">
-        <v>1443</v>
+      <c r="B940" s="8" t="s">
+        <v>1461</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -24573,8 +24792,8 @@
     </row>
     <row r="941" ht="14.25" customHeight="1">
       <c r="A941" s="2"/>
-      <c r="B941" s="9" t="s">
-        <v>1444</v>
+      <c r="B941" s="8" t="s">
+        <v>1462</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -24593,7 +24812,7 @@
     <row r="942" ht="14.25" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="4" t="s">
-        <v>1445</v>
+        <v>1463</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -24612,7 +24831,7 @@
     <row r="943" ht="14.25" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="4" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -24631,7 +24850,7 @@
     <row r="944" ht="14.25" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="4" t="s">
-        <v>1447</v>
+        <v>1465</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -24650,7 +24869,7 @@
     <row r="945" ht="14.25" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="4" t="s">
-        <v>1448</v>
+        <v>1466</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -24669,7 +24888,7 @@
     <row r="946" ht="14.25" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="4" t="s">
-        <v>1449</v>
+        <v>1467</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -24688,7 +24907,7 @@
     <row r="947" ht="14.25" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="4" t="s">
-        <v>1450</v>
+        <v>1468</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -24707,7 +24926,7 @@
     <row r="948" ht="14.25" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="4" t="s">
-        <v>1451</v>
+        <v>1469</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -24726,7 +24945,7 @@
     <row r="949" ht="14.25" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="4" t="s">
-        <v>1452</v>
+        <v>1470</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -24745,7 +24964,7 @@
     <row r="950" ht="14.25" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="4" t="s">
-        <v>1453</v>
+        <v>1471</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -24764,7 +24983,7 @@
     <row r="951" ht="14.25" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="4" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -24783,7 +25002,7 @@
     <row r="952" ht="14.25" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="4" t="s">
-        <v>1455</v>
+        <v>1473</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -24802,7 +25021,7 @@
     <row r="953" ht="14.25" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="4" t="s">
-        <v>1456</v>
+        <v>1474</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -24821,7 +25040,7 @@
     <row r="954" ht="14.25" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="4" t="s">
-        <v>1457</v>
+        <v>1475</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -24839,8 +25058,8 @@
     </row>
     <row r="955" ht="14.25" customHeight="1">
       <c r="A955" s="2"/>
-      <c r="B955" s="9" t="s">
-        <v>1458</v>
+      <c r="B955" s="8" t="s">
+        <v>1476</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -24858,8 +25077,8 @@
     </row>
     <row r="956" ht="14.25" customHeight="1">
       <c r="A956" s="2"/>
-      <c r="B956" s="9" t="s">
-        <v>1459</v>
+      <c r="B956" s="8" t="s">
+        <v>1477</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -24878,7 +25097,7 @@
     <row r="957" ht="14.25" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="4" t="s">
-        <v>1460</v>
+        <v>1478</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -24897,7 +25116,7 @@
     <row r="958" ht="14.25" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="4" t="s">
-        <v>1461</v>
+        <v>1479</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
@@ -24916,7 +25135,7 @@
     <row r="959" ht="14.25" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="4" t="s">
-        <v>1462</v>
+        <v>1480</v>
       </c>
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
@@ -24935,7 +25154,7 @@
     <row r="960" ht="14.25" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="4" t="s">
-        <v>1463</v>
+        <v>1481</v>
       </c>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
@@ -24954,7 +25173,7 @@
     <row r="961" ht="14.25" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="4" t="s">
-        <v>1464</v>
+        <v>1482</v>
       </c>
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
@@ -24973,7 +25192,7 @@
     <row r="962" ht="14.25" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="4" t="s">
-        <v>1465</v>
+        <v>1483</v>
       </c>
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
@@ -24992,7 +25211,7 @@
     <row r="963" ht="14.25" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="4" t="s">
-        <v>1466</v>
+        <v>1484</v>
       </c>
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
@@ -25011,7 +25230,7 @@
     <row r="964" ht="14.25" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="4" t="s">
-        <v>1467</v>
+        <v>1485</v>
       </c>
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
@@ -25030,7 +25249,7 @@
     <row r="965" ht="14.25" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="4" t="s">
-        <v>1468</v>
+        <v>1486</v>
       </c>
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
@@ -25049,7 +25268,7 @@
     <row r="966" ht="14.25" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="4" t="s">
-        <v>1469</v>
+        <v>1487</v>
       </c>
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
@@ -25068,7 +25287,7 @@
     <row r="967" ht="14.25" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="4" t="s">
-        <v>1470</v>
+        <v>1488</v>
       </c>
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
@@ -25087,7 +25306,7 @@
     <row r="968" ht="14.25" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="4" t="s">
-        <v>1471</v>
+        <v>1489</v>
       </c>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
@@ -25106,7 +25325,7 @@
     <row r="969" ht="14.25" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="4" t="s">
-        <v>1472</v>
+        <v>1490</v>
       </c>
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
@@ -25125,7 +25344,7 @@
     <row r="970" ht="14.25" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="4" t="s">
-        <v>1473</v>
+        <v>1491</v>
       </c>
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
@@ -25144,7 +25363,7 @@
     <row r="971" ht="14.25" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="4" t="s">
-        <v>1474</v>
+        <v>1492</v>
       </c>
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
@@ -25163,7 +25382,7 @@
     <row r="972" ht="14.25" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="4" t="s">
-        <v>1475</v>
+        <v>1493</v>
       </c>
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
@@ -25182,7 +25401,7 @@
     <row r="973" ht="14.25" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="4" t="s">
-        <v>1476</v>
+        <v>1494</v>
       </c>
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
@@ -25201,7 +25420,7 @@
     <row r="974" ht="14.25" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="4" t="s">
-        <v>1477</v>
+        <v>1495</v>
       </c>
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
@@ -25220,7 +25439,7 @@
     <row r="975" ht="14.25" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="4" t="s">
-        <v>1478</v>
+        <v>1496</v>
       </c>
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
@@ -25239,7 +25458,7 @@
     <row r="976" ht="14.25" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="4" t="s">
-        <v>1479</v>
+        <v>1497</v>
       </c>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
@@ -25258,7 +25477,7 @@
     <row r="977" ht="14.25" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="4" t="s">
-        <v>1480</v>
+        <v>1498</v>
       </c>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
@@ -25277,7 +25496,7 @@
     <row r="978" ht="14.25" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="4" t="s">
-        <v>1481</v>
+        <v>1499</v>
       </c>
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
@@ -25296,7 +25515,7 @@
     <row r="979" ht="14.25" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="4" t="s">
-        <v>1482</v>
+        <v>1500</v>
       </c>
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
@@ -25315,7 +25534,7 @@
     <row r="980" ht="14.25" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="4" t="s">
-        <v>1483</v>
+        <v>1501</v>
       </c>
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
@@ -25334,7 +25553,7 @@
     <row r="981" ht="14.25" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="4" t="s">
-        <v>1484</v>
+        <v>1502</v>
       </c>
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
@@ -25353,7 +25572,7 @@
     <row r="982" ht="14.25" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="4" t="s">
-        <v>1485</v>
+        <v>1503</v>
       </c>
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
@@ -25372,7 +25591,7 @@
     <row r="983" ht="14.25" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="4" t="s">
-        <v>1486</v>
+        <v>1504</v>
       </c>
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
@@ -25391,7 +25610,7 @@
     <row r="984" ht="14.25" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="4" t="s">
-        <v>1487</v>
+        <v>1505</v>
       </c>
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
@@ -25410,7 +25629,7 @@
     <row r="985" ht="14.25" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="4" t="s">
-        <v>1488</v>
+        <v>1506</v>
       </c>
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
@@ -25429,7 +25648,7 @@
     <row r="986" ht="14.25" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="4" t="s">
-        <v>1489</v>
+        <v>1507</v>
       </c>
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
@@ -25448,7 +25667,7 @@
     <row r="987" ht="14.25" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="4" t="s">
-        <v>1490</v>
+        <v>1508</v>
       </c>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
@@ -25467,7 +25686,7 @@
     <row r="988" ht="14.25" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="4" t="s">
-        <v>1491</v>
+        <v>1509</v>
       </c>
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
@@ -25486,7 +25705,7 @@
     <row r="989" ht="14.25" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="4" t="s">
-        <v>1492</v>
+        <v>1510</v>
       </c>
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
@@ -25505,7 +25724,7 @@
     <row r="990" ht="14.25" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="4" t="s">
-        <v>1493</v>
+        <v>1511</v>
       </c>
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
@@ -25524,7 +25743,7 @@
     <row r="991" ht="14.25" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="4" t="s">
-        <v>1494</v>
+        <v>1512</v>
       </c>
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
@@ -25543,7 +25762,7 @@
     <row r="992" ht="14.25" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="4" t="s">
-        <v>1495</v>
+        <v>1513</v>
       </c>
       <c r="C992" s="2"/>
       <c r="D992" s="2"/>
@@ -25562,7 +25781,7 @@
     <row r="993" ht="14.25" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="4" t="s">
-        <v>1496</v>
+        <v>1514</v>
       </c>
       <c r="C993" s="2"/>
       <c r="D993" s="2"/>
@@ -25581,7 +25800,7 @@
     <row r="994" ht="14.25" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="4" t="s">
-        <v>1497</v>
+        <v>1515</v>
       </c>
       <c r="C994" s="2"/>
       <c r="D994" s="2"/>
@@ -25600,7 +25819,7 @@
     <row r="995" ht="14.25" customHeight="1">
       <c r="A995" s="2"/>
       <c r="B995" s="4" t="s">
-        <v>1498</v>
+        <v>1516</v>
       </c>
       <c r="C995" s="2"/>
       <c r="D995" s="2"/>
@@ -25619,7 +25838,7 @@
     <row r="996" ht="14.25" customHeight="1">
       <c r="A996" s="2"/>
       <c r="B996" s="4" t="s">
-        <v>1499</v>
+        <v>1517</v>
       </c>
       <c r="C996" s="2"/>
       <c r="D996" s="2"/>
@@ -25638,7 +25857,7 @@
     <row r="997" ht="14.25" customHeight="1">
       <c r="A997" s="2"/>
       <c r="B997" s="4" t="s">
-        <v>1500</v>
+        <v>1518</v>
       </c>
       <c r="C997" s="2"/>
       <c r="D997" s="2"/>
@@ -25657,7 +25876,7 @@
     <row r="998" ht="14.25" customHeight="1">
       <c r="A998" s="2"/>
       <c r="B998" s="4" t="s">
-        <v>1501</v>
+        <v>1519</v>
       </c>
       <c r="C998" s="2"/>
       <c r="D998" s="2"/>
@@ -25676,7 +25895,7 @@
     <row r="999" ht="14.25" customHeight="1">
       <c r="A999" s="2"/>
       <c r="B999" s="4" t="s">
-        <v>1502</v>
+        <v>1520</v>
       </c>
       <c r="C999" s="2"/>
       <c r="D999" s="2"/>
@@ -25695,7 +25914,7 @@
     <row r="1000" ht="14.25" customHeight="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="4" t="s">
-        <v>1503</v>
+        <v>1521</v>
       </c>
       <c r="C1000" s="2"/>
       <c r="D1000" s="2"/>
@@ -25714,7 +25933,7 @@
     <row r="1001" ht="14.25" customHeight="1">
       <c r="A1001" s="2"/>
       <c r="B1001" s="4" t="s">
-        <v>1504</v>
+        <v>1522</v>
       </c>
       <c r="C1001" s="2"/>
       <c r="D1001" s="2"/>
@@ -25733,7 +25952,7 @@
     <row r="1002" ht="14.25" customHeight="1">
       <c r="A1002" s="2"/>
       <c r="B1002" s="4" t="s">
-        <v>1505</v>
+        <v>1523</v>
       </c>
       <c r="C1002" s="2"/>
       <c r="D1002" s="2"/>
@@ -25752,7 +25971,7 @@
     <row r="1003" ht="14.25" customHeight="1">
       <c r="A1003" s="2"/>
       <c r="B1003" s="4" t="s">
-        <v>1506</v>
+        <v>1524</v>
       </c>
       <c r="C1003" s="2"/>
       <c r="D1003" s="2"/>
@@ -25771,7 +25990,7 @@
     <row r="1004" ht="14.25" customHeight="1">
       <c r="A1004" s="2"/>
       <c r="B1004" s="4" t="s">
-        <v>1507</v>
+        <v>1525</v>
       </c>
       <c r="C1004" s="2"/>
       <c r="D1004" s="2"/>
@@ -25790,7 +26009,7 @@
     <row r="1005" ht="14.25" customHeight="1">
       <c r="A1005" s="2"/>
       <c r="B1005" s="4" t="s">
-        <v>1508</v>
+        <v>1526</v>
       </c>
       <c r="C1005" s="2"/>
       <c r="D1005" s="2"/>
@@ -25809,7 +26028,7 @@
     <row r="1006" ht="14.25" customHeight="1">
       <c r="A1006" s="2"/>
       <c r="B1006" s="4" t="s">
-        <v>1509</v>
+        <v>1527</v>
       </c>
       <c r="C1006" s="2"/>
       <c r="D1006" s="2"/>
@@ -25828,7 +26047,7 @@
     <row r="1007" ht="14.25" customHeight="1">
       <c r="A1007" s="2"/>
       <c r="B1007" s="4" t="s">
-        <v>1510</v>
+        <v>1528</v>
       </c>
       <c r="C1007" s="2"/>
       <c r="D1007" s="2"/>
@@ -25847,7 +26066,7 @@
     <row r="1008" ht="14.25" customHeight="1">
       <c r="A1008" s="2"/>
       <c r="B1008" s="4" t="s">
-        <v>1511</v>
+        <v>1529</v>
       </c>
       <c r="C1008" s="2"/>
       <c r="D1008" s="2"/>
@@ -25866,7 +26085,7 @@
     <row r="1009" ht="14.25" customHeight="1">
       <c r="A1009" s="2"/>
       <c r="B1009" s="4" t="s">
-        <v>1512</v>
+        <v>1530</v>
       </c>
       <c r="C1009" s="2"/>
       <c r="D1009" s="2"/>
@@ -25885,7 +26104,7 @@
     <row r="1010" ht="14.25" customHeight="1">
       <c r="A1010" s="2"/>
       <c r="B1010" s="4" t="s">
-        <v>1513</v>
+        <v>1531</v>
       </c>
       <c r="C1010" s="2"/>
       <c r="D1010" s="2"/>
@@ -25904,7 +26123,7 @@
     <row r="1011" ht="14.25" customHeight="1">
       <c r="A1011" s="2"/>
       <c r="B1011" s="4" t="s">
-        <v>1514</v>
+        <v>1532</v>
       </c>
       <c r="C1011" s="2"/>
       <c r="D1011" s="2"/>
@@ -25923,7 +26142,7 @@
     <row r="1012" ht="14.25" customHeight="1">
       <c r="A1012" s="2"/>
       <c r="B1012" s="4" t="s">
-        <v>1515</v>
+        <v>1533</v>
       </c>
       <c r="C1012" s="2"/>
       <c r="D1012" s="2"/>
@@ -25942,7 +26161,7 @@
     <row r="1013" ht="14.25" customHeight="1">
       <c r="A1013" s="2"/>
       <c r="B1013" s="4" t="s">
-        <v>1516</v>
+        <v>1534</v>
       </c>
       <c r="C1013" s="2"/>
       <c r="D1013" s="2"/>
@@ -25961,7 +26180,7 @@
     <row r="1014" ht="14.25" customHeight="1">
       <c r="A1014" s="2"/>
       <c r="B1014" s="4" t="s">
-        <v>1517</v>
+        <v>1535</v>
       </c>
       <c r="C1014" s="2"/>
       <c r="D1014" s="2"/>
@@ -25980,7 +26199,7 @@
     <row r="1015" ht="14.25" customHeight="1">
       <c r="A1015" s="2"/>
       <c r="B1015" s="4" t="s">
-        <v>1518</v>
+        <v>1536</v>
       </c>
       <c r="C1015" s="2"/>
       <c r="D1015" s="2"/>
@@ -25999,7 +26218,7 @@
     <row r="1016" ht="14.25" customHeight="1">
       <c r="A1016" s="2"/>
       <c r="B1016" s="4" t="s">
-        <v>1519</v>
+        <v>1537</v>
       </c>
       <c r="C1016" s="2"/>
       <c r="D1016" s="2"/>
@@ -26018,7 +26237,7 @@
     <row r="1017" ht="14.25" customHeight="1">
       <c r="A1017" s="2"/>
       <c r="B1017" s="4" t="s">
-        <v>1520</v>
+        <v>1538</v>
       </c>
       <c r="C1017" s="2"/>
       <c r="D1017" s="2"/>
@@ -26037,7 +26256,7 @@
     <row r="1018" ht="14.25" customHeight="1">
       <c r="A1018" s="2"/>
       <c r="B1018" s="4" t="s">
-        <v>1521</v>
+        <v>1539</v>
       </c>
       <c r="C1018" s="2"/>
       <c r="D1018" s="2"/>
@@ -26056,7 +26275,7 @@
     <row r="1019" ht="14.25" customHeight="1">
       <c r="A1019" s="2"/>
       <c r="B1019" s="4" t="s">
-        <v>1522</v>
+        <v>1540</v>
       </c>
       <c r="C1019" s="2"/>
       <c r="D1019" s="2"/>
@@ -26075,7 +26294,7 @@
     <row r="1020" ht="14.25" customHeight="1">
       <c r="A1020" s="2"/>
       <c r="B1020" s="4" t="s">
-        <v>1523</v>
+        <v>1541</v>
       </c>
       <c r="C1020" s="2"/>
       <c r="D1020" s="2"/>
@@ -26094,7 +26313,7 @@
     <row r="1021" ht="14.25" customHeight="1">
       <c r="A1021" s="2"/>
       <c r="B1021" s="4" t="s">
-        <v>1524</v>
+        <v>1542</v>
       </c>
       <c r="C1021" s="2"/>
       <c r="D1021" s="2"/>
@@ -26113,7 +26332,7 @@
     <row r="1022" ht="14.25" customHeight="1">
       <c r="A1022" s="2"/>
       <c r="B1022" s="4" t="s">
-        <v>1525</v>
+        <v>1543</v>
       </c>
       <c r="C1022" s="2"/>
       <c r="D1022" s="2"/>
@@ -26132,7 +26351,7 @@
     <row r="1023" ht="14.25" customHeight="1">
       <c r="A1023" s="2"/>
       <c r="B1023" s="4" t="s">
-        <v>1526</v>
+        <v>1544</v>
       </c>
       <c r="C1023" s="2"/>
       <c r="D1023" s="2"/>
@@ -26151,7 +26370,7 @@
     <row r="1024" ht="14.25" customHeight="1">
       <c r="A1024" s="2"/>
       <c r="B1024" s="4" t="s">
-        <v>1527</v>
+        <v>1545</v>
       </c>
       <c r="C1024" s="2"/>
       <c r="D1024" s="2"/>
@@ -26170,7 +26389,7 @@
     <row r="1025" ht="14.25" customHeight="1">
       <c r="A1025" s="2"/>
       <c r="B1025" s="4" t="s">
-        <v>1528</v>
+        <v>1546</v>
       </c>
       <c r="C1025" s="2"/>
       <c r="D1025" s="2"/>
@@ -26189,7 +26408,7 @@
     <row r="1026" ht="14.25" customHeight="1">
       <c r="A1026" s="2"/>
       <c r="B1026" s="4" t="s">
-        <v>1529</v>
+        <v>1547</v>
       </c>
       <c r="C1026" s="2"/>
       <c r="D1026" s="2"/>
@@ -26207,7 +26426,7 @@
     </row>
     <row r="1027" ht="14.25" customHeight="1">
       <c r="B1027" s="4" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="C1027" s="2"/>
       <c r="D1027" s="2"/>
@@ -26225,7 +26444,7 @@
     </row>
     <row r="1028" ht="14.25" customHeight="1">
       <c r="B1028" s="4" t="s">
-        <v>1531</v>
+        <v>1549</v>
       </c>
       <c r="C1028" s="2"/>
       <c r="D1028" s="2"/>
@@ -26243,7 +26462,7 @@
     </row>
     <row r="1029" ht="14.25" customHeight="1">
       <c r="B1029" s="4" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="C1029" s="2"/>
       <c r="D1029" s="2"/>
@@ -26261,7 +26480,7 @@
     </row>
     <row r="1030" ht="14.25" customHeight="1">
       <c r="B1030" s="4" t="s">
-        <v>1533</v>
+        <v>1551</v>
       </c>
       <c r="C1030" s="2"/>
       <c r="D1030" s="2"/>
@@ -26279,7 +26498,7 @@
     </row>
     <row r="1031" ht="14.25" customHeight="1">
       <c r="B1031" s="4" t="s">
-        <v>1534</v>
+        <v>1552</v>
       </c>
       <c r="C1031" s="2"/>
       <c r="D1031" s="2"/>
@@ -26297,7 +26516,7 @@
     </row>
     <row r="1032" ht="14.25" customHeight="1">
       <c r="B1032" s="4" t="s">
-        <v>1535</v>
+        <v>1553</v>
       </c>
       <c r="C1032" s="2"/>
       <c r="D1032" s="2"/>
@@ -26315,7 +26534,7 @@
     </row>
     <row r="1033" ht="14.25" customHeight="1">
       <c r="B1033" s="4" t="s">
-        <v>1536</v>
+        <v>1554</v>
       </c>
       <c r="C1033" s="2"/>
       <c r="D1033" s="2"/>
@@ -26333,7 +26552,7 @@
     </row>
     <row r="1034" ht="14.25" customHeight="1">
       <c r="B1034" s="4" t="s">
-        <v>1537</v>
+        <v>1555</v>
       </c>
       <c r="C1034" s="2"/>
       <c r="D1034" s="2"/>
@@ -26351,7 +26570,7 @@
     </row>
     <row r="1035" ht="14.25" customHeight="1">
       <c r="B1035" s="4" t="s">
-        <v>1538</v>
+        <v>1556</v>
       </c>
       <c r="C1035" s="2"/>
       <c r="D1035" s="2"/>
@@ -26369,7 +26588,7 @@
     </row>
     <row r="1036" ht="14.25" customHeight="1">
       <c r="B1036" s="4" t="s">
-        <v>1539</v>
+        <v>1557</v>
       </c>
       <c r="C1036" s="2"/>
       <c r="D1036" s="2"/>
@@ -26387,7 +26606,7 @@
     </row>
     <row r="1037" ht="14.25" customHeight="1">
       <c r="B1037" s="4" t="s">
-        <v>1540</v>
+        <v>1558</v>
       </c>
       <c r="C1037" s="2"/>
       <c r="D1037" s="2"/>
@@ -26405,7 +26624,7 @@
     </row>
     <row r="1038" ht="14.25" customHeight="1">
       <c r="B1038" s="4" t="s">
-        <v>1541</v>
+        <v>1559</v>
       </c>
       <c r="C1038" s="2"/>
       <c r="D1038" s="2"/>
@@ -26423,7 +26642,7 @@
     </row>
     <row r="1039" ht="14.25" customHeight="1">
       <c r="B1039" s="4" t="s">
-        <v>1542</v>
+        <v>1560</v>
       </c>
       <c r="C1039" s="2"/>
       <c r="D1039" s="2"/>
@@ -26442,7 +26661,7 @@
     <row r="1040" ht="14.25" customHeight="1">
       <c r="A1040" s="2"/>
       <c r="B1040" s="4" t="s">
-        <v>1543</v>
+        <v>1561</v>
       </c>
       <c r="C1040" s="2"/>
       <c r="D1040" s="2"/>
@@ -26461,7 +26680,7 @@
     <row r="1041" ht="14.25" customHeight="1">
       <c r="A1041" s="2"/>
       <c r="B1041" s="4" t="s">
-        <v>1544</v>
+        <v>1562</v>
       </c>
       <c r="C1041" s="2"/>
       <c r="D1041" s="2"/>
@@ -26480,7 +26699,7 @@
     <row r="1042" ht="14.25" customHeight="1">
       <c r="A1042" s="2"/>
       <c r="B1042" s="4" t="s">
-        <v>1545</v>
+        <v>1563</v>
       </c>
       <c r="C1042" s="2"/>
       <c r="D1042" s="2"/>
@@ -26499,7 +26718,7 @@
     <row r="1043" ht="14.25" customHeight="1">
       <c r="A1043" s="2"/>
       <c r="B1043" s="4" t="s">
-        <v>1546</v>
+        <v>1564</v>
       </c>
       <c r="C1043" s="2"/>
       <c r="D1043" s="2"/>
@@ -26517,8 +26736,8 @@
     </row>
     <row r="1044" ht="14.25" customHeight="1">
       <c r="A1044" s="2"/>
-      <c r="B1044" s="9" t="s">
-        <v>1547</v>
+      <c r="B1044" s="8" t="s">
+        <v>1565</v>
       </c>
       <c r="C1044" s="2"/>
       <c r="D1044" s="2"/>
@@ -26537,7 +26756,7 @@
     <row r="1045" ht="14.25" customHeight="1">
       <c r="A1045" s="2"/>
       <c r="B1045" s="4" t="s">
-        <v>1548</v>
+        <v>1566</v>
       </c>
       <c r="C1045" s="2"/>
       <c r="D1045" s="2"/>
@@ -26556,7 +26775,7 @@
     <row r="1046" ht="14.25" customHeight="1">
       <c r="A1046" s="2"/>
       <c r="B1046" s="4" t="s">
-        <v>1549</v>
+        <v>1567</v>
       </c>
       <c r="C1046" s="2"/>
       <c r="D1046" s="2"/>
@@ -26575,7 +26794,7 @@
     <row r="1047" ht="14.25" customHeight="1">
       <c r="A1047" s="2"/>
       <c r="B1047" s="4" t="s">
-        <v>1550</v>
+        <v>1568</v>
       </c>
       <c r="C1047" s="2"/>
       <c r="D1047" s="2"/>
@@ -26594,7 +26813,7 @@
     <row r="1048" ht="14.25" customHeight="1">
       <c r="A1048" s="2"/>
       <c r="B1048" s="4" t="s">
-        <v>1551</v>
+        <v>1569</v>
       </c>
       <c r="C1048" s="2"/>
       <c r="D1048" s="2"/>
@@ -26613,7 +26832,7 @@
     <row r="1049" ht="14.25" customHeight="1">
       <c r="A1049" s="2"/>
       <c r="B1049" s="4" t="s">
-        <v>1552</v>
+        <v>1570</v>
       </c>
       <c r="C1049" s="2"/>
       <c r="D1049" s="2"/>
@@ -26632,7 +26851,7 @@
     <row r="1050" ht="14.25" customHeight="1">
       <c r="A1050" s="2"/>
       <c r="B1050" s="4" t="s">
-        <v>1553</v>
+        <v>1571</v>
       </c>
       <c r="C1050" s="2"/>
       <c r="D1050" s="2"/>
@@ -26651,7 +26870,7 @@
     <row r="1051" ht="14.25" customHeight="1">
       <c r="A1051" s="2"/>
       <c r="B1051" s="4" t="s">
-        <v>1554</v>
+        <v>1572</v>
       </c>
       <c r="C1051" s="2"/>
       <c r="D1051" s="2"/>
@@ -26670,7 +26889,7 @@
     <row r="1052" ht="14.25" customHeight="1">
       <c r="A1052" s="2"/>
       <c r="B1052" s="4" t="s">
-        <v>1555</v>
+        <v>1573</v>
       </c>
       <c r="C1052" s="2"/>
       <c r="D1052" s="2"/>
@@ -26689,7 +26908,7 @@
     <row r="1053" ht="14.25" customHeight="1">
       <c r="A1053" s="2"/>
       <c r="B1053" s="4" t="s">
-        <v>1556</v>
+        <v>1574</v>
       </c>
       <c r="C1053" s="2"/>
       <c r="D1053" s="2"/>
@@ -26708,7 +26927,7 @@
     <row r="1054" ht="14.25" customHeight="1">
       <c r="A1054" s="2"/>
       <c r="B1054" s="4" t="s">
-        <v>1557</v>
+        <v>1575</v>
       </c>
       <c r="C1054" s="2"/>
       <c r="D1054" s="2"/>
@@ -26727,7 +26946,7 @@
     <row r="1055" ht="14.25" customHeight="1">
       <c r="A1055" s="2"/>
       <c r="B1055" s="4" t="s">
-        <v>1558</v>
+        <v>1576</v>
       </c>
       <c r="C1055" s="2"/>
       <c r="D1055" s="2"/>
@@ -26746,7 +26965,7 @@
     <row r="1056" ht="14.25" customHeight="1">
       <c r="A1056" s="2"/>
       <c r="B1056" s="4" t="s">
-        <v>1559</v>
+        <v>1577</v>
       </c>
       <c r="C1056" s="2"/>
       <c r="D1056" s="2"/>
@@ -26765,7 +26984,7 @@
     <row r="1057" ht="14.25" customHeight="1">
       <c r="A1057" s="2"/>
       <c r="B1057" s="4" t="s">
-        <v>1560</v>
+        <v>1578</v>
       </c>
       <c r="C1057" s="2"/>
       <c r="D1057" s="2"/>
@@ -26784,7 +27003,7 @@
     <row r="1058" ht="14.25" customHeight="1">
       <c r="A1058" s="2"/>
       <c r="B1058" s="4" t="s">
-        <v>1561</v>
+        <v>1579</v>
       </c>
       <c r="C1058" s="2"/>
       <c r="D1058" s="2"/>
@@ -26803,7 +27022,7 @@
     <row r="1059" ht="14.25" customHeight="1">
       <c r="A1059" s="2"/>
       <c r="B1059" s="4" t="s">
-        <v>1562</v>
+        <v>1580</v>
       </c>
       <c r="C1059" s="2"/>
       <c r="D1059" s="2"/>
@@ -26822,7 +27041,7 @@
     <row r="1060" ht="14.25" customHeight="1">
       <c r="A1060" s="2"/>
       <c r="B1060" s="4" t="s">
-        <v>1563</v>
+        <v>1581</v>
       </c>
       <c r="C1060" s="2"/>
       <c r="D1060" s="2"/>
@@ -26841,7 +27060,7 @@
     <row r="1061" ht="14.25" customHeight="1">
       <c r="A1061" s="2"/>
       <c r="B1061" s="4" t="s">
-        <v>1564</v>
+        <v>1582</v>
       </c>
       <c r="C1061" s="2"/>
       <c r="D1061" s="2"/>
@@ -26860,7 +27079,7 @@
     <row r="1062" ht="14.25" customHeight="1">
       <c r="A1062" s="2"/>
       <c r="B1062" s="4" t="s">
-        <v>1565</v>
+        <v>1583</v>
       </c>
       <c r="C1062" s="2"/>
       <c r="D1062" s="2"/>
@@ -26879,7 +27098,7 @@
     <row r="1063" ht="14.25" customHeight="1">
       <c r="A1063" s="2"/>
       <c r="B1063" s="4" t="s">
-        <v>1566</v>
+        <v>1584</v>
       </c>
       <c r="C1063" s="2"/>
       <c r="D1063" s="2"/>
@@ -26898,7 +27117,7 @@
     <row r="1064" ht="14.25" customHeight="1">
       <c r="A1064" s="2"/>
       <c r="B1064" s="4" t="s">
-        <v>1567</v>
+        <v>1585</v>
       </c>
       <c r="C1064" s="2"/>
       <c r="D1064" s="2"/>
@@ -26917,7 +27136,7 @@
     <row r="1065" ht="14.25" customHeight="1">
       <c r="A1065" s="2"/>
       <c r="B1065" s="4" t="s">
-        <v>1568</v>
+        <v>1586</v>
       </c>
       <c r="C1065" s="2"/>
       <c r="D1065" s="2"/>
@@ -26936,7 +27155,7 @@
     <row r="1066" ht="14.25" customHeight="1">
       <c r="A1066" s="2"/>
       <c r="B1066" s="4" t="s">
-        <v>1569</v>
+        <v>1587</v>
       </c>
       <c r="C1066" s="2"/>
       <c r="D1066" s="2"/>
@@ -26955,7 +27174,7 @@
     <row r="1067" ht="14.25" customHeight="1">
       <c r="A1067" s="2"/>
       <c r="B1067" s="4" t="s">
-        <v>1570</v>
+        <v>1588</v>
       </c>
       <c r="C1067" s="2"/>
       <c r="D1067" s="2"/>
@@ -26974,7 +27193,7 @@
     <row r="1068" ht="14.25" customHeight="1">
       <c r="A1068" s="2"/>
       <c r="B1068" s="4" t="s">
-        <v>1571</v>
+        <v>1589</v>
       </c>
       <c r="C1068" s="2"/>
       <c r="D1068" s="2"/>
@@ -26992,8 +27211,8 @@
     </row>
     <row r="1069" ht="14.25" customHeight="1">
       <c r="A1069" s="2"/>
-      <c r="B1069" s="9" t="s">
-        <v>1572</v>
+      <c r="B1069" s="8" t="s">
+        <v>1590</v>
       </c>
       <c r="C1069" s="2"/>
       <c r="D1069" s="2"/>
@@ -27012,7 +27231,7 @@
     <row r="1070" ht="14.25" customHeight="1">
       <c r="A1070" s="2"/>
       <c r="B1070" s="4" t="s">
-        <v>1573</v>
+        <v>1591</v>
       </c>
       <c r="C1070" s="2"/>
       <c r="D1070" s="2"/>
@@ -27031,7 +27250,7 @@
     <row r="1071" ht="14.25" customHeight="1">
       <c r="A1071" s="2"/>
       <c r="B1071" s="4" t="s">
-        <v>1574</v>
+        <v>1592</v>
       </c>
       <c r="C1071" s="2"/>
       <c r="D1071" s="2"/>
@@ -27050,7 +27269,7 @@
     <row r="1072" ht="14.25" customHeight="1">
       <c r="A1072" s="2"/>
       <c r="B1072" s="4" t="s">
-        <v>1575</v>
+        <v>1593</v>
       </c>
       <c r="C1072" s="2"/>
       <c r="D1072" s="2"/>
@@ -27069,7 +27288,7 @@
     <row r="1073" ht="14.25" customHeight="1">
       <c r="A1073" s="2"/>
       <c r="B1073" s="4" t="s">
-        <v>1576</v>
+        <v>1594</v>
       </c>
       <c r="C1073" s="2"/>
       <c r="D1073" s="2"/>
@@ -27088,7 +27307,7 @@
     <row r="1074" ht="14.25" customHeight="1">
       <c r="A1074" s="2"/>
       <c r="B1074" s="4" t="s">
-        <v>1577</v>
+        <v>1595</v>
       </c>
       <c r="C1074" s="2"/>
       <c r="D1074" s="2"/>
@@ -27107,7 +27326,7 @@
     <row r="1075" ht="14.25" customHeight="1">
       <c r="A1075" s="2"/>
       <c r="B1075" s="4" t="s">
-        <v>1578</v>
+        <v>1596</v>
       </c>
       <c r="C1075" s="2"/>
       <c r="D1075" s="2"/>
@@ -27126,7 +27345,7 @@
     <row r="1076" ht="14.25" customHeight="1">
       <c r="A1076" s="2"/>
       <c r="B1076" s="4" t="s">
-        <v>1579</v>
+        <v>1597</v>
       </c>
       <c r="C1076" s="2"/>
       <c r="D1076" s="2"/>
@@ -27145,7 +27364,7 @@
     <row r="1077" ht="14.25" customHeight="1">
       <c r="A1077" s="2"/>
       <c r="B1077" s="4" t="s">
-        <v>1580</v>
+        <v>1598</v>
       </c>
       <c r="C1077" s="2"/>
       <c r="D1077" s="2"/>
@@ -27164,7 +27383,7 @@
     <row r="1078" ht="14.25" customHeight="1">
       <c r="A1078" s="2"/>
       <c r="B1078" s="4" t="s">
-        <v>1581</v>
+        <v>1599</v>
       </c>
       <c r="C1078" s="2"/>
       <c r="D1078" s="2"/>
@@ -27183,7 +27402,7 @@
     <row r="1079" ht="14.25" customHeight="1">
       <c r="A1079" s="2"/>
       <c r="B1079" s="4" t="s">
-        <v>1582</v>
+        <v>1600</v>
       </c>
       <c r="C1079" s="2"/>
       <c r="D1079" s="2"/>
@@ -27202,7 +27421,7 @@
     <row r="1080" ht="14.25" customHeight="1">
       <c r="A1080" s="2"/>
       <c r="B1080" s="4" t="s">
-        <v>1583</v>
+        <v>1601</v>
       </c>
       <c r="C1080" s="2"/>
       <c r="D1080" s="2"/>
@@ -27221,7 +27440,7 @@
     <row r="1081" ht="14.25" customHeight="1">
       <c r="A1081" s="2"/>
       <c r="B1081" s="4" t="s">
-        <v>1584</v>
+        <v>1602</v>
       </c>
       <c r="C1081" s="2"/>
       <c r="D1081" s="2"/>
@@ -27240,7 +27459,7 @@
     <row r="1082" ht="14.25" customHeight="1">
       <c r="A1082" s="2"/>
       <c r="B1082" s="4" t="s">
-        <v>1585</v>
+        <v>1603</v>
       </c>
       <c r="C1082" s="2"/>
       <c r="D1082" s="2"/>
@@ -27259,7 +27478,7 @@
     <row r="1083" ht="14.25" customHeight="1">
       <c r="A1083" s="2"/>
       <c r="B1083" s="4" t="s">
-        <v>1586</v>
+        <v>1604</v>
       </c>
       <c r="C1083" s="2"/>
       <c r="D1083" s="2"/>
@@ -27278,7 +27497,7 @@
     <row r="1084" ht="14.25" customHeight="1">
       <c r="A1084" s="2"/>
       <c r="B1084" s="4" t="s">
-        <v>1587</v>
+        <v>1605</v>
       </c>
       <c r="C1084" s="2"/>
       <c r="D1084" s="2"/>
@@ -27297,7 +27516,7 @@
     <row r="1085" ht="14.25" customHeight="1">
       <c r="A1085" s="2"/>
       <c r="B1085" s="4" t="s">
-        <v>1588</v>
+        <v>1606</v>
       </c>
       <c r="C1085" s="2"/>
       <c r="D1085" s="2"/>
@@ -27316,7 +27535,7 @@
     <row r="1086" ht="14.25" customHeight="1">
       <c r="A1086" s="2"/>
       <c r="B1086" s="4" t="s">
-        <v>1589</v>
+        <v>1607</v>
       </c>
       <c r="C1086" s="2"/>
       <c r="D1086" s="2"/>
@@ -27335,7 +27554,7 @@
     <row r="1087" ht="14.25" customHeight="1">
       <c r="A1087" s="2"/>
       <c r="B1087" s="4" t="s">
-        <v>1590</v>
+        <v>1608</v>
       </c>
       <c r="C1087" s="2"/>
       <c r="D1087" s="2"/>
@@ -27354,7 +27573,7 @@
     <row r="1088" ht="14.25" customHeight="1">
       <c r="A1088" s="2"/>
       <c r="B1088" s="4" t="s">
-        <v>1591</v>
+        <v>1609</v>
       </c>
       <c r="C1088" s="2"/>
       <c r="D1088" s="2"/>
@@ -27373,7 +27592,7 @@
     <row r="1089" ht="14.25" customHeight="1">
       <c r="A1089" s="2"/>
       <c r="B1089" s="4" t="s">
-        <v>1592</v>
+        <v>1610</v>
       </c>
       <c r="C1089" s="2"/>
       <c r="D1089" s="2"/>
@@ -27392,7 +27611,7 @@
     <row r="1090" ht="14.25" customHeight="1">
       <c r="A1090" s="2"/>
       <c r="B1090" s="4" t="s">
-        <v>1593</v>
+        <v>1611</v>
       </c>
       <c r="C1090" s="2"/>
       <c r="D1090" s="2"/>
@@ -27411,7 +27630,7 @@
     <row r="1091" ht="14.25" customHeight="1">
       <c r="A1091" s="2"/>
       <c r="B1091" s="4" t="s">
-        <v>1594</v>
+        <v>1612</v>
       </c>
       <c r="C1091" s="2"/>
       <c r="D1091" s="2"/>
@@ -27430,7 +27649,7 @@
     <row r="1092" ht="14.25" customHeight="1">
       <c r="A1092" s="2"/>
       <c r="B1092" s="4" t="s">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="C1092" s="2"/>
       <c r="D1092" s="2"/>
@@ -27449,7 +27668,7 @@
     <row r="1093" ht="14.25" customHeight="1">
       <c r="A1093" s="2"/>
       <c r="B1093" s="4" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="C1093" s="2"/>
       <c r="D1093" s="2"/>
@@ -27468,7 +27687,7 @@
     <row r="1094" ht="14.25" customHeight="1">
       <c r="A1094" s="2"/>
       <c r="B1094" s="4" t="s">
-        <v>1597</v>
+        <v>1615</v>
       </c>
       <c r="C1094" s="2"/>
       <c r="D1094" s="2"/>
@@ -27487,7 +27706,7 @@
     <row r="1095" ht="14.25" customHeight="1">
       <c r="A1095" s="2"/>
       <c r="B1095" s="4" t="s">
-        <v>1598</v>
+        <v>1616</v>
       </c>
       <c r="C1095" s="2"/>
       <c r="D1095" s="2"/>
@@ -27506,7 +27725,7 @@
     <row r="1096" ht="14.25" customHeight="1">
       <c r="A1096" s="2"/>
       <c r="B1096" s="4" t="s">
-        <v>1599</v>
+        <v>1617</v>
       </c>
       <c r="C1096" s="2"/>
       <c r="D1096" s="2"/>
@@ -27525,7 +27744,7 @@
     <row r="1097" ht="14.25" customHeight="1">
       <c r="A1097" s="2"/>
       <c r="B1097" s="4" t="s">
-        <v>1600</v>
+        <v>1618</v>
       </c>
       <c r="C1097" s="2"/>
       <c r="D1097" s="2"/>
@@ -27544,7 +27763,7 @@
     <row r="1098" ht="14.25" customHeight="1">
       <c r="A1098" s="2"/>
       <c r="B1098" s="4" t="s">
-        <v>1601</v>
+        <v>1619</v>
       </c>
       <c r="C1098" s="2"/>
       <c r="D1098" s="2"/>
@@ -27563,7 +27782,7 @@
     <row r="1099" ht="14.25" customHeight="1">
       <c r="A1099" s="2"/>
       <c r="B1099" s="4" t="s">
-        <v>1602</v>
+        <v>1620</v>
       </c>
       <c r="C1099" s="2"/>
       <c r="D1099" s="2"/>
@@ -27582,7 +27801,7 @@
     <row r="1100" ht="14.25" customHeight="1">
       <c r="A1100" s="2"/>
       <c r="B1100" s="4" t="s">
-        <v>1603</v>
+        <v>1621</v>
       </c>
       <c r="C1100" s="2"/>
       <c r="D1100" s="2"/>
@@ -27601,7 +27820,7 @@
     <row r="1101" ht="14.25" customHeight="1">
       <c r="A1101" s="2"/>
       <c r="B1101" s="4" t="s">
-        <v>1604</v>
+        <v>1622</v>
       </c>
       <c r="C1101" s="2"/>
       <c r="D1101" s="2"/>
@@ -27620,7 +27839,7 @@
     <row r="1102" ht="14.25" customHeight="1">
       <c r="A1102" s="2"/>
       <c r="B1102" s="4" t="s">
-        <v>1605</v>
+        <v>1623</v>
       </c>
       <c r="C1102" s="2"/>
       <c r="D1102" s="2"/>
@@ -27639,7 +27858,7 @@
     <row r="1103" ht="14.25" customHeight="1">
       <c r="A1103" s="2"/>
       <c r="B1103" s="4" t="s">
-        <v>1606</v>
+        <v>1624</v>
       </c>
       <c r="C1103" s="2"/>
       <c r="D1103" s="2"/>
@@ -27658,7 +27877,7 @@
     <row r="1104" ht="14.25" customHeight="1">
       <c r="A1104" s="2"/>
       <c r="B1104" s="10" t="s">
-        <v>1607</v>
+        <v>1625</v>
       </c>
       <c r="C1104" s="2"/>
       <c r="D1104" s="2"/>
@@ -27677,7 +27896,7 @@
     <row r="1105" ht="14.25" customHeight="1">
       <c r="A1105" s="2"/>
       <c r="B1105" s="10" t="s">
-        <v>1608</v>
+        <v>1626</v>
       </c>
       <c r="C1105" s="2"/>
       <c r="D1105" s="2"/>
@@ -27696,7 +27915,7 @@
     <row r="1106" ht="14.25" customHeight="1">
       <c r="A1106" s="2"/>
       <c r="B1106" s="10" t="s">
-        <v>1609</v>
+        <v>1627</v>
       </c>
       <c r="C1106" s="2"/>
       <c r="D1106" s="2"/>
@@ -27715,7 +27934,7 @@
     <row r="1107" ht="14.25" customHeight="1">
       <c r="A1107" s="2"/>
       <c r="B1107" s="10" t="s">
-        <v>1610</v>
+        <v>1628</v>
       </c>
       <c r="C1107" s="2"/>
       <c r="D1107" s="2"/>
@@ -27734,7 +27953,7 @@
     <row r="1108" ht="14.25" customHeight="1">
       <c r="A1108" s="2"/>
       <c r="B1108" s="10" t="s">
-        <v>1611</v>
+        <v>1629</v>
       </c>
       <c r="C1108" s="2"/>
       <c r="D1108" s="2"/>
@@ -27753,7 +27972,7 @@
     <row r="1109" ht="14.25" customHeight="1">
       <c r="A1109" s="2"/>
       <c r="B1109" s="10" t="s">
-        <v>1612</v>
+        <v>1630</v>
       </c>
       <c r="C1109" s="2"/>
       <c r="D1109" s="2"/>
@@ -27772,7 +27991,7 @@
     <row r="1110" ht="14.25" customHeight="1">
       <c r="A1110" s="2"/>
       <c r="B1110" s="10" t="s">
-        <v>1613</v>
+        <v>1631</v>
       </c>
       <c r="C1110" s="2"/>
       <c r="D1110" s="2"/>
@@ -27791,7 +28010,7 @@
     <row r="1111" ht="14.25" customHeight="1">
       <c r="A1111" s="2"/>
       <c r="B1111" s="10" t="s">
-        <v>1614</v>
+        <v>1632</v>
       </c>
       <c r="C1111" s="2"/>
       <c r="D1111" s="2"/>
@@ -27810,7 +28029,7 @@
     <row r="1112" ht="14.25" customHeight="1">
       <c r="A1112" s="2"/>
       <c r="B1112" s="10" t="s">
-        <v>1615</v>
+        <v>1633</v>
       </c>
       <c r="C1112" s="2"/>
       <c r="D1112" s="2"/>
@@ -27829,7 +28048,7 @@
     <row r="1113" ht="14.25" customHeight="1">
       <c r="A1113" s="2"/>
       <c r="B1113" s="10" t="s">
-        <v>1616</v>
+        <v>1634</v>
       </c>
       <c r="C1113" s="2"/>
       <c r="D1113" s="2"/>
@@ -27848,7 +28067,7 @@
     <row r="1114" ht="14.25" customHeight="1">
       <c r="A1114" s="2"/>
       <c r="B1114" s="10" t="s">
-        <v>1617</v>
+        <v>1635</v>
       </c>
       <c r="C1114" s="2"/>
       <c r="D1114" s="2"/>
@@ -27867,7 +28086,7 @@
     <row r="1115" ht="14.25" customHeight="1">
       <c r="A1115" s="2"/>
       <c r="B1115" s="10" t="s">
-        <v>1618</v>
+        <v>1636</v>
       </c>
       <c r="C1115" s="2"/>
       <c r="D1115" s="2"/>
@@ -27886,7 +28105,7 @@
     <row r="1116" ht="14.25" customHeight="1">
       <c r="A1116" s="2"/>
       <c r="B1116" s="10" t="s">
-        <v>1619</v>
+        <v>1637</v>
       </c>
       <c r="C1116" s="2"/>
       <c r="D1116" s="2"/>
@@ -27905,7 +28124,7 @@
     <row r="1117" ht="14.25" customHeight="1">
       <c r="A1117" s="2"/>
       <c r="B1117" s="10" t="s">
-        <v>1620</v>
+        <v>1638</v>
       </c>
       <c r="C1117" s="2"/>
       <c r="D1117" s="2"/>
@@ -27924,7 +28143,7 @@
     <row r="1118" ht="14.25" customHeight="1">
       <c r="A1118" s="2"/>
       <c r="B1118" s="10" t="s">
-        <v>1621</v>
+        <v>1639</v>
       </c>
       <c r="C1118" s="2"/>
       <c r="D1118" s="2"/>
@@ -27943,7 +28162,7 @@
     <row r="1119" ht="14.25" customHeight="1">
       <c r="A1119" s="2"/>
       <c r="B1119" s="10" t="s">
-        <v>1622</v>
+        <v>1640</v>
       </c>
       <c r="C1119" s="2"/>
       <c r="D1119" s="2"/>
@@ -27962,7 +28181,7 @@
     <row r="1120" ht="14.25" customHeight="1">
       <c r="A1120" s="2"/>
       <c r="B1120" s="10" t="s">
-        <v>1623</v>
+        <v>1641</v>
       </c>
       <c r="C1120" s="2"/>
       <c r="D1120" s="2"/>
@@ -27981,7 +28200,7 @@
     <row r="1121" ht="14.25" customHeight="1">
       <c r="A1121" s="2"/>
       <c r="B1121" s="10" t="s">
-        <v>1624</v>
+        <v>1642</v>
       </c>
       <c r="C1121" s="2"/>
       <c r="D1121" s="2"/>
@@ -28000,7 +28219,7 @@
     <row r="1122" ht="14.25" customHeight="1">
       <c r="A1122" s="2"/>
       <c r="B1122" s="10" t="s">
-        <v>1625</v>
+        <v>1643</v>
       </c>
       <c r="C1122" s="2"/>
       <c r="D1122" s="2"/>
@@ -28019,7 +28238,7 @@
     <row r="1123" ht="14.25" customHeight="1">
       <c r="A1123" s="2"/>
       <c r="B1123" s="10" t="s">
-        <v>1626</v>
+        <v>1644</v>
       </c>
       <c r="C1123" s="2"/>
       <c r="D1123" s="2"/>
@@ -28038,7 +28257,7 @@
     <row r="1124" ht="14.25" customHeight="1">
       <c r="A1124" s="2"/>
       <c r="B1124" s="10" t="s">
-        <v>1627</v>
+        <v>1645</v>
       </c>
       <c r="C1124" s="2"/>
       <c r="D1124" s="2"/>
@@ -28057,7 +28276,7 @@
     <row r="1125" ht="14.25" customHeight="1">
       <c r="A1125" s="2"/>
       <c r="B1125" s="10" t="s">
-        <v>1628</v>
+        <v>1646</v>
       </c>
       <c r="C1125" s="2"/>
       <c r="D1125" s="2"/>
@@ -28076,7 +28295,7 @@
     <row r="1126" ht="14.25" customHeight="1">
       <c r="A1126" s="2"/>
       <c r="B1126" s="10" t="s">
-        <v>1629</v>
+        <v>1647</v>
       </c>
       <c r="C1126" s="2"/>
       <c r="D1126" s="2"/>
@@ -28095,7 +28314,7 @@
     <row r="1127" ht="14.25" customHeight="1">
       <c r="A1127" s="2"/>
       <c r="B1127" s="10" t="s">
-        <v>1630</v>
+        <v>1648</v>
       </c>
       <c r="C1127" s="2"/>
       <c r="D1127" s="2"/>
@@ -28114,7 +28333,7 @@
     <row r="1128" ht="14.25" customHeight="1">
       <c r="A1128" s="2"/>
       <c r="B1128" s="10" t="s">
-        <v>1631</v>
+        <v>1649</v>
       </c>
       <c r="C1128" s="2"/>
       <c r="D1128" s="2"/>
@@ -28133,7 +28352,7 @@
     <row r="1129" ht="14.25" customHeight="1">
       <c r="A1129" s="2"/>
       <c r="B1129" s="10" t="s">
-        <v>1632</v>
+        <v>1650</v>
       </c>
       <c r="C1129" s="2"/>
       <c r="D1129" s="2"/>
@@ -28152,7 +28371,7 @@
     <row r="1130" ht="14.25" customHeight="1">
       <c r="A1130" s="2"/>
       <c r="B1130" s="10" t="s">
-        <v>1633</v>
+        <v>1651</v>
       </c>
       <c r="C1130" s="2"/>
       <c r="D1130" s="2"/>
@@ -28171,7 +28390,7 @@
     <row r="1131" ht="14.25" customHeight="1">
       <c r="A1131" s="2"/>
       <c r="B1131" s="10" t="s">
-        <v>1634</v>
+        <v>1652</v>
       </c>
       <c r="C1131" s="2"/>
       <c r="D1131" s="2"/>
@@ -28190,7 +28409,7 @@
     <row r="1132" ht="14.25" customHeight="1">
       <c r="A1132" s="2"/>
       <c r="B1132" s="10" t="s">
-        <v>1635</v>
+        <v>1653</v>
       </c>
       <c r="C1132" s="2"/>
       <c r="D1132" s="2"/>
@@ -28209,7 +28428,7 @@
     <row r="1133" ht="14.25" customHeight="1">
       <c r="A1133" s="2"/>
       <c r="B1133" s="10" t="s">
-        <v>1636</v>
+        <v>1654</v>
       </c>
       <c r="C1133" s="2"/>
       <c r="D1133" s="2"/>
@@ -28228,7 +28447,7 @@
     <row r="1134" ht="14.25" customHeight="1">
       <c r="A1134" s="2"/>
       <c r="B1134" s="10" t="s">
-        <v>1637</v>
+        <v>1655</v>
       </c>
       <c r="C1134" s="2"/>
       <c r="D1134" s="2"/>
@@ -28247,7 +28466,7 @@
     <row r="1135" ht="14.25" customHeight="1">
       <c r="A1135" s="2"/>
       <c r="B1135" s="10" t="s">
-        <v>1638</v>
+        <v>1656</v>
       </c>
       <c r="C1135" s="2"/>
       <c r="D1135" s="2"/>
@@ -28266,7 +28485,7 @@
     <row r="1136" ht="14.25" customHeight="1">
       <c r="A1136" s="2"/>
       <c r="B1136" s="10" t="s">
-        <v>1639</v>
+        <v>1657</v>
       </c>
       <c r="C1136" s="2"/>
       <c r="D1136" s="2"/>
@@ -28285,7 +28504,7 @@
     <row r="1137" ht="14.25" customHeight="1">
       <c r="A1137" s="2"/>
       <c r="B1137" s="10" t="s">
-        <v>1640</v>
+        <v>1658</v>
       </c>
       <c r="C1137" s="2"/>
       <c r="D1137" s="2"/>
@@ -28304,7 +28523,7 @@
     <row r="1138" ht="14.25" customHeight="1">
       <c r="A1138" s="2"/>
       <c r="B1138" s="10" t="s">
-        <v>1641</v>
+        <v>1659</v>
       </c>
       <c r="C1138" s="2"/>
       <c r="D1138" s="2"/>
@@ -28323,7 +28542,7 @@
     <row r="1139" ht="14.25" customHeight="1">
       <c r="A1139" s="2"/>
       <c r="B1139" s="10" t="s">
-        <v>1642</v>
+        <v>1660</v>
       </c>
       <c r="C1139" s="2"/>
       <c r="D1139" s="2"/>
@@ -28342,7 +28561,7 @@
     <row r="1140" ht="14.25" customHeight="1">
       <c r="A1140" s="2"/>
       <c r="B1140" s="10" t="s">
-        <v>1643</v>
+        <v>1661</v>
       </c>
       <c r="C1140" s="2"/>
       <c r="D1140" s="2"/>
@@ -28361,7 +28580,7 @@
     <row r="1141" ht="14.25" customHeight="1">
       <c r="A1141" s="2"/>
       <c r="B1141" s="10" t="s">
-        <v>1644</v>
+        <v>1662</v>
       </c>
       <c r="C1141" s="2"/>
       <c r="D1141" s="2"/>
@@ -28380,7 +28599,7 @@
     <row r="1142" ht="14.25" customHeight="1">
       <c r="A1142" s="2"/>
       <c r="B1142" s="10" t="s">
-        <v>1645</v>
+        <v>1663</v>
       </c>
       <c r="C1142" s="2"/>
       <c r="D1142" s="2"/>
@@ -28399,7 +28618,7 @@
     <row r="1143" ht="14.25" customHeight="1">
       <c r="A1143" s="2"/>
       <c r="B1143" s="10" t="s">
-        <v>1646</v>
+        <v>1664</v>
       </c>
       <c r="C1143" s="2"/>
       <c r="D1143" s="2"/>
@@ -28418,7 +28637,7 @@
     <row r="1144" ht="14.25" customHeight="1">
       <c r="A1144" s="2"/>
       <c r="B1144" s="10" t="s">
-        <v>1647</v>
+        <v>1665</v>
       </c>
       <c r="C1144" s="2"/>
       <c r="D1144" s="2"/>
@@ -28437,7 +28656,7 @@
     <row r="1145" ht="14.25" customHeight="1">
       <c r="A1145" s="2"/>
       <c r="B1145" s="10" t="s">
-        <v>1648</v>
+        <v>1666</v>
       </c>
       <c r="C1145" s="2"/>
       <c r="D1145" s="2"/>
@@ -28456,7 +28675,7 @@
     <row r="1146" ht="14.25" customHeight="1">
       <c r="A1146" s="2"/>
       <c r="B1146" s="10" t="s">
-        <v>1649</v>
+        <v>1667</v>
       </c>
       <c r="C1146" s="2"/>
       <c r="D1146" s="2"/>
@@ -28475,7 +28694,7 @@
     <row r="1147" ht="14.25" customHeight="1">
       <c r="A1147" s="2"/>
       <c r="B1147" s="10" t="s">
-        <v>1650</v>
+        <v>1668</v>
       </c>
       <c r="C1147" s="2"/>
       <c r="D1147" s="2"/>
@@ -28494,7 +28713,7 @@
     <row r="1148" ht="14.25" customHeight="1">
       <c r="A1148" s="2"/>
       <c r="B1148" s="10" t="s">
-        <v>1651</v>
+        <v>1669</v>
       </c>
       <c r="C1148" s="2"/>
       <c r="D1148" s="2"/>
@@ -28513,7 +28732,7 @@
     <row r="1149" ht="14.25" customHeight="1">
       <c r="A1149" s="2"/>
       <c r="B1149" s="10" t="s">
-        <v>1652</v>
+        <v>1670</v>
       </c>
       <c r="C1149" s="2"/>
       <c r="D1149" s="2"/>
@@ -28532,7 +28751,7 @@
     <row r="1150" ht="14.25" customHeight="1">
       <c r="A1150" s="2"/>
       <c r="B1150" s="10" t="s">
-        <v>1653</v>
+        <v>1671</v>
       </c>
       <c r="C1150" s="2"/>
       <c r="D1150" s="2"/>
@@ -28551,7 +28770,7 @@
     <row r="1151" ht="14.25" customHeight="1">
       <c r="A1151" s="2"/>
       <c r="B1151" s="10" t="s">
-        <v>1654</v>
+        <v>1672</v>
       </c>
       <c r="C1151" s="2"/>
       <c r="D1151" s="2"/>
@@ -28570,7 +28789,7 @@
     <row r="1152" ht="14.25" customHeight="1">
       <c r="A1152" s="2"/>
       <c r="B1152" s="10" t="s">
-        <v>1655</v>
+        <v>1673</v>
       </c>
       <c r="C1152" s="2"/>
       <c r="D1152" s="2"/>
@@ -28589,7 +28808,7 @@
     <row r="1153" ht="14.25" customHeight="1">
       <c r="A1153" s="2"/>
       <c r="B1153" s="10" t="s">
-        <v>1656</v>
+        <v>1674</v>
       </c>
       <c r="C1153" s="2"/>
       <c r="D1153" s="2"/>
@@ -28608,7 +28827,7 @@
     <row r="1154" ht="14.25" customHeight="1">
       <c r="A1154" s="2"/>
       <c r="B1154" s="10" t="s">
-        <v>1657</v>
+        <v>1675</v>
       </c>
       <c r="C1154" s="2"/>
       <c r="D1154" s="2"/>
@@ -28627,7 +28846,7 @@
     <row r="1155" ht="14.25" customHeight="1">
       <c r="A1155" s="2"/>
       <c r="B1155" s="10" t="s">
-        <v>1658</v>
+        <v>1676</v>
       </c>
       <c r="C1155" s="2"/>
       <c r="D1155" s="2"/>
@@ -28646,7 +28865,7 @@
     <row r="1156" ht="14.25" customHeight="1">
       <c r="A1156" s="2"/>
       <c r="B1156" s="10" t="s">
-        <v>1659</v>
+        <v>1677</v>
       </c>
       <c r="C1156" s="2"/>
       <c r="D1156" s="2"/>
@@ -28665,7 +28884,7 @@
     <row r="1157" ht="14.25" customHeight="1">
       <c r="A1157" s="2"/>
       <c r="B1157" s="10" t="s">
-        <v>1660</v>
+        <v>1678</v>
       </c>
       <c r="C1157" s="2"/>
       <c r="D1157" s="2"/>
@@ -28684,7 +28903,7 @@
     <row r="1158" ht="14.25" customHeight="1">
       <c r="A1158" s="2"/>
       <c r="B1158" s="10" t="s">
-        <v>1661</v>
+        <v>1679</v>
       </c>
       <c r="C1158" s="2"/>
       <c r="D1158" s="2"/>
@@ -28703,7 +28922,7 @@
     <row r="1159" ht="14.25" customHeight="1">
       <c r="A1159" s="2"/>
       <c r="B1159" s="10" t="s">
-        <v>1662</v>
+        <v>1680</v>
       </c>
       <c r="C1159" s="2"/>
       <c r="D1159" s="2"/>
@@ -28722,7 +28941,7 @@
     <row r="1160" ht="14.25" customHeight="1">
       <c r="A1160" s="2"/>
       <c r="B1160" s="10" t="s">
-        <v>1663</v>
+        <v>1681</v>
       </c>
       <c r="C1160" s="2"/>
       <c r="D1160" s="2"/>
@@ -28741,7 +28960,7 @@
     <row r="1161" ht="14.25" customHeight="1">
       <c r="A1161" s="2"/>
       <c r="B1161" s="10" t="s">
-        <v>1664</v>
+        <v>1682</v>
       </c>
       <c r="C1161" s="2"/>
       <c r="D1161" s="2"/>
@@ -28760,7 +28979,7 @@
     <row r="1162" ht="14.25" customHeight="1">
       <c r="A1162" s="2"/>
       <c r="B1162" s="10" t="s">
-        <v>1665</v>
+        <v>1683</v>
       </c>
       <c r="C1162" s="2"/>
       <c r="D1162" s="2"/>
@@ -28779,7 +28998,7 @@
     <row r="1163" ht="14.25" customHeight="1">
       <c r="A1163" s="2"/>
       <c r="B1163" s="10" t="s">
-        <v>1666</v>
+        <v>1684</v>
       </c>
       <c r="C1163" s="2"/>
       <c r="D1163" s="2"/>
@@ -28798,7 +29017,7 @@
     <row r="1164" ht="14.25" customHeight="1">
       <c r="A1164" s="2"/>
       <c r="B1164" s="10" t="s">
-        <v>1667</v>
+        <v>1685</v>
       </c>
       <c r="C1164" s="2"/>
       <c r="D1164" s="2"/>
@@ -28817,7 +29036,7 @@
     <row r="1165" ht="14.25" customHeight="1">
       <c r="A1165" s="2"/>
       <c r="B1165" s="10" t="s">
-        <v>1668</v>
+        <v>1686</v>
       </c>
       <c r="C1165" s="2"/>
       <c r="D1165" s="2"/>
@@ -28836,7 +29055,7 @@
     <row r="1166" ht="14.25" customHeight="1">
       <c r="A1166" s="2"/>
       <c r="B1166" s="11" t="s">
-        <v>1669</v>
+        <v>1687</v>
       </c>
       <c r="C1166" s="2"/>
       <c r="D1166" s="2"/>
@@ -28855,7 +29074,7 @@
     <row r="1167" ht="14.25" customHeight="1">
       <c r="A1167" s="2"/>
       <c r="B1167" s="11" t="s">
-        <v>1670</v>
+        <v>1688</v>
       </c>
       <c r="C1167" s="2"/>
       <c r="D1167" s="2"/>
@@ -28874,7 +29093,7 @@
     <row r="1168" ht="14.25" customHeight="1">
       <c r="A1168" s="2"/>
       <c r="B1168" s="10" t="s">
-        <v>1671</v>
+        <v>1689</v>
       </c>
       <c r="C1168" s="2"/>
       <c r="D1168" s="2"/>
@@ -28893,7 +29112,7 @@
     <row r="1169" ht="14.25" customHeight="1">
       <c r="A1169" s="2"/>
       <c r="B1169" s="10" t="s">
-        <v>1672</v>
+        <v>1690</v>
       </c>
       <c r="C1169" s="2"/>
       <c r="D1169" s="2"/>
@@ -28912,7 +29131,7 @@
     <row r="1170" ht="14.25" customHeight="1">
       <c r="A1170" s="2"/>
       <c r="B1170" s="10" t="s">
-        <v>1673</v>
+        <v>1691</v>
       </c>
       <c r="C1170" s="2"/>
       <c r="D1170" s="2"/>
@@ -28931,7 +29150,7 @@
     <row r="1171" ht="14.25" customHeight="1">
       <c r="A1171" s="2"/>
       <c r="B1171" s="10" t="s">
-        <v>1674</v>
+        <v>1692</v>
       </c>
       <c r="C1171" s="2"/>
       <c r="D1171" s="2"/>
@@ -28950,7 +29169,7 @@
     <row r="1172" ht="14.25" customHeight="1">
       <c r="A1172" s="2"/>
       <c r="B1172" s="10" t="s">
-        <v>1675</v>
+        <v>1693</v>
       </c>
       <c r="C1172" s="2"/>
       <c r="D1172" s="2"/>
@@ -28969,7 +29188,7 @@
     <row r="1173" ht="14.25" customHeight="1">
       <c r="A1173" s="2"/>
       <c r="B1173" s="10" t="s">
-        <v>1676</v>
+        <v>1694</v>
       </c>
       <c r="C1173" s="2"/>
       <c r="D1173" s="2"/>
@@ -28988,7 +29207,7 @@
     <row r="1174" ht="14.25" customHeight="1">
       <c r="A1174" s="2"/>
       <c r="B1174" s="10" t="s">
-        <v>1677</v>
+        <v>1695</v>
       </c>
       <c r="C1174" s="2"/>
       <c r="D1174" s="2"/>
@@ -29007,7 +29226,7 @@
     <row r="1175" ht="14.25" customHeight="1">
       <c r="A1175" s="2"/>
       <c r="B1175" s="10" t="s">
-        <v>1678</v>
+        <v>1696</v>
       </c>
       <c r="C1175" s="2"/>
       <c r="D1175" s="2"/>
@@ -29026,7 +29245,7 @@
     <row r="1176" ht="14.25" customHeight="1">
       <c r="A1176" s="2"/>
       <c r="B1176" s="10" t="s">
-        <v>1679</v>
+        <v>1697</v>
       </c>
       <c r="C1176" s="2"/>
       <c r="D1176" s="2"/>
@@ -29045,7 +29264,7 @@
     <row r="1177" ht="14.25" customHeight="1">
       <c r="A1177" s="2"/>
       <c r="B1177" s="10" t="s">
-        <v>1680</v>
+        <v>1698</v>
       </c>
       <c r="C1177" s="2"/>
       <c r="D1177" s="2"/>
@@ -29064,7 +29283,7 @@
     <row r="1178" ht="14.25" customHeight="1">
       <c r="A1178" s="2"/>
       <c r="B1178" s="10" t="s">
-        <v>1681</v>
+        <v>1699</v>
       </c>
       <c r="C1178" s="2"/>
       <c r="D1178" s="2"/>
@@ -29083,7 +29302,7 @@
     <row r="1179" ht="14.25" customHeight="1">
       <c r="A1179" s="2"/>
       <c r="B1179" s="10" t="s">
-        <v>1682</v>
+        <v>1700</v>
       </c>
       <c r="C1179" s="2"/>
       <c r="D1179" s="2"/>
@@ -29102,7 +29321,7 @@
     <row r="1180" ht="14.25" customHeight="1">
       <c r="A1180" s="2"/>
       <c r="B1180" s="10" t="s">
-        <v>1683</v>
+        <v>1701</v>
       </c>
       <c r="C1180" s="2"/>
       <c r="D1180" s="2"/>
@@ -29121,7 +29340,7 @@
     <row r="1181" ht="14.25" customHeight="1">
       <c r="A1181" s="2"/>
       <c r="B1181" s="10" t="s">
-        <v>1684</v>
+        <v>1702</v>
       </c>
       <c r="C1181" s="2"/>
       <c r="D1181" s="2"/>
@@ -29140,7 +29359,7 @@
     <row r="1182" ht="14.25" customHeight="1">
       <c r="A1182" s="2"/>
       <c r="B1182" s="10" t="s">
-        <v>1685</v>
+        <v>1703</v>
       </c>
       <c r="C1182" s="2"/>
       <c r="D1182" s="2"/>
@@ -29159,7 +29378,7 @@
     <row r="1183" ht="14.25" customHeight="1">
       <c r="A1183" s="2"/>
       <c r="B1183" s="10" t="s">
-        <v>1686</v>
+        <v>1704</v>
       </c>
       <c r="C1183" s="2"/>
       <c r="D1183" s="2"/>
@@ -29178,7 +29397,7 @@
     <row r="1184" ht="14.25" customHeight="1">
       <c r="A1184" s="2"/>
       <c r="B1184" s="10" t="s">
-        <v>1687</v>
+        <v>1705</v>
       </c>
       <c r="C1184" s="2"/>
       <c r="D1184" s="2"/>
@@ -29197,7 +29416,7 @@
     <row r="1185" ht="14.25" customHeight="1">
       <c r="A1185" s="2"/>
       <c r="B1185" s="10" t="s">
-        <v>1688</v>
+        <v>1706</v>
       </c>
       <c r="C1185" s="2"/>
       <c r="D1185" s="2"/>
@@ -29216,7 +29435,7 @@
     <row r="1186" ht="14.25" customHeight="1">
       <c r="A1186" s="2"/>
       <c r="B1186" s="10" t="s">
-        <v>1689</v>
+        <v>1707</v>
       </c>
       <c r="C1186" s="2"/>
       <c r="D1186" s="2"/>
@@ -29235,7 +29454,7 @@
     <row r="1187" ht="14.25" customHeight="1">
       <c r="A1187" s="2"/>
       <c r="B1187" s="10" t="s">
-        <v>1648</v>
+        <v>1666</v>
       </c>
       <c r="C1187" s="2"/>
       <c r="D1187" s="2"/>
@@ -29254,7 +29473,7 @@
     <row r="1188" ht="14.25" customHeight="1">
       <c r="A1188" s="2"/>
       <c r="B1188" s="10" t="s">
-        <v>1690</v>
+        <v>1708</v>
       </c>
       <c r="C1188" s="2"/>
       <c r="D1188" s="2"/>
@@ -29273,7 +29492,7 @@
     <row r="1189" ht="14.25" customHeight="1">
       <c r="A1189" s="2"/>
       <c r="B1189" s="10" t="s">
-        <v>1691</v>
+        <v>1709</v>
       </c>
       <c r="C1189" s="2"/>
       <c r="D1189" s="2"/>
@@ -29292,7 +29511,7 @@
     <row r="1190" ht="14.25" customHeight="1">
       <c r="A1190" s="2"/>
       <c r="B1190" s="10" t="s">
-        <v>1692</v>
+        <v>1710</v>
       </c>
       <c r="C1190" s="2"/>
       <c r="D1190" s="2"/>
@@ -29311,7 +29530,7 @@
     <row r="1191" ht="14.25" customHeight="1">
       <c r="A1191" s="2"/>
       <c r="B1191" s="10" t="s">
-        <v>1693</v>
+        <v>1711</v>
       </c>
       <c r="C1191" s="2"/>
       <c r="D1191" s="2"/>
@@ -29330,7 +29549,7 @@
     <row r="1192" ht="14.25" customHeight="1">
       <c r="A1192" s="2"/>
       <c r="B1192" s="10" t="s">
-        <v>1694</v>
+        <v>1712</v>
       </c>
       <c r="C1192" s="2"/>
       <c r="D1192" s="2"/>
@@ -29349,7 +29568,7 @@
     <row r="1193" ht="14.25" customHeight="1">
       <c r="A1193" s="2"/>
       <c r="B1193" s="10" t="s">
-        <v>1695</v>
+        <v>1713</v>
       </c>
       <c r="C1193" s="2"/>
       <c r="D1193" s="2"/>
@@ -29368,7 +29587,7 @@
     <row r="1194" ht="14.25" customHeight="1">
       <c r="A1194" s="2"/>
       <c r="B1194" s="10" t="s">
-        <v>1696</v>
+        <v>1714</v>
       </c>
       <c r="C1194" s="2"/>
       <c r="D1194" s="2"/>
@@ -29387,7 +29606,7 @@
     <row r="1195" ht="14.25" customHeight="1">
       <c r="A1195" s="2"/>
       <c r="B1195" s="4" t="s">
-        <v>1697</v>
+        <v>1715</v>
       </c>
       <c r="C1195" s="2"/>
       <c r="D1195" s="2"/>
@@ -29406,7 +29625,7 @@
     <row r="1196" ht="14.25" customHeight="1">
       <c r="A1196" s="2"/>
       <c r="B1196" s="4" t="s">
-        <v>1698</v>
+        <v>1716</v>
       </c>
       <c r="C1196" s="2"/>
       <c r="D1196" s="2"/>
@@ -29425,7 +29644,7 @@
     <row r="1197" ht="14.25" customHeight="1">
       <c r="A1197" s="2"/>
       <c r="B1197" s="4" t="s">
-        <v>1699</v>
+        <v>1717</v>
       </c>
       <c r="C1197" s="2"/>
       <c r="D1197" s="2"/>
@@ -29444,7 +29663,7 @@
     <row r="1198" ht="14.25" customHeight="1">
       <c r="A1198" s="2"/>
       <c r="B1198" s="4" t="s">
-        <v>1700</v>
+        <v>1718</v>
       </c>
       <c r="C1198" s="2"/>
       <c r="D1198" s="2"/>
@@ -29463,7 +29682,7 @@
     <row r="1199" ht="14.25" customHeight="1">
       <c r="A1199" s="2"/>
       <c r="B1199" s="4" t="s">
-        <v>1701</v>
+        <v>1719</v>
       </c>
       <c r="C1199" s="2"/>
       <c r="D1199" s="2"/>
@@ -29481,8 +29700,8 @@
     </row>
     <row r="1200" ht="14.25" customHeight="1">
       <c r="A1200" s="2"/>
-      <c r="B1200" s="9" t="s">
-        <v>1702</v>
+      <c r="B1200" s="8" t="s">
+        <v>1720</v>
       </c>
       <c r="C1200" s="2"/>
       <c r="D1200" s="2"/>
@@ -29501,7 +29720,7 @@
     <row r="1201" ht="14.25" customHeight="1">
       <c r="A1201" s="2"/>
       <c r="B1201" s="4" t="s">
-        <v>1703</v>
+        <v>1721</v>
       </c>
       <c r="C1201" s="2"/>
       <c r="D1201" s="2"/>
@@ -29520,7 +29739,7 @@
     <row r="1202" ht="14.25" customHeight="1">
       <c r="A1202" s="2"/>
       <c r="B1202" s="4" t="s">
-        <v>1704</v>
+        <v>1722</v>
       </c>
       <c r="C1202" s="2"/>
       <c r="D1202" s="2"/>
@@ -29539,7 +29758,7 @@
     <row r="1203" ht="14.25" customHeight="1">
       <c r="A1203" s="2"/>
       <c r="B1203" s="4" t="s">
-        <v>1705</v>
+        <v>1723</v>
       </c>
       <c r="C1203" s="2"/>
       <c r="D1203" s="2"/>
@@ -29558,7 +29777,7 @@
     <row r="1204" ht="14.25" customHeight="1">
       <c r="A1204" s="2"/>
       <c r="B1204" s="4" t="s">
-        <v>1706</v>
+        <v>1724</v>
       </c>
       <c r="C1204" s="2"/>
       <c r="D1204" s="2"/>
@@ -29577,7 +29796,7 @@
     <row r="1205" ht="14.25" customHeight="1">
       <c r="A1205" s="2"/>
       <c r="B1205" s="4" t="s">
-        <v>1707</v>
+        <v>1725</v>
       </c>
       <c r="C1205" s="2"/>
       <c r="D1205" s="2"/>
@@ -29596,7 +29815,7 @@
     <row r="1206" ht="14.25" customHeight="1">
       <c r="A1206" s="2"/>
       <c r="B1206" s="4" t="s">
-        <v>1708</v>
+        <v>1726</v>
       </c>
       <c r="C1206" s="2"/>
       <c r="D1206" s="2"/>
@@ -29615,7 +29834,7 @@
     <row r="1207" ht="14.25" customHeight="1">
       <c r="A1207" s="2"/>
       <c r="B1207" s="4" t="s">
-        <v>1709</v>
+        <v>1727</v>
       </c>
       <c r="C1207" s="2"/>
       <c r="D1207" s="2"/>
@@ -29634,7 +29853,7 @@
     <row r="1208" ht="14.25" customHeight="1">
       <c r="A1208" s="2"/>
       <c r="B1208" s="4" t="s">
-        <v>1710</v>
+        <v>1728</v>
       </c>
       <c r="C1208" s="2"/>
       <c r="D1208" s="2"/>
@@ -29653,7 +29872,7 @@
     <row r="1209" ht="14.25" customHeight="1">
       <c r="A1209" s="2"/>
       <c r="B1209" s="4" t="s">
-        <v>1711</v>
+        <v>1729</v>
       </c>
       <c r="C1209" s="2"/>
       <c r="D1209" s="2"/>
@@ -29672,7 +29891,7 @@
     <row r="1210" ht="14.25" customHeight="1">
       <c r="A1210" s="2"/>
       <c r="B1210" s="4" t="s">
-        <v>1712</v>
+        <v>1730</v>
       </c>
       <c r="C1210" s="2"/>
       <c r="D1210" s="2"/>
@@ -29691,7 +29910,7 @@
     <row r="1211" ht="14.25" customHeight="1">
       <c r="A1211" s="2"/>
       <c r="B1211" s="4" t="s">
-        <v>1713</v>
+        <v>1731</v>
       </c>
       <c r="C1211" s="2"/>
       <c r="D1211" s="2"/>
@@ -29710,7 +29929,7 @@
     <row r="1212" ht="14.25" customHeight="1">
       <c r="A1212" s="2"/>
       <c r="B1212" s="4" t="s">
-        <v>1714</v>
+        <v>1732</v>
       </c>
       <c r="C1212" s="2"/>
       <c r="D1212" s="2"/>
@@ -29729,7 +29948,7 @@
     <row r="1213" ht="14.25" customHeight="1">
       <c r="A1213" s="2"/>
       <c r="B1213" s="4" t="s">
-        <v>1715</v>
+        <v>1733</v>
       </c>
       <c r="C1213" s="2"/>
       <c r="D1213" s="2"/>
@@ -29748,7 +29967,7 @@
     <row r="1214" ht="14.25" customHeight="1">
       <c r="A1214" s="2"/>
       <c r="B1214" s="4" t="s">
-        <v>1716</v>
+        <v>1734</v>
       </c>
       <c r="C1214" s="2"/>
       <c r="D1214" s="2"/>
@@ -29767,7 +29986,7 @@
     <row r="1215" ht="14.25" customHeight="1">
       <c r="A1215" s="2"/>
       <c r="B1215" s="4" t="s">
-        <v>1717</v>
+        <v>1735</v>
       </c>
       <c r="C1215" s="2"/>
       <c r="D1215" s="2"/>
@@ -29786,7 +30005,7 @@
     <row r="1216" ht="14.25" customHeight="1">
       <c r="A1216" s="2"/>
       <c r="B1216" s="4" t="s">
-        <v>1718</v>
+        <v>1736</v>
       </c>
       <c r="C1216" s="2"/>
       <c r="D1216" s="2"/>
@@ -29805,7 +30024,7 @@
     <row r="1217" ht="14.25" customHeight="1">
       <c r="A1217" s="2"/>
       <c r="B1217" s="4" t="s">
-        <v>1719</v>
+        <v>1737</v>
       </c>
       <c r="C1217" s="2"/>
       <c r="D1217" s="2"/>
@@ -29824,7 +30043,7 @@
     <row r="1218" ht="14.25" customHeight="1">
       <c r="A1218" s="2"/>
       <c r="B1218" s="4" t="s">
-        <v>1720</v>
+        <v>1738</v>
       </c>
       <c r="C1218" s="2"/>
       <c r="D1218" s="2"/>
@@ -29843,7 +30062,7 @@
     <row r="1219" ht="14.25" customHeight="1">
       <c r="A1219" s="2"/>
       <c r="B1219" s="4" t="s">
-        <v>1721</v>
+        <v>1739</v>
       </c>
       <c r="C1219" s="2"/>
       <c r="D1219" s="2"/>
@@ -29862,7 +30081,7 @@
     <row r="1220" ht="14.25" customHeight="1">
       <c r="A1220" s="2"/>
       <c r="B1220" s="4" t="s">
-        <v>1722</v>
+        <v>1740</v>
       </c>
       <c r="C1220" s="2"/>
       <c r="D1220" s="2"/>
@@ -29881,7 +30100,7 @@
     <row r="1221" ht="14.25" customHeight="1">
       <c r="A1221" s="2"/>
       <c r="B1221" s="4" t="s">
-        <v>1723</v>
+        <v>1741</v>
       </c>
       <c r="C1221" s="2"/>
       <c r="D1221" s="2"/>
@@ -29900,7 +30119,7 @@
     <row r="1222" ht="14.25" customHeight="1">
       <c r="A1222" s="2"/>
       <c r="B1222" s="4" t="s">
-        <v>1724</v>
+        <v>1742</v>
       </c>
       <c r="C1222" s="2"/>
       <c r="D1222" s="2"/>
@@ -29919,7 +30138,7 @@
     <row r="1223" ht="14.25" customHeight="1">
       <c r="A1223" s="2"/>
       <c r="B1223" s="4" t="s">
-        <v>1725</v>
+        <v>1743</v>
       </c>
       <c r="C1223" s="2"/>
       <c r="D1223" s="2"/>
@@ -29938,7 +30157,7 @@
     <row r="1224" ht="14.25" customHeight="1">
       <c r="A1224" s="2"/>
       <c r="B1224" s="4" t="s">
-        <v>1726</v>
+        <v>1744</v>
       </c>
       <c r="C1224" s="2"/>
       <c r="D1224" s="2"/>
@@ -29957,7 +30176,7 @@
     <row r="1225" ht="14.25" customHeight="1">
       <c r="A1225" s="2"/>
       <c r="B1225" s="4" t="s">
-        <v>1727</v>
+        <v>1745</v>
       </c>
       <c r="C1225" s="2"/>
       <c r="D1225" s="2"/>
@@ -29976,7 +30195,7 @@
     <row r="1226" ht="14.25" customHeight="1">
       <c r="A1226" s="2"/>
       <c r="B1226" s="4" t="s">
-        <v>1728</v>
+        <v>1746</v>
       </c>
       <c r="C1226" s="2"/>
       <c r="D1226" s="2"/>
@@ -29995,7 +30214,7 @@
     <row r="1227" ht="14.25" customHeight="1">
       <c r="A1227" s="2"/>
       <c r="B1227" s="4" t="s">
-        <v>1729</v>
+        <v>1747</v>
       </c>
       <c r="C1227" s="2"/>
       <c r="D1227" s="2"/>
@@ -30014,7 +30233,7 @@
     <row r="1228" ht="14.25" customHeight="1">
       <c r="A1228" s="2"/>
       <c r="B1228" s="4" t="s">
-        <v>1730</v>
+        <v>1748</v>
       </c>
       <c r="C1228" s="2"/>
       <c r="D1228" s="2"/>
@@ -30033,7 +30252,7 @@
     <row r="1229" ht="14.25" customHeight="1">
       <c r="A1229" s="2"/>
       <c r="B1229" s="4" t="s">
-        <v>1731</v>
+        <v>1749</v>
       </c>
       <c r="C1229" s="2"/>
       <c r="D1229" s="2"/>
@@ -30052,7 +30271,7 @@
     <row r="1230" ht="14.25" customHeight="1">
       <c r="A1230" s="2"/>
       <c r="B1230" s="4" t="s">
-        <v>1720</v>
+        <v>1738</v>
       </c>
       <c r="C1230" s="2"/>
       <c r="D1230" s="2"/>
@@ -30071,7 +30290,7 @@
     <row r="1231" ht="14.25" customHeight="1">
       <c r="A1231" s="2"/>
       <c r="B1231" s="4" t="s">
-        <v>1732</v>
+        <v>1750</v>
       </c>
       <c r="C1231" s="2"/>
       <c r="D1231" s="2"/>
@@ -30090,7 +30309,7 @@
     <row r="1232" ht="14.25" customHeight="1">
       <c r="A1232" s="2"/>
       <c r="B1232" s="4" t="s">
-        <v>1733</v>
+        <v>1751</v>
       </c>
       <c r="C1232" s="2"/>
       <c r="D1232" s="2"/>
@@ -30109,7 +30328,7 @@
     <row r="1233" ht="14.25" customHeight="1">
       <c r="A1233" s="2"/>
       <c r="B1233" s="4" t="s">
-        <v>1734</v>
+        <v>1752</v>
       </c>
       <c r="C1233" s="2"/>
       <c r="D1233" s="2"/>
@@ -30128,7 +30347,7 @@
     <row r="1234" ht="14.25" customHeight="1">
       <c r="A1234" s="2"/>
       <c r="B1234" s="4" t="s">
-        <v>1735</v>
+        <v>1753</v>
       </c>
       <c r="C1234" s="2"/>
       <c r="D1234" s="2"/>
@@ -30147,7 +30366,7 @@
     <row r="1235" ht="14.25" customHeight="1">
       <c r="A1235" s="2"/>
       <c r="B1235" s="4" t="s">
-        <v>1736</v>
+        <v>1754</v>
       </c>
       <c r="C1235" s="2"/>
       <c r="D1235" s="2"/>
@@ -30166,7 +30385,7 @@
     <row r="1236" ht="14.25" customHeight="1">
       <c r="A1236" s="2"/>
       <c r="B1236" s="4" t="s">
-        <v>1737</v>
+        <v>1755</v>
       </c>
       <c r="C1236" s="2"/>
       <c r="D1236" s="2"/>
@@ -30185,7 +30404,7 @@
     <row r="1237" ht="14.25" customHeight="1">
       <c r="A1237" s="2"/>
       <c r="B1237" s="4" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="C1237" s="2"/>
       <c r="D1237" s="2"/>
@@ -30204,7 +30423,7 @@
     <row r="1238" ht="14.25" customHeight="1">
       <c r="A1238" s="2"/>
       <c r="B1238" s="4" t="s">
-        <v>1739</v>
+        <v>1757</v>
       </c>
       <c r="C1238" s="2"/>
       <c r="D1238" s="2"/>
@@ -30223,7 +30442,7 @@
     <row r="1239" ht="14.25" customHeight="1">
       <c r="A1239" s="2"/>
       <c r="B1239" s="4" t="s">
-        <v>1740</v>
+        <v>1758</v>
       </c>
       <c r="C1239" s="2"/>
       <c r="D1239" s="2"/>
@@ -30242,7 +30461,7 @@
     <row r="1240" ht="14.25" customHeight="1">
       <c r="A1240" s="2"/>
       <c r="B1240" s="4" t="s">
-        <v>1741</v>
+        <v>1759</v>
       </c>
       <c r="C1240" s="2"/>
       <c r="D1240" s="2"/>
@@ -30261,7 +30480,7 @@
     <row r="1241" ht="14.25" customHeight="1">
       <c r="A1241" s="2"/>
       <c r="B1241" s="4" t="s">
-        <v>1742</v>
+        <v>1760</v>
       </c>
       <c r="C1241" s="2"/>
       <c r="D1241" s="2"/>
@@ -30280,7 +30499,7 @@
     <row r="1242" ht="14.25" customHeight="1">
       <c r="A1242" s="2"/>
       <c r="B1242" s="4" t="s">
-        <v>1743</v>
+        <v>1761</v>
       </c>
       <c r="C1242" s="2"/>
       <c r="D1242" s="2"/>
@@ -30299,7 +30518,7 @@
     <row r="1243" ht="14.25" customHeight="1">
       <c r="A1243" s="2"/>
       <c r="B1243" s="4" t="s">
-        <v>1744</v>
+        <v>1762</v>
       </c>
       <c r="C1243" s="2"/>
       <c r="D1243" s="2"/>
@@ -30318,7 +30537,7 @@
     <row r="1244" ht="14.25" customHeight="1">
       <c r="A1244" s="2"/>
       <c r="B1244" s="4" t="s">
-        <v>1745</v>
+        <v>1763</v>
       </c>
       <c r="C1244" s="2"/>
       <c r="D1244" s="2"/>
@@ -30337,7 +30556,7 @@
     <row r="1245" ht="14.25" customHeight="1">
       <c r="A1245" s="2"/>
       <c r="B1245" s="4" t="s">
-        <v>1746</v>
+        <v>1764</v>
       </c>
       <c r="C1245" s="2"/>
       <c r="D1245" s="2"/>
@@ -30356,7 +30575,7 @@
     <row r="1246" ht="14.25" customHeight="1">
       <c r="A1246" s="2"/>
       <c r="B1246" s="4" t="s">
-        <v>1747</v>
+        <v>1765</v>
       </c>
       <c r="C1246" s="2"/>
       <c r="D1246" s="2"/>
@@ -30375,7 +30594,7 @@
     <row r="1247" ht="14.25" customHeight="1">
       <c r="A1247" s="2"/>
       <c r="B1247" s="4" t="s">
-        <v>1748</v>
+        <v>1766</v>
       </c>
       <c r="C1247" s="2"/>
       <c r="D1247" s="2"/>
@@ -30394,7 +30613,7 @@
     <row r="1248" ht="14.25" customHeight="1">
       <c r="A1248" s="2"/>
       <c r="B1248" s="4" t="s">
-        <v>1749</v>
+        <v>1767</v>
       </c>
       <c r="C1248" s="2"/>
       <c r="D1248" s="2"/>
@@ -30413,7 +30632,7 @@
     <row r="1249" ht="14.25" customHeight="1">
       <c r="A1249" s="2"/>
       <c r="B1249" s="4" t="s">
-        <v>1750</v>
+        <v>1768</v>
       </c>
       <c r="C1249" s="2"/>
       <c r="D1249" s="2"/>
@@ -30432,7 +30651,7 @@
     <row r="1250" ht="14.25" customHeight="1">
       <c r="A1250" s="2"/>
       <c r="B1250" s="4" t="s">
-        <v>1751</v>
+        <v>1769</v>
       </c>
       <c r="C1250" s="2"/>
       <c r="D1250" s="2"/>
@@ -30451,7 +30670,7 @@
     <row r="1251" ht="14.25" customHeight="1">
       <c r="A1251" s="2"/>
       <c r="B1251" s="4" t="s">
-        <v>1752</v>
+        <v>1770</v>
       </c>
       <c r="C1251" s="2"/>
       <c r="D1251" s="2"/>
@@ -30470,7 +30689,7 @@
     <row r="1252" ht="14.25" customHeight="1">
       <c r="A1252" s="2"/>
       <c r="B1252" s="4" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="C1252" s="2"/>
       <c r="D1252" s="2"/>
@@ -30489,7 +30708,7 @@
     <row r="1253" ht="14.25" customHeight="1">
       <c r="A1253" s="2"/>
       <c r="B1253" s="4" t="s">
-        <v>1754</v>
+        <v>1772</v>
       </c>
       <c r="C1253" s="2"/>
       <c r="D1253" s="2"/>
@@ -30508,7 +30727,7 @@
     <row r="1254" ht="14.25" customHeight="1">
       <c r="A1254" s="2"/>
       <c r="B1254" s="4" t="s">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="C1254" s="2"/>
       <c r="D1254" s="2"/>
@@ -30527,7 +30746,7 @@
     <row r="1255" ht="14.25" customHeight="1">
       <c r="A1255" s="2"/>
       <c r="B1255" s="4" t="s">
-        <v>1756</v>
+        <v>1774</v>
       </c>
       <c r="C1255" s="2"/>
       <c r="D1255" s="2"/>
@@ -30546,7 +30765,7 @@
     <row r="1256" ht="14.25" customHeight="1">
       <c r="A1256" s="2"/>
       <c r="B1256" s="4" t="s">
-        <v>1757</v>
+        <v>1775</v>
       </c>
       <c r="C1256" s="2"/>
       <c r="D1256" s="2"/>
@@ -30565,7 +30784,7 @@
     <row r="1257" ht="14.25" customHeight="1">
       <c r="A1257" s="2"/>
       <c r="B1257" s="4" t="s">
-        <v>1758</v>
+        <v>1776</v>
       </c>
       <c r="C1257" s="2"/>
       <c r="D1257" s="2"/>
@@ -30584,7 +30803,7 @@
     <row r="1258" ht="14.25" customHeight="1">
       <c r="A1258" s="2"/>
       <c r="B1258" s="4" t="s">
-        <v>1759</v>
+        <v>1777</v>
       </c>
       <c r="C1258" s="2"/>
       <c r="D1258" s="2"/>
@@ -30603,7 +30822,7 @@
     <row r="1259" ht="14.25" customHeight="1">
       <c r="A1259" s="2"/>
       <c r="B1259" s="4" t="s">
-        <v>1760</v>
+        <v>1778</v>
       </c>
       <c r="C1259" s="2"/>
       <c r="D1259" s="2"/>
@@ -30622,7 +30841,7 @@
     <row r="1260" ht="14.25" customHeight="1">
       <c r="A1260" s="2"/>
       <c r="B1260" s="4" t="s">
-        <v>1761</v>
+        <v>1779</v>
       </c>
       <c r="C1260" s="2"/>
       <c r="D1260" s="2"/>
@@ -30641,7 +30860,7 @@
     <row r="1261" ht="14.25" customHeight="1">
       <c r="A1261" s="2"/>
       <c r="B1261" s="4" t="s">
-        <v>1762</v>
+        <v>1780</v>
       </c>
       <c r="C1261" s="2"/>
       <c r="D1261" s="2"/>
@@ -30660,7 +30879,7 @@
     <row r="1262" ht="14.25" customHeight="1">
       <c r="A1262" s="2"/>
       <c r="B1262" s="4" t="s">
-        <v>1763</v>
+        <v>1781</v>
       </c>
       <c r="C1262" s="2"/>
       <c r="D1262" s="2"/>
@@ -30679,7 +30898,7 @@
     <row r="1263" ht="14.25" customHeight="1">
       <c r="A1263" s="2"/>
       <c r="B1263" s="4" t="s">
-        <v>1764</v>
+        <v>1782</v>
       </c>
       <c r="C1263" s="2"/>
       <c r="D1263" s="2"/>
@@ -30698,7 +30917,7 @@
     <row r="1264" ht="14.25" customHeight="1">
       <c r="A1264" s="2"/>
       <c r="B1264" s="4" t="s">
-        <v>1765</v>
+        <v>1783</v>
       </c>
       <c r="C1264" s="2"/>
       <c r="D1264" s="2"/>
@@ -30717,7 +30936,7 @@
     <row r="1265" ht="14.25" customHeight="1">
       <c r="A1265" s="2"/>
       <c r="B1265" s="4" t="s">
-        <v>1766</v>
+        <v>1784</v>
       </c>
       <c r="C1265" s="2"/>
       <c r="D1265" s="2"/>
@@ -30736,7 +30955,7 @@
     <row r="1266" ht="14.25" customHeight="1">
       <c r="A1266" s="2"/>
       <c r="B1266" s="4" t="s">
-        <v>1767</v>
+        <v>1785</v>
       </c>
       <c r="C1266" s="2"/>
       <c r="D1266" s="2"/>
@@ -30755,7 +30974,7 @@
     <row r="1267" ht="14.25" customHeight="1">
       <c r="A1267" s="2"/>
       <c r="B1267" s="4" t="s">
-        <v>1768</v>
+        <v>1786</v>
       </c>
       <c r="C1267" s="2"/>
       <c r="D1267" s="2"/>
@@ -30774,7 +30993,7 @@
     <row r="1268" ht="14.25" customHeight="1">
       <c r="A1268" s="2"/>
       <c r="B1268" s="4" t="s">
-        <v>1769</v>
+        <v>1787</v>
       </c>
       <c r="C1268" s="2"/>
       <c r="D1268" s="2"/>
@@ -30793,7 +31012,7 @@
     <row r="1269" ht="14.25" customHeight="1">
       <c r="A1269" s="2"/>
       <c r="B1269" s="4" t="s">
-        <v>1770</v>
+        <v>1788</v>
       </c>
       <c r="C1269" s="2"/>
       <c r="D1269" s="2"/>
@@ -30812,7 +31031,7 @@
     <row r="1270" ht="14.25" customHeight="1">
       <c r="A1270" s="2"/>
       <c r="B1270" s="4" t="s">
-        <v>1771</v>
+        <v>1789</v>
       </c>
       <c r="C1270" s="2"/>
       <c r="D1270" s="2"/>
@@ -30831,7 +31050,7 @@
     <row r="1271" ht="14.25" customHeight="1">
       <c r="A1271" s="2"/>
       <c r="B1271" s="4" t="s">
-        <v>1772</v>
+        <v>1790</v>
       </c>
       <c r="C1271" s="2"/>
       <c r="D1271" s="2"/>
@@ -30850,7 +31069,7 @@
     <row r="1272" ht="14.25" customHeight="1">
       <c r="A1272" s="2"/>
       <c r="B1272" s="4" t="s">
-        <v>1773</v>
+        <v>1791</v>
       </c>
       <c r="C1272" s="2"/>
       <c r="D1272" s="2"/>
@@ -30869,7 +31088,7 @@
     <row r="1273" ht="14.25" customHeight="1">
       <c r="A1273" s="2"/>
       <c r="B1273" s="4" t="s">
-        <v>1774</v>
+        <v>1792</v>
       </c>
       <c r="C1273" s="2"/>
       <c r="D1273" s="2"/>
@@ -30888,7 +31107,7 @@
     <row r="1274" ht="14.25" customHeight="1">
       <c r="A1274" s="2"/>
       <c r="B1274" s="4" t="s">
-        <v>1775</v>
+        <v>1793</v>
       </c>
       <c r="C1274" s="2"/>
       <c r="D1274" s="2"/>
@@ -30907,7 +31126,7 @@
     <row r="1275" ht="14.25" customHeight="1">
       <c r="A1275" s="2"/>
       <c r="B1275" s="4" t="s">
-        <v>1776</v>
+        <v>1794</v>
       </c>
       <c r="C1275" s="2"/>
       <c r="D1275" s="2"/>
@@ -30926,7 +31145,7 @@
     <row r="1276" ht="14.25" customHeight="1">
       <c r="A1276" s="2"/>
       <c r="B1276" s="4" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="C1276" s="2"/>
       <c r="D1276" s="2"/>
@@ -30945,7 +31164,7 @@
     <row r="1277" ht="14.25" customHeight="1">
       <c r="A1277" s="2"/>
       <c r="B1277" s="4" t="s">
-        <v>1778</v>
+        <v>1796</v>
       </c>
       <c r="C1277" s="2"/>
       <c r="D1277" s="2"/>
@@ -30964,7 +31183,7 @@
     <row r="1278" ht="14.25" customHeight="1">
       <c r="A1278" s="2"/>
       <c r="B1278" s="4" t="s">
-        <v>1779</v>
+        <v>1797</v>
       </c>
       <c r="C1278" s="2"/>
       <c r="D1278" s="2"/>
@@ -30983,7 +31202,7 @@
     <row r="1279" ht="14.25" customHeight="1">
       <c r="A1279" s="2"/>
       <c r="B1279" s="4" t="s">
-        <v>1780</v>
+        <v>1798</v>
       </c>
       <c r="C1279" s="2"/>
       <c r="D1279" s="2"/>
@@ -31002,7 +31221,7 @@
     <row r="1280" ht="14.25" customHeight="1">
       <c r="A1280" s="2"/>
       <c r="B1280" s="4" t="s">
-        <v>1781</v>
+        <v>1799</v>
       </c>
       <c r="C1280" s="2"/>
       <c r="D1280" s="2"/>
@@ -31021,7 +31240,7 @@
     <row r="1281" ht="14.25" customHeight="1">
       <c r="A1281" s="2"/>
       <c r="B1281" s="4" t="s">
-        <v>1782</v>
+        <v>1800</v>
       </c>
       <c r="C1281" s="2"/>
       <c r="D1281" s="2"/>
@@ -31040,7 +31259,7 @@
     <row r="1282" ht="14.25" customHeight="1">
       <c r="A1282" s="2"/>
       <c r="B1282" s="4" t="s">
-        <v>1783</v>
+        <v>1801</v>
       </c>
       <c r="C1282" s="2"/>
       <c r="D1282" s="2"/>
@@ -31059,7 +31278,7 @@
     <row r="1283" ht="14.25" customHeight="1">
       <c r="A1283" s="2"/>
       <c r="B1283" s="4" t="s">
-        <v>1784</v>
+        <v>1802</v>
       </c>
       <c r="C1283" s="2"/>
       <c r="D1283" s="2"/>
@@ -31078,7 +31297,7 @@
     <row r="1284" ht="14.25" customHeight="1">
       <c r="A1284" s="2"/>
       <c r="B1284" s="4" t="s">
-        <v>1785</v>
+        <v>1803</v>
       </c>
       <c r="C1284" s="2"/>
       <c r="D1284" s="2"/>
@@ -31097,7 +31316,7 @@
     <row r="1285" ht="14.25" customHeight="1">
       <c r="A1285" s="2"/>
       <c r="B1285" s="4" t="s">
-        <v>1786</v>
+        <v>1804</v>
       </c>
       <c r="C1285" s="2"/>
       <c r="D1285" s="2"/>
@@ -31116,7 +31335,7 @@
     <row r="1286" ht="14.25" customHeight="1">
       <c r="A1286" s="2"/>
       <c r="B1286" s="4" t="s">
-        <v>1787</v>
+        <v>1805</v>
       </c>
       <c r="C1286" s="2"/>
       <c r="D1286" s="2"/>
@@ -31135,7 +31354,7 @@
     <row r="1287" ht="14.25" customHeight="1">
       <c r="A1287" s="2"/>
       <c r="B1287" s="4" t="s">
-        <v>1788</v>
+        <v>1806</v>
       </c>
       <c r="C1287" s="2"/>
       <c r="D1287" s="2"/>
@@ -31154,7 +31373,7 @@
     <row r="1288" ht="14.25" customHeight="1">
       <c r="A1288" s="2"/>
       <c r="B1288" s="4" t="s">
-        <v>1789</v>
+        <v>1807</v>
       </c>
       <c r="C1288" s="2"/>
       <c r="D1288" s="2"/>
@@ -31173,7 +31392,7 @@
     <row r="1289" ht="14.25" customHeight="1">
       <c r="A1289" s="2"/>
       <c r="B1289" s="4" t="s">
-        <v>1790</v>
+        <v>1808</v>
       </c>
       <c r="C1289" s="2"/>
       <c r="D1289" s="2"/>
@@ -31192,7 +31411,7 @@
     <row r="1290" ht="14.25" customHeight="1">
       <c r="A1290" s="2"/>
       <c r="B1290" s="4" t="s">
-        <v>1791</v>
+        <v>1809</v>
       </c>
       <c r="C1290" s="2"/>
       <c r="D1290" s="2"/>
@@ -31211,7 +31430,7 @@
     <row r="1291" ht="14.25" customHeight="1">
       <c r="A1291" s="2"/>
       <c r="B1291" s="4" t="s">
-        <v>1792</v>
+        <v>1810</v>
       </c>
       <c r="C1291" s="2"/>
       <c r="D1291" s="2"/>
@@ -31230,7 +31449,7 @@
     <row r="1292" ht="14.25" customHeight="1">
       <c r="A1292" s="2"/>
       <c r="B1292" s="4" t="s">
-        <v>1793</v>
+        <v>1811</v>
       </c>
       <c r="C1292" s="2"/>
       <c r="D1292" s="2"/>
@@ -31249,7 +31468,7 @@
     <row r="1293" ht="14.25" customHeight="1">
       <c r="A1293" s="2"/>
       <c r="B1293" s="4" t="s">
-        <v>1794</v>
+        <v>1812</v>
       </c>
       <c r="C1293" s="2"/>
       <c r="D1293" s="2"/>
@@ -31268,7 +31487,7 @@
     <row r="1294" ht="14.25" customHeight="1">
       <c r="A1294" s="2"/>
       <c r="B1294" s="4" t="s">
-        <v>1795</v>
+        <v>1813</v>
       </c>
       <c r="C1294" s="2"/>
       <c r="D1294" s="2"/>
@@ -31287,7 +31506,7 @@
     <row r="1295" ht="14.25" customHeight="1">
       <c r="A1295" s="2"/>
       <c r="B1295" s="4" t="s">
-        <v>1796</v>
+        <v>1814</v>
       </c>
       <c r="C1295" s="2"/>
       <c r="D1295" s="2"/>
@@ -31306,7 +31525,7 @@
     <row r="1296" ht="14.25" customHeight="1">
       <c r="A1296" s="2"/>
       <c r="B1296" s="4" t="s">
-        <v>1797</v>
+        <v>1815</v>
       </c>
       <c r="C1296" s="2"/>
       <c r="D1296" s="2"/>
@@ -31325,7 +31544,7 @@
     <row r="1297" ht="14.25" customHeight="1">
       <c r="A1297" s="2"/>
       <c r="B1297" s="4" t="s">
-        <v>1798</v>
+        <v>1816</v>
       </c>
       <c r="C1297" s="2"/>
       <c r="D1297" s="2"/>
@@ -31344,7 +31563,7 @@
     <row r="1298" ht="14.25" customHeight="1">
       <c r="A1298" s="2"/>
       <c r="B1298" s="4" t="s">
-        <v>1799</v>
+        <v>1817</v>
       </c>
       <c r="C1298" s="2"/>
       <c r="D1298" s="2"/>
@@ -31363,7 +31582,7 @@
     <row r="1299" ht="14.25" customHeight="1">
       <c r="A1299" s="2"/>
       <c r="B1299" s="4" t="s">
-        <v>1800</v>
+        <v>1818</v>
       </c>
       <c r="C1299" s="2"/>
       <c r="D1299" s="2"/>
@@ -31382,7 +31601,7 @@
     <row r="1300" ht="14.25" customHeight="1">
       <c r="A1300" s="2"/>
       <c r="B1300" s="4" t="s">
-        <v>1801</v>
+        <v>1819</v>
       </c>
       <c r="C1300" s="2"/>
       <c r="D1300" s="2"/>
@@ -31401,7 +31620,7 @@
     <row r="1301" ht="14.25" customHeight="1">
       <c r="A1301" s="2"/>
       <c r="B1301" s="4" t="s">
-        <v>1802</v>
+        <v>1820</v>
       </c>
       <c r="C1301" s="2"/>
       <c r="D1301" s="2"/>
@@ -31420,7 +31639,7 @@
     <row r="1302" ht="14.25" customHeight="1">
       <c r="A1302" s="2"/>
       <c r="B1302" s="4" t="s">
-        <v>1803</v>
+        <v>1821</v>
       </c>
       <c r="C1302" s="2"/>
       <c r="D1302" s="2"/>
@@ -31439,7 +31658,7 @@
     <row r="1303" ht="14.25" customHeight="1">
       <c r="A1303" s="2"/>
       <c r="B1303" s="4" t="s">
-        <v>1804</v>
+        <v>1822</v>
       </c>
       <c r="C1303" s="2"/>
       <c r="D1303" s="2"/>
@@ -31458,7 +31677,7 @@
     <row r="1304" ht="14.25" customHeight="1">
       <c r="A1304" s="2"/>
       <c r="B1304" s="4" t="s">
-        <v>1805</v>
+        <v>1823</v>
       </c>
       <c r="C1304" s="2"/>
       <c r="D1304" s="2"/>
@@ -31477,7 +31696,7 @@
     <row r="1305" ht="14.25" customHeight="1">
       <c r="A1305" s="2"/>
       <c r="B1305" s="4" t="s">
-        <v>1806</v>
+        <v>1824</v>
       </c>
       <c r="C1305" s="2"/>
       <c r="D1305" s="2"/>
@@ -31496,7 +31715,7 @@
     <row r="1306" ht="14.25" customHeight="1">
       <c r="A1306" s="2"/>
       <c r="B1306" s="4" t="s">
-        <v>1807</v>
+        <v>1825</v>
       </c>
       <c r="C1306" s="2"/>
       <c r="D1306" s="2"/>
@@ -31515,7 +31734,7 @@
     <row r="1307" ht="14.25" customHeight="1">
       <c r="A1307" s="2"/>
       <c r="B1307" s="4" t="s">
-        <v>1808</v>
+        <v>1826</v>
       </c>
       <c r="C1307" s="2"/>
       <c r="D1307" s="2"/>
@@ -31534,7 +31753,7 @@
     <row r="1308" ht="14.25" customHeight="1">
       <c r="A1308" s="2"/>
       <c r="B1308" s="4" t="s">
-        <v>1809</v>
+        <v>1827</v>
       </c>
       <c r="C1308" s="2"/>
       <c r="D1308" s="2"/>
@@ -31553,7 +31772,7 @@
     <row r="1309" ht="14.25" customHeight="1">
       <c r="A1309" s="2"/>
       <c r="B1309" s="4" t="s">
-        <v>1810</v>
+        <v>1828</v>
       </c>
       <c r="C1309" s="2"/>
       <c r="D1309" s="2"/>
@@ -31572,7 +31791,7 @@
     <row r="1310" ht="14.25" customHeight="1">
       <c r="A1310" s="2"/>
       <c r="B1310" s="4" t="s">
-        <v>1811</v>
+        <v>1829</v>
       </c>
       <c r="C1310" s="2"/>
       <c r="D1310" s="2"/>
@@ -31591,7 +31810,7 @@
     <row r="1311" ht="14.25" customHeight="1">
       <c r="A1311" s="2"/>
       <c r="B1311" s="4" t="s">
-        <v>1812</v>
+        <v>1830</v>
       </c>
       <c r="C1311" s="2"/>
       <c r="D1311" s="2"/>
@@ -31610,7 +31829,7 @@
     <row r="1312" ht="14.25" customHeight="1">
       <c r="A1312" s="2"/>
       <c r="B1312" s="4" t="s">
-        <v>1813</v>
+        <v>1831</v>
       </c>
       <c r="C1312" s="2"/>
       <c r="D1312" s="2"/>
@@ -31629,7 +31848,7 @@
     <row r="1313" ht="14.25" customHeight="1">
       <c r="A1313" s="2"/>
       <c r="B1313" s="4" t="s">
-        <v>1814</v>
+        <v>1832</v>
       </c>
       <c r="C1313" s="2"/>
       <c r="D1313" s="2"/>
@@ -31648,7 +31867,7 @@
     <row r="1314" ht="14.25" customHeight="1">
       <c r="A1314" s="2"/>
       <c r="B1314" s="4" t="s">
-        <v>1815</v>
+        <v>1833</v>
       </c>
       <c r="C1314" s="2"/>
       <c r="D1314" s="2"/>
@@ -31667,7 +31886,7 @@
     <row r="1315" ht="14.25" customHeight="1">
       <c r="A1315" s="2"/>
       <c r="B1315" s="4" t="s">
-        <v>1816</v>
+        <v>1834</v>
       </c>
       <c r="C1315" s="2"/>
       <c r="D1315" s="2"/>
@@ -31686,7 +31905,7 @@
     <row r="1316" ht="14.25" customHeight="1">
       <c r="A1316" s="2"/>
       <c r="B1316" s="4" t="s">
-        <v>1817</v>
+        <v>1835</v>
       </c>
       <c r="C1316" s="2"/>
       <c r="D1316" s="2"/>
@@ -31705,7 +31924,7 @@
     <row r="1317" ht="14.25" customHeight="1">
       <c r="A1317" s="2"/>
       <c r="B1317" s="4" t="s">
-        <v>1818</v>
+        <v>1836</v>
       </c>
       <c r="C1317" s="2"/>
       <c r="D1317" s="2"/>
@@ -31724,7 +31943,7 @@
     <row r="1318" ht="14.25" customHeight="1">
       <c r="A1318" s="2"/>
       <c r="B1318" s="4" t="s">
-        <v>1819</v>
+        <v>1837</v>
       </c>
       <c r="C1318" s="2"/>
       <c r="D1318" s="2"/>
@@ -31743,7 +31962,7 @@
     <row r="1319" ht="14.25" customHeight="1">
       <c r="A1319" s="2"/>
       <c r="B1319" s="4" t="s">
-        <v>1820</v>
+        <v>1838</v>
       </c>
       <c r="C1319" s="2"/>
       <c r="D1319" s="2"/>
@@ -31762,7 +31981,7 @@
     <row r="1320" ht="14.25" customHeight="1">
       <c r="A1320" s="2"/>
       <c r="B1320" s="4" t="s">
-        <v>1821</v>
+        <v>1839</v>
       </c>
       <c r="C1320" s="2"/>
       <c r="D1320" s="2"/>
@@ -31781,7 +32000,7 @@
     <row r="1321" ht="14.25" customHeight="1">
       <c r="A1321" s="2"/>
       <c r="B1321" s="4" t="s">
-        <v>1822</v>
+        <v>1840</v>
       </c>
       <c r="C1321" s="2"/>
       <c r="D1321" s="2"/>
@@ -31800,7 +32019,7 @@
     <row r="1322" ht="14.25" customHeight="1">
       <c r="A1322" s="2"/>
       <c r="B1322" s="4" t="s">
-        <v>1823</v>
+        <v>1841</v>
       </c>
       <c r="C1322" s="2"/>
       <c r="D1322" s="2"/>
@@ -31819,7 +32038,7 @@
     <row r="1323" ht="14.25" customHeight="1">
       <c r="A1323" s="2"/>
       <c r="B1323" s="4" t="s">
-        <v>1824</v>
+        <v>1842</v>
       </c>
       <c r="C1323" s="2"/>
       <c r="D1323" s="2"/>
@@ -31838,7 +32057,7 @@
     <row r="1324" ht="14.25" customHeight="1">
       <c r="A1324" s="2"/>
       <c r="B1324" s="4" t="s">
-        <v>1825</v>
+        <v>1843</v>
       </c>
       <c r="C1324" s="2"/>
       <c r="D1324" s="2"/>
@@ -31857,7 +32076,7 @@
     <row r="1325" ht="14.25" customHeight="1">
       <c r="A1325" s="2"/>
       <c r="B1325" s="4" t="s">
-        <v>1826</v>
+        <v>1844</v>
       </c>
       <c r="C1325" s="2"/>
       <c r="D1325" s="2"/>
@@ -31876,7 +32095,7 @@
     <row r="1326" ht="14.25" customHeight="1">
       <c r="A1326" s="2"/>
       <c r="B1326" s="4" t="s">
-        <v>1827</v>
+        <v>1845</v>
       </c>
       <c r="C1326" s="2"/>
       <c r="D1326" s="2"/>
@@ -31895,7 +32114,7 @@
     <row r="1327" ht="14.25" customHeight="1">
       <c r="A1327" s="2"/>
       <c r="B1327" s="4" t="s">
-        <v>1828</v>
+        <v>1846</v>
       </c>
       <c r="C1327" s="2"/>
       <c r="D1327" s="2"/>
@@ -31914,7 +32133,7 @@
     <row r="1328" ht="14.25" customHeight="1">
       <c r="A1328" s="2"/>
       <c r="B1328" s="4" t="s">
-        <v>1829</v>
+        <v>1847</v>
       </c>
       <c r="C1328" s="2"/>
       <c r="D1328" s="2"/>
@@ -31933,7 +32152,7 @@
     <row r="1329" ht="14.25" customHeight="1">
       <c r="A1329" s="2"/>
       <c r="B1329" s="4" t="s">
-        <v>1830</v>
+        <v>1848</v>
       </c>
       <c r="C1329" s="2"/>
       <c r="D1329" s="2"/>
@@ -31952,7 +32171,7 @@
     <row r="1330" ht="14.25" customHeight="1">
       <c r="A1330" s="2"/>
       <c r="B1330" s="4" t="s">
-        <v>1831</v>
+        <v>1849</v>
       </c>
       <c r="C1330" s="2"/>
       <c r="D1330" s="2"/>
@@ -31971,7 +32190,7 @@
     <row r="1331" ht="14.25" customHeight="1">
       <c r="A1331" s="2"/>
       <c r="B1331" s="4" t="s">
-        <v>1832</v>
+        <v>1850</v>
       </c>
       <c r="C1331" s="2"/>
       <c r="D1331" s="2"/>
@@ -31990,7 +32209,7 @@
     <row r="1332" ht="14.25" customHeight="1">
       <c r="A1332" s="2"/>
       <c r="B1332" s="4" t="s">
-        <v>1833</v>
+        <v>1851</v>
       </c>
       <c r="C1332" s="2"/>
       <c r="D1332" s="2"/>
@@ -32009,7 +32228,7 @@
     <row r="1333" ht="14.25" customHeight="1">
       <c r="A1333" s="2"/>
       <c r="B1333" s="4" t="s">
-        <v>1834</v>
+        <v>1852</v>
       </c>
       <c r="C1333" s="2"/>
       <c r="D1333" s="2"/>
@@ -32028,7 +32247,7 @@
     <row r="1334" ht="14.25" customHeight="1">
       <c r="A1334" s="2"/>
       <c r="B1334" s="4" t="s">
-        <v>1835</v>
+        <v>1853</v>
       </c>
       <c r="C1334" s="2"/>
       <c r="D1334" s="2"/>
@@ -32047,7 +32266,7 @@
     <row r="1335" ht="14.25" customHeight="1">
       <c r="A1335" s="2"/>
       <c r="B1335" s="4" t="s">
-        <v>1836</v>
+        <v>1854</v>
       </c>
       <c r="C1335" s="2"/>
       <c r="D1335" s="2"/>
@@ -32066,7 +32285,7 @@
     <row r="1336" ht="14.25" customHeight="1">
       <c r="A1336" s="2"/>
       <c r="B1336" s="4" t="s">
-        <v>1837</v>
+        <v>1855</v>
       </c>
       <c r="C1336" s="2"/>
       <c r="D1336" s="2"/>
@@ -32085,7 +32304,7 @@
     <row r="1337" ht="14.25" customHeight="1">
       <c r="A1337" s="2"/>
       <c r="B1337" s="4" t="s">
-        <v>1838</v>
+        <v>1856</v>
       </c>
       <c r="C1337" s="2"/>
       <c r="D1337" s="2"/>
@@ -32104,7 +32323,7 @@
     <row r="1338" ht="14.25" customHeight="1">
       <c r="A1338" s="2"/>
       <c r="B1338" s="4" t="s">
-        <v>1839</v>
+        <v>1857</v>
       </c>
       <c r="C1338" s="2"/>
       <c r="D1338" s="2"/>
@@ -32123,7 +32342,7 @@
     <row r="1339" ht="14.25" customHeight="1">
       <c r="A1339" s="2"/>
       <c r="B1339" s="4" t="s">
-        <v>1840</v>
+        <v>1858</v>
       </c>
       <c r="C1339" s="2"/>
       <c r="D1339" s="2"/>
@@ -32142,7 +32361,7 @@
     <row r="1340" ht="14.25" customHeight="1">
       <c r="A1340" s="2"/>
       <c r="B1340" s="4" t="s">
-        <v>1841</v>
+        <v>1859</v>
       </c>
       <c r="C1340" s="2"/>
       <c r="D1340" s="2"/>
@@ -32161,7 +32380,7 @@
     <row r="1341" ht="14.25" customHeight="1">
       <c r="A1341" s="2"/>
       <c r="B1341" s="4" t="s">
-        <v>1842</v>
+        <v>1860</v>
       </c>
       <c r="C1341" s="2"/>
       <c r="D1341" s="2"/>
@@ -32180,7 +32399,7 @@
     <row r="1342" ht="14.25" customHeight="1">
       <c r="A1342" s="2"/>
       <c r="B1342" s="4" t="s">
-        <v>1843</v>
+        <v>1861</v>
       </c>
       <c r="C1342" s="2"/>
       <c r="D1342" s="2"/>
@@ -32199,7 +32418,7 @@
     <row r="1343" ht="14.25" customHeight="1">
       <c r="A1343" s="2"/>
       <c r="B1343" s="4" t="s">
-        <v>1844</v>
+        <v>1862</v>
       </c>
       <c r="C1343" s="2"/>
       <c r="D1343" s="2"/>
@@ -32218,7 +32437,7 @@
     <row r="1344" ht="14.25" customHeight="1">
       <c r="A1344" s="2"/>
       <c r="B1344" s="4" t="s">
-        <v>1845</v>
+        <v>1863</v>
       </c>
       <c r="C1344" s="2"/>
       <c r="D1344" s="2"/>
@@ -32237,7 +32456,7 @@
     <row r="1345" ht="14.25" customHeight="1">
       <c r="A1345" s="2"/>
       <c r="B1345" s="4" t="s">
-        <v>1846</v>
+        <v>1864</v>
       </c>
       <c r="C1345" s="2"/>
       <c r="D1345" s="2"/>
@@ -32256,7 +32475,7 @@
     <row r="1346" ht="14.25" customHeight="1">
       <c r="A1346" s="2"/>
       <c r="B1346" s="4" t="s">
-        <v>1847</v>
+        <v>1865</v>
       </c>
       <c r="C1346" s="2"/>
       <c r="D1346" s="2"/>
@@ -32275,7 +32494,7 @@
     <row r="1347" ht="14.25" customHeight="1">
       <c r="A1347" s="2"/>
       <c r="B1347" s="4" t="s">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="C1347" s="2"/>
       <c r="D1347" s="2"/>
@@ -32294,7 +32513,7 @@
     <row r="1348" ht="14.25" customHeight="1">
       <c r="A1348" s="2"/>
       <c r="B1348" s="4" t="s">
-        <v>1849</v>
+        <v>1867</v>
       </c>
       <c r="C1348" s="2"/>
       <c r="D1348" s="2"/>
@@ -32315,7 +32534,7 @@
         <v>173</v>
       </c>
       <c r="B1349" s="4" t="s">
-        <v>1850</v>
+        <v>1868</v>
       </c>
       <c r="C1349" s="2"/>
       <c r="D1349" s="2"/>
@@ -32334,7 +32553,7 @@
     <row r="1350" ht="14.25" customHeight="1">
       <c r="A1350" s="2"/>
       <c r="B1350" s="4" t="s">
-        <v>1851</v>
+        <v>1869</v>
       </c>
       <c r="C1350" s="2"/>
       <c r="D1350" s="2"/>
@@ -32353,7 +32572,7 @@
     <row r="1351" ht="14.25" customHeight="1">
       <c r="A1351" s="2"/>
       <c r="B1351" s="4" t="s">
-        <v>1852</v>
+        <v>1870</v>
       </c>
       <c r="C1351" s="2"/>
       <c r="D1351" s="2"/>
@@ -32372,7 +32591,7 @@
     <row r="1352" ht="14.25" customHeight="1">
       <c r="A1352" s="2"/>
       <c r="B1352" s="4" t="s">
-        <v>1853</v>
+        <v>1871</v>
       </c>
       <c r="C1352" s="2"/>
       <c r="D1352" s="2"/>
@@ -32391,7 +32610,7 @@
     <row r="1353" ht="14.25" customHeight="1">
       <c r="A1353" s="2"/>
       <c r="B1353" s="4" t="s">
-        <v>1854</v>
+        <v>1872</v>
       </c>
       <c r="C1353" s="2"/>
       <c r="D1353" s="2"/>
@@ -32410,7 +32629,7 @@
     <row r="1354" ht="14.25" customHeight="1">
       <c r="A1354" s="2"/>
       <c r="B1354" s="4" t="s">
-        <v>1855</v>
+        <v>1873</v>
       </c>
       <c r="C1354" s="2"/>
       <c r="D1354" s="2"/>
@@ -32429,7 +32648,7 @@
     <row r="1355" ht="14.25" customHeight="1">
       <c r="A1355" s="2"/>
       <c r="B1355" s="4" t="s">
-        <v>1856</v>
+        <v>1874</v>
       </c>
       <c r="C1355" s="2"/>
       <c r="D1355" s="2"/>
@@ -32447,7 +32666,9 @@
     </row>
     <row r="1356" ht="14.25" customHeight="1">
       <c r="A1356" s="2"/>
-      <c r="B1356" s="4"/>
+      <c r="B1356" s="4" t="s">
+        <v>1875</v>
+      </c>
       <c r="C1356" s="2"/>
       <c r="D1356" s="2"/>
       <c r="E1356" s="2"/>
@@ -32464,7 +32685,9 @@
     </row>
     <row r="1357" ht="14.25" customHeight="1">
       <c r="A1357" s="2"/>
-      <c r="B1357" s="4"/>
+      <c r="B1357" s="4" t="s">
+        <v>1876</v>
+      </c>
       <c r="C1357" s="2"/>
       <c r="D1357" s="2"/>
       <c r="E1357" s="2"/>
@@ -32481,7 +32704,9 @@
     </row>
     <row r="1358" ht="14.25" customHeight="1">
       <c r="A1358" s="2"/>
-      <c r="B1358" s="4"/>
+      <c r="B1358" s="4" t="s">
+        <v>1877</v>
+      </c>
       <c r="C1358" s="2"/>
       <c r="D1358" s="2"/>
       <c r="E1358" s="2"/>
@@ -32498,7 +32723,9 @@
     </row>
     <row r="1359" ht="14.25" customHeight="1">
       <c r="A1359" s="2"/>
-      <c r="B1359" s="4"/>
+      <c r="B1359" s="4" t="s">
+        <v>1878</v>
+      </c>
       <c r="C1359" s="2"/>
       <c r="D1359" s="2"/>
       <c r="E1359" s="2"/>
@@ -32515,7 +32742,9 @@
     </row>
     <row r="1360" ht="14.25" customHeight="1">
       <c r="A1360" s="2"/>
-      <c r="B1360" s="4"/>
+      <c r="B1360" s="4" t="s">
+        <v>1879</v>
+      </c>
       <c r="C1360" s="2"/>
       <c r="D1360" s="2"/>
       <c r="E1360" s="2"/>
@@ -32532,7 +32761,9 @@
     </row>
     <row r="1361" ht="14.25" customHeight="1">
       <c r="A1361" s="2"/>
-      <c r="B1361" s="4"/>
+      <c r="B1361" s="4" t="s">
+        <v>1880</v>
+      </c>
       <c r="C1361" s="2"/>
       <c r="D1361" s="2"/>
       <c r="E1361" s="2"/>
@@ -32549,7 +32780,9 @@
     </row>
     <row r="1362" ht="14.25" customHeight="1">
       <c r="A1362" s="2"/>
-      <c r="B1362" s="4"/>
+      <c r="B1362" s="4" t="s">
+        <v>1881</v>
+      </c>
       <c r="C1362" s="2"/>
       <c r="D1362" s="2"/>
       <c r="E1362" s="2"/>
@@ -32566,7 +32799,9 @@
     </row>
     <row r="1363" ht="14.25" customHeight="1">
       <c r="A1363" s="2"/>
-      <c r="B1363" s="4"/>
+      <c r="B1363" s="4" t="s">
+        <v>1882</v>
+      </c>
       <c r="C1363" s="2"/>
       <c r="D1363" s="2"/>
       <c r="E1363" s="2"/>
@@ -32583,7 +32818,9 @@
     </row>
     <row r="1364" ht="14.25" customHeight="1">
       <c r="A1364" s="2"/>
-      <c r="B1364" s="4"/>
+      <c r="B1364" s="4" t="s">
+        <v>1883</v>
+      </c>
       <c r="C1364" s="2"/>
       <c r="D1364" s="2"/>
       <c r="E1364" s="2"/>
@@ -32600,7 +32837,9 @@
     </row>
     <row r="1365" ht="14.25" customHeight="1">
       <c r="A1365" s="2"/>
-      <c r="B1365" s="4"/>
+      <c r="B1365" s="4" t="s">
+        <v>1884</v>
+      </c>
       <c r="C1365" s="2"/>
       <c r="D1365" s="2"/>
       <c r="E1365" s="2"/>
@@ -32617,7 +32856,9 @@
     </row>
     <row r="1366" ht="14.25" customHeight="1">
       <c r="A1366" s="2"/>
-      <c r="B1366" s="4"/>
+      <c r="B1366" s="4" t="s">
+        <v>1885</v>
+      </c>
       <c r="C1366" s="2"/>
       <c r="D1366" s="2"/>
       <c r="E1366" s="2"/>
@@ -32634,7 +32875,9 @@
     </row>
     <row r="1367" ht="14.25" customHeight="1">
       <c r="A1367" s="2"/>
-      <c r="B1367" s="4"/>
+      <c r="B1367" s="8" t="s">
+        <v>1886</v>
+      </c>
       <c r="C1367" s="2"/>
       <c r="D1367" s="2"/>
       <c r="E1367" s="2"/>
@@ -32651,7 +32894,9 @@
     </row>
     <row r="1368" ht="14.25" customHeight="1">
       <c r="A1368" s="2"/>
-      <c r="B1368" s="4"/>
+      <c r="B1368" s="8" t="s">
+        <v>1887</v>
+      </c>
       <c r="C1368" s="2"/>
       <c r="D1368" s="2"/>
       <c r="E1368" s="2"/>
@@ -32668,7 +32913,9 @@
     </row>
     <row r="1369" ht="14.25" customHeight="1">
       <c r="A1369" s="2"/>
-      <c r="B1369" s="4"/>
+      <c r="B1369" s="4" t="s">
+        <v>1888</v>
+      </c>
       <c r="C1369" s="2"/>
       <c r="D1369" s="2"/>
       <c r="E1369" s="2"/>
@@ -32685,7 +32932,9 @@
     </row>
     <row r="1370" ht="14.25" customHeight="1">
       <c r="A1370" s="2"/>
-      <c r="B1370" s="4"/>
+      <c r="B1370" s="4" t="s">
+        <v>1889</v>
+      </c>
       <c r="C1370" s="2"/>
       <c r="D1370" s="2"/>
       <c r="E1370" s="2"/>
@@ -32702,7 +32951,9 @@
     </row>
     <row r="1371" ht="14.25" customHeight="1">
       <c r="A1371" s="2"/>
-      <c r="B1371" s="4"/>
+      <c r="B1371" s="4" t="s">
+        <v>1890</v>
+      </c>
       <c r="C1371" s="2"/>
       <c r="D1371" s="2"/>
       <c r="E1371" s="2"/>
@@ -32719,7 +32970,9 @@
     </row>
     <row r="1372" ht="14.25" customHeight="1">
       <c r="A1372" s="2"/>
-      <c r="B1372" s="4"/>
+      <c r="B1372" s="4" t="s">
+        <v>1891</v>
+      </c>
       <c r="C1372" s="2"/>
       <c r="D1372" s="2"/>
       <c r="E1372" s="2"/>
@@ -32736,7 +32989,9 @@
     </row>
     <row r="1373" ht="14.25" customHeight="1">
       <c r="A1373" s="2"/>
-      <c r="B1373" s="4"/>
+      <c r="B1373" s="4" t="s">
+        <v>1892</v>
+      </c>
       <c r="C1373" s="2"/>
       <c r="D1373" s="2"/>
       <c r="E1373" s="2"/>
@@ -32753,7 +33008,9 @@
     </row>
     <row r="1374" ht="14.25" customHeight="1">
       <c r="A1374" s="2"/>
-      <c r="B1374" s="4"/>
+      <c r="B1374" s="4" t="s">
+        <v>1893</v>
+      </c>
       <c r="C1374" s="2"/>
       <c r="D1374" s="2"/>
       <c r="E1374" s="2"/>
@@ -32770,7 +33027,9 @@
     </row>
     <row r="1375" ht="14.25" customHeight="1">
       <c r="A1375" s="2"/>
-      <c r="B1375" s="4"/>
+      <c r="B1375" s="4" t="s">
+        <v>1894</v>
+      </c>
       <c r="C1375" s="2"/>
       <c r="D1375" s="2"/>
       <c r="E1375" s="2"/>
@@ -32787,7 +33046,9 @@
     </row>
     <row r="1376" ht="14.25" customHeight="1">
       <c r="A1376" s="2"/>
-      <c r="B1376" s="4"/>
+      <c r="B1376" s="4" t="s">
+        <v>1895</v>
+      </c>
       <c r="C1376" s="2"/>
       <c r="D1376" s="2"/>
       <c r="E1376" s="2"/>
@@ -32804,7 +33065,9 @@
     </row>
     <row r="1377" ht="14.25" customHeight="1">
       <c r="A1377" s="2"/>
-      <c r="B1377" s="4"/>
+      <c r="B1377" s="4" t="s">
+        <v>1896</v>
+      </c>
       <c r="C1377" s="2"/>
       <c r="D1377" s="2"/>
       <c r="E1377" s="2"/>
@@ -32821,7 +33084,9 @@
     </row>
     <row r="1378" ht="14.25" customHeight="1">
       <c r="A1378" s="2"/>
-      <c r="B1378" s="4"/>
+      <c r="B1378" s="4" t="s">
+        <v>1897</v>
+      </c>
       <c r="C1378" s="2"/>
       <c r="D1378" s="2"/>
       <c r="E1378" s="2"/>
@@ -32838,7 +33103,9 @@
     </row>
     <row r="1379" ht="14.25" customHeight="1">
       <c r="A1379" s="2"/>
-      <c r="B1379" s="4"/>
+      <c r="B1379" s="4" t="s">
+        <v>1898</v>
+      </c>
       <c r="C1379" s="2"/>
       <c r="D1379" s="2"/>
       <c r="E1379" s="2"/>
@@ -32855,7 +33122,9 @@
     </row>
     <row r="1380" ht="14.25" customHeight="1">
       <c r="A1380" s="2"/>
-      <c r="B1380" s="4"/>
+      <c r="B1380" s="4" t="s">
+        <v>1899</v>
+      </c>
       <c r="C1380" s="2"/>
       <c r="D1380" s="2"/>
       <c r="E1380" s="2"/>
@@ -32872,7 +33141,9 @@
     </row>
     <row r="1381" ht="14.25" customHeight="1">
       <c r="A1381" s="2"/>
-      <c r="B1381" s="4"/>
+      <c r="B1381" s="4" t="s">
+        <v>1900</v>
+      </c>
       <c r="C1381" s="2"/>
       <c r="D1381" s="2"/>
       <c r="E1381" s="2"/>
@@ -32889,7 +33160,9 @@
     </row>
     <row r="1382" ht="14.25" customHeight="1">
       <c r="A1382" s="2"/>
-      <c r="B1382" s="4"/>
+      <c r="B1382" s="4" t="s">
+        <v>1901</v>
+      </c>
       <c r="C1382" s="2"/>
       <c r="D1382" s="2"/>
       <c r="E1382" s="2"/>
@@ -32906,7 +33179,9 @@
     </row>
     <row r="1383" ht="14.25" customHeight="1">
       <c r="A1383" s="2"/>
-      <c r="B1383" s="4"/>
+      <c r="B1383" s="4" t="s">
+        <v>1902</v>
+      </c>
       <c r="C1383" s="2"/>
       <c r="D1383" s="2"/>
       <c r="E1383" s="2"/>
@@ -32923,7 +33198,9 @@
     </row>
     <row r="1384" ht="14.25" customHeight="1">
       <c r="A1384" s="2"/>
-      <c r="B1384" s="4"/>
+      <c r="B1384" s="4" t="s">
+        <v>1903</v>
+      </c>
       <c r="C1384" s="2"/>
       <c r="D1384" s="2"/>
       <c r="E1384" s="2"/>
@@ -32940,7 +33217,9 @@
     </row>
     <row r="1385" ht="14.25" customHeight="1">
       <c r="A1385" s="2"/>
-      <c r="B1385" s="4"/>
+      <c r="B1385" s="4" t="s">
+        <v>1904</v>
+      </c>
       <c r="C1385" s="2"/>
       <c r="D1385" s="2"/>
       <c r="E1385" s="2"/>
@@ -32957,7 +33236,9 @@
     </row>
     <row r="1386" ht="14.25" customHeight="1">
       <c r="A1386" s="2"/>
-      <c r="B1386" s="4"/>
+      <c r="B1386" s="4" t="s">
+        <v>1905</v>
+      </c>
       <c r="C1386" s="2"/>
       <c r="D1386" s="2"/>
       <c r="E1386" s="2"/>
@@ -32974,7 +33255,9 @@
     </row>
     <row r="1387" ht="14.25" customHeight="1">
       <c r="A1387" s="2"/>
-      <c r="B1387" s="4"/>
+      <c r="B1387" s="4" t="s">
+        <v>1906</v>
+      </c>
       <c r="C1387" s="2"/>
       <c r="D1387" s="2"/>
       <c r="E1387" s="2"/>
@@ -32991,7 +33274,9 @@
     </row>
     <row r="1388" ht="14.25" customHeight="1">
       <c r="A1388" s="2"/>
-      <c r="B1388" s="4"/>
+      <c r="B1388" s="4" t="s">
+        <v>1907</v>
+      </c>
       <c r="C1388" s="2"/>
       <c r="D1388" s="2"/>
       <c r="E1388" s="2"/>
@@ -33008,7 +33293,9 @@
     </row>
     <row r="1389" ht="14.25" customHeight="1">
       <c r="A1389" s="2"/>
-      <c r="B1389" s="4"/>
+      <c r="B1389" s="4" t="s">
+        <v>1908</v>
+      </c>
       <c r="C1389" s="2"/>
       <c r="D1389" s="2"/>
       <c r="E1389" s="2"/>
@@ -33025,7 +33312,9 @@
     </row>
     <row r="1390" ht="14.25" customHeight="1">
       <c r="A1390" s="2"/>
-      <c r="B1390" s="4"/>
+      <c r="B1390" s="4" t="s">
+        <v>1909</v>
+      </c>
       <c r="C1390" s="2"/>
       <c r="D1390" s="2"/>
       <c r="E1390" s="2"/>
@@ -33042,7 +33331,9 @@
     </row>
     <row r="1391" ht="14.25" customHeight="1">
       <c r="A1391" s="2"/>
-      <c r="B1391" s="4"/>
+      <c r="B1391" s="4" t="s">
+        <v>1910</v>
+      </c>
       <c r="C1391" s="2"/>
       <c r="D1391" s="2"/>
       <c r="E1391" s="2"/>
@@ -33059,7 +33350,9 @@
     </row>
     <row r="1392" ht="14.25" customHeight="1">
       <c r="A1392" s="2"/>
-      <c r="B1392" s="4"/>
+      <c r="B1392" s="4" t="s">
+        <v>1911</v>
+      </c>
       <c r="C1392" s="2"/>
       <c r="D1392" s="2"/>
       <c r="E1392" s="2"/>
@@ -33076,7 +33369,9 @@
     </row>
     <row r="1393" ht="14.25" customHeight="1">
       <c r="A1393" s="2"/>
-      <c r="B1393" s="4"/>
+      <c r="B1393" s="4" t="s">
+        <v>1912</v>
+      </c>
       <c r="C1393" s="2"/>
       <c r="D1393" s="2"/>
       <c r="E1393" s="2"/>
@@ -33093,7 +33388,9 @@
     </row>
     <row r="1394" ht="14.25" customHeight="1">
       <c r="A1394" s="2"/>
-      <c r="B1394" s="4"/>
+      <c r="B1394" s="4" t="s">
+        <v>1913</v>
+      </c>
       <c r="C1394" s="2"/>
       <c r="D1394" s="2"/>
       <c r="E1394" s="2"/>
@@ -33110,7 +33407,9 @@
     </row>
     <row r="1395" ht="14.25" customHeight="1">
       <c r="A1395" s="2"/>
-      <c r="B1395" s="4"/>
+      <c r="B1395" s="4" t="s">
+        <v>1914</v>
+      </c>
       <c r="C1395" s="2"/>
       <c r="D1395" s="2"/>
       <c r="E1395" s="2"/>
@@ -33127,7 +33426,9 @@
     </row>
     <row r="1396" ht="14.25" customHeight="1">
       <c r="A1396" s="2"/>
-      <c r="B1396" s="4"/>
+      <c r="B1396" s="4" t="s">
+        <v>1915</v>
+      </c>
       <c r="C1396" s="2"/>
       <c r="D1396" s="2"/>
       <c r="E1396" s="2"/>
@@ -33144,7 +33445,9 @@
     </row>
     <row r="1397" ht="14.25" customHeight="1">
       <c r="A1397" s="2"/>
-      <c r="B1397" s="4"/>
+      <c r="B1397" s="4" t="s">
+        <v>1916</v>
+      </c>
       <c r="C1397" s="2"/>
       <c r="D1397" s="2"/>
       <c r="E1397" s="2"/>
@@ -33161,7 +33464,9 @@
     </row>
     <row r="1398" ht="14.25" customHeight="1">
       <c r="A1398" s="2"/>
-      <c r="B1398" s="4"/>
+      <c r="B1398" s="4" t="s">
+        <v>1917</v>
+      </c>
       <c r="C1398" s="2"/>
       <c r="D1398" s="2"/>
       <c r="E1398" s="2"/>

--- a/app/src/main/res/raw/cards.xlsx
+++ b/app/src/main/res/raw/cards.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="2012">
   <si>
     <t>Black Cards</t>
   </si>
@@ -3416,100 +3416,199 @@
     <t>(Η) Πίπη η Φακιδομύτη</t>
   </si>
   <si>
+    <t>Toυ αγγουριού απέναντι πείτε του ____________</t>
+  </si>
+  <si>
     <t>(Ο) μικρός τυμπανιστιρτζης</t>
   </si>
   <si>
+    <t>Καλά ρε γιατί χλευαζεις; Αφού σου λέω ______</t>
+  </si>
+  <si>
     <t>(Ένα) βιαγκρα, μια αντιλόπη, και ένας νάνος με βατραχοπεδιλα</t>
   </si>
   <si>
+    <t>Ο Παπαφιλιπς ρουφάει (το/τη) ________</t>
+  </si>
+  <si>
     <t>(Ο) σκύλος μ έφαγε το βιαγκρα</t>
   </si>
   <si>
+    <t>Τελικά δε φόρεσα το εμπριμέ φουστάνι μου γιατί ________</t>
+  </si>
+  <si>
     <t>τον παίρνεις που και που</t>
   </si>
   <si>
+    <t>Ο Γρηγόρης χωρίς τα μούσια του μοιάζει με _______</t>
+  </si>
+  <si>
     <t>(Το/ένα) καρότο κ 2 αυγά σφιχτά</t>
   </si>
   <si>
+    <t>Είδα στο όνειρο μου ότι με δερνανε ολονυχτίς κι ολημερίς ο/η/οι _________ και ο/η/οι _________</t>
+  </si>
+  <si>
     <t>κάθισα στο σκουπόξυλο</t>
   </si>
   <si>
+    <t>Ανοίξαμε τη βαλίτσα του Φούλη και βρήκαμε  _______ και  ______. Μέχρι και ________ είχε ο αθεοφοβος.</t>
+  </si>
+  <si>
     <t>σφαλιάρα να σου φύγουν 2 τραπεζίτες, 1 δικηγόρος κι ο λογιστής</t>
   </si>
   <si>
+    <t>Και εκεί που ήμασταν έτοιμοι να χτυπηθουμε στο mosh pit, _________</t>
+  </si>
+  <si>
     <t>(Ο/του/τον) τρανσέξουαλ Τουίτι μου</t>
   </si>
   <si>
+    <t>Δεν είχα ψιλά να δώσω πουρμπουάρ στον ντιλιβερα και τελικά του έδωσα _________</t>
+  </si>
+  <si>
     <t>(Ο/ένας) ερμαφρόδιτος γυμνοσαλιαγκας</t>
   </si>
   <si>
+    <t>________ μαζί με μπύρα είναι ο καλύτερος συνδυασμός!</t>
+  </si>
+  <si>
     <t>Μας τσάκιτσαν στο ξύλο</t>
   </si>
   <si>
+    <t>Μετά από ένα ολόκληρο βράδυ sexting με τον Ψηλό, τελικά ξενέρωσα όταν μου έστειλε __________</t>
+  </si>
+  <si>
     <t>Τα κέρατα μας</t>
   </si>
   <si>
+    <t>Μόλις μου αποκάλυψε ο Κώτσακλας ότι είναι υιοθετημένος και ο πραγματικός του πατέρας είναι ο/η/οι __________</t>
+  </si>
+  <si>
     <t>(Το) δονητή του Κινγκ Κονγκ</t>
   </si>
   <si>
+    <t>Ο τσάρος έκανε σεξ με (τον/την/το) ___________</t>
+  </si>
+  <si>
     <t>(Η/τη) θηλυκή μετενσάρκωση του Χίτλερ</t>
   </si>
   <si>
+    <t>Ντο ρε μι _________</t>
+  </si>
+  <si>
     <t>(Το) δισέγγονο του Άρη Βελουχιωτη</t>
   </si>
   <si>
+    <t>Πήγα χθες στη Μελωδία και αγόρασα ________</t>
+  </si>
+  <si>
     <t>(Το) βρακί της Παπαρηγας</t>
   </si>
   <si>
+    <t>Τίποτα δεν κάνει χειρότερο ένα ταξίδι με το αεροπλάνο από (το/τη/να) __________</t>
+  </si>
+  <si>
     <t>(Το) αφεντικό σου ντυμένο Sailor Moon</t>
   </si>
   <si>
+    <t>Καραπιπεριμ πιπεριμ πιπεριμ __________</t>
+  </si>
+  <si>
     <t>ΠΑΟΚ ρε μουνιά</t>
   </si>
   <si>
+    <t>Με πασατεμπο πηγαίνει μόνο _______</t>
+  </si>
+  <si>
     <t>Μυρωδάτο σα σπέρμα μ' ανανά</t>
   </si>
   <si>
+    <t>Είδα στον ύπνο μου ότι ο Σαλί Μπερίσα με έπιασε όμηρο και μου έκανε ________</t>
+  </si>
+  <si>
     <t>Μ' έπιασε δυσκοιλιότητα</t>
   </si>
   <si>
+    <t>Ε τον μαλακά! Αντί να μου δώσει τον μπάφο, μου έδωσε (τον/την/το) __________</t>
+  </si>
+  <si>
     <t>Χρησιμοποιημένο προφυλακτικό</t>
   </si>
   <si>
+    <t>Μιλάμε κάηκα χθες το βράδυ στο ίντερνετ. Μπορώ πλέον να πω ότι είμαι ειδικός στο θέμα (του/της/των) ________</t>
+  </si>
+  <si>
     <t>Ο κωλος μας</t>
   </si>
   <si>
+    <t>Ποτέ μην αφήσεις τον Μήτσο να σου κάνει διάλεξη για ________</t>
+  </si>
+  <si>
     <t>(Μου κόλλησε) έρπη</t>
   </si>
   <si>
+    <t>Η καλύτερη συνωμοσία που έχω ακούσει ποτε: __________</t>
+  </si>
+  <si>
     <t>(Πλαθω, πλαθω) κουλουράκια</t>
   </si>
   <si>
+    <t>Κανονικά η Καλισι έπρεπε να ονομάσει τον δράκο της ________</t>
+  </si>
+  <si>
     <t>Τριχωτη πλάτη</t>
   </si>
   <si>
+    <t>Λευκός Πύργος? Κανονικά θα έπρεπε να λέγεται ________</t>
+  </si>
+  <si>
     <t>(Τα) φτερά της σερβιέτας</t>
   </si>
   <si>
+    <t>Δεν μπορεί να παίξει όποιος κι όποιος το κλαρίνο. Για να το παίξεις σωστά θέλει (να) ___________</t>
+  </si>
+  <si>
     <t>(Δίνω) Κώλο</t>
   </si>
   <si>
+    <t>Έλα βρε Χαραλάμπη να σε ________</t>
+  </si>
+  <si>
     <t>(Ο) εθνικός μας Σταρ</t>
   </si>
   <si>
+    <t>Τον αράπη κι αν τον πλενεις, ______</t>
+  </si>
+  <si>
     <t>(Το) παπί του Μήτρογλου</t>
   </si>
   <si>
+    <t>Ποτέ μη λες ποτέ, _______</t>
+  </si>
+  <si>
     <t>(Το) παπάκι πάει στην ποταμια</t>
   </si>
   <si>
+    <t>Μην κοιτάς μόνο την κωλαρα. Το πραγματικό της προσόν είναι  _________</t>
+  </si>
+  <si>
     <t>Έγλειψε τ' άπλυτα</t>
   </si>
   <si>
+    <t>Τι θα θέλατε κύριε?</t>
+  </si>
+  <si>
     <t>Χορεύω ζεμπεκια</t>
   </si>
   <si>
+    <t>Πάτερ μου αμάρτησα. _______</t>
+  </si>
+  <si>
     <t>Παρτούζα με κοάλα και κοακόλα</t>
+  </si>
+  <si>
+    <t>Και γρήγορα άλλαξε το κανάλι ο Κωτσακλας για να μην καταλάβουμε ότι έβλεπε ______</t>
   </si>
   <si>
     <t>(Το/ένα) Κοψιμο</t>
@@ -5945,6 +6044,15 @@
   </si>
   <si>
     <t>(O) Σλοβάκικος Κών/νος</t>
+  </si>
+  <si>
+    <t>ήταν ένας Σποκ με μεγάλα αυτιά</t>
+  </si>
+  <si>
+    <t>(το) βυζοκλαπαρισμα</t>
+  </si>
+  <si>
+    <t>(να) κάνω ποδαράκια με τα αρχίδια μου</t>
   </si>
 </sst>
 </file>
@@ -17964,9 +18072,11 @@
       <c r="O567" s="2"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="A568" s="2"/>
+      <c r="A568" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="B568" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -17983,9 +18093,11 @@
       <c r="O568" s="2"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="A569" s="2"/>
+      <c r="A569" s="4" t="s">
+        <v>1135</v>
+      </c>
       <c r="B569" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -18002,9 +18114,11 @@
       <c r="O569" s="2"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="A570" s="2"/>
+      <c r="A570" s="4" t="s">
+        <v>1137</v>
+      </c>
       <c r="B570" s="1" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -18021,9 +18135,11 @@
       <c r="O570" s="2"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="A571" s="2"/>
+      <c r="A571" s="4" t="s">
+        <v>1139</v>
+      </c>
       <c r="B571" s="1" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -18040,9 +18156,11 @@
       <c r="O571" s="2"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="A572" s="2"/>
+      <c r="A572" s="4" t="s">
+        <v>1141</v>
+      </c>
       <c r="B572" s="1" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -18059,9 +18177,11 @@
       <c r="O572" s="2"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="A573" s="2"/>
+      <c r="A573" s="4" t="s">
+        <v>1143</v>
+      </c>
       <c r="B573" s="1" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -18078,9 +18198,11 @@
       <c r="O573" s="2"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="A574" s="2"/>
+      <c r="A574" s="4" t="s">
+        <v>1145</v>
+      </c>
       <c r="B574" s="1" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -18097,9 +18219,11 @@
       <c r="O574" s="2"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="A575" s="2"/>
+      <c r="A575" s="4" t="s">
+        <v>1147</v>
+      </c>
       <c r="B575" s="1" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -18116,9 +18240,11 @@
       <c r="O575" s="2"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="A576" s="2"/>
+      <c r="A576" s="4" t="s">
+        <v>1149</v>
+      </c>
       <c r="B576" s="1" t="s">
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -18135,9 +18261,11 @@
       <c r="O576" s="2"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="A577" s="2"/>
+      <c r="A577" s="4" t="s">
+        <v>1151</v>
+      </c>
       <c r="B577" s="1" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -18154,9 +18282,11 @@
       <c r="O577" s="2"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="A578" s="2"/>
+      <c r="A578" s="4" t="s">
+        <v>1153</v>
+      </c>
       <c r="B578" s="1" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -18173,9 +18303,11 @@
       <c r="O578" s="2"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="A579" s="2"/>
+      <c r="A579" s="4" t="s">
+        <v>1155</v>
+      </c>
       <c r="B579" s="1" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -18192,9 +18324,11 @@
       <c r="O579" s="2"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="A580" s="2"/>
+      <c r="A580" s="4" t="s">
+        <v>1157</v>
+      </c>
       <c r="B580" s="1" t="s">
-        <v>1145</v>
+        <v>1158</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -18211,9 +18345,11 @@
       <c r="O580" s="2"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="A581" s="2"/>
+      <c r="A581" s="4" t="s">
+        <v>1159</v>
+      </c>
       <c r="B581" s="1" t="s">
-        <v>1146</v>
+        <v>1160</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -18230,9 +18366,11 @@
       <c r="O581" s="2"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="A582" s="2"/>
+      <c r="A582" s="4" t="s">
+        <v>1161</v>
+      </c>
       <c r="B582" s="1" t="s">
-        <v>1147</v>
+        <v>1162</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -18249,9 +18387,11 @@
       <c r="O582" s="2"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="A583" s="2"/>
+      <c r="A583" s="4" t="s">
+        <v>1163</v>
+      </c>
       <c r="B583" s="1" t="s">
-        <v>1148</v>
+        <v>1164</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -18268,9 +18408,11 @@
       <c r="O583" s="2"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="A584" s="2"/>
+      <c r="A584" s="4" t="s">
+        <v>1165</v>
+      </c>
       <c r="B584" s="1" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -18287,9 +18429,11 @@
       <c r="O584" s="2"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="A585" s="2"/>
+      <c r="A585" s="4" t="s">
+        <v>1167</v>
+      </c>
       <c r="B585" s="1" t="s">
-        <v>1150</v>
+        <v>1168</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -18306,9 +18450,11 @@
       <c r="O585" s="2"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="A586" s="2"/>
+      <c r="A586" s="4" t="s">
+        <v>1169</v>
+      </c>
       <c r="B586" s="1" t="s">
-        <v>1151</v>
+        <v>1170</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -18325,9 +18471,11 @@
       <c r="O586" s="2"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="A587" s="2"/>
+      <c r="A587" s="4" t="s">
+        <v>1171</v>
+      </c>
       <c r="B587" s="1" t="s">
-        <v>1152</v>
+        <v>1172</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -18344,9 +18492,11 @@
       <c r="O587" s="2"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="A588" s="2"/>
+      <c r="A588" s="4" t="s">
+        <v>1173</v>
+      </c>
       <c r="B588" s="1" t="s">
-        <v>1153</v>
+        <v>1174</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -18363,9 +18513,11 @@
       <c r="O588" s="2"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="A589" s="2"/>
+      <c r="A589" s="4" t="s">
+        <v>1175</v>
+      </c>
       <c r="B589" s="1" t="s">
-        <v>1154</v>
+        <v>1176</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -18382,9 +18534,11 @@
       <c r="O589" s="2"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="A590" s="2"/>
+      <c r="A590" s="4" t="s">
+        <v>1177</v>
+      </c>
       <c r="B590" s="1" t="s">
-        <v>1155</v>
+        <v>1178</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -18401,9 +18555,11 @@
       <c r="O590" s="2"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="A591" s="2"/>
+      <c r="A591" s="4" t="s">
+        <v>1179</v>
+      </c>
       <c r="B591" s="1" t="s">
-        <v>1156</v>
+        <v>1180</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -18420,9 +18576,11 @@
       <c r="O591" s="2"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="A592" s="2"/>
+      <c r="A592" s="4" t="s">
+        <v>1181</v>
+      </c>
       <c r="B592" s="1" t="s">
-        <v>1157</v>
+        <v>1182</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -18439,9 +18597,11 @@
       <c r="O592" s="2"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="A593" s="2"/>
+      <c r="A593" s="4" t="s">
+        <v>1183</v>
+      </c>
       <c r="B593" s="1" t="s">
-        <v>1158</v>
+        <v>1184</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -18458,9 +18618,11 @@
       <c r="O593" s="2"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="A594" s="2"/>
+      <c r="A594" s="4" t="s">
+        <v>1185</v>
+      </c>
       <c r="B594" s="1" t="s">
-        <v>1159</v>
+        <v>1186</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -18477,9 +18639,11 @@
       <c r="O594" s="2"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="A595" s="2"/>
+      <c r="A595" s="4" t="s">
+        <v>1187</v>
+      </c>
       <c r="B595" s="1" t="s">
-        <v>1160</v>
+        <v>1188</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -18496,9 +18660,11 @@
       <c r="O595" s="2"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="A596" s="2"/>
+      <c r="A596" s="4" t="s">
+        <v>1189</v>
+      </c>
       <c r="B596" s="1" t="s">
-        <v>1161</v>
+        <v>1190</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -18515,9 +18681,11 @@
       <c r="O596" s="2"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="A597" s="2"/>
+      <c r="A597" s="4" t="s">
+        <v>1191</v>
+      </c>
       <c r="B597" s="1" t="s">
-        <v>1162</v>
+        <v>1192</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -18534,9 +18702,11 @@
       <c r="O597" s="2"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="A598" s="2"/>
+      <c r="A598" s="4" t="s">
+        <v>1193</v>
+      </c>
       <c r="B598" s="1" t="s">
-        <v>1163</v>
+        <v>1194</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -18553,9 +18723,11 @@
       <c r="O598" s="2"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="A599" s="2"/>
+      <c r="A599" s="4" t="s">
+        <v>1195</v>
+      </c>
       <c r="B599" s="1" t="s">
-        <v>1164</v>
+        <v>1196</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -18572,9 +18744,11 @@
       <c r="O599" s="2"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="A600" s="2"/>
+      <c r="A600" s="4" t="s">
+        <v>1197</v>
+      </c>
       <c r="B600" s="1" t="s">
-        <v>1165</v>
+        <v>1198</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -18593,7 +18767,7 @@
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="1" t="s">
-        <v>1166</v>
+        <v>1199</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -18612,7 +18786,7 @@
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="1" t="s">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -18631,7 +18805,7 @@
     <row r="603" ht="14.25" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="1" t="s">
-        <v>1168</v>
+        <v>1201</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -18650,7 +18824,7 @@
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="1" t="s">
-        <v>1169</v>
+        <v>1202</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -18669,7 +18843,7 @@
     <row r="605" ht="14.25" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="1" t="s">
-        <v>1170</v>
+        <v>1203</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -18688,7 +18862,7 @@
     <row r="606" ht="14.25" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="1" t="s">
-        <v>1171</v>
+        <v>1204</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -18707,7 +18881,7 @@
     <row r="607" ht="14.25" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="1" t="s">
-        <v>1172</v>
+        <v>1205</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -18726,7 +18900,7 @@
     <row r="608" ht="14.25" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="1" t="s">
-        <v>1173</v>
+        <v>1206</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -18745,7 +18919,7 @@
     <row r="609" ht="14.25" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="1" t="s">
-        <v>1174</v>
+        <v>1207</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -18764,7 +18938,7 @@
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="1" t="s">
-        <v>1175</v>
+        <v>1208</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -18783,7 +18957,7 @@
     <row r="611" ht="14.25" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="1" t="s">
-        <v>1176</v>
+        <v>1209</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -18802,7 +18976,7 @@
     <row r="612" ht="14.25" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="1" t="s">
-        <v>1177</v>
+        <v>1210</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -18821,7 +18995,7 @@
     <row r="613" ht="14.25" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="1" t="s">
-        <v>1178</v>
+        <v>1211</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -18840,7 +19014,7 @@
     <row r="614" ht="14.25" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="1" t="s">
-        <v>1179</v>
+        <v>1212</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -18859,7 +19033,7 @@
     <row r="615" ht="14.25" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="1" t="s">
-        <v>1180</v>
+        <v>1213</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -18878,7 +19052,7 @@
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="1" t="s">
-        <v>1181</v>
+        <v>1214</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -18897,7 +19071,7 @@
     <row r="617" ht="14.25" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="1" t="s">
-        <v>1182</v>
+        <v>1215</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -18916,7 +19090,7 @@
     <row r="618" ht="14.25" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="1" t="s">
-        <v>1183</v>
+        <v>1216</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -18935,7 +19109,7 @@
     <row r="619" ht="14.25" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="1" t="s">
-        <v>1184</v>
+        <v>1217</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -18954,7 +19128,7 @@
     <row r="620" ht="14.25" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="1" t="s">
-        <v>1185</v>
+        <v>1218</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -18973,7 +19147,7 @@
     <row r="621" ht="14.25" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="1" t="s">
-        <v>1186</v>
+        <v>1219</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -18992,7 +19166,7 @@
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="1" t="s">
-        <v>1187</v>
+        <v>1220</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -19011,7 +19185,7 @@
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="1" t="s">
-        <v>1188</v>
+        <v>1221</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -19030,7 +19204,7 @@
     <row r="624" ht="14.25" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="1" t="s">
-        <v>1189</v>
+        <v>1222</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -19049,7 +19223,7 @@
     <row r="625" ht="14.25" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="1" t="s">
-        <v>1190</v>
+        <v>1223</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -19068,7 +19242,7 @@
     <row r="626" ht="14.25" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="1" t="s">
-        <v>1191</v>
+        <v>1224</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -19087,7 +19261,7 @@
     <row r="627" ht="14.25" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="1" t="s">
-        <v>1192</v>
+        <v>1225</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -19106,7 +19280,7 @@
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="1" t="s">
-        <v>1193</v>
+        <v>1226</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -19125,7 +19299,7 @@
     <row r="629" ht="14.25" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="1" t="s">
-        <v>1194</v>
+        <v>1227</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -19144,7 +19318,7 @@
     <row r="630" ht="14.25" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="1" t="s">
-        <v>1195</v>
+        <v>1228</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -19163,7 +19337,7 @@
     <row r="631" ht="14.25" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="1" t="s">
-        <v>1196</v>
+        <v>1229</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -19182,7 +19356,7 @@
     <row r="632" ht="14.25" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="1" t="s">
-        <v>1197</v>
+        <v>1230</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -19201,7 +19375,7 @@
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="1" t="s">
-        <v>1198</v>
+        <v>1231</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -19220,7 +19394,7 @@
     <row r="634" ht="14.25" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="1" t="s">
-        <v>1199</v>
+        <v>1232</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -19239,7 +19413,7 @@
     <row r="635" ht="14.25" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="1" t="s">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -19258,7 +19432,7 @@
     <row r="636" ht="14.25" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="1" t="s">
-        <v>1201</v>
+        <v>1234</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -19277,7 +19451,7 @@
     <row r="637" ht="14.25" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="1" t="s">
-        <v>1202</v>
+        <v>1235</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -19296,7 +19470,7 @@
     <row r="638" ht="14.25" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="1" t="s">
-        <v>1203</v>
+        <v>1236</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -19315,7 +19489,7 @@
     <row r="639" ht="14.25" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="1" t="s">
-        <v>1204</v>
+        <v>1237</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -19334,7 +19508,7 @@
     <row r="640" ht="14.25" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="1" t="s">
-        <v>1205</v>
+        <v>1238</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -19353,7 +19527,7 @@
     <row r="641" ht="14.25" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="1" t="s">
-        <v>1206</v>
+        <v>1239</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -19372,7 +19546,7 @@
     <row r="642" ht="14.25" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="1" t="s">
-        <v>1207</v>
+        <v>1240</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -19391,7 +19565,7 @@
     <row r="643" ht="14.25" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="1" t="s">
-        <v>1208</v>
+        <v>1241</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -19410,7 +19584,7 @@
     <row r="644" ht="14.25" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="1" t="s">
-        <v>1209</v>
+        <v>1242</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -19429,7 +19603,7 @@
     <row r="645" ht="14.25" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="1" t="s">
-        <v>1210</v>
+        <v>1243</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -19448,7 +19622,7 @@
     <row r="646" ht="14.25" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="1" t="s">
-        <v>1211</v>
+        <v>1244</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -19467,7 +19641,7 @@
     <row r="647" ht="14.25" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="1" t="s">
-        <v>1212</v>
+        <v>1245</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -19486,7 +19660,7 @@
     <row r="648" ht="14.25" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="1" t="s">
-        <v>1213</v>
+        <v>1246</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -19505,7 +19679,7 @@
     <row r="649" ht="14.25" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="1" t="s">
-        <v>1214</v>
+        <v>1247</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -19524,7 +19698,7 @@
     <row r="650" ht="14.25" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="1" t="s">
-        <v>1215</v>
+        <v>1248</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -19543,7 +19717,7 @@
     <row r="651" ht="14.25" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="1" t="s">
-        <v>1216</v>
+        <v>1249</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -19562,7 +19736,7 @@
     <row r="652" ht="14.25" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="1" t="s">
-        <v>1217</v>
+        <v>1250</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -19581,7 +19755,7 @@
     <row r="653" ht="14.25" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="1" t="s">
-        <v>1218</v>
+        <v>1251</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -19600,7 +19774,7 @@
     <row r="654" ht="14.25" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="1" t="s">
-        <v>1219</v>
+        <v>1252</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -19619,7 +19793,7 @@
     <row r="655" ht="14.25" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="1" t="s">
-        <v>1220</v>
+        <v>1253</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -19638,7 +19812,7 @@
     <row r="656" ht="14.25" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="1" t="s">
-        <v>1221</v>
+        <v>1254</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -19657,7 +19831,7 @@
     <row r="657" ht="14.25" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="1" t="s">
-        <v>1222</v>
+        <v>1255</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -19676,7 +19850,7 @@
     <row r="658" ht="14.25" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="1" t="s">
-        <v>1223</v>
+        <v>1256</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -19695,7 +19869,7 @@
     <row r="659" ht="14.25" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="4" t="s">
-        <v>1224</v>
+        <v>1257</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -19714,7 +19888,7 @@
     <row r="660" ht="14.25" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="4" t="s">
-        <v>1225</v>
+        <v>1258</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -19733,7 +19907,7 @@
     <row r="661" ht="14.25" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="4" t="s">
-        <v>1226</v>
+        <v>1259</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -19752,7 +19926,7 @@
     <row r="662" ht="14.25" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="4" t="s">
-        <v>1227</v>
+        <v>1260</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -19771,7 +19945,7 @@
     <row r="663" ht="14.25" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="4" t="s">
-        <v>1228</v>
+        <v>1261</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -19790,7 +19964,7 @@
     <row r="664" ht="14.25" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="4" t="s">
-        <v>1229</v>
+        <v>1262</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -19809,7 +19983,7 @@
     <row r="665" ht="14.25" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="4" t="s">
-        <v>1230</v>
+        <v>1263</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -19828,7 +20002,7 @@
     <row r="666" ht="14.25" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="4" t="s">
-        <v>1231</v>
+        <v>1264</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -19847,7 +20021,7 @@
     <row r="667" ht="14.25" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="4" t="s">
-        <v>1232</v>
+        <v>1265</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -19866,7 +20040,7 @@
     <row r="668" ht="14.25" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="4" t="s">
-        <v>1233</v>
+        <v>1266</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -19885,7 +20059,7 @@
     <row r="669" ht="14.25" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="4" t="s">
-        <v>1234</v>
+        <v>1267</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -19904,7 +20078,7 @@
     <row r="670" ht="14.25" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="4" t="s">
-        <v>1235</v>
+        <v>1268</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -19923,7 +20097,7 @@
     <row r="671" ht="14.25" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="4" t="s">
-        <v>1236</v>
+        <v>1269</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -19942,7 +20116,7 @@
     <row r="672" ht="14.25" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="4" t="s">
-        <v>1237</v>
+        <v>1270</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -19961,7 +20135,7 @@
     <row r="673" ht="14.25" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="4" t="s">
-        <v>1238</v>
+        <v>1271</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -19980,7 +20154,7 @@
     <row r="674" ht="14.25" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="4" t="s">
-        <v>1239</v>
+        <v>1272</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -19999,7 +20173,7 @@
     <row r="675" ht="14.25" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="4" t="s">
-        <v>1240</v>
+        <v>1273</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -20018,7 +20192,7 @@
     <row r="676" ht="14.25" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="1" t="s">
-        <v>1241</v>
+        <v>1274</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -20037,7 +20211,7 @@
     <row r="677" ht="14.25" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="1" t="s">
-        <v>1242</v>
+        <v>1275</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -20056,7 +20230,7 @@
     <row r="678" ht="14.25" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="1" t="s">
-        <v>1243</v>
+        <v>1276</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -20075,7 +20249,7 @@
     <row r="679" ht="14.25" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="1" t="s">
-        <v>1244</v>
+        <v>1277</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -20094,7 +20268,7 @@
     <row r="680" ht="14.25" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="1" t="s">
-        <v>1245</v>
+        <v>1278</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -20113,7 +20287,7 @@
     <row r="681" ht="14.25" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="1" t="s">
-        <v>1246</v>
+        <v>1279</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -20132,7 +20306,7 @@
     <row r="682" ht="14.25" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="1" t="s">
-        <v>1247</v>
+        <v>1280</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -20151,7 +20325,7 @@
     <row r="683" ht="14.25" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="1" t="s">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -20170,7 +20344,7 @@
     <row r="684" ht="14.25" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="4" t="s">
-        <v>1249</v>
+        <v>1282</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -20189,7 +20363,7 @@
     <row r="685" ht="14.25" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="4" t="s">
-        <v>1250</v>
+        <v>1283</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -20208,7 +20382,7 @@
     <row r="686" ht="14.25" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="4" t="s">
-        <v>1251</v>
+        <v>1284</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -20227,7 +20401,7 @@
     <row r="687" ht="14.25" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="4" t="s">
-        <v>1252</v>
+        <v>1285</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -20246,7 +20420,7 @@
     <row r="688" ht="14.25" customHeight="1">
       <c r="A688" s="2"/>
       <c r="B688" s="4" t="s">
-        <v>1253</v>
+        <v>1286</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -20265,7 +20439,7 @@
     <row r="689" ht="14.25" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="4" t="s">
-        <v>1254</v>
+        <v>1287</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -20284,7 +20458,7 @@
     <row r="690" ht="14.25" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="4" t="s">
-        <v>1255</v>
+        <v>1288</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -20303,7 +20477,7 @@
     <row r="691" ht="14.25" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="4" t="s">
-        <v>1256</v>
+        <v>1289</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -20322,7 +20496,7 @@
     <row r="692" ht="14.25" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="4" t="s">
-        <v>1257</v>
+        <v>1290</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -20341,7 +20515,7 @@
     <row r="693" ht="14.25" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="4" t="s">
-        <v>1258</v>
+        <v>1291</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -20360,7 +20534,7 @@
     <row r="694" ht="14.25" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="4" t="s">
-        <v>1259</v>
+        <v>1292</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -20379,7 +20553,7 @@
     <row r="695" ht="14.25" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="4" t="s">
-        <v>1260</v>
+        <v>1293</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -20398,7 +20572,7 @@
     <row r="696" ht="14.25" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="4" t="s">
-        <v>1261</v>
+        <v>1294</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -20417,7 +20591,7 @@
     <row r="697" ht="14.25" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="4" t="s">
-        <v>1262</v>
+        <v>1295</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -20436,7 +20610,7 @@
     <row r="698" ht="14.25" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="4" t="s">
-        <v>1263</v>
+        <v>1296</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -20455,7 +20629,7 @@
     <row r="699" ht="14.25" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="4" t="s">
-        <v>1264</v>
+        <v>1297</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -20474,7 +20648,7 @@
     <row r="700" ht="14.25" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="4" t="s">
-        <v>1265</v>
+        <v>1298</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -20493,7 +20667,7 @@
     <row r="701" ht="14.25" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="4" t="s">
-        <v>1266</v>
+        <v>1299</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -20512,7 +20686,7 @@
     <row r="702" ht="14.25" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="4" t="s">
-        <v>1267</v>
+        <v>1300</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -20531,7 +20705,7 @@
     <row r="703" ht="14.25" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="4" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -20550,7 +20724,7 @@
     <row r="704" ht="14.25" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="4" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -20569,7 +20743,7 @@
     <row r="705" ht="14.25" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="4" t="s">
-        <v>1270</v>
+        <v>1303</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -20588,7 +20762,7 @@
     <row r="706" ht="14.25" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="4" t="s">
-        <v>1271</v>
+        <v>1304</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -20607,7 +20781,7 @@
     <row r="707" ht="14.25" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="4" t="s">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -20626,7 +20800,7 @@
     <row r="708" ht="14.25" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="4" t="s">
-        <v>1273</v>
+        <v>1306</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -20645,7 +20819,7 @@
     <row r="709" ht="14.25" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="4" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -20664,7 +20838,7 @@
     <row r="710" ht="14.25" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="4" t="s">
-        <v>1275</v>
+        <v>1308</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -20683,7 +20857,7 @@
     <row r="711" ht="14.25" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="4" t="s">
-        <v>1276</v>
+        <v>1309</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -20702,7 +20876,7 @@
     <row r="712" ht="14.25" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="4" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -20721,7 +20895,7 @@
     <row r="713" ht="14.25" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="4" t="s">
-        <v>1278</v>
+        <v>1311</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -20740,7 +20914,7 @@
     <row r="714" ht="14.25" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="4" t="s">
-        <v>1279</v>
+        <v>1312</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -20759,7 +20933,7 @@
     <row r="715" ht="14.25" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="4" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -20778,7 +20952,7 @@
     <row r="716" ht="14.25" customHeight="1">
       <c r="A716" s="2"/>
       <c r="B716" s="4" t="s">
-        <v>1281</v>
+        <v>1314</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -20797,7 +20971,7 @@
     <row r="717" ht="14.25" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="4" t="s">
-        <v>1282</v>
+        <v>1315</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -20816,7 +20990,7 @@
     <row r="718" ht="14.25" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="4" t="s">
-        <v>1283</v>
+        <v>1316</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -20835,7 +21009,7 @@
     <row r="719" ht="14.25" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="4" t="s">
-        <v>1284</v>
+        <v>1317</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -20854,7 +21028,7 @@
     <row r="720" ht="14.25" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="4" t="s">
-        <v>1285</v>
+        <v>1318</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -20873,7 +21047,7 @@
     <row r="721" ht="14.25" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="4" t="s">
-        <v>1286</v>
+        <v>1319</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -20892,7 +21066,7 @@
     <row r="722" ht="14.25" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="4" t="s">
-        <v>1287</v>
+        <v>1320</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -20911,7 +21085,7 @@
     <row r="723" ht="14.25" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="4" t="s">
-        <v>1288</v>
+        <v>1321</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -20930,7 +21104,7 @@
     <row r="724" ht="14.25" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="4" t="s">
-        <v>1289</v>
+        <v>1322</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -20949,7 +21123,7 @@
     <row r="725" ht="14.25" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="4" t="s">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -20968,7 +21142,7 @@
     <row r="726" ht="14.25" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="4" t="s">
-        <v>1291</v>
+        <v>1324</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -20987,7 +21161,7 @@
     <row r="727" ht="14.25" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="4" t="s">
-        <v>1292</v>
+        <v>1325</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -21006,7 +21180,7 @@
     <row r="728" ht="14.25" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="4" t="s">
-        <v>1293</v>
+        <v>1326</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -21025,7 +21199,7 @@
     <row r="729" ht="14.25" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="4" t="s">
-        <v>1294</v>
+        <v>1327</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -21044,7 +21218,7 @@
     <row r="730" ht="14.25" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="4" t="s">
-        <v>1295</v>
+        <v>1328</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -21063,7 +21237,7 @@
     <row r="731" ht="14.25" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="4" t="s">
-        <v>1296</v>
+        <v>1329</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -21082,7 +21256,7 @@
     <row r="732" ht="14.25" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="4" t="s">
-        <v>1297</v>
+        <v>1330</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -21101,7 +21275,7 @@
     <row r="733" ht="14.25" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="4" t="s">
-        <v>1298</v>
+        <v>1331</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -21120,7 +21294,7 @@
     <row r="734" ht="14.25" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="4" t="s">
-        <v>1299</v>
+        <v>1332</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -21139,7 +21313,7 @@
     <row r="735" ht="14.25" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="4" t="s">
-        <v>1300</v>
+        <v>1333</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -21158,7 +21332,7 @@
     <row r="736" ht="14.25" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="4" t="s">
-        <v>1301</v>
+        <v>1334</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -21177,7 +21351,7 @@
     <row r="737" ht="14.25" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="4" t="s">
-        <v>1302</v>
+        <v>1335</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -21196,7 +21370,7 @@
     <row r="738" ht="14.25" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="4" t="s">
-        <v>1303</v>
+        <v>1336</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -21215,7 +21389,7 @@
     <row r="739" ht="14.25" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="4" t="s">
-        <v>1304</v>
+        <v>1337</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -21234,7 +21408,7 @@
     <row r="740" ht="14.25" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="4" t="s">
-        <v>1305</v>
+        <v>1338</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -21253,7 +21427,7 @@
     <row r="741" ht="14.25" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="4" t="s">
-        <v>1306</v>
+        <v>1339</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -21272,7 +21446,7 @@
     <row r="742" ht="14.25" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="4" t="s">
-        <v>1307</v>
+        <v>1340</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -21291,7 +21465,7 @@
     <row r="743" ht="14.25" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="4" t="s">
-        <v>1308</v>
+        <v>1341</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -21310,7 +21484,7 @@
     <row r="744" ht="14.25" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="4" t="s">
-        <v>1309</v>
+        <v>1342</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -21329,7 +21503,7 @@
     <row r="745" ht="14.25" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="4" t="s">
-        <v>1310</v>
+        <v>1343</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -21348,7 +21522,7 @@
     <row r="746" ht="14.25" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="4" t="s">
-        <v>1311</v>
+        <v>1344</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -21367,7 +21541,7 @@
     <row r="747" ht="14.25" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="4" t="s">
-        <v>1312</v>
+        <v>1345</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -21386,7 +21560,7 @@
     <row r="748" ht="14.25" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="4" t="s">
-        <v>1313</v>
+        <v>1346</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -21405,7 +21579,7 @@
     <row r="749" ht="14.25" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="4" t="s">
-        <v>1314</v>
+        <v>1347</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -21424,7 +21598,7 @@
     <row r="750" ht="14.25" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="4" t="s">
-        <v>1315</v>
+        <v>1348</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -21443,7 +21617,7 @@
     <row r="751" ht="14.25" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="4" t="s">
-        <v>1316</v>
+        <v>1349</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -21462,7 +21636,7 @@
     <row r="752" ht="14.25" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="4" t="s">
-        <v>1317</v>
+        <v>1350</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -21481,7 +21655,7 @@
     <row r="753" ht="14.25" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="4" t="s">
-        <v>1318</v>
+        <v>1351</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -21500,7 +21674,7 @@
     <row r="754" ht="14.25" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="4" t="s">
-        <v>1319</v>
+        <v>1352</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -21519,7 +21693,7 @@
     <row r="755" ht="14.25" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="4" t="s">
-        <v>1320</v>
+        <v>1353</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -21538,7 +21712,7 @@
     <row r="756" ht="14.25" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="4" t="s">
-        <v>1321</v>
+        <v>1354</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -21557,7 +21731,7 @@
     <row r="757" ht="14.25" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="4" t="s">
-        <v>1322</v>
+        <v>1355</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -21576,7 +21750,7 @@
     <row r="758" ht="14.25" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="4" t="s">
-        <v>1323</v>
+        <v>1356</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -21595,7 +21769,7 @@
     <row r="759" ht="14.25" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="4" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -21614,7 +21788,7 @@
     <row r="760" ht="14.25" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="4" t="s">
-        <v>1325</v>
+        <v>1358</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -21633,7 +21807,7 @@
     <row r="761" ht="14.25" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="4" t="s">
-        <v>1326</v>
+        <v>1359</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -21652,7 +21826,7 @@
     <row r="762" ht="14.25" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="4" t="s">
-        <v>1327</v>
+        <v>1360</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -21671,7 +21845,7 @@
     <row r="763" ht="14.25" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="4" t="s">
-        <v>1328</v>
+        <v>1361</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -21690,7 +21864,7 @@
     <row r="764" ht="14.25" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="4" t="s">
-        <v>1329</v>
+        <v>1362</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -21709,7 +21883,7 @@
     <row r="765" ht="14.25" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="4" t="s">
-        <v>1330</v>
+        <v>1363</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -21728,7 +21902,7 @@
     <row r="766" ht="14.25" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="4" t="s">
-        <v>1331</v>
+        <v>1364</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -21747,7 +21921,7 @@
     <row r="767" ht="14.25" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="4" t="s">
-        <v>1332</v>
+        <v>1365</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -21766,7 +21940,7 @@
     <row r="768" ht="14.25" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="4" t="s">
-        <v>1333</v>
+        <v>1366</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -21785,7 +21959,7 @@
     <row r="769" ht="14.25" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="4" t="s">
-        <v>1334</v>
+        <v>1367</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -21804,7 +21978,7 @@
     <row r="770" ht="14.25" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="4" t="s">
-        <v>1335</v>
+        <v>1368</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -21823,7 +21997,7 @@
     <row r="771" ht="14.25" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="4" t="s">
-        <v>1336</v>
+        <v>1369</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -21842,7 +22016,7 @@
     <row r="772" ht="14.25" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="4" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -21861,7 +22035,7 @@
     <row r="773" ht="14.25" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="4" t="s">
-        <v>1338</v>
+        <v>1371</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -21880,7 +22054,7 @@
     <row r="774" ht="14.25" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="4" t="s">
-        <v>1339</v>
+        <v>1372</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -21899,7 +22073,7 @@
     <row r="775" ht="14.25" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="4" t="s">
-        <v>1340</v>
+        <v>1373</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -21918,7 +22092,7 @@
     <row r="776" ht="14.25" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="4" t="s">
-        <v>1341</v>
+        <v>1374</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -21937,7 +22111,7 @@
     <row r="777" ht="14.25" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="4" t="s">
-        <v>1342</v>
+        <v>1375</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -21956,7 +22130,7 @@
     <row r="778" ht="14.25" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="4" t="s">
-        <v>1343</v>
+        <v>1376</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -21975,7 +22149,7 @@
     <row r="779" ht="14.25" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="4" t="s">
-        <v>1344</v>
+        <v>1377</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -21994,7 +22168,7 @@
     <row r="780" ht="14.25" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="4" t="s">
-        <v>1345</v>
+        <v>1378</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -22013,7 +22187,7 @@
     <row r="781" ht="14.25" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="4" t="s">
-        <v>1346</v>
+        <v>1379</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -22032,7 +22206,7 @@
     <row r="782" ht="14.25" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="4" t="s">
-        <v>1347</v>
+        <v>1380</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -22051,7 +22225,7 @@
     <row r="783" ht="14.25" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="4" t="s">
-        <v>1348</v>
+        <v>1381</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -22070,7 +22244,7 @@
     <row r="784" ht="14.25" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="4" t="s">
-        <v>1349</v>
+        <v>1382</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -22089,7 +22263,7 @@
     <row r="785" ht="14.25" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="4" t="s">
-        <v>1350</v>
+        <v>1383</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -22108,7 +22282,7 @@
     <row r="786" ht="14.25" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="4" t="s">
-        <v>1351</v>
+        <v>1384</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -22127,7 +22301,7 @@
     <row r="787" ht="14.25" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="4" t="s">
-        <v>1352</v>
+        <v>1385</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -22146,7 +22320,7 @@
     <row r="788" ht="14.25" customHeight="1">
       <c r="A788" s="2"/>
       <c r="B788" s="4" t="s">
-        <v>1353</v>
+        <v>1386</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -22165,7 +22339,7 @@
     <row r="789" ht="14.25" customHeight="1">
       <c r="A789" s="2"/>
       <c r="B789" s="4" t="s">
-        <v>1354</v>
+        <v>1387</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -22184,7 +22358,7 @@
     <row r="790" ht="14.25" customHeight="1">
       <c r="A790" s="2"/>
       <c r="B790" s="4" t="s">
-        <v>1355</v>
+        <v>1388</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -22203,7 +22377,7 @@
     <row r="791" ht="14.25" customHeight="1">
       <c r="A791" s="2"/>
       <c r="B791" s="4" t="s">
-        <v>1356</v>
+        <v>1389</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -22222,7 +22396,7 @@
     <row r="792" ht="14.25" customHeight="1">
       <c r="A792" s="2"/>
       <c r="B792" s="4" t="s">
-        <v>1357</v>
+        <v>1390</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -22241,7 +22415,7 @@
     <row r="793" ht="14.25" customHeight="1">
       <c r="A793" s="2"/>
       <c r="B793" s="4" t="s">
-        <v>1358</v>
+        <v>1391</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -22260,7 +22434,7 @@
     <row r="794" ht="14.25" customHeight="1">
       <c r="A794" s="2"/>
       <c r="B794" s="4" t="s">
-        <v>1359</v>
+        <v>1392</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -22279,7 +22453,7 @@
     <row r="795" ht="14.25" customHeight="1">
       <c r="A795" s="2"/>
       <c r="B795" s="4" t="s">
-        <v>1360</v>
+        <v>1393</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -22298,7 +22472,7 @@
     <row r="796" ht="14.25" customHeight="1">
       <c r="A796" s="2"/>
       <c r="B796" s="4" t="s">
-        <v>1361</v>
+        <v>1394</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -22317,7 +22491,7 @@
     <row r="797" ht="14.25" customHeight="1">
       <c r="A797" s="2"/>
       <c r="B797" s="4" t="s">
-        <v>1362</v>
+        <v>1395</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -22336,7 +22510,7 @@
     <row r="798" ht="14.25" customHeight="1">
       <c r="A798" s="2"/>
       <c r="B798" s="4" t="s">
-        <v>1363</v>
+        <v>1396</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -22355,7 +22529,7 @@
     <row r="799" ht="14.25" customHeight="1">
       <c r="A799" s="2"/>
       <c r="B799" s="4" t="s">
-        <v>1364</v>
+        <v>1397</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -22374,7 +22548,7 @@
     <row r="800" ht="14.25" customHeight="1">
       <c r="A800" s="2"/>
       <c r="B800" s="4" t="s">
-        <v>1365</v>
+        <v>1398</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -22393,7 +22567,7 @@
     <row r="801" ht="14.25" customHeight="1">
       <c r="A801" s="2"/>
       <c r="B801" s="4" t="s">
-        <v>1366</v>
+        <v>1399</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -22412,7 +22586,7 @@
     <row r="802" ht="14.25" customHeight="1">
       <c r="A802" s="2"/>
       <c r="B802" s="4" t="s">
-        <v>1367</v>
+        <v>1400</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -22431,7 +22605,7 @@
     <row r="803" ht="14.25" customHeight="1">
       <c r="A803" s="2"/>
       <c r="B803" s="4" t="s">
-        <v>1368</v>
+        <v>1401</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -22450,7 +22624,7 @@
     <row r="804" ht="14.25" customHeight="1">
       <c r="A804" s="2"/>
       <c r="B804" s="4" t="s">
-        <v>1369</v>
+        <v>1402</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -22469,7 +22643,7 @@
     <row r="805" ht="14.25" customHeight="1">
       <c r="A805" s="2"/>
       <c r="B805" s="4" t="s">
-        <v>1370</v>
+        <v>1403</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -22488,7 +22662,7 @@
     <row r="806" ht="14.25" customHeight="1">
       <c r="A806" s="2"/>
       <c r="B806" s="4" t="s">
-        <v>1371</v>
+        <v>1404</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -22507,7 +22681,7 @@
     <row r="807" ht="14.25" customHeight="1">
       <c r="A807" s="2"/>
       <c r="B807" s="4" t="s">
-        <v>1372</v>
+        <v>1405</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -22526,7 +22700,7 @@
     <row r="808" ht="14.25" customHeight="1">
       <c r="A808" s="2"/>
       <c r="B808" s="4" t="s">
-        <v>1373</v>
+        <v>1406</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -22545,7 +22719,7 @@
     <row r="809" ht="14.25" customHeight="1">
       <c r="A809" s="2"/>
       <c r="B809" s="4" t="s">
-        <v>1374</v>
+        <v>1407</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -22564,7 +22738,7 @@
     <row r="810" ht="14.25" customHeight="1">
       <c r="A810" s="2"/>
       <c r="B810" s="4" t="s">
-        <v>1375</v>
+        <v>1408</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -22583,7 +22757,7 @@
     <row r="811" ht="14.25" customHeight="1">
       <c r="A811" s="2"/>
       <c r="B811" s="4" t="s">
-        <v>1376</v>
+        <v>1409</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -22602,7 +22776,7 @@
     <row r="812" ht="14.25" customHeight="1">
       <c r="A812" s="2"/>
       <c r="B812" s="4" t="s">
-        <v>1377</v>
+        <v>1410</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -22621,7 +22795,7 @@
     <row r="813" ht="14.25" customHeight="1">
       <c r="A813" s="2"/>
       <c r="B813" s="4" t="s">
-        <v>1378</v>
+        <v>1411</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -22640,7 +22814,7 @@
     <row r="814" ht="14.25" customHeight="1">
       <c r="A814" s="2"/>
       <c r="B814" s="4" t="s">
-        <v>1379</v>
+        <v>1412</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -22659,7 +22833,7 @@
     <row r="815" ht="14.25" customHeight="1">
       <c r="A815" s="2"/>
       <c r="B815" s="4" t="s">
-        <v>1380</v>
+        <v>1413</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -22678,7 +22852,7 @@
     <row r="816" ht="14.25" customHeight="1">
       <c r="A816" s="2"/>
       <c r="B816" s="4" t="s">
-        <v>1381</v>
+        <v>1414</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -22697,7 +22871,7 @@
     <row r="817" ht="14.25" customHeight="1">
       <c r="A817" s="2"/>
       <c r="B817" s="4" t="s">
-        <v>1382</v>
+        <v>1415</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -22716,7 +22890,7 @@
     <row r="818" ht="14.25" customHeight="1">
       <c r="A818" s="2"/>
       <c r="B818" s="4" t="s">
-        <v>1383</v>
+        <v>1416</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -22735,7 +22909,7 @@
     <row r="819" ht="14.25" customHeight="1">
       <c r="A819" s="2"/>
       <c r="B819" s="4" t="s">
-        <v>1384</v>
+        <v>1417</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -22754,7 +22928,7 @@
     <row r="820" ht="14.25" customHeight="1">
       <c r="A820" s="2"/>
       <c r="B820" s="4" t="s">
-        <v>1385</v>
+        <v>1418</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -22773,7 +22947,7 @@
     <row r="821" ht="14.25" customHeight="1">
       <c r="A821" s="2"/>
       <c r="B821" s="4" t="s">
-        <v>1386</v>
+        <v>1419</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -22792,7 +22966,7 @@
     <row r="822" ht="14.25" customHeight="1">
       <c r="A822" s="2"/>
       <c r="B822" s="4" t="s">
-        <v>1387</v>
+        <v>1420</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -22811,7 +22985,7 @@
     <row r="823" ht="14.25" customHeight="1">
       <c r="A823" s="2"/>
       <c r="B823" s="4" t="s">
-        <v>1388</v>
+        <v>1421</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -22830,7 +23004,7 @@
     <row r="824" ht="14.25" customHeight="1">
       <c r="A824" s="2"/>
       <c r="B824" s="4" t="s">
-        <v>1389</v>
+        <v>1422</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -22849,7 +23023,7 @@
     <row r="825" ht="14.25" customHeight="1">
       <c r="A825" s="2"/>
       <c r="B825" s="4" t="s">
-        <v>1390</v>
+        <v>1423</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -22868,7 +23042,7 @@
     <row r="826" ht="14.25" customHeight="1">
       <c r="A826" s="2"/>
       <c r="B826" s="4" t="s">
-        <v>1391</v>
+        <v>1424</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -22887,7 +23061,7 @@
     <row r="827" ht="14.25" customHeight="1">
       <c r="A827" s="2"/>
       <c r="B827" s="4" t="s">
-        <v>1392</v>
+        <v>1425</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -22906,7 +23080,7 @@
     <row r="828" ht="14.25" customHeight="1">
       <c r="A828" s="2"/>
       <c r="B828" s="4" t="s">
-        <v>1393</v>
+        <v>1426</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -22925,7 +23099,7 @@
     <row r="829" ht="14.25" customHeight="1">
       <c r="A829" s="2"/>
       <c r="B829" s="4" t="s">
-        <v>1394</v>
+        <v>1427</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -22944,7 +23118,7 @@
     <row r="830" ht="14.25" customHeight="1">
       <c r="A830" s="2"/>
       <c r="B830" s="4" t="s">
-        <v>1394</v>
+        <v>1427</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -22963,7 +23137,7 @@
     <row r="831" ht="14.25" customHeight="1">
       <c r="A831" s="2"/>
       <c r="B831" s="4" t="s">
-        <v>1395</v>
+        <v>1428</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -22982,7 +23156,7 @@
     <row r="832" ht="14.25" customHeight="1">
       <c r="A832" s="2"/>
       <c r="B832" s="4" t="s">
-        <v>1396</v>
+        <v>1429</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -23001,7 +23175,7 @@
     <row r="833" ht="14.25" customHeight="1">
       <c r="A833" s="2"/>
       <c r="B833" s="4" t="s">
-        <v>1397</v>
+        <v>1430</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -23020,7 +23194,7 @@
     <row r="834" ht="14.25" customHeight="1">
       <c r="A834" s="2"/>
       <c r="B834" s="4" t="s">
-        <v>1398</v>
+        <v>1431</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -23039,7 +23213,7 @@
     <row r="835" ht="14.25" customHeight="1">
       <c r="A835" s="2"/>
       <c r="B835" s="4" t="s">
-        <v>1399</v>
+        <v>1432</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -23058,7 +23232,7 @@
     <row r="836" ht="14.25" customHeight="1">
       <c r="A836" s="2"/>
       <c r="B836" s="4" t="s">
-        <v>1400</v>
+        <v>1433</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -23077,7 +23251,7 @@
     <row r="837" ht="14.25" customHeight="1">
       <c r="A837" s="2"/>
       <c r="B837" s="4" t="s">
-        <v>1401</v>
+        <v>1434</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -23096,7 +23270,7 @@
     <row r="838" ht="14.25" customHeight="1">
       <c r="A838" s="2"/>
       <c r="B838" s="4" t="s">
-        <v>1402</v>
+        <v>1435</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -23115,7 +23289,7 @@
     <row r="839" ht="14.25" customHeight="1">
       <c r="A839" s="2"/>
       <c r="B839" s="4" t="s">
-        <v>1403</v>
+        <v>1436</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -23134,7 +23308,7 @@
     <row r="840" ht="14.25" customHeight="1">
       <c r="A840" s="2"/>
       <c r="B840" s="4" t="s">
-        <v>1404</v>
+        <v>1437</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -23153,7 +23327,7 @@
     <row r="841" ht="14.25" customHeight="1">
       <c r="A841" s="2"/>
       <c r="B841" s="4" t="s">
-        <v>1405</v>
+        <v>1438</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -23172,7 +23346,7 @@
     <row r="842" ht="14.25" customHeight="1">
       <c r="A842" s="2"/>
       <c r="B842" s="4" t="s">
-        <v>1406</v>
+        <v>1439</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -23191,7 +23365,7 @@
     <row r="843" ht="14.25" customHeight="1">
       <c r="A843" s="2"/>
       <c r="B843" s="4" t="s">
-        <v>1407</v>
+        <v>1440</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -23210,7 +23384,7 @@
     <row r="844" ht="14.25" customHeight="1">
       <c r="A844" s="2"/>
       <c r="B844" s="4" t="s">
-        <v>1408</v>
+        <v>1441</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -23229,7 +23403,7 @@
     <row r="845" ht="14.25" customHeight="1">
       <c r="A845" s="2"/>
       <c r="B845" s="4" t="s">
-        <v>1409</v>
+        <v>1442</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -23248,7 +23422,7 @@
     <row r="846" ht="14.25" customHeight="1">
       <c r="A846" s="2"/>
       <c r="B846" s="4" t="s">
-        <v>1410</v>
+        <v>1443</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -23267,7 +23441,7 @@
     <row r="847" ht="14.25" customHeight="1">
       <c r="A847" s="2"/>
       <c r="B847" s="4" t="s">
-        <v>1411</v>
+        <v>1444</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -23286,7 +23460,7 @@
     <row r="848" ht="14.25" customHeight="1">
       <c r="A848" s="2"/>
       <c r="B848" s="4" t="s">
-        <v>1412</v>
+        <v>1445</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -23305,7 +23479,7 @@
     <row r="849" ht="14.25" customHeight="1">
       <c r="A849" s="2"/>
       <c r="B849" s="4" t="s">
-        <v>1413</v>
+        <v>1446</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -23324,7 +23498,7 @@
     <row r="850">
       <c r="A850" s="2"/>
       <c r="B850" s="4" t="s">
-        <v>1414</v>
+        <v>1447</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -23343,7 +23517,7 @@
     <row r="851" ht="14.25" customHeight="1">
       <c r="A851" s="2"/>
       <c r="B851" s="4" t="s">
-        <v>1415</v>
+        <v>1448</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -23362,7 +23536,7 @@
     <row r="852" ht="14.25" customHeight="1">
       <c r="A852" s="2"/>
       <c r="B852" s="4" t="s">
-        <v>1416</v>
+        <v>1449</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -23381,7 +23555,7 @@
     <row r="853">
       <c r="A853" s="2"/>
       <c r="B853" s="4" t="s">
-        <v>1417</v>
+        <v>1450</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -23400,7 +23574,7 @@
     <row r="854" ht="14.25" customHeight="1">
       <c r="A854" s="2"/>
       <c r="B854" s="4" t="s">
-        <v>1418</v>
+        <v>1451</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -23419,7 +23593,7 @@
     <row r="855" ht="14.25" customHeight="1">
       <c r="A855" s="2"/>
       <c r="B855" s="4" t="s">
-        <v>1419</v>
+        <v>1452</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -23438,7 +23612,7 @@
     <row r="856" ht="14.25" customHeight="1">
       <c r="A856" s="2"/>
       <c r="B856" s="4" t="s">
-        <v>1420</v>
+        <v>1453</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -23457,7 +23631,7 @@
     <row r="857" ht="14.25" customHeight="1">
       <c r="A857" s="2"/>
       <c r="B857" s="4" t="s">
-        <v>1421</v>
+        <v>1454</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -23476,7 +23650,7 @@
     <row r="858" ht="14.25" customHeight="1">
       <c r="A858" s="2"/>
       <c r="B858" s="4" t="s">
-        <v>1422</v>
+        <v>1455</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -23495,7 +23669,7 @@
     <row r="859" ht="14.25" customHeight="1">
       <c r="A859" s="2"/>
       <c r="B859" s="4" t="s">
-        <v>1423</v>
+        <v>1456</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -23514,7 +23688,7 @@
     <row r="860" ht="14.25" customHeight="1">
       <c r="A860" s="2"/>
       <c r="B860" s="4" t="s">
-        <v>1424</v>
+        <v>1457</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -23533,7 +23707,7 @@
     <row r="861" ht="14.25" customHeight="1">
       <c r="A861" s="2"/>
       <c r="B861" s="4" t="s">
-        <v>1425</v>
+        <v>1458</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -23552,7 +23726,7 @@
     <row r="862" ht="14.25" customHeight="1">
       <c r="A862" s="2"/>
       <c r="B862" s="4" t="s">
-        <v>1426</v>
+        <v>1459</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -23571,7 +23745,7 @@
     <row r="863" ht="14.25" customHeight="1">
       <c r="A863" s="2"/>
       <c r="B863" s="4" t="s">
-        <v>1427</v>
+        <v>1460</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -23590,7 +23764,7 @@
     <row r="864" ht="14.25" customHeight="1">
       <c r="A864" s="2"/>
       <c r="B864" s="4" t="s">
-        <v>1428</v>
+        <v>1461</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -23609,7 +23783,7 @@
     <row r="865" ht="14.25" customHeight="1">
       <c r="A865" s="2"/>
       <c r="B865" s="4" t="s">
-        <v>1429</v>
+        <v>1462</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -23628,7 +23802,7 @@
     <row r="866" ht="14.25" customHeight="1">
       <c r="A866" s="2"/>
       <c r="B866" s="4" t="s">
-        <v>1430</v>
+        <v>1463</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -23647,7 +23821,7 @@
     <row r="867" ht="14.25" customHeight="1">
       <c r="A867" s="2"/>
       <c r="B867" s="4" t="s">
-        <v>1431</v>
+        <v>1464</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -23666,7 +23840,7 @@
     <row r="868" ht="14.25" customHeight="1">
       <c r="A868" s="2"/>
       <c r="B868" s="4" t="s">
-        <v>1432</v>
+        <v>1465</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -23685,7 +23859,7 @@
     <row r="869" ht="14.25" customHeight="1">
       <c r="A869" s="2"/>
       <c r="B869" s="4" t="s">
-        <v>1433</v>
+        <v>1466</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -23704,7 +23878,7 @@
     <row r="870" ht="14.25" customHeight="1">
       <c r="A870" s="2"/>
       <c r="B870" s="4" t="s">
-        <v>1434</v>
+        <v>1467</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -23723,7 +23897,7 @@
     <row r="871" ht="14.25" customHeight="1">
       <c r="A871" s="2"/>
       <c r="B871" s="4" t="s">
-        <v>1435</v>
+        <v>1468</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -23742,7 +23916,7 @@
     <row r="872" ht="14.25" customHeight="1">
       <c r="A872" s="2"/>
       <c r="B872" s="4" t="s">
-        <v>1436</v>
+        <v>1469</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -23761,7 +23935,7 @@
     <row r="873" ht="14.25" customHeight="1">
       <c r="A873" s="2"/>
       <c r="B873" s="4" t="s">
-        <v>1437</v>
+        <v>1470</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -23780,7 +23954,7 @@
     <row r="874" ht="14.25" customHeight="1">
       <c r="A874" s="2"/>
       <c r="B874" s="4" t="s">
-        <v>1438</v>
+        <v>1471</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -23799,7 +23973,7 @@
     <row r="875" ht="14.25" customHeight="1">
       <c r="A875" s="2"/>
       <c r="B875" s="4" t="s">
-        <v>1439</v>
+        <v>1472</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -23818,7 +23992,7 @@
     <row r="876" ht="14.25" customHeight="1">
       <c r="A876" s="2"/>
       <c r="B876" s="4" t="s">
-        <v>1440</v>
+        <v>1473</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -23837,7 +24011,7 @@
     <row r="877" ht="14.25" customHeight="1">
       <c r="A877" s="2"/>
       <c r="B877" s="4" t="s">
-        <v>1441</v>
+        <v>1474</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -23856,7 +24030,7 @@
     <row r="878" ht="14.25" customHeight="1">
       <c r="A878" s="2"/>
       <c r="B878" s="4" t="s">
-        <v>1442</v>
+        <v>1475</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -23875,7 +24049,7 @@
     <row r="879" ht="14.25" customHeight="1">
       <c r="A879" s="2"/>
       <c r="B879" s="4" t="s">
-        <v>1443</v>
+        <v>1476</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -23894,7 +24068,7 @@
     <row r="880" ht="14.25" customHeight="1">
       <c r="A880" s="2"/>
       <c r="B880" s="4" t="s">
-        <v>1444</v>
+        <v>1477</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -23913,7 +24087,7 @@
     <row r="881" ht="14.25" customHeight="1">
       <c r="A881" s="2"/>
       <c r="B881" s="4" t="s">
-        <v>1445</v>
+        <v>1478</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -23932,7 +24106,7 @@
     <row r="882" ht="14.25" customHeight="1">
       <c r="A882" s="2"/>
       <c r="B882" s="4" t="s">
-        <v>1446</v>
+        <v>1479</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -23951,7 +24125,7 @@
     <row r="883" ht="14.25" customHeight="1">
       <c r="A883" s="2"/>
       <c r="B883" s="4" t="s">
-        <v>1447</v>
+        <v>1480</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -23970,7 +24144,7 @@
     <row r="884" ht="14.25" customHeight="1">
       <c r="A884" s="2"/>
       <c r="B884" s="4" t="s">
-        <v>1448</v>
+        <v>1481</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -23989,7 +24163,7 @@
     <row r="885" ht="14.25" customHeight="1">
       <c r="A885" s="2"/>
       <c r="B885" s="4" t="s">
-        <v>1449</v>
+        <v>1482</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -24008,7 +24182,7 @@
     <row r="886" ht="14.25" customHeight="1">
       <c r="A886" s="2"/>
       <c r="B886" s="4" t="s">
-        <v>1450</v>
+        <v>1483</v>
       </c>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
@@ -24027,7 +24201,7 @@
     <row r="887" ht="14.25" customHeight="1">
       <c r="A887" s="2"/>
       <c r="B887" s="4" t="s">
-        <v>1451</v>
+        <v>1484</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -24046,7 +24220,7 @@
     <row r="888" ht="14.25" customHeight="1">
       <c r="A888" s="2"/>
       <c r="B888" s="4" t="s">
-        <v>1452</v>
+        <v>1485</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -24065,7 +24239,7 @@
     <row r="889" ht="14.25" customHeight="1">
       <c r="A889" s="2"/>
       <c r="B889" s="4" t="s">
-        <v>1453</v>
+        <v>1486</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -24084,7 +24258,7 @@
     <row r="890" ht="14.25" customHeight="1">
       <c r="A890" s="2"/>
       <c r="B890" s="4" t="s">
-        <v>1454</v>
+        <v>1487</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -24103,7 +24277,7 @@
     <row r="891" ht="14.25" customHeight="1">
       <c r="A891" s="2"/>
       <c r="B891" s="4" t="s">
-        <v>1455</v>
+        <v>1488</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -24122,7 +24296,7 @@
     <row r="892" ht="14.25" customHeight="1">
       <c r="A892" s="2"/>
       <c r="B892" s="9" t="s">
-        <v>1456</v>
+        <v>1489</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -24141,7 +24315,7 @@
     <row r="893" ht="14.25" customHeight="1">
       <c r="A893" s="2"/>
       <c r="B893" s="4" t="s">
-        <v>1457</v>
+        <v>1490</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -24160,7 +24334,7 @@
     <row r="894" ht="14.25" customHeight="1">
       <c r="A894" s="2"/>
       <c r="B894" s="4" t="s">
-        <v>1458</v>
+        <v>1491</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -24179,7 +24353,7 @@
     <row r="895" ht="14.25" customHeight="1">
       <c r="A895" s="2"/>
       <c r="B895" s="4" t="s">
-        <v>1459</v>
+        <v>1492</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -24198,7 +24372,7 @@
     <row r="896" ht="14.25" customHeight="1">
       <c r="A896" s="2"/>
       <c r="B896" s="4" t="s">
-        <v>1460</v>
+        <v>1493</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -24217,7 +24391,7 @@
     <row r="897" ht="14.25" customHeight="1">
       <c r="A897" s="2"/>
       <c r="B897" s="4" t="s">
-        <v>1461</v>
+        <v>1494</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -24236,7 +24410,7 @@
     <row r="898" ht="14.25" customHeight="1">
       <c r="A898" s="2"/>
       <c r="B898" s="4" t="s">
-        <v>1462</v>
+        <v>1495</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -24255,7 +24429,7 @@
     <row r="899" ht="14.25" customHeight="1">
       <c r="A899" s="2"/>
       <c r="B899" s="4" t="s">
-        <v>1463</v>
+        <v>1496</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -24274,7 +24448,7 @@
     <row r="900" ht="14.25" customHeight="1">
       <c r="A900" s="2"/>
       <c r="B900" s="4" t="s">
-        <v>1464</v>
+        <v>1497</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -24293,7 +24467,7 @@
     <row r="901" ht="14.25" customHeight="1">
       <c r="A901" s="2"/>
       <c r="B901" s="4" t="s">
-        <v>1465</v>
+        <v>1498</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -24312,7 +24486,7 @@
     <row r="902" ht="14.25" customHeight="1">
       <c r="A902" s="2"/>
       <c r="B902" s="4" t="s">
-        <v>1466</v>
+        <v>1499</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -24331,7 +24505,7 @@
     <row r="903" ht="14.25" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="4" t="s">
-        <v>1467</v>
+        <v>1500</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -24350,7 +24524,7 @@
     <row r="904" ht="14.25" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="4" t="s">
-        <v>1468</v>
+        <v>1501</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -24369,7 +24543,7 @@
     <row r="905" ht="14.25" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="4" t="s">
-        <v>1469</v>
+        <v>1502</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -24388,7 +24562,7 @@
     <row r="906" ht="14.25" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="4" t="s">
-        <v>1470</v>
+        <v>1503</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -24407,7 +24581,7 @@
     <row r="907" ht="14.25" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="4" t="s">
-        <v>1471</v>
+        <v>1504</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -24426,7 +24600,7 @@
     <row r="908" ht="14.25" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="4" t="s">
-        <v>1472</v>
+        <v>1505</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -24445,7 +24619,7 @@
     <row r="909" ht="14.25" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="4" t="s">
-        <v>1473</v>
+        <v>1506</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -24464,7 +24638,7 @@
     <row r="910" ht="14.25" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="4" t="s">
-        <v>1474</v>
+        <v>1507</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -24483,7 +24657,7 @@
     <row r="911" ht="14.25" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="4" t="s">
-        <v>1475</v>
+        <v>1508</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -24502,7 +24676,7 @@
     <row r="912" ht="14.25" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="4" t="s">
-        <v>1476</v>
+        <v>1509</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -24521,7 +24695,7 @@
     <row r="913" ht="14.25" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="4" t="s">
-        <v>1477</v>
+        <v>1510</v>
       </c>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
@@ -24540,7 +24714,7 @@
     <row r="914" ht="14.25" customHeight="1">
       <c r="A914" s="2"/>
       <c r="B914" s="8" t="s">
-        <v>1478</v>
+        <v>1511</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -24559,7 +24733,7 @@
     <row r="915" ht="14.25" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="4" t="s">
-        <v>1479</v>
+        <v>1512</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -24578,7 +24752,7 @@
     <row r="916" ht="14.25" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="4" t="s">
-        <v>1480</v>
+        <v>1513</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -24597,7 +24771,7 @@
     <row r="917" ht="14.25" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="4" t="s">
-        <v>1481</v>
+        <v>1514</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -24616,7 +24790,7 @@
     <row r="918" ht="14.25" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="4" t="s">
-        <v>1482</v>
+        <v>1515</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -24635,7 +24809,7 @@
     <row r="919" ht="14.25" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="4" t="s">
-        <v>1483</v>
+        <v>1516</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -24654,7 +24828,7 @@
     <row r="920" ht="14.25" customHeight="1">
       <c r="A920" s="2"/>
       <c r="B920" s="8" t="s">
-        <v>1484</v>
+        <v>1517</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -24673,7 +24847,7 @@
     <row r="921" ht="14.25" customHeight="1">
       <c r="A921" s="2"/>
       <c r="B921" s="8" t="s">
-        <v>1485</v>
+        <v>1518</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -24692,7 +24866,7 @@
     <row r="922" ht="14.25" customHeight="1">
       <c r="A922" s="2"/>
       <c r="B922" s="8" t="s">
-        <v>1486</v>
+        <v>1519</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -24711,7 +24885,7 @@
     <row r="923" ht="14.25" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="4" t="s">
-        <v>1487</v>
+        <v>1520</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -24730,7 +24904,7 @@
     <row r="924" ht="14.25" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="4" t="s">
-        <v>1488</v>
+        <v>1521</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -24749,7 +24923,7 @@
     <row r="925" ht="14.25" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="4" t="s">
-        <v>1489</v>
+        <v>1522</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -24768,7 +24942,7 @@
     <row r="926" ht="14.25" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="4" t="s">
-        <v>1490</v>
+        <v>1523</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -24787,7 +24961,7 @@
     <row r="927" ht="14.25" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="4" t="s">
-        <v>1491</v>
+        <v>1524</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -24806,7 +24980,7 @@
     <row r="928" ht="14.25" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="4" t="s">
-        <v>1492</v>
+        <v>1525</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -24825,7 +24999,7 @@
     <row r="929" ht="14.25" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="4" t="s">
-        <v>1493</v>
+        <v>1526</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -24844,7 +25018,7 @@
     <row r="930" ht="14.25" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="4" t="s">
-        <v>1494</v>
+        <v>1527</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -24863,7 +25037,7 @@
     <row r="931" ht="14.25" customHeight="1">
       <c r="A931" s="2"/>
       <c r="B931" s="8" t="s">
-        <v>1495</v>
+        <v>1528</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -24882,7 +25056,7 @@
     <row r="932" ht="14.25" customHeight="1">
       <c r="A932" s="2"/>
       <c r="B932" s="8" t="s">
-        <v>1496</v>
+        <v>1529</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -24901,7 +25075,7 @@
     <row r="933" ht="14.25" customHeight="1">
       <c r="A933" s="2"/>
       <c r="B933" s="8" t="s">
-        <v>1497</v>
+        <v>1530</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -24920,7 +25094,7 @@
     <row r="934" ht="14.25" customHeight="1">
       <c r="A934" s="2"/>
       <c r="B934" s="8" t="s">
-        <v>1498</v>
+        <v>1531</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -24939,7 +25113,7 @@
     <row r="935" ht="14.25" customHeight="1">
       <c r="A935" s="2"/>
       <c r="B935" s="8" t="s">
-        <v>1499</v>
+        <v>1532</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -24958,7 +25132,7 @@
     <row r="936" ht="14.25" customHeight="1">
       <c r="A936" s="2"/>
       <c r="B936" s="8" t="s">
-        <v>1500</v>
+        <v>1533</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -24977,7 +25151,7 @@
     <row r="937" ht="14.25" customHeight="1">
       <c r="A937" s="2"/>
       <c r="B937" s="8" t="s">
-        <v>1501</v>
+        <v>1534</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -24996,7 +25170,7 @@
     <row r="938" ht="14.25" customHeight="1">
       <c r="A938" s="2"/>
       <c r="B938" s="8" t="s">
-        <v>1502</v>
+        <v>1535</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -25015,7 +25189,7 @@
     <row r="939" ht="14.25" customHeight="1">
       <c r="A939" s="2"/>
       <c r="B939" s="8" t="s">
-        <v>1503</v>
+        <v>1536</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -25034,7 +25208,7 @@
     <row r="940" ht="14.25" customHeight="1">
       <c r="A940" s="2"/>
       <c r="B940" s="8" t="s">
-        <v>1504</v>
+        <v>1537</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -25053,7 +25227,7 @@
     <row r="941" ht="14.25" customHeight="1">
       <c r="A941" s="2"/>
       <c r="B941" s="8" t="s">
-        <v>1505</v>
+        <v>1538</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -25072,7 +25246,7 @@
     <row r="942" ht="14.25" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="4" t="s">
-        <v>1506</v>
+        <v>1539</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -25091,7 +25265,7 @@
     <row r="943" ht="14.25" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="4" t="s">
-        <v>1507</v>
+        <v>1540</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -25110,7 +25284,7 @@
     <row r="944" ht="14.25" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="4" t="s">
-        <v>1508</v>
+        <v>1541</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -25129,7 +25303,7 @@
     <row r="945" ht="14.25" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="4" t="s">
-        <v>1509</v>
+        <v>1542</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -25148,7 +25322,7 @@
     <row r="946" ht="14.25" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="4" t="s">
-        <v>1510</v>
+        <v>1543</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -25167,7 +25341,7 @@
     <row r="947" ht="14.25" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="4" t="s">
-        <v>1511</v>
+        <v>1544</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -25186,7 +25360,7 @@
     <row r="948" ht="14.25" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="4" t="s">
-        <v>1512</v>
+        <v>1545</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -25205,7 +25379,7 @@
     <row r="949" ht="14.25" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="4" t="s">
-        <v>1513</v>
+        <v>1546</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -25224,7 +25398,7 @@
     <row r="950" ht="14.25" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="4" t="s">
-        <v>1514</v>
+        <v>1547</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -25243,7 +25417,7 @@
     <row r="951" ht="14.25" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="4" t="s">
-        <v>1515</v>
+        <v>1548</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -25262,7 +25436,7 @@
     <row r="952" ht="14.25" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="4" t="s">
-        <v>1516</v>
+        <v>1549</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -25281,7 +25455,7 @@
     <row r="953" ht="14.25" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="4" t="s">
-        <v>1517</v>
+        <v>1550</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -25300,7 +25474,7 @@
     <row r="954" ht="14.25" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="4" t="s">
-        <v>1518</v>
+        <v>1551</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -25319,7 +25493,7 @@
     <row r="955" ht="14.25" customHeight="1">
       <c r="A955" s="2"/>
       <c r="B955" s="8" t="s">
-        <v>1519</v>
+        <v>1552</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -25338,7 +25512,7 @@
     <row r="956" ht="14.25" customHeight="1">
       <c r="A956" s="2"/>
       <c r="B956" s="8" t="s">
-        <v>1520</v>
+        <v>1553</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -25357,7 +25531,7 @@
     <row r="957" ht="14.25" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="4" t="s">
-        <v>1521</v>
+        <v>1554</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -25376,7 +25550,7 @@
     <row r="958" ht="14.25" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="4" t="s">
-        <v>1522</v>
+        <v>1555</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
@@ -25395,7 +25569,7 @@
     <row r="959" ht="14.25" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="4" t="s">
-        <v>1523</v>
+        <v>1556</v>
       </c>
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
@@ -25414,7 +25588,7 @@
     <row r="960" ht="14.25" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="4" t="s">
-        <v>1524</v>
+        <v>1557</v>
       </c>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
@@ -25433,7 +25607,7 @@
     <row r="961" ht="14.25" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="4" t="s">
-        <v>1525</v>
+        <v>1558</v>
       </c>
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
@@ -25452,7 +25626,7 @@
     <row r="962" ht="14.25" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="4" t="s">
-        <v>1526</v>
+        <v>1559</v>
       </c>
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
@@ -25471,7 +25645,7 @@
     <row r="963" ht="14.25" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="4" t="s">
-        <v>1527</v>
+        <v>1560</v>
       </c>
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
@@ -25490,7 +25664,7 @@
     <row r="964" ht="14.25" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="4" t="s">
-        <v>1528</v>
+        <v>1561</v>
       </c>
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
@@ -25509,7 +25683,7 @@
     <row r="965" ht="14.25" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="4" t="s">
-        <v>1529</v>
+        <v>1562</v>
       </c>
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
@@ -25528,7 +25702,7 @@
     <row r="966" ht="14.25" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="4" t="s">
-        <v>1530</v>
+        <v>1563</v>
       </c>
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
@@ -25547,7 +25721,7 @@
     <row r="967" ht="14.25" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="4" t="s">
-        <v>1531</v>
+        <v>1564</v>
       </c>
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
@@ -25566,7 +25740,7 @@
     <row r="968" ht="14.25" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="4" t="s">
-        <v>1532</v>
+        <v>1565</v>
       </c>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
@@ -25585,7 +25759,7 @@
     <row r="969" ht="14.25" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="4" t="s">
-        <v>1533</v>
+        <v>1566</v>
       </c>
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
@@ -25604,7 +25778,7 @@
     <row r="970" ht="14.25" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="4" t="s">
-        <v>1534</v>
+        <v>1567</v>
       </c>
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
@@ -25623,7 +25797,7 @@
     <row r="971" ht="14.25" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="4" t="s">
-        <v>1535</v>
+        <v>1568</v>
       </c>
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
@@ -25642,7 +25816,7 @@
     <row r="972" ht="14.25" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="4" t="s">
-        <v>1536</v>
+        <v>1569</v>
       </c>
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
@@ -25661,7 +25835,7 @@
     <row r="973" ht="14.25" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="4" t="s">
-        <v>1537</v>
+        <v>1570</v>
       </c>
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
@@ -25680,7 +25854,7 @@
     <row r="974" ht="14.25" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="4" t="s">
-        <v>1538</v>
+        <v>1571</v>
       </c>
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
@@ -25699,7 +25873,7 @@
     <row r="975" ht="14.25" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="4" t="s">
-        <v>1539</v>
+        <v>1572</v>
       </c>
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
@@ -25718,7 +25892,7 @@
     <row r="976" ht="14.25" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="4" t="s">
-        <v>1540</v>
+        <v>1573</v>
       </c>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
@@ -25737,7 +25911,7 @@
     <row r="977" ht="14.25" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="4" t="s">
-        <v>1541</v>
+        <v>1574</v>
       </c>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
@@ -25756,7 +25930,7 @@
     <row r="978" ht="14.25" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="4" t="s">
-        <v>1542</v>
+        <v>1575</v>
       </c>
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
@@ -25775,7 +25949,7 @@
     <row r="979" ht="14.25" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="4" t="s">
-        <v>1543</v>
+        <v>1576</v>
       </c>
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
@@ -25794,7 +25968,7 @@
     <row r="980" ht="14.25" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="4" t="s">
-        <v>1544</v>
+        <v>1577</v>
       </c>
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
@@ -25813,7 +25987,7 @@
     <row r="981" ht="14.25" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="4" t="s">
-        <v>1545</v>
+        <v>1578</v>
       </c>
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
@@ -25832,7 +26006,7 @@
     <row r="982" ht="14.25" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="4" t="s">
-        <v>1546</v>
+        <v>1579</v>
       </c>
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
@@ -25851,7 +26025,7 @@
     <row r="983" ht="14.25" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="4" t="s">
-        <v>1547</v>
+        <v>1580</v>
       </c>
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
@@ -25870,7 +26044,7 @@
     <row r="984" ht="14.25" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="4" t="s">
-        <v>1548</v>
+        <v>1581</v>
       </c>
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
@@ -25889,7 +26063,7 @@
     <row r="985" ht="14.25" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="4" t="s">
-        <v>1549</v>
+        <v>1582</v>
       </c>
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
@@ -25908,7 +26082,7 @@
     <row r="986" ht="14.25" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="4" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
@@ -25927,7 +26101,7 @@
     <row r="987" ht="14.25" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="4" t="s">
-        <v>1551</v>
+        <v>1584</v>
       </c>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
@@ -25946,7 +26120,7 @@
     <row r="988" ht="14.25" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="4" t="s">
-        <v>1552</v>
+        <v>1585</v>
       </c>
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
@@ -25965,7 +26139,7 @@
     <row r="989" ht="14.25" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="4" t="s">
-        <v>1553</v>
+        <v>1586</v>
       </c>
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
@@ -25984,7 +26158,7 @@
     <row r="990" ht="14.25" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="4" t="s">
-        <v>1554</v>
+        <v>1587</v>
       </c>
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
@@ -26003,7 +26177,7 @@
     <row r="991" ht="14.25" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="4" t="s">
-        <v>1555</v>
+        <v>1588</v>
       </c>
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
@@ -26022,7 +26196,7 @@
     <row r="992" ht="14.25" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="4" t="s">
-        <v>1556</v>
+        <v>1589</v>
       </c>
       <c r="C992" s="2"/>
       <c r="D992" s="2"/>
@@ -26041,7 +26215,7 @@
     <row r="993" ht="14.25" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="4" t="s">
-        <v>1557</v>
+        <v>1590</v>
       </c>
       <c r="C993" s="2"/>
       <c r="D993" s="2"/>
@@ -26060,7 +26234,7 @@
     <row r="994" ht="14.25" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="4" t="s">
-        <v>1558</v>
+        <v>1591</v>
       </c>
       <c r="C994" s="2"/>
       <c r="D994" s="2"/>
@@ -26079,7 +26253,7 @@
     <row r="995" ht="14.25" customHeight="1">
       <c r="A995" s="2"/>
       <c r="B995" s="4" t="s">
-        <v>1559</v>
+        <v>1592</v>
       </c>
       <c r="C995" s="2"/>
       <c r="D995" s="2"/>
@@ -26098,7 +26272,7 @@
     <row r="996" ht="14.25" customHeight="1">
       <c r="A996" s="2"/>
       <c r="B996" s="4" t="s">
-        <v>1560</v>
+        <v>1593</v>
       </c>
       <c r="C996" s="2"/>
       <c r="D996" s="2"/>
@@ -26117,7 +26291,7 @@
     <row r="997" ht="14.25" customHeight="1">
       <c r="A997" s="2"/>
       <c r="B997" s="4" t="s">
-        <v>1561</v>
+        <v>1594</v>
       </c>
       <c r="C997" s="2"/>
       <c r="D997" s="2"/>
@@ -26136,7 +26310,7 @@
     <row r="998" ht="14.25" customHeight="1">
       <c r="A998" s="2"/>
       <c r="B998" s="4" t="s">
-        <v>1562</v>
+        <v>1595</v>
       </c>
       <c r="C998" s="2"/>
       <c r="D998" s="2"/>
@@ -26155,7 +26329,7 @@
     <row r="999" ht="14.25" customHeight="1">
       <c r="A999" s="2"/>
       <c r="B999" s="4" t="s">
-        <v>1563</v>
+        <v>1596</v>
       </c>
       <c r="C999" s="2"/>
       <c r="D999" s="2"/>
@@ -26174,7 +26348,7 @@
     <row r="1000" ht="14.25" customHeight="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="4" t="s">
-        <v>1564</v>
+        <v>1597</v>
       </c>
       <c r="C1000" s="2"/>
       <c r="D1000" s="2"/>
@@ -26193,7 +26367,7 @@
     <row r="1001" ht="14.25" customHeight="1">
       <c r="A1001" s="2"/>
       <c r="B1001" s="4" t="s">
-        <v>1565</v>
+        <v>1598</v>
       </c>
       <c r="C1001" s="2"/>
       <c r="D1001" s="2"/>
@@ -26212,7 +26386,7 @@
     <row r="1002" ht="14.25" customHeight="1">
       <c r="A1002" s="2"/>
       <c r="B1002" s="4" t="s">
-        <v>1566</v>
+        <v>1599</v>
       </c>
       <c r="C1002" s="2"/>
       <c r="D1002" s="2"/>
@@ -26231,7 +26405,7 @@
     <row r="1003" ht="14.25" customHeight="1">
       <c r="A1003" s="2"/>
       <c r="B1003" s="4" t="s">
-        <v>1567</v>
+        <v>1600</v>
       </c>
       <c r="C1003" s="2"/>
       <c r="D1003" s="2"/>
@@ -26250,7 +26424,7 @@
     <row r="1004" ht="14.25" customHeight="1">
       <c r="A1004" s="2"/>
       <c r="B1004" s="4" t="s">
-        <v>1568</v>
+        <v>1601</v>
       </c>
       <c r="C1004" s="2"/>
       <c r="D1004" s="2"/>
@@ -26269,7 +26443,7 @@
     <row r="1005" ht="14.25" customHeight="1">
       <c r="A1005" s="2"/>
       <c r="B1005" s="4" t="s">
-        <v>1569</v>
+        <v>1602</v>
       </c>
       <c r="C1005" s="2"/>
       <c r="D1005" s="2"/>
@@ -26288,7 +26462,7 @@
     <row r="1006" ht="14.25" customHeight="1">
       <c r="A1006" s="2"/>
       <c r="B1006" s="4" t="s">
-        <v>1570</v>
+        <v>1603</v>
       </c>
       <c r="C1006" s="2"/>
       <c r="D1006" s="2"/>
@@ -26307,7 +26481,7 @@
     <row r="1007" ht="14.25" customHeight="1">
       <c r="A1007" s="2"/>
       <c r="B1007" s="4" t="s">
-        <v>1571</v>
+        <v>1604</v>
       </c>
       <c r="C1007" s="2"/>
       <c r="D1007" s="2"/>
@@ -26326,7 +26500,7 @@
     <row r="1008" ht="14.25" customHeight="1">
       <c r="A1008" s="2"/>
       <c r="B1008" s="4" t="s">
-        <v>1572</v>
+        <v>1605</v>
       </c>
       <c r="C1008" s="2"/>
       <c r="D1008" s="2"/>
@@ -26345,7 +26519,7 @@
     <row r="1009" ht="14.25" customHeight="1">
       <c r="A1009" s="2"/>
       <c r="B1009" s="4" t="s">
-        <v>1573</v>
+        <v>1606</v>
       </c>
       <c r="C1009" s="2"/>
       <c r="D1009" s="2"/>
@@ -26364,7 +26538,7 @@
     <row r="1010" ht="14.25" customHeight="1">
       <c r="A1010" s="2"/>
       <c r="B1010" s="4" t="s">
-        <v>1574</v>
+        <v>1607</v>
       </c>
       <c r="C1010" s="2"/>
       <c r="D1010" s="2"/>
@@ -26383,7 +26557,7 @@
     <row r="1011" ht="14.25" customHeight="1">
       <c r="A1011" s="2"/>
       <c r="B1011" s="4" t="s">
-        <v>1575</v>
+        <v>1608</v>
       </c>
       <c r="C1011" s="2"/>
       <c r="D1011" s="2"/>
@@ -26402,7 +26576,7 @@
     <row r="1012" ht="14.25" customHeight="1">
       <c r="A1012" s="2"/>
       <c r="B1012" s="4" t="s">
-        <v>1576</v>
+        <v>1609</v>
       </c>
       <c r="C1012" s="2"/>
       <c r="D1012" s="2"/>
@@ -26421,7 +26595,7 @@
     <row r="1013" ht="14.25" customHeight="1">
       <c r="A1013" s="2"/>
       <c r="B1013" s="4" t="s">
-        <v>1577</v>
+        <v>1610</v>
       </c>
       <c r="C1013" s="2"/>
       <c r="D1013" s="2"/>
@@ -26440,7 +26614,7 @@
     <row r="1014" ht="14.25" customHeight="1">
       <c r="A1014" s="2"/>
       <c r="B1014" s="4" t="s">
-        <v>1578</v>
+        <v>1611</v>
       </c>
       <c r="C1014" s="2"/>
       <c r="D1014" s="2"/>
@@ -26459,7 +26633,7 @@
     <row r="1015" ht="14.25" customHeight="1">
       <c r="A1015" s="2"/>
       <c r="B1015" s="4" t="s">
-        <v>1579</v>
+        <v>1612</v>
       </c>
       <c r="C1015" s="2"/>
       <c r="D1015" s="2"/>
@@ -26478,7 +26652,7 @@
     <row r="1016" ht="14.25" customHeight="1">
       <c r="A1016" s="2"/>
       <c r="B1016" s="4" t="s">
-        <v>1580</v>
+        <v>1613</v>
       </c>
       <c r="C1016" s="2"/>
       <c r="D1016" s="2"/>
@@ -26497,7 +26671,7 @@
     <row r="1017" ht="14.25" customHeight="1">
       <c r="A1017" s="2"/>
       <c r="B1017" s="4" t="s">
-        <v>1581</v>
+        <v>1614</v>
       </c>
       <c r="C1017" s="2"/>
       <c r="D1017" s="2"/>
@@ -26516,7 +26690,7 @@
     <row r="1018" ht="14.25" customHeight="1">
       <c r="A1018" s="2"/>
       <c r="B1018" s="4" t="s">
-        <v>1582</v>
+        <v>1615</v>
       </c>
       <c r="C1018" s="2"/>
       <c r="D1018" s="2"/>
@@ -26535,7 +26709,7 @@
     <row r="1019" ht="14.25" customHeight="1">
       <c r="A1019" s="2"/>
       <c r="B1019" s="4" t="s">
-        <v>1583</v>
+        <v>1616</v>
       </c>
       <c r="C1019" s="2"/>
       <c r="D1019" s="2"/>
@@ -26554,7 +26728,7 @@
     <row r="1020" ht="14.25" customHeight="1">
       <c r="A1020" s="2"/>
       <c r="B1020" s="4" t="s">
-        <v>1584</v>
+        <v>1617</v>
       </c>
       <c r="C1020" s="2"/>
       <c r="D1020" s="2"/>
@@ -26573,7 +26747,7 @@
     <row r="1021" ht="14.25" customHeight="1">
       <c r="A1021" s="2"/>
       <c r="B1021" s="4" t="s">
-        <v>1585</v>
+        <v>1618</v>
       </c>
       <c r="C1021" s="2"/>
       <c r="D1021" s="2"/>
@@ -26592,7 +26766,7 @@
     <row r="1022" ht="14.25" customHeight="1">
       <c r="A1022" s="2"/>
       <c r="B1022" s="4" t="s">
-        <v>1586</v>
+        <v>1619</v>
       </c>
       <c r="C1022" s="2"/>
       <c r="D1022" s="2"/>
@@ -26611,7 +26785,7 @@
     <row r="1023" ht="14.25" customHeight="1">
       <c r="A1023" s="2"/>
       <c r="B1023" s="4" t="s">
-        <v>1587</v>
+        <v>1620</v>
       </c>
       <c r="C1023" s="2"/>
       <c r="D1023" s="2"/>
@@ -26630,7 +26804,7 @@
     <row r="1024" ht="14.25" customHeight="1">
       <c r="A1024" s="2"/>
       <c r="B1024" s="4" t="s">
-        <v>1588</v>
+        <v>1621</v>
       </c>
       <c r="C1024" s="2"/>
       <c r="D1024" s="2"/>
@@ -26649,7 +26823,7 @@
     <row r="1025" ht="14.25" customHeight="1">
       <c r="A1025" s="2"/>
       <c r="B1025" s="4" t="s">
-        <v>1589</v>
+        <v>1622</v>
       </c>
       <c r="C1025" s="2"/>
       <c r="D1025" s="2"/>
@@ -26668,7 +26842,7 @@
     <row r="1026" ht="14.25" customHeight="1">
       <c r="A1026" s="2"/>
       <c r="B1026" s="4" t="s">
-        <v>1590</v>
+        <v>1623</v>
       </c>
       <c r="C1026" s="2"/>
       <c r="D1026" s="2"/>
@@ -26686,7 +26860,7 @@
     </row>
     <row r="1027" ht="14.25" customHeight="1">
       <c r="B1027" s="4" t="s">
-        <v>1591</v>
+        <v>1624</v>
       </c>
       <c r="C1027" s="2"/>
       <c r="D1027" s="2"/>
@@ -26704,7 +26878,7 @@
     </row>
     <row r="1028" ht="14.25" customHeight="1">
       <c r="B1028" s="4" t="s">
-        <v>1592</v>
+        <v>1625</v>
       </c>
       <c r="C1028" s="2"/>
       <c r="D1028" s="2"/>
@@ -26722,7 +26896,7 @@
     </row>
     <row r="1029" ht="14.25" customHeight="1">
       <c r="B1029" s="4" t="s">
-        <v>1593</v>
+        <v>1626</v>
       </c>
       <c r="C1029" s="2"/>
       <c r="D1029" s="2"/>
@@ -26740,7 +26914,7 @@
     </row>
     <row r="1030" ht="14.25" customHeight="1">
       <c r="B1030" s="4" t="s">
-        <v>1594</v>
+        <v>1627</v>
       </c>
       <c r="C1030" s="2"/>
       <c r="D1030" s="2"/>
@@ -26758,7 +26932,7 @@
     </row>
     <row r="1031" ht="14.25" customHeight="1">
       <c r="B1031" s="4" t="s">
-        <v>1595</v>
+        <v>1628</v>
       </c>
       <c r="C1031" s="2"/>
       <c r="D1031" s="2"/>
@@ -26776,7 +26950,7 @@
     </row>
     <row r="1032" ht="14.25" customHeight="1">
       <c r="B1032" s="4" t="s">
-        <v>1596</v>
+        <v>1629</v>
       </c>
       <c r="C1032" s="2"/>
       <c r="D1032" s="2"/>
@@ -26794,7 +26968,7 @@
     </row>
     <row r="1033" ht="14.25" customHeight="1">
       <c r="B1033" s="4" t="s">
-        <v>1597</v>
+        <v>1630</v>
       </c>
       <c r="C1033" s="2"/>
       <c r="D1033" s="2"/>
@@ -26812,7 +26986,7 @@
     </row>
     <row r="1034" ht="14.25" customHeight="1">
       <c r="B1034" s="4" t="s">
-        <v>1598</v>
+        <v>1631</v>
       </c>
       <c r="C1034" s="2"/>
       <c r="D1034" s="2"/>
@@ -26830,7 +27004,7 @@
     </row>
     <row r="1035" ht="14.25" customHeight="1">
       <c r="B1035" s="4" t="s">
-        <v>1599</v>
+        <v>1632</v>
       </c>
       <c r="C1035" s="2"/>
       <c r="D1035" s="2"/>
@@ -26848,7 +27022,7 @@
     </row>
     <row r="1036" ht="14.25" customHeight="1">
       <c r="B1036" s="4" t="s">
-        <v>1600</v>
+        <v>1633</v>
       </c>
       <c r="C1036" s="2"/>
       <c r="D1036" s="2"/>
@@ -26866,7 +27040,7 @@
     </row>
     <row r="1037" ht="14.25" customHeight="1">
       <c r="B1037" s="4" t="s">
-        <v>1601</v>
+        <v>1634</v>
       </c>
       <c r="C1037" s="2"/>
       <c r="D1037" s="2"/>
@@ -26884,7 +27058,7 @@
     </row>
     <row r="1038" ht="14.25" customHeight="1">
       <c r="B1038" s="4" t="s">
-        <v>1602</v>
+        <v>1635</v>
       </c>
       <c r="C1038" s="2"/>
       <c r="D1038" s="2"/>
@@ -26902,7 +27076,7 @@
     </row>
     <row r="1039" ht="14.25" customHeight="1">
       <c r="B1039" s="4" t="s">
-        <v>1603</v>
+        <v>1636</v>
       </c>
       <c r="C1039" s="2"/>
       <c r="D1039" s="2"/>
@@ -26921,7 +27095,7 @@
     <row r="1040" ht="14.25" customHeight="1">
       <c r="A1040" s="2"/>
       <c r="B1040" s="4" t="s">
-        <v>1604</v>
+        <v>1637</v>
       </c>
       <c r="C1040" s="2"/>
       <c r="D1040" s="2"/>
@@ -26940,7 +27114,7 @@
     <row r="1041" ht="14.25" customHeight="1">
       <c r="A1041" s="2"/>
       <c r="B1041" s="4" t="s">
-        <v>1605</v>
+        <v>1638</v>
       </c>
       <c r="C1041" s="2"/>
       <c r="D1041" s="2"/>
@@ -26959,7 +27133,7 @@
     <row r="1042" ht="14.25" customHeight="1">
       <c r="A1042" s="2"/>
       <c r="B1042" s="4" t="s">
-        <v>1606</v>
+        <v>1639</v>
       </c>
       <c r="C1042" s="2"/>
       <c r="D1042" s="2"/>
@@ -26978,7 +27152,7 @@
     <row r="1043" ht="14.25" customHeight="1">
       <c r="A1043" s="2"/>
       <c r="B1043" s="4" t="s">
-        <v>1607</v>
+        <v>1640</v>
       </c>
       <c r="C1043" s="2"/>
       <c r="D1043" s="2"/>
@@ -26997,7 +27171,7 @@
     <row r="1044" ht="14.25" customHeight="1">
       <c r="A1044" s="2"/>
       <c r="B1044" s="8" t="s">
-        <v>1608</v>
+        <v>1641</v>
       </c>
       <c r="C1044" s="2"/>
       <c r="D1044" s="2"/>
@@ -27016,7 +27190,7 @@
     <row r="1045" ht="14.25" customHeight="1">
       <c r="A1045" s="2"/>
       <c r="B1045" s="4" t="s">
-        <v>1609</v>
+        <v>1642</v>
       </c>
       <c r="C1045" s="2"/>
       <c r="D1045" s="2"/>
@@ -27035,7 +27209,7 @@
     <row r="1046" ht="14.25" customHeight="1">
       <c r="A1046" s="2"/>
       <c r="B1046" s="4" t="s">
-        <v>1610</v>
+        <v>1643</v>
       </c>
       <c r="C1046" s="2"/>
       <c r="D1046" s="2"/>
@@ -27054,7 +27228,7 @@
     <row r="1047" ht="14.25" customHeight="1">
       <c r="A1047" s="2"/>
       <c r="B1047" s="4" t="s">
-        <v>1611</v>
+        <v>1644</v>
       </c>
       <c r="C1047" s="2"/>
       <c r="D1047" s="2"/>
@@ -27073,7 +27247,7 @@
     <row r="1048" ht="14.25" customHeight="1">
       <c r="A1048" s="2"/>
       <c r="B1048" s="4" t="s">
-        <v>1612</v>
+        <v>1645</v>
       </c>
       <c r="C1048" s="2"/>
       <c r="D1048" s="2"/>
@@ -27092,7 +27266,7 @@
     <row r="1049" ht="14.25" customHeight="1">
       <c r="A1049" s="2"/>
       <c r="B1049" s="4" t="s">
-        <v>1613</v>
+        <v>1646</v>
       </c>
       <c r="C1049" s="2"/>
       <c r="D1049" s="2"/>
@@ -27111,7 +27285,7 @@
     <row r="1050" ht="14.25" customHeight="1">
       <c r="A1050" s="2"/>
       <c r="B1050" s="4" t="s">
-        <v>1614</v>
+        <v>1647</v>
       </c>
       <c r="C1050" s="2"/>
       <c r="D1050" s="2"/>
@@ -27130,7 +27304,7 @@
     <row r="1051" ht="14.25" customHeight="1">
       <c r="A1051" s="2"/>
       <c r="B1051" s="4" t="s">
-        <v>1615</v>
+        <v>1648</v>
       </c>
       <c r="C1051" s="2"/>
       <c r="D1051" s="2"/>
@@ -27149,7 +27323,7 @@
     <row r="1052" ht="14.25" customHeight="1">
       <c r="A1052" s="2"/>
       <c r="B1052" s="4" t="s">
-        <v>1616</v>
+        <v>1649</v>
       </c>
       <c r="C1052" s="2"/>
       <c r="D1052" s="2"/>
@@ -27168,7 +27342,7 @@
     <row r="1053" ht="14.25" customHeight="1">
       <c r="A1053" s="2"/>
       <c r="B1053" s="4" t="s">
-        <v>1617</v>
+        <v>1650</v>
       </c>
       <c r="C1053" s="2"/>
       <c r="D1053" s="2"/>
@@ -27187,7 +27361,7 @@
     <row r="1054" ht="14.25" customHeight="1">
       <c r="A1054" s="2"/>
       <c r="B1054" s="4" t="s">
-        <v>1618</v>
+        <v>1651</v>
       </c>
       <c r="C1054" s="2"/>
       <c r="D1054" s="2"/>
@@ -27206,7 +27380,7 @@
     <row r="1055" ht="14.25" customHeight="1">
       <c r="A1055" s="2"/>
       <c r="B1055" s="4" t="s">
-        <v>1619</v>
+        <v>1652</v>
       </c>
       <c r="C1055" s="2"/>
       <c r="D1055" s="2"/>
@@ -27225,7 +27399,7 @@
     <row r="1056" ht="14.25" customHeight="1">
       <c r="A1056" s="2"/>
       <c r="B1056" s="4" t="s">
-        <v>1620</v>
+        <v>1653</v>
       </c>
       <c r="C1056" s="2"/>
       <c r="D1056" s="2"/>
@@ -27244,7 +27418,7 @@
     <row r="1057" ht="14.25" customHeight="1">
       <c r="A1057" s="2"/>
       <c r="B1057" s="4" t="s">
-        <v>1621</v>
+        <v>1654</v>
       </c>
       <c r="C1057" s="2"/>
       <c r="D1057" s="2"/>
@@ -27263,7 +27437,7 @@
     <row r="1058" ht="14.25" customHeight="1">
       <c r="A1058" s="2"/>
       <c r="B1058" s="4" t="s">
-        <v>1622</v>
+        <v>1655</v>
       </c>
       <c r="C1058" s="2"/>
       <c r="D1058" s="2"/>
@@ -27282,7 +27456,7 @@
     <row r="1059" ht="14.25" customHeight="1">
       <c r="A1059" s="2"/>
       <c r="B1059" s="4" t="s">
-        <v>1623</v>
+        <v>1656</v>
       </c>
       <c r="C1059" s="2"/>
       <c r="D1059" s="2"/>
@@ -27301,7 +27475,7 @@
     <row r="1060" ht="14.25" customHeight="1">
       <c r="A1060" s="2"/>
       <c r="B1060" s="4" t="s">
-        <v>1624</v>
+        <v>1657</v>
       </c>
       <c r="C1060" s="2"/>
       <c r="D1060" s="2"/>
@@ -27320,7 +27494,7 @@
     <row r="1061" ht="14.25" customHeight="1">
       <c r="A1061" s="2"/>
       <c r="B1061" s="4" t="s">
-        <v>1625</v>
+        <v>1658</v>
       </c>
       <c r="C1061" s="2"/>
       <c r="D1061" s="2"/>
@@ -27339,7 +27513,7 @@
     <row r="1062" ht="14.25" customHeight="1">
       <c r="A1062" s="2"/>
       <c r="B1062" s="4" t="s">
-        <v>1626</v>
+        <v>1659</v>
       </c>
       <c r="C1062" s="2"/>
       <c r="D1062" s="2"/>
@@ -27358,7 +27532,7 @@
     <row r="1063" ht="14.25" customHeight="1">
       <c r="A1063" s="2"/>
       <c r="B1063" s="4" t="s">
-        <v>1627</v>
+        <v>1660</v>
       </c>
       <c r="C1063" s="2"/>
       <c r="D1063" s="2"/>
@@ -27377,7 +27551,7 @@
     <row r="1064" ht="14.25" customHeight="1">
       <c r="A1064" s="2"/>
       <c r="B1064" s="4" t="s">
-        <v>1628</v>
+        <v>1661</v>
       </c>
       <c r="C1064" s="2"/>
       <c r="D1064" s="2"/>
@@ -27396,7 +27570,7 @@
     <row r="1065" ht="14.25" customHeight="1">
       <c r="A1065" s="2"/>
       <c r="B1065" s="4" t="s">
-        <v>1629</v>
+        <v>1662</v>
       </c>
       <c r="C1065" s="2"/>
       <c r="D1065" s="2"/>
@@ -27415,7 +27589,7 @@
     <row r="1066" ht="14.25" customHeight="1">
       <c r="A1066" s="2"/>
       <c r="B1066" s="4" t="s">
-        <v>1630</v>
+        <v>1663</v>
       </c>
       <c r="C1066" s="2"/>
       <c r="D1066" s="2"/>
@@ -27434,7 +27608,7 @@
     <row r="1067" ht="14.25" customHeight="1">
       <c r="A1067" s="2"/>
       <c r="B1067" s="4" t="s">
-        <v>1631</v>
+        <v>1664</v>
       </c>
       <c r="C1067" s="2"/>
       <c r="D1067" s="2"/>
@@ -27453,7 +27627,7 @@
     <row r="1068" ht="14.25" customHeight="1">
       <c r="A1068" s="2"/>
       <c r="B1068" s="4" t="s">
-        <v>1632</v>
+        <v>1665</v>
       </c>
       <c r="C1068" s="2"/>
       <c r="D1068" s="2"/>
@@ -27472,7 +27646,7 @@
     <row r="1069" ht="14.25" customHeight="1">
       <c r="A1069" s="2"/>
       <c r="B1069" s="8" t="s">
-        <v>1633</v>
+        <v>1666</v>
       </c>
       <c r="C1069" s="2"/>
       <c r="D1069" s="2"/>
@@ -27491,7 +27665,7 @@
     <row r="1070" ht="14.25" customHeight="1">
       <c r="A1070" s="2"/>
       <c r="B1070" s="4" t="s">
-        <v>1634</v>
+        <v>1667</v>
       </c>
       <c r="C1070" s="2"/>
       <c r="D1070" s="2"/>
@@ -27510,7 +27684,7 @@
     <row r="1071" ht="14.25" customHeight="1">
       <c r="A1071" s="2"/>
       <c r="B1071" s="4" t="s">
-        <v>1635</v>
+        <v>1668</v>
       </c>
       <c r="C1071" s="2"/>
       <c r="D1071" s="2"/>
@@ -27529,7 +27703,7 @@
     <row r="1072" ht="14.25" customHeight="1">
       <c r="A1072" s="2"/>
       <c r="B1072" s="4" t="s">
-        <v>1636</v>
+        <v>1669</v>
       </c>
       <c r="C1072" s="2"/>
       <c r="D1072" s="2"/>
@@ -27548,7 +27722,7 @@
     <row r="1073" ht="14.25" customHeight="1">
       <c r="A1073" s="2"/>
       <c r="B1073" s="4" t="s">
-        <v>1637</v>
+        <v>1670</v>
       </c>
       <c r="C1073" s="2"/>
       <c r="D1073" s="2"/>
@@ -27567,7 +27741,7 @@
     <row r="1074" ht="14.25" customHeight="1">
       <c r="A1074" s="2"/>
       <c r="B1074" s="4" t="s">
-        <v>1638</v>
+        <v>1671</v>
       </c>
       <c r="C1074" s="2"/>
       <c r="D1074" s="2"/>
@@ -27586,7 +27760,7 @@
     <row r="1075" ht="14.25" customHeight="1">
       <c r="A1075" s="2"/>
       <c r="B1075" s="4" t="s">
-        <v>1639</v>
+        <v>1672</v>
       </c>
       <c r="C1075" s="2"/>
       <c r="D1075" s="2"/>
@@ -27605,7 +27779,7 @@
     <row r="1076" ht="14.25" customHeight="1">
       <c r="A1076" s="2"/>
       <c r="B1076" s="4" t="s">
-        <v>1640</v>
+        <v>1673</v>
       </c>
       <c r="C1076" s="2"/>
       <c r="D1076" s="2"/>
@@ -27624,7 +27798,7 @@
     <row r="1077" ht="14.25" customHeight="1">
       <c r="A1077" s="2"/>
       <c r="B1077" s="4" t="s">
-        <v>1641</v>
+        <v>1674</v>
       </c>
       <c r="C1077" s="2"/>
       <c r="D1077" s="2"/>
@@ -27643,7 +27817,7 @@
     <row r="1078" ht="14.25" customHeight="1">
       <c r="A1078" s="2"/>
       <c r="B1078" s="4" t="s">
-        <v>1642</v>
+        <v>1675</v>
       </c>
       <c r="C1078" s="2"/>
       <c r="D1078" s="2"/>
@@ -27662,7 +27836,7 @@
     <row r="1079" ht="14.25" customHeight="1">
       <c r="A1079" s="2"/>
       <c r="B1079" s="4" t="s">
-        <v>1643</v>
+        <v>1676</v>
       </c>
       <c r="C1079" s="2"/>
       <c r="D1079" s="2"/>
@@ -27681,7 +27855,7 @@
     <row r="1080" ht="14.25" customHeight="1">
       <c r="A1080" s="2"/>
       <c r="B1080" s="4" t="s">
-        <v>1644</v>
+        <v>1677</v>
       </c>
       <c r="C1080" s="2"/>
       <c r="D1080" s="2"/>
@@ -27700,7 +27874,7 @@
     <row r="1081" ht="14.25" customHeight="1">
       <c r="A1081" s="2"/>
       <c r="B1081" s="4" t="s">
-        <v>1645</v>
+        <v>1678</v>
       </c>
       <c r="C1081" s="2"/>
       <c r="D1081" s="2"/>
@@ -27719,7 +27893,7 @@
     <row r="1082" ht="14.25" customHeight="1">
       <c r="A1082" s="2"/>
       <c r="B1082" s="4" t="s">
-        <v>1646</v>
+        <v>1679</v>
       </c>
       <c r="C1082" s="2"/>
       <c r="D1082" s="2"/>
@@ -27738,7 +27912,7 @@
     <row r="1083" ht="14.25" customHeight="1">
       <c r="A1083" s="2"/>
       <c r="B1083" s="4" t="s">
-        <v>1647</v>
+        <v>1680</v>
       </c>
       <c r="C1083" s="2"/>
       <c r="D1083" s="2"/>
@@ -27757,7 +27931,7 @@
     <row r="1084" ht="14.25" customHeight="1">
       <c r="A1084" s="2"/>
       <c r="B1084" s="4" t="s">
-        <v>1648</v>
+        <v>1681</v>
       </c>
       <c r="C1084" s="2"/>
       <c r="D1084" s="2"/>
@@ -27776,7 +27950,7 @@
     <row r="1085" ht="14.25" customHeight="1">
       <c r="A1085" s="2"/>
       <c r="B1085" s="4" t="s">
-        <v>1649</v>
+        <v>1682</v>
       </c>
       <c r="C1085" s="2"/>
       <c r="D1085" s="2"/>
@@ -27795,7 +27969,7 @@
     <row r="1086" ht="14.25" customHeight="1">
       <c r="A1086" s="2"/>
       <c r="B1086" s="4" t="s">
-        <v>1650</v>
+        <v>1683</v>
       </c>
       <c r="C1086" s="2"/>
       <c r="D1086" s="2"/>
@@ -27814,7 +27988,7 @@
     <row r="1087" ht="14.25" customHeight="1">
       <c r="A1087" s="2"/>
       <c r="B1087" s="4" t="s">
-        <v>1651</v>
+        <v>1684</v>
       </c>
       <c r="C1087" s="2"/>
       <c r="D1087" s="2"/>
@@ -27833,7 +28007,7 @@
     <row r="1088" ht="14.25" customHeight="1">
       <c r="A1088" s="2"/>
       <c r="B1088" s="4" t="s">
-        <v>1652</v>
+        <v>1685</v>
       </c>
       <c r="C1088" s="2"/>
       <c r="D1088" s="2"/>
@@ -27852,7 +28026,7 @@
     <row r="1089" ht="14.25" customHeight="1">
       <c r="A1089" s="2"/>
       <c r="B1089" s="4" t="s">
-        <v>1653</v>
+        <v>1686</v>
       </c>
       <c r="C1089" s="2"/>
       <c r="D1089" s="2"/>
@@ -27871,7 +28045,7 @@
     <row r="1090" ht="14.25" customHeight="1">
       <c r="A1090" s="2"/>
       <c r="B1090" s="4" t="s">
-        <v>1654</v>
+        <v>1687</v>
       </c>
       <c r="C1090" s="2"/>
       <c r="D1090" s="2"/>
@@ -27890,7 +28064,7 @@
     <row r="1091" ht="14.25" customHeight="1">
       <c r="A1091" s="2"/>
       <c r="B1091" s="4" t="s">
-        <v>1655</v>
+        <v>1688</v>
       </c>
       <c r="C1091" s="2"/>
       <c r="D1091" s="2"/>
@@ -27909,7 +28083,7 @@
     <row r="1092" ht="14.25" customHeight="1">
       <c r="A1092" s="2"/>
       <c r="B1092" s="4" t="s">
-        <v>1656</v>
+        <v>1689</v>
       </c>
       <c r="C1092" s="2"/>
       <c r="D1092" s="2"/>
@@ -27928,7 +28102,7 @@
     <row r="1093" ht="14.25" customHeight="1">
       <c r="A1093" s="2"/>
       <c r="B1093" s="4" t="s">
-        <v>1657</v>
+        <v>1690</v>
       </c>
       <c r="C1093" s="2"/>
       <c r="D1093" s="2"/>
@@ -27947,7 +28121,7 @@
     <row r="1094" ht="14.25" customHeight="1">
       <c r="A1094" s="2"/>
       <c r="B1094" s="4" t="s">
-        <v>1658</v>
+        <v>1691</v>
       </c>
       <c r="C1094" s="2"/>
       <c r="D1094" s="2"/>
@@ -27966,7 +28140,7 @@
     <row r="1095" ht="14.25" customHeight="1">
       <c r="A1095" s="2"/>
       <c r="B1095" s="4" t="s">
-        <v>1659</v>
+        <v>1692</v>
       </c>
       <c r="C1095" s="2"/>
       <c r="D1095" s="2"/>
@@ -27985,7 +28159,7 @@
     <row r="1096" ht="14.25" customHeight="1">
       <c r="A1096" s="2"/>
       <c r="B1096" s="4" t="s">
-        <v>1660</v>
+        <v>1693</v>
       </c>
       <c r="C1096" s="2"/>
       <c r="D1096" s="2"/>
@@ -28004,7 +28178,7 @@
     <row r="1097" ht="14.25" customHeight="1">
       <c r="A1097" s="2"/>
       <c r="B1097" s="4" t="s">
-        <v>1661</v>
+        <v>1694</v>
       </c>
       <c r="C1097" s="2"/>
       <c r="D1097" s="2"/>
@@ -28023,7 +28197,7 @@
     <row r="1098" ht="14.25" customHeight="1">
       <c r="A1098" s="2"/>
       <c r="B1098" s="4" t="s">
-        <v>1662</v>
+        <v>1695</v>
       </c>
       <c r="C1098" s="2"/>
       <c r="D1098" s="2"/>
@@ -28042,7 +28216,7 @@
     <row r="1099" ht="14.25" customHeight="1">
       <c r="A1099" s="2"/>
       <c r="B1099" s="4" t="s">
-        <v>1663</v>
+        <v>1696</v>
       </c>
       <c r="C1099" s="2"/>
       <c r="D1099" s="2"/>
@@ -28061,7 +28235,7 @@
     <row r="1100" ht="14.25" customHeight="1">
       <c r="A1100" s="2"/>
       <c r="B1100" s="4" t="s">
-        <v>1664</v>
+        <v>1697</v>
       </c>
       <c r="C1100" s="2"/>
       <c r="D1100" s="2"/>
@@ -28080,7 +28254,7 @@
     <row r="1101" ht="14.25" customHeight="1">
       <c r="A1101" s="2"/>
       <c r="B1101" s="4" t="s">
-        <v>1665</v>
+        <v>1698</v>
       </c>
       <c r="C1101" s="2"/>
       <c r="D1101" s="2"/>
@@ -28099,7 +28273,7 @@
     <row r="1102" ht="14.25" customHeight="1">
       <c r="A1102" s="2"/>
       <c r="B1102" s="4" t="s">
-        <v>1666</v>
+        <v>1699</v>
       </c>
       <c r="C1102" s="2"/>
       <c r="D1102" s="2"/>
@@ -28118,7 +28292,7 @@
     <row r="1103" ht="14.25" customHeight="1">
       <c r="A1103" s="2"/>
       <c r="B1103" s="4" t="s">
-        <v>1667</v>
+        <v>1700</v>
       </c>
       <c r="C1103" s="2"/>
       <c r="D1103" s="2"/>
@@ -28137,7 +28311,7 @@
     <row r="1104" ht="14.25" customHeight="1">
       <c r="A1104" s="2"/>
       <c r="B1104" s="10" t="s">
-        <v>1668</v>
+        <v>1701</v>
       </c>
       <c r="C1104" s="2"/>
       <c r="D1104" s="2"/>
@@ -28156,7 +28330,7 @@
     <row r="1105" ht="14.25" customHeight="1">
       <c r="A1105" s="2"/>
       <c r="B1105" s="10" t="s">
-        <v>1669</v>
+        <v>1702</v>
       </c>
       <c r="C1105" s="2"/>
       <c r="D1105" s="2"/>
@@ -28175,7 +28349,7 @@
     <row r="1106" ht="14.25" customHeight="1">
       <c r="A1106" s="2"/>
       <c r="B1106" s="10" t="s">
-        <v>1670</v>
+        <v>1703</v>
       </c>
       <c r="C1106" s="2"/>
       <c r="D1106" s="2"/>
@@ -28194,7 +28368,7 @@
     <row r="1107" ht="14.25" customHeight="1">
       <c r="A1107" s="2"/>
       <c r="B1107" s="10" t="s">
-        <v>1671</v>
+        <v>1704</v>
       </c>
       <c r="C1107" s="2"/>
       <c r="D1107" s="2"/>
@@ -28213,7 +28387,7 @@
     <row r="1108" ht="14.25" customHeight="1">
       <c r="A1108" s="2"/>
       <c r="B1108" s="10" t="s">
-        <v>1672</v>
+        <v>1705</v>
       </c>
       <c r="C1108" s="2"/>
       <c r="D1108" s="2"/>
@@ -28232,7 +28406,7 @@
     <row r="1109" ht="14.25" customHeight="1">
       <c r="A1109" s="2"/>
       <c r="B1109" s="10" t="s">
-        <v>1673</v>
+        <v>1706</v>
       </c>
       <c r="C1109" s="2"/>
       <c r="D1109" s="2"/>
@@ -28251,7 +28425,7 @@
     <row r="1110" ht="14.25" customHeight="1">
       <c r="A1110" s="2"/>
       <c r="B1110" s="10" t="s">
-        <v>1674</v>
+        <v>1707</v>
       </c>
       <c r="C1110" s="2"/>
       <c r="D1110" s="2"/>
@@ -28270,7 +28444,7 @@
     <row r="1111" ht="14.25" customHeight="1">
       <c r="A1111" s="2"/>
       <c r="B1111" s="10" t="s">
-        <v>1675</v>
+        <v>1708</v>
       </c>
       <c r="C1111" s="2"/>
       <c r="D1111" s="2"/>
@@ -28289,7 +28463,7 @@
     <row r="1112" ht="14.25" customHeight="1">
       <c r="A1112" s="2"/>
       <c r="B1112" s="10" t="s">
-        <v>1676</v>
+        <v>1709</v>
       </c>
       <c r="C1112" s="2"/>
       <c r="D1112" s="2"/>
@@ -28308,7 +28482,7 @@
     <row r="1113" ht="14.25" customHeight="1">
       <c r="A1113" s="2"/>
       <c r="B1113" s="10" t="s">
-        <v>1677</v>
+        <v>1710</v>
       </c>
       <c r="C1113" s="2"/>
       <c r="D1113" s="2"/>
@@ -28327,7 +28501,7 @@
     <row r="1114" ht="14.25" customHeight="1">
       <c r="A1114" s="2"/>
       <c r="B1114" s="10" t="s">
-        <v>1678</v>
+        <v>1711</v>
       </c>
       <c r="C1114" s="2"/>
       <c r="D1114" s="2"/>
@@ -28346,7 +28520,7 @@
     <row r="1115" ht="14.25" customHeight="1">
       <c r="A1115" s="2"/>
       <c r="B1115" s="10" t="s">
-        <v>1679</v>
+        <v>1712</v>
       </c>
       <c r="C1115" s="2"/>
       <c r="D1115" s="2"/>
@@ -28365,7 +28539,7 @@
     <row r="1116" ht="14.25" customHeight="1">
       <c r="A1116" s="2"/>
       <c r="B1116" s="10" t="s">
-        <v>1680</v>
+        <v>1713</v>
       </c>
       <c r="C1116" s="2"/>
       <c r="D1116" s="2"/>
@@ -28384,7 +28558,7 @@
     <row r="1117" ht="14.25" customHeight="1">
       <c r="A1117" s="2"/>
       <c r="B1117" s="10" t="s">
-        <v>1681</v>
+        <v>1714</v>
       </c>
       <c r="C1117" s="2"/>
       <c r="D1117" s="2"/>
@@ -28403,7 +28577,7 @@
     <row r="1118" ht="14.25" customHeight="1">
       <c r="A1118" s="2"/>
       <c r="B1118" s="10" t="s">
-        <v>1682</v>
+        <v>1715</v>
       </c>
       <c r="C1118" s="2"/>
       <c r="D1118" s="2"/>
@@ -28422,7 +28596,7 @@
     <row r="1119" ht="14.25" customHeight="1">
       <c r="A1119" s="2"/>
       <c r="B1119" s="10" t="s">
-        <v>1683</v>
+        <v>1716</v>
       </c>
       <c r="C1119" s="2"/>
       <c r="D1119" s="2"/>
@@ -28441,7 +28615,7 @@
     <row r="1120" ht="14.25" customHeight="1">
       <c r="A1120" s="2"/>
       <c r="B1120" s="10" t="s">
-        <v>1684</v>
+        <v>1717</v>
       </c>
       <c r="C1120" s="2"/>
       <c r="D1120" s="2"/>
@@ -28460,7 +28634,7 @@
     <row r="1121" ht="14.25" customHeight="1">
       <c r="A1121" s="2"/>
       <c r="B1121" s="10" t="s">
-        <v>1685</v>
+        <v>1718</v>
       </c>
       <c r="C1121" s="2"/>
       <c r="D1121" s="2"/>
@@ -28479,7 +28653,7 @@
     <row r="1122" ht="14.25" customHeight="1">
       <c r="A1122" s="2"/>
       <c r="B1122" s="10" t="s">
-        <v>1686</v>
+        <v>1719</v>
       </c>
       <c r="C1122" s="2"/>
       <c r="D1122" s="2"/>
@@ -28498,7 +28672,7 @@
     <row r="1123" ht="14.25" customHeight="1">
       <c r="A1123" s="2"/>
       <c r="B1123" s="10" t="s">
-        <v>1687</v>
+        <v>1720</v>
       </c>
       <c r="C1123" s="2"/>
       <c r="D1123" s="2"/>
@@ -28517,7 +28691,7 @@
     <row r="1124" ht="14.25" customHeight="1">
       <c r="A1124" s="2"/>
       <c r="B1124" s="10" t="s">
-        <v>1688</v>
+        <v>1721</v>
       </c>
       <c r="C1124" s="2"/>
       <c r="D1124" s="2"/>
@@ -28536,7 +28710,7 @@
     <row r="1125" ht="14.25" customHeight="1">
       <c r="A1125" s="2"/>
       <c r="B1125" s="10" t="s">
-        <v>1689</v>
+        <v>1722</v>
       </c>
       <c r="C1125" s="2"/>
       <c r="D1125" s="2"/>
@@ -28555,7 +28729,7 @@
     <row r="1126" ht="14.25" customHeight="1">
       <c r="A1126" s="2"/>
       <c r="B1126" s="10" t="s">
-        <v>1690</v>
+        <v>1723</v>
       </c>
       <c r="C1126" s="2"/>
       <c r="D1126" s="2"/>
@@ -28574,7 +28748,7 @@
     <row r="1127" ht="14.25" customHeight="1">
       <c r="A1127" s="2"/>
       <c r="B1127" s="10" t="s">
-        <v>1691</v>
+        <v>1724</v>
       </c>
       <c r="C1127" s="2"/>
       <c r="D1127" s="2"/>
@@ -28593,7 +28767,7 @@
     <row r="1128" ht="14.25" customHeight="1">
       <c r="A1128" s="2"/>
       <c r="B1128" s="10" t="s">
-        <v>1692</v>
+        <v>1725</v>
       </c>
       <c r="C1128" s="2"/>
       <c r="D1128" s="2"/>
@@ -28612,7 +28786,7 @@
     <row r="1129" ht="14.25" customHeight="1">
       <c r="A1129" s="2"/>
       <c r="B1129" s="10" t="s">
-        <v>1693</v>
+        <v>1726</v>
       </c>
       <c r="C1129" s="2"/>
       <c r="D1129" s="2"/>
@@ -28631,7 +28805,7 @@
     <row r="1130" ht="14.25" customHeight="1">
       <c r="A1130" s="2"/>
       <c r="B1130" s="10" t="s">
-        <v>1694</v>
+        <v>1727</v>
       </c>
       <c r="C1130" s="2"/>
       <c r="D1130" s="2"/>
@@ -28650,7 +28824,7 @@
     <row r="1131" ht="14.25" customHeight="1">
       <c r="A1131" s="2"/>
       <c r="B1131" s="10" t="s">
-        <v>1695</v>
+        <v>1728</v>
       </c>
       <c r="C1131" s="2"/>
       <c r="D1131" s="2"/>
@@ -28669,7 +28843,7 @@
     <row r="1132" ht="14.25" customHeight="1">
       <c r="A1132" s="2"/>
       <c r="B1132" s="10" t="s">
-        <v>1696</v>
+        <v>1729</v>
       </c>
       <c r="C1132" s="2"/>
       <c r="D1132" s="2"/>
@@ -28688,7 +28862,7 @@
     <row r="1133" ht="14.25" customHeight="1">
       <c r="A1133" s="2"/>
       <c r="B1133" s="10" t="s">
-        <v>1697</v>
+        <v>1730</v>
       </c>
       <c r="C1133" s="2"/>
       <c r="D1133" s="2"/>
@@ -28707,7 +28881,7 @@
     <row r="1134" ht="14.25" customHeight="1">
       <c r="A1134" s="2"/>
       <c r="B1134" s="10" t="s">
-        <v>1698</v>
+        <v>1731</v>
       </c>
       <c r="C1134" s="2"/>
       <c r="D1134" s="2"/>
@@ -28726,7 +28900,7 @@
     <row r="1135" ht="14.25" customHeight="1">
       <c r="A1135" s="2"/>
       <c r="B1135" s="10" t="s">
-        <v>1699</v>
+        <v>1732</v>
       </c>
       <c r="C1135" s="2"/>
       <c r="D1135" s="2"/>
@@ -28745,7 +28919,7 @@
     <row r="1136" ht="14.25" customHeight="1">
       <c r="A1136" s="2"/>
       <c r="B1136" s="10" t="s">
-        <v>1700</v>
+        <v>1733</v>
       </c>
       <c r="C1136" s="2"/>
       <c r="D1136" s="2"/>
@@ -28764,7 +28938,7 @@
     <row r="1137" ht="14.25" customHeight="1">
       <c r="A1137" s="2"/>
       <c r="B1137" s="10" t="s">
-        <v>1701</v>
+        <v>1734</v>
       </c>
       <c r="C1137" s="2"/>
       <c r="D1137" s="2"/>
@@ -28783,7 +28957,7 @@
     <row r="1138" ht="14.25" customHeight="1">
       <c r="A1138" s="2"/>
       <c r="B1138" s="10" t="s">
-        <v>1702</v>
+        <v>1735</v>
       </c>
       <c r="C1138" s="2"/>
       <c r="D1138" s="2"/>
@@ -28802,7 +28976,7 @@
     <row r="1139" ht="14.25" customHeight="1">
       <c r="A1139" s="2"/>
       <c r="B1139" s="10" t="s">
-        <v>1703</v>
+        <v>1736</v>
       </c>
       <c r="C1139" s="2"/>
       <c r="D1139" s="2"/>
@@ -28821,7 +28995,7 @@
     <row r="1140" ht="14.25" customHeight="1">
       <c r="A1140" s="2"/>
       <c r="B1140" s="10" t="s">
-        <v>1704</v>
+        <v>1737</v>
       </c>
       <c r="C1140" s="2"/>
       <c r="D1140" s="2"/>
@@ -28840,7 +29014,7 @@
     <row r="1141" ht="14.25" customHeight="1">
       <c r="A1141" s="2"/>
       <c r="B1141" s="10" t="s">
-        <v>1705</v>
+        <v>1738</v>
       </c>
       <c r="C1141" s="2"/>
       <c r="D1141" s="2"/>
@@ -28859,7 +29033,7 @@
     <row r="1142" ht="14.25" customHeight="1">
       <c r="A1142" s="2"/>
       <c r="B1142" s="10" t="s">
-        <v>1706</v>
+        <v>1739</v>
       </c>
       <c r="C1142" s="2"/>
       <c r="D1142" s="2"/>
@@ -28878,7 +29052,7 @@
     <row r="1143" ht="14.25" customHeight="1">
       <c r="A1143" s="2"/>
       <c r="B1143" s="10" t="s">
-        <v>1707</v>
+        <v>1740</v>
       </c>
       <c r="C1143" s="2"/>
       <c r="D1143" s="2"/>
@@ -28897,7 +29071,7 @@
     <row r="1144" ht="14.25" customHeight="1">
       <c r="A1144" s="2"/>
       <c r="B1144" s="10" t="s">
-        <v>1708</v>
+        <v>1741</v>
       </c>
       <c r="C1144" s="2"/>
       <c r="D1144" s="2"/>
@@ -28916,7 +29090,7 @@
     <row r="1145" ht="14.25" customHeight="1">
       <c r="A1145" s="2"/>
       <c r="B1145" s="10" t="s">
-        <v>1709</v>
+        <v>1742</v>
       </c>
       <c r="C1145" s="2"/>
       <c r="D1145" s="2"/>
@@ -28935,7 +29109,7 @@
     <row r="1146" ht="14.25" customHeight="1">
       <c r="A1146" s="2"/>
       <c r="B1146" s="10" t="s">
-        <v>1710</v>
+        <v>1743</v>
       </c>
       <c r="C1146" s="2"/>
       <c r="D1146" s="2"/>
@@ -28954,7 +29128,7 @@
     <row r="1147" ht="14.25" customHeight="1">
       <c r="A1147" s="2"/>
       <c r="B1147" s="10" t="s">
-        <v>1711</v>
+        <v>1744</v>
       </c>
       <c r="C1147" s="2"/>
       <c r="D1147" s="2"/>
@@ -28973,7 +29147,7 @@
     <row r="1148" ht="14.25" customHeight="1">
       <c r="A1148" s="2"/>
       <c r="B1148" s="10" t="s">
-        <v>1712</v>
+        <v>1745</v>
       </c>
       <c r="C1148" s="2"/>
       <c r="D1148" s="2"/>
@@ -28992,7 +29166,7 @@
     <row r="1149" ht="14.25" customHeight="1">
       <c r="A1149" s="2"/>
       <c r="B1149" s="10" t="s">
-        <v>1713</v>
+        <v>1746</v>
       </c>
       <c r="C1149" s="2"/>
       <c r="D1149" s="2"/>
@@ -29011,7 +29185,7 @@
     <row r="1150" ht="14.25" customHeight="1">
       <c r="A1150" s="2"/>
       <c r="B1150" s="10" t="s">
-        <v>1714</v>
+        <v>1747</v>
       </c>
       <c r="C1150" s="2"/>
       <c r="D1150" s="2"/>
@@ -29030,7 +29204,7 @@
     <row r="1151" ht="14.25" customHeight="1">
       <c r="A1151" s="2"/>
       <c r="B1151" s="10" t="s">
-        <v>1715</v>
+        <v>1748</v>
       </c>
       <c r="C1151" s="2"/>
       <c r="D1151" s="2"/>
@@ -29049,7 +29223,7 @@
     <row r="1152" ht="14.25" customHeight="1">
       <c r="A1152" s="2"/>
       <c r="B1152" s="10" t="s">
-        <v>1716</v>
+        <v>1749</v>
       </c>
       <c r="C1152" s="2"/>
       <c r="D1152" s="2"/>
@@ -29068,7 +29242,7 @@
     <row r="1153" ht="14.25" customHeight="1">
       <c r="A1153" s="2"/>
       <c r="B1153" s="10" t="s">
-        <v>1717</v>
+        <v>1750</v>
       </c>
       <c r="C1153" s="2"/>
       <c r="D1153" s="2"/>
@@ -29087,7 +29261,7 @@
     <row r="1154" ht="14.25" customHeight="1">
       <c r="A1154" s="2"/>
       <c r="B1154" s="10" t="s">
-        <v>1718</v>
+        <v>1751</v>
       </c>
       <c r="C1154" s="2"/>
       <c r="D1154" s="2"/>
@@ -29106,7 +29280,7 @@
     <row r="1155" ht="14.25" customHeight="1">
       <c r="A1155" s="2"/>
       <c r="B1155" s="10" t="s">
-        <v>1719</v>
+        <v>1752</v>
       </c>
       <c r="C1155" s="2"/>
       <c r="D1155" s="2"/>
@@ -29125,7 +29299,7 @@
     <row r="1156" ht="14.25" customHeight="1">
       <c r="A1156" s="2"/>
       <c r="B1156" s="10" t="s">
-        <v>1720</v>
+        <v>1753</v>
       </c>
       <c r="C1156" s="2"/>
       <c r="D1156" s="2"/>
@@ -29144,7 +29318,7 @@
     <row r="1157" ht="14.25" customHeight="1">
       <c r="A1157" s="2"/>
       <c r="B1157" s="10" t="s">
-        <v>1721</v>
+        <v>1754</v>
       </c>
       <c r="C1157" s="2"/>
       <c r="D1157" s="2"/>
@@ -29163,7 +29337,7 @@
     <row r="1158" ht="14.25" customHeight="1">
       <c r="A1158" s="2"/>
       <c r="B1158" s="10" t="s">
-        <v>1722</v>
+        <v>1755</v>
       </c>
       <c r="C1158" s="2"/>
       <c r="D1158" s="2"/>
@@ -29182,7 +29356,7 @@
     <row r="1159" ht="14.25" customHeight="1">
       <c r="A1159" s="2"/>
       <c r="B1159" s="10" t="s">
-        <v>1723</v>
+        <v>1756</v>
       </c>
       <c r="C1159" s="2"/>
       <c r="D1159" s="2"/>
@@ -29201,7 +29375,7 @@
     <row r="1160" ht="14.25" customHeight="1">
       <c r="A1160" s="2"/>
       <c r="B1160" s="10" t="s">
-        <v>1724</v>
+        <v>1757</v>
       </c>
       <c r="C1160" s="2"/>
       <c r="D1160" s="2"/>
@@ -29220,7 +29394,7 @@
     <row r="1161" ht="14.25" customHeight="1">
       <c r="A1161" s="2"/>
       <c r="B1161" s="10" t="s">
-        <v>1725</v>
+        <v>1758</v>
       </c>
       <c r="C1161" s="2"/>
       <c r="D1161" s="2"/>
@@ -29239,7 +29413,7 @@
     <row r="1162" ht="14.25" customHeight="1">
       <c r="A1162" s="2"/>
       <c r="B1162" s="10" t="s">
-        <v>1726</v>
+        <v>1759</v>
       </c>
       <c r="C1162" s="2"/>
       <c r="D1162" s="2"/>
@@ -29258,7 +29432,7 @@
     <row r="1163" ht="14.25" customHeight="1">
       <c r="A1163" s="2"/>
       <c r="B1163" s="10" t="s">
-        <v>1727</v>
+        <v>1760</v>
       </c>
       <c r="C1163" s="2"/>
       <c r="D1163" s="2"/>
@@ -29277,7 +29451,7 @@
     <row r="1164" ht="14.25" customHeight="1">
       <c r="A1164" s="2"/>
       <c r="B1164" s="10" t="s">
-        <v>1728</v>
+        <v>1761</v>
       </c>
       <c r="C1164" s="2"/>
       <c r="D1164" s="2"/>
@@ -29296,7 +29470,7 @@
     <row r="1165" ht="14.25" customHeight="1">
       <c r="A1165" s="2"/>
       <c r="B1165" s="10" t="s">
-        <v>1729</v>
+        <v>1762</v>
       </c>
       <c r="C1165" s="2"/>
       <c r="D1165" s="2"/>
@@ -29315,7 +29489,7 @@
     <row r="1166" ht="14.25" customHeight="1">
       <c r="A1166" s="2"/>
       <c r="B1166" s="11" t="s">
-        <v>1730</v>
+        <v>1763</v>
       </c>
       <c r="C1166" s="2"/>
       <c r="D1166" s="2"/>
@@ -29334,7 +29508,7 @@
     <row r="1167" ht="14.25" customHeight="1">
       <c r="A1167" s="2"/>
       <c r="B1167" s="11" t="s">
-        <v>1731</v>
+        <v>1764</v>
       </c>
       <c r="C1167" s="2"/>
       <c r="D1167" s="2"/>
@@ -29353,7 +29527,7 @@
     <row r="1168" ht="14.25" customHeight="1">
       <c r="A1168" s="2"/>
       <c r="B1168" s="10" t="s">
-        <v>1732</v>
+        <v>1765</v>
       </c>
       <c r="C1168" s="2"/>
       <c r="D1168" s="2"/>
@@ -29372,7 +29546,7 @@
     <row r="1169" ht="14.25" customHeight="1">
       <c r="A1169" s="2"/>
       <c r="B1169" s="10" t="s">
-        <v>1733</v>
+        <v>1766</v>
       </c>
       <c r="C1169" s="2"/>
       <c r="D1169" s="2"/>
@@ -29391,7 +29565,7 @@
     <row r="1170" ht="14.25" customHeight="1">
       <c r="A1170" s="2"/>
       <c r="B1170" s="10" t="s">
-        <v>1734</v>
+        <v>1767</v>
       </c>
       <c r="C1170" s="2"/>
       <c r="D1170" s="2"/>
@@ -29410,7 +29584,7 @@
     <row r="1171" ht="14.25" customHeight="1">
       <c r="A1171" s="2"/>
       <c r="B1171" s="10" t="s">
-        <v>1735</v>
+        <v>1768</v>
       </c>
       <c r="C1171" s="2"/>
       <c r="D1171" s="2"/>
@@ -29429,7 +29603,7 @@
     <row r="1172" ht="14.25" customHeight="1">
       <c r="A1172" s="2"/>
       <c r="B1172" s="10" t="s">
-        <v>1736</v>
+        <v>1769</v>
       </c>
       <c r="C1172" s="2"/>
       <c r="D1172" s="2"/>
@@ -29448,7 +29622,7 @@
     <row r="1173" ht="14.25" customHeight="1">
       <c r="A1173" s="2"/>
       <c r="B1173" s="10" t="s">
-        <v>1737</v>
+        <v>1770</v>
       </c>
       <c r="C1173" s="2"/>
       <c r="D1173" s="2"/>
@@ -29467,7 +29641,7 @@
     <row r="1174" ht="14.25" customHeight="1">
       <c r="A1174" s="2"/>
       <c r="B1174" s="10" t="s">
-        <v>1738</v>
+        <v>1771</v>
       </c>
       <c r="C1174" s="2"/>
       <c r="D1174" s="2"/>
@@ -29486,7 +29660,7 @@
     <row r="1175" ht="14.25" customHeight="1">
       <c r="A1175" s="2"/>
       <c r="B1175" s="10" t="s">
-        <v>1739</v>
+        <v>1772</v>
       </c>
       <c r="C1175" s="2"/>
       <c r="D1175" s="2"/>
@@ -29505,7 +29679,7 @@
     <row r="1176" ht="14.25" customHeight="1">
       <c r="A1176" s="2"/>
       <c r="B1176" s="10" t="s">
-        <v>1740</v>
+        <v>1773</v>
       </c>
       <c r="C1176" s="2"/>
       <c r="D1176" s="2"/>
@@ -29524,7 +29698,7 @@
     <row r="1177" ht="14.25" customHeight="1">
       <c r="A1177" s="2"/>
       <c r="B1177" s="10" t="s">
-        <v>1741</v>
+        <v>1774</v>
       </c>
       <c r="C1177" s="2"/>
       <c r="D1177" s="2"/>
@@ -29543,7 +29717,7 @@
     <row r="1178" ht="14.25" customHeight="1">
       <c r="A1178" s="2"/>
       <c r="B1178" s="10" t="s">
-        <v>1742</v>
+        <v>1775</v>
       </c>
       <c r="C1178" s="2"/>
       <c r="D1178" s="2"/>
@@ -29562,7 +29736,7 @@
     <row r="1179" ht="14.25" customHeight="1">
       <c r="A1179" s="2"/>
       <c r="B1179" s="10" t="s">
-        <v>1743</v>
+        <v>1776</v>
       </c>
       <c r="C1179" s="2"/>
       <c r="D1179" s="2"/>
@@ -29581,7 +29755,7 @@
     <row r="1180" ht="14.25" customHeight="1">
       <c r="A1180" s="2"/>
       <c r="B1180" s="10" t="s">
-        <v>1744</v>
+        <v>1777</v>
       </c>
       <c r="C1180" s="2"/>
       <c r="D1180" s="2"/>
@@ -29600,7 +29774,7 @@
     <row r="1181" ht="14.25" customHeight="1">
       <c r="A1181" s="2"/>
       <c r="B1181" s="10" t="s">
-        <v>1745</v>
+        <v>1778</v>
       </c>
       <c r="C1181" s="2"/>
       <c r="D1181" s="2"/>
@@ -29619,7 +29793,7 @@
     <row r="1182" ht="14.25" customHeight="1">
       <c r="A1182" s="2"/>
       <c r="B1182" s="10" t="s">
-        <v>1746</v>
+        <v>1779</v>
       </c>
       <c r="C1182" s="2"/>
       <c r="D1182" s="2"/>
@@ -29638,7 +29812,7 @@
     <row r="1183" ht="14.25" customHeight="1">
       <c r="A1183" s="2"/>
       <c r="B1183" s="10" t="s">
-        <v>1747</v>
+        <v>1780</v>
       </c>
       <c r="C1183" s="2"/>
       <c r="D1183" s="2"/>
@@ -29657,7 +29831,7 @@
     <row r="1184" ht="14.25" customHeight="1">
       <c r="A1184" s="2"/>
       <c r="B1184" s="10" t="s">
-        <v>1748</v>
+        <v>1781</v>
       </c>
       <c r="C1184" s="2"/>
       <c r="D1184" s="2"/>
@@ -29676,7 +29850,7 @@
     <row r="1185" ht="14.25" customHeight="1">
       <c r="A1185" s="2"/>
       <c r="B1185" s="10" t="s">
-        <v>1749</v>
+        <v>1782</v>
       </c>
       <c r="C1185" s="2"/>
       <c r="D1185" s="2"/>
@@ -29695,7 +29869,7 @@
     <row r="1186" ht="14.25" customHeight="1">
       <c r="A1186" s="2"/>
       <c r="B1186" s="10" t="s">
-        <v>1750</v>
+        <v>1783</v>
       </c>
       <c r="C1186" s="2"/>
       <c r="D1186" s="2"/>
@@ -29714,7 +29888,7 @@
     <row r="1187" ht="14.25" customHeight="1">
       <c r="A1187" s="2"/>
       <c r="B1187" s="10" t="s">
-        <v>1709</v>
+        <v>1742</v>
       </c>
       <c r="C1187" s="2"/>
       <c r="D1187" s="2"/>
@@ -29733,7 +29907,7 @@
     <row r="1188" ht="14.25" customHeight="1">
       <c r="A1188" s="2"/>
       <c r="B1188" s="10" t="s">
-        <v>1751</v>
+        <v>1784</v>
       </c>
       <c r="C1188" s="2"/>
       <c r="D1188" s="2"/>
@@ -29752,7 +29926,7 @@
     <row r="1189" ht="14.25" customHeight="1">
       <c r="A1189" s="2"/>
       <c r="B1189" s="10" t="s">
-        <v>1752</v>
+        <v>1785</v>
       </c>
       <c r="C1189" s="2"/>
       <c r="D1189" s="2"/>
@@ -29771,7 +29945,7 @@
     <row r="1190" ht="14.25" customHeight="1">
       <c r="A1190" s="2"/>
       <c r="B1190" s="10" t="s">
-        <v>1753</v>
+        <v>1786</v>
       </c>
       <c r="C1190" s="2"/>
       <c r="D1190" s="2"/>
@@ -29790,7 +29964,7 @@
     <row r="1191" ht="14.25" customHeight="1">
       <c r="A1191" s="2"/>
       <c r="B1191" s="10" t="s">
-        <v>1754</v>
+        <v>1787</v>
       </c>
       <c r="C1191" s="2"/>
       <c r="D1191" s="2"/>
@@ -29809,7 +29983,7 @@
     <row r="1192" ht="14.25" customHeight="1">
       <c r="A1192" s="2"/>
       <c r="B1192" s="10" t="s">
-        <v>1755</v>
+        <v>1788</v>
       </c>
       <c r="C1192" s="2"/>
       <c r="D1192" s="2"/>
@@ -29828,7 +30002,7 @@
     <row r="1193" ht="14.25" customHeight="1">
       <c r="A1193" s="2"/>
       <c r="B1193" s="10" t="s">
-        <v>1756</v>
+        <v>1789</v>
       </c>
       <c r="C1193" s="2"/>
       <c r="D1193" s="2"/>
@@ -29847,7 +30021,7 @@
     <row r="1194" ht="14.25" customHeight="1">
       <c r="A1194" s="2"/>
       <c r="B1194" s="10" t="s">
-        <v>1757</v>
+        <v>1790</v>
       </c>
       <c r="C1194" s="2"/>
       <c r="D1194" s="2"/>
@@ -29866,7 +30040,7 @@
     <row r="1195" ht="14.25" customHeight="1">
       <c r="A1195" s="2"/>
       <c r="B1195" s="4" t="s">
-        <v>1758</v>
+        <v>1791</v>
       </c>
       <c r="C1195" s="2"/>
       <c r="D1195" s="2"/>
@@ -29885,7 +30059,7 @@
     <row r="1196" ht="14.25" customHeight="1">
       <c r="A1196" s="2"/>
       <c r="B1196" s="4" t="s">
-        <v>1759</v>
+        <v>1792</v>
       </c>
       <c r="C1196" s="2"/>
       <c r="D1196" s="2"/>
@@ -29904,7 +30078,7 @@
     <row r="1197" ht="14.25" customHeight="1">
       <c r="A1197" s="2"/>
       <c r="B1197" s="4" t="s">
-        <v>1760</v>
+        <v>1793</v>
       </c>
       <c r="C1197" s="2"/>
       <c r="D1197" s="2"/>
@@ -29923,7 +30097,7 @@
     <row r="1198" ht="14.25" customHeight="1">
       <c r="A1198" s="2"/>
       <c r="B1198" s="4" t="s">
-        <v>1761</v>
+        <v>1794</v>
       </c>
       <c r="C1198" s="2"/>
       <c r="D1198" s="2"/>
@@ -29942,7 +30116,7 @@
     <row r="1199" ht="14.25" customHeight="1">
       <c r="A1199" s="2"/>
       <c r="B1199" s="4" t="s">
-        <v>1762</v>
+        <v>1795</v>
       </c>
       <c r="C1199" s="2"/>
       <c r="D1199" s="2"/>
@@ -29961,7 +30135,7 @@
     <row r="1200" ht="14.25" customHeight="1">
       <c r="A1200" s="2"/>
       <c r="B1200" s="8" t="s">
-        <v>1763</v>
+        <v>1796</v>
       </c>
       <c r="C1200" s="2"/>
       <c r="D1200" s="2"/>
@@ -29980,7 +30154,7 @@
     <row r="1201" ht="14.25" customHeight="1">
       <c r="A1201" s="2"/>
       <c r="B1201" s="4" t="s">
-        <v>1764</v>
+        <v>1797</v>
       </c>
       <c r="C1201" s="2"/>
       <c r="D1201" s="2"/>
@@ -29999,7 +30173,7 @@
     <row r="1202" ht="14.25" customHeight="1">
       <c r="A1202" s="2"/>
       <c r="B1202" s="4" t="s">
-        <v>1765</v>
+        <v>1798</v>
       </c>
       <c r="C1202" s="2"/>
       <c r="D1202" s="2"/>
@@ -30018,7 +30192,7 @@
     <row r="1203" ht="14.25" customHeight="1">
       <c r="A1203" s="2"/>
       <c r="B1203" s="4" t="s">
-        <v>1766</v>
+        <v>1799</v>
       </c>
       <c r="C1203" s="2"/>
       <c r="D1203" s="2"/>
@@ -30037,7 +30211,7 @@
     <row r="1204" ht="14.25" customHeight="1">
       <c r="A1204" s="2"/>
       <c r="B1204" s="4" t="s">
-        <v>1767</v>
+        <v>1800</v>
       </c>
       <c r="C1204" s="2"/>
       <c r="D1204" s="2"/>
@@ -30056,7 +30230,7 @@
     <row r="1205" ht="14.25" customHeight="1">
       <c r="A1205" s="2"/>
       <c r="B1205" s="4" t="s">
-        <v>1768</v>
+        <v>1801</v>
       </c>
       <c r="C1205" s="2"/>
       <c r="D1205" s="2"/>
@@ -30075,7 +30249,7 @@
     <row r="1206" ht="14.25" customHeight="1">
       <c r="A1206" s="2"/>
       <c r="B1206" s="4" t="s">
-        <v>1769</v>
+        <v>1802</v>
       </c>
       <c r="C1206" s="2"/>
       <c r="D1206" s="2"/>
@@ -30094,7 +30268,7 @@
     <row r="1207" ht="14.25" customHeight="1">
       <c r="A1207" s="2"/>
       <c r="B1207" s="4" t="s">
-        <v>1770</v>
+        <v>1803</v>
       </c>
       <c r="C1207" s="2"/>
       <c r="D1207" s="2"/>
@@ -30113,7 +30287,7 @@
     <row r="1208" ht="14.25" customHeight="1">
       <c r="A1208" s="2"/>
       <c r="B1208" s="4" t="s">
-        <v>1771</v>
+        <v>1804</v>
       </c>
       <c r="C1208" s="2"/>
       <c r="D1208" s="2"/>
@@ -30132,7 +30306,7 @@
     <row r="1209" ht="14.25" customHeight="1">
       <c r="A1209" s="2"/>
       <c r="B1209" s="4" t="s">
-        <v>1772</v>
+        <v>1805</v>
       </c>
       <c r="C1209" s="2"/>
       <c r="D1209" s="2"/>
@@ -30151,7 +30325,7 @@
     <row r="1210" ht="14.25" customHeight="1">
       <c r="A1210" s="2"/>
       <c r="B1210" s="4" t="s">
-        <v>1773</v>
+        <v>1806</v>
       </c>
       <c r="C1210" s="2"/>
       <c r="D1210" s="2"/>
@@ -30170,7 +30344,7 @@
     <row r="1211" ht="14.25" customHeight="1">
       <c r="A1211" s="2"/>
       <c r="B1211" s="4" t="s">
-        <v>1774</v>
+        <v>1807</v>
       </c>
       <c r="C1211" s="2"/>
       <c r="D1211" s="2"/>
@@ -30189,7 +30363,7 @@
     <row r="1212" ht="14.25" customHeight="1">
       <c r="A1212" s="2"/>
       <c r="B1212" s="4" t="s">
-        <v>1775</v>
+        <v>1808</v>
       </c>
       <c r="C1212" s="2"/>
       <c r="D1212" s="2"/>
@@ -30208,7 +30382,7 @@
     <row r="1213" ht="14.25" customHeight="1">
       <c r="A1213" s="2"/>
       <c r="B1213" s="4" t="s">
-        <v>1776</v>
+        <v>1809</v>
       </c>
       <c r="C1213" s="2"/>
       <c r="D1213" s="2"/>
@@ -30227,7 +30401,7 @@
     <row r="1214" ht="14.25" customHeight="1">
       <c r="A1214" s="2"/>
       <c r="B1214" s="4" t="s">
-        <v>1777</v>
+        <v>1810</v>
       </c>
       <c r="C1214" s="2"/>
       <c r="D1214" s="2"/>
@@ -30246,7 +30420,7 @@
     <row r="1215" ht="14.25" customHeight="1">
       <c r="A1215" s="2"/>
       <c r="B1215" s="4" t="s">
-        <v>1778</v>
+        <v>1811</v>
       </c>
       <c r="C1215" s="2"/>
       <c r="D1215" s="2"/>
@@ -30265,7 +30439,7 @@
     <row r="1216" ht="14.25" customHeight="1">
       <c r="A1216" s="2"/>
       <c r="B1216" s="4" t="s">
-        <v>1779</v>
+        <v>1812</v>
       </c>
       <c r="C1216" s="2"/>
       <c r="D1216" s="2"/>
@@ -30284,7 +30458,7 @@
     <row r="1217" ht="14.25" customHeight="1">
       <c r="A1217" s="2"/>
       <c r="B1217" s="4" t="s">
-        <v>1780</v>
+        <v>1813</v>
       </c>
       <c r="C1217" s="2"/>
       <c r="D1217" s="2"/>
@@ -30303,7 +30477,7 @@
     <row r="1218" ht="14.25" customHeight="1">
       <c r="A1218" s="2"/>
       <c r="B1218" s="4" t="s">
-        <v>1781</v>
+        <v>1814</v>
       </c>
       <c r="C1218" s="2"/>
       <c r="D1218" s="2"/>
@@ -30322,7 +30496,7 @@
     <row r="1219" ht="14.25" customHeight="1">
       <c r="A1219" s="2"/>
       <c r="B1219" s="4" t="s">
-        <v>1782</v>
+        <v>1815</v>
       </c>
       <c r="C1219" s="2"/>
       <c r="D1219" s="2"/>
@@ -30341,7 +30515,7 @@
     <row r="1220" ht="14.25" customHeight="1">
       <c r="A1220" s="2"/>
       <c r="B1220" s="4" t="s">
-        <v>1783</v>
+        <v>1816</v>
       </c>
       <c r="C1220" s="2"/>
       <c r="D1220" s="2"/>
@@ -30360,7 +30534,7 @@
     <row r="1221" ht="14.25" customHeight="1">
       <c r="A1221" s="2"/>
       <c r="B1221" s="4" t="s">
-        <v>1784</v>
+        <v>1817</v>
       </c>
       <c r="C1221" s="2"/>
       <c r="D1221" s="2"/>
@@ -30379,7 +30553,7 @@
     <row r="1222" ht="14.25" customHeight="1">
       <c r="A1222" s="2"/>
       <c r="B1222" s="4" t="s">
-        <v>1785</v>
+        <v>1818</v>
       </c>
       <c r="C1222" s="2"/>
       <c r="D1222" s="2"/>
@@ -30398,7 +30572,7 @@
     <row r="1223" ht="14.25" customHeight="1">
       <c r="A1223" s="2"/>
       <c r="B1223" s="4" t="s">
-        <v>1786</v>
+        <v>1819</v>
       </c>
       <c r="C1223" s="2"/>
       <c r="D1223" s="2"/>
@@ -30417,7 +30591,7 @@
     <row r="1224" ht="14.25" customHeight="1">
       <c r="A1224" s="2"/>
       <c r="B1224" s="4" t="s">
-        <v>1787</v>
+        <v>1820</v>
       </c>
       <c r="C1224" s="2"/>
       <c r="D1224" s="2"/>
@@ -30436,7 +30610,7 @@
     <row r="1225" ht="14.25" customHeight="1">
       <c r="A1225" s="2"/>
       <c r="B1225" s="4" t="s">
-        <v>1788</v>
+        <v>1821</v>
       </c>
       <c r="C1225" s="2"/>
       <c r="D1225" s="2"/>
@@ -30455,7 +30629,7 @@
     <row r="1226" ht="14.25" customHeight="1">
       <c r="A1226" s="2"/>
       <c r="B1226" s="4" t="s">
-        <v>1789</v>
+        <v>1822</v>
       </c>
       <c r="C1226" s="2"/>
       <c r="D1226" s="2"/>
@@ -30474,7 +30648,7 @@
     <row r="1227" ht="14.25" customHeight="1">
       <c r="A1227" s="2"/>
       <c r="B1227" s="4" t="s">
-        <v>1790</v>
+        <v>1823</v>
       </c>
       <c r="C1227" s="2"/>
       <c r="D1227" s="2"/>
@@ -30493,7 +30667,7 @@
     <row r="1228" ht="14.25" customHeight="1">
       <c r="A1228" s="2"/>
       <c r="B1228" s="4" t="s">
-        <v>1791</v>
+        <v>1824</v>
       </c>
       <c r="C1228" s="2"/>
       <c r="D1228" s="2"/>
@@ -30512,7 +30686,7 @@
     <row r="1229" ht="14.25" customHeight="1">
       <c r="A1229" s="2"/>
       <c r="B1229" s="4" t="s">
-        <v>1792</v>
+        <v>1825</v>
       </c>
       <c r="C1229" s="2"/>
       <c r="D1229" s="2"/>
@@ -30531,7 +30705,7 @@
     <row r="1230" ht="14.25" customHeight="1">
       <c r="A1230" s="2"/>
       <c r="B1230" s="4" t="s">
-        <v>1781</v>
+        <v>1814</v>
       </c>
       <c r="C1230" s="2"/>
       <c r="D1230" s="2"/>
@@ -30550,7 +30724,7 @@
     <row r="1231" ht="14.25" customHeight="1">
       <c r="A1231" s="2"/>
       <c r="B1231" s="4" t="s">
-        <v>1793</v>
+        <v>1826</v>
       </c>
       <c r="C1231" s="2"/>
       <c r="D1231" s="2"/>
@@ -30569,7 +30743,7 @@
     <row r="1232" ht="14.25" customHeight="1">
       <c r="A1232" s="2"/>
       <c r="B1232" s="4" t="s">
-        <v>1794</v>
+        <v>1827</v>
       </c>
       <c r="C1232" s="2"/>
       <c r="D1232" s="2"/>
@@ -30588,7 +30762,7 @@
     <row r="1233" ht="14.25" customHeight="1">
       <c r="A1233" s="2"/>
       <c r="B1233" s="4" t="s">
-        <v>1795</v>
+        <v>1828</v>
       </c>
       <c r="C1233" s="2"/>
       <c r="D1233" s="2"/>
@@ -30607,7 +30781,7 @@
     <row r="1234" ht="14.25" customHeight="1">
       <c r="A1234" s="2"/>
       <c r="B1234" s="4" t="s">
-        <v>1796</v>
+        <v>1829</v>
       </c>
       <c r="C1234" s="2"/>
       <c r="D1234" s="2"/>
@@ -30626,7 +30800,7 @@
     <row r="1235" ht="14.25" customHeight="1">
       <c r="A1235" s="2"/>
       <c r="B1235" s="4" t="s">
-        <v>1797</v>
+        <v>1830</v>
       </c>
       <c r="C1235" s="2"/>
       <c r="D1235" s="2"/>
@@ -30645,7 +30819,7 @@
     <row r="1236" ht="14.25" customHeight="1">
       <c r="A1236" s="2"/>
       <c r="B1236" s="4" t="s">
-        <v>1798</v>
+        <v>1831</v>
       </c>
       <c r="C1236" s="2"/>
       <c r="D1236" s="2"/>
@@ -30664,7 +30838,7 @@
     <row r="1237" ht="14.25" customHeight="1">
       <c r="A1237" s="2"/>
       <c r="B1237" s="4" t="s">
-        <v>1799</v>
+        <v>1832</v>
       </c>
       <c r="C1237" s="2"/>
       <c r="D1237" s="2"/>
@@ -30683,7 +30857,7 @@
     <row r="1238" ht="14.25" customHeight="1">
       <c r="A1238" s="2"/>
       <c r="B1238" s="4" t="s">
-        <v>1800</v>
+        <v>1833</v>
       </c>
       <c r="C1238" s="2"/>
       <c r="D1238" s="2"/>
@@ -30702,7 +30876,7 @@
     <row r="1239" ht="14.25" customHeight="1">
       <c r="A1239" s="2"/>
       <c r="B1239" s="4" t="s">
-        <v>1801</v>
+        <v>1834</v>
       </c>
       <c r="C1239" s="2"/>
       <c r="D1239" s="2"/>
@@ -30721,7 +30895,7 @@
     <row r="1240" ht="14.25" customHeight="1">
       <c r="A1240" s="2"/>
       <c r="B1240" s="4" t="s">
-        <v>1802</v>
+        <v>1835</v>
       </c>
       <c r="C1240" s="2"/>
       <c r="D1240" s="2"/>
@@ -30740,7 +30914,7 @@
     <row r="1241" ht="14.25" customHeight="1">
       <c r="A1241" s="2"/>
       <c r="B1241" s="4" t="s">
-        <v>1803</v>
+        <v>1836</v>
       </c>
       <c r="C1241" s="2"/>
       <c r="D1241" s="2"/>
@@ -30759,7 +30933,7 @@
     <row r="1242" ht="14.25" customHeight="1">
       <c r="A1242" s="2"/>
       <c r="B1242" s="4" t="s">
-        <v>1804</v>
+        <v>1837</v>
       </c>
       <c r="C1242" s="2"/>
       <c r="D1242" s="2"/>
@@ -30778,7 +30952,7 @@
     <row r="1243" ht="14.25" customHeight="1">
       <c r="A1243" s="2"/>
       <c r="B1243" s="4" t="s">
-        <v>1805</v>
+        <v>1838</v>
       </c>
       <c r="C1243" s="2"/>
       <c r="D1243" s="2"/>
@@ -30797,7 +30971,7 @@
     <row r="1244" ht="14.25" customHeight="1">
       <c r="A1244" s="2"/>
       <c r="B1244" s="4" t="s">
-        <v>1806</v>
+        <v>1839</v>
       </c>
       <c r="C1244" s="2"/>
       <c r="D1244" s="2"/>
@@ -30816,7 +30990,7 @@
     <row r="1245" ht="14.25" customHeight="1">
       <c r="A1245" s="2"/>
       <c r="B1245" s="4" t="s">
-        <v>1807</v>
+        <v>1840</v>
       </c>
       <c r="C1245" s="2"/>
       <c r="D1245" s="2"/>
@@ -30835,7 +31009,7 @@
     <row r="1246" ht="14.25" customHeight="1">
       <c r="A1246" s="2"/>
       <c r="B1246" s="4" t="s">
-        <v>1808</v>
+        <v>1841</v>
       </c>
       <c r="C1246" s="2"/>
       <c r="D1246" s="2"/>
@@ -30854,7 +31028,7 @@
     <row r="1247" ht="14.25" customHeight="1">
       <c r="A1247" s="2"/>
       <c r="B1247" s="4" t="s">
-        <v>1809</v>
+        <v>1842</v>
       </c>
       <c r="C1247" s="2"/>
       <c r="D1247" s="2"/>
@@ -30873,7 +31047,7 @@
     <row r="1248" ht="14.25" customHeight="1">
       <c r="A1248" s="2"/>
       <c r="B1248" s="4" t="s">
-        <v>1810</v>
+        <v>1843</v>
       </c>
       <c r="C1248" s="2"/>
       <c r="D1248" s="2"/>
@@ -30892,7 +31066,7 @@
     <row r="1249" ht="14.25" customHeight="1">
       <c r="A1249" s="2"/>
       <c r="B1249" s="4" t="s">
-        <v>1811</v>
+        <v>1844</v>
       </c>
       <c r="C1249" s="2"/>
       <c r="D1249" s="2"/>
@@ -30911,7 +31085,7 @@
     <row r="1250" ht="14.25" customHeight="1">
       <c r="A1250" s="2"/>
       <c r="B1250" s="4" t="s">
-        <v>1812</v>
+        <v>1845</v>
       </c>
       <c r="C1250" s="2"/>
       <c r="D1250" s="2"/>
@@ -30930,7 +31104,7 @@
     <row r="1251" ht="14.25" customHeight="1">
       <c r="A1251" s="2"/>
       <c r="B1251" s="4" t="s">
-        <v>1813</v>
+        <v>1846</v>
       </c>
       <c r="C1251" s="2"/>
       <c r="D1251" s="2"/>
@@ -30949,7 +31123,7 @@
     <row r="1252" ht="14.25" customHeight="1">
       <c r="A1252" s="2"/>
       <c r="B1252" s="4" t="s">
-        <v>1814</v>
+        <v>1847</v>
       </c>
       <c r="C1252" s="2"/>
       <c r="D1252" s="2"/>
@@ -30968,7 +31142,7 @@
     <row r="1253" ht="14.25" customHeight="1">
       <c r="A1253" s="2"/>
       <c r="B1253" s="4" t="s">
-        <v>1815</v>
+        <v>1848</v>
       </c>
       <c r="C1253" s="2"/>
       <c r="D1253" s="2"/>
@@ -30987,7 +31161,7 @@
     <row r="1254" ht="14.25" customHeight="1">
       <c r="A1254" s="2"/>
       <c r="B1254" s="4" t="s">
-        <v>1816</v>
+        <v>1849</v>
       </c>
       <c r="C1254" s="2"/>
       <c r="D1254" s="2"/>
@@ -31006,7 +31180,7 @@
     <row r="1255" ht="14.25" customHeight="1">
       <c r="A1255" s="2"/>
       <c r="B1255" s="4" t="s">
-        <v>1817</v>
+        <v>1850</v>
       </c>
       <c r="C1255" s="2"/>
       <c r="D1255" s="2"/>
@@ -31025,7 +31199,7 @@
     <row r="1256" ht="14.25" customHeight="1">
       <c r="A1256" s="2"/>
       <c r="B1256" s="4" t="s">
-        <v>1818</v>
+        <v>1851</v>
       </c>
       <c r="C1256" s="2"/>
       <c r="D1256" s="2"/>
@@ -31044,7 +31218,7 @@
     <row r="1257" ht="14.25" customHeight="1">
       <c r="A1257" s="2"/>
       <c r="B1257" s="4" t="s">
-        <v>1819</v>
+        <v>1852</v>
       </c>
       <c r="C1257" s="2"/>
       <c r="D1257" s="2"/>
@@ -31063,7 +31237,7 @@
     <row r="1258" ht="14.25" customHeight="1">
       <c r="A1258" s="2"/>
       <c r="B1258" s="4" t="s">
-        <v>1820</v>
+        <v>1853</v>
       </c>
       <c r="C1258" s="2"/>
       <c r="D1258" s="2"/>
@@ -31082,7 +31256,7 @@
     <row r="1259" ht="14.25" customHeight="1">
       <c r="A1259" s="2"/>
       <c r="B1259" s="4" t="s">
-        <v>1821</v>
+        <v>1854</v>
       </c>
       <c r="C1259" s="2"/>
       <c r="D1259" s="2"/>
@@ -31101,7 +31275,7 @@
     <row r="1260" ht="14.25" customHeight="1">
       <c r="A1260" s="2"/>
       <c r="B1260" s="4" t="s">
-        <v>1822</v>
+        <v>1855</v>
       </c>
       <c r="C1260" s="2"/>
       <c r="D1260" s="2"/>
@@ -31120,7 +31294,7 @@
     <row r="1261" ht="14.25" customHeight="1">
       <c r="A1261" s="2"/>
       <c r="B1261" s="4" t="s">
-        <v>1823</v>
+        <v>1856</v>
       </c>
       <c r="C1261" s="2"/>
       <c r="D1261" s="2"/>
@@ -31139,7 +31313,7 @@
     <row r="1262" ht="14.25" customHeight="1">
       <c r="A1262" s="2"/>
       <c r="B1262" s="4" t="s">
-        <v>1824</v>
+        <v>1857</v>
       </c>
       <c r="C1262" s="2"/>
       <c r="D1262" s="2"/>
@@ -31158,7 +31332,7 @@
     <row r="1263" ht="14.25" customHeight="1">
       <c r="A1263" s="2"/>
       <c r="B1263" s="4" t="s">
-        <v>1825</v>
+        <v>1858</v>
       </c>
       <c r="C1263" s="2"/>
       <c r="D1263" s="2"/>
@@ -31177,7 +31351,7 @@
     <row r="1264" ht="14.25" customHeight="1">
       <c r="A1264" s="2"/>
       <c r="B1264" s="4" t="s">
-        <v>1826</v>
+        <v>1859</v>
       </c>
       <c r="C1264" s="2"/>
       <c r="D1264" s="2"/>
@@ -31196,7 +31370,7 @@
     <row r="1265" ht="14.25" customHeight="1">
       <c r="A1265" s="2"/>
       <c r="B1265" s="4" t="s">
-        <v>1827</v>
+        <v>1860</v>
       </c>
       <c r="C1265" s="2"/>
       <c r="D1265" s="2"/>
@@ -31215,7 +31389,7 @@
     <row r="1266" ht="14.25" customHeight="1">
       <c r="A1266" s="2"/>
       <c r="B1266" s="4" t="s">
-        <v>1828</v>
+        <v>1861</v>
       </c>
       <c r="C1266" s="2"/>
       <c r="D1266" s="2"/>
@@ -31234,7 +31408,7 @@
     <row r="1267" ht="14.25" customHeight="1">
       <c r="A1267" s="2"/>
       <c r="B1267" s="4" t="s">
-        <v>1829</v>
+        <v>1862</v>
       </c>
       <c r="C1267" s="2"/>
       <c r="D1267" s="2"/>
@@ -31253,7 +31427,7 @@
     <row r="1268" ht="14.25" customHeight="1">
       <c r="A1268" s="2"/>
       <c r="B1268" s="4" t="s">
-        <v>1830</v>
+        <v>1863</v>
       </c>
       <c r="C1268" s="2"/>
       <c r="D1268" s="2"/>
@@ -31272,7 +31446,7 @@
     <row r="1269" ht="14.25" customHeight="1">
       <c r="A1269" s="2"/>
       <c r="B1269" s="4" t="s">
-        <v>1831</v>
+        <v>1864</v>
       </c>
       <c r="C1269" s="2"/>
       <c r="D1269" s="2"/>
@@ -31291,7 +31465,7 @@
     <row r="1270" ht="14.25" customHeight="1">
       <c r="A1270" s="2"/>
       <c r="B1270" s="4" t="s">
-        <v>1832</v>
+        <v>1865</v>
       </c>
       <c r="C1270" s="2"/>
       <c r="D1270" s="2"/>
@@ -31310,7 +31484,7 @@
     <row r="1271" ht="14.25" customHeight="1">
       <c r="A1271" s="2"/>
       <c r="B1271" s="4" t="s">
-        <v>1833</v>
+        <v>1866</v>
       </c>
       <c r="C1271" s="2"/>
       <c r="D1271" s="2"/>
@@ -31329,7 +31503,7 @@
     <row r="1272" ht="14.25" customHeight="1">
       <c r="A1272" s="2"/>
       <c r="B1272" s="4" t="s">
-        <v>1834</v>
+        <v>1867</v>
       </c>
       <c r="C1272" s="2"/>
       <c r="D1272" s="2"/>
@@ -31348,7 +31522,7 @@
     <row r="1273" ht="14.25" customHeight="1">
       <c r="A1273" s="2"/>
       <c r="B1273" s="4" t="s">
-        <v>1835</v>
+        <v>1868</v>
       </c>
       <c r="C1273" s="2"/>
       <c r="D1273" s="2"/>
@@ -31367,7 +31541,7 @@
     <row r="1274" ht="14.25" customHeight="1">
       <c r="A1274" s="2"/>
       <c r="B1274" s="4" t="s">
-        <v>1836</v>
+        <v>1869</v>
       </c>
       <c r="C1274" s="2"/>
       <c r="D1274" s="2"/>
@@ -31386,7 +31560,7 @@
     <row r="1275" ht="14.25" customHeight="1">
       <c r="A1275" s="2"/>
       <c r="B1275" s="4" t="s">
-        <v>1837</v>
+        <v>1870</v>
       </c>
       <c r="C1275" s="2"/>
       <c r="D1275" s="2"/>
@@ -31405,7 +31579,7 @@
     <row r="1276" ht="14.25" customHeight="1">
       <c r="A1276" s="2"/>
       <c r="B1276" s="4" t="s">
-        <v>1838</v>
+        <v>1871</v>
       </c>
       <c r="C1276" s="2"/>
       <c r="D1276" s="2"/>
@@ -31424,7 +31598,7 @@
     <row r="1277" ht="14.25" customHeight="1">
       <c r="A1277" s="2"/>
       <c r="B1277" s="4" t="s">
-        <v>1839</v>
+        <v>1872</v>
       </c>
       <c r="C1277" s="2"/>
       <c r="D1277" s="2"/>
@@ -31443,7 +31617,7 @@
     <row r="1278" ht="14.25" customHeight="1">
       <c r="A1278" s="2"/>
       <c r="B1278" s="4" t="s">
-        <v>1840</v>
+        <v>1873</v>
       </c>
       <c r="C1278" s="2"/>
       <c r="D1278" s="2"/>
@@ -31462,7 +31636,7 @@
     <row r="1279" ht="14.25" customHeight="1">
       <c r="A1279" s="2"/>
       <c r="B1279" s="4" t="s">
-        <v>1841</v>
+        <v>1874</v>
       </c>
       <c r="C1279" s="2"/>
       <c r="D1279" s="2"/>
@@ -31481,7 +31655,7 @@
     <row r="1280" ht="14.25" customHeight="1">
       <c r="A1280" s="2"/>
       <c r="B1280" s="4" t="s">
-        <v>1842</v>
+        <v>1875</v>
       </c>
       <c r="C1280" s="2"/>
       <c r="D1280" s="2"/>
@@ -31500,7 +31674,7 @@
     <row r="1281" ht="14.25" customHeight="1">
       <c r="A1281" s="2"/>
       <c r="B1281" s="4" t="s">
-        <v>1843</v>
+        <v>1876</v>
       </c>
       <c r="C1281" s="2"/>
       <c r="D1281" s="2"/>
@@ -31519,7 +31693,7 @@
     <row r="1282" ht="14.25" customHeight="1">
       <c r="A1282" s="2"/>
       <c r="B1282" s="4" t="s">
-        <v>1844</v>
+        <v>1877</v>
       </c>
       <c r="C1282" s="2"/>
       <c r="D1282" s="2"/>
@@ -31538,7 +31712,7 @@
     <row r="1283" ht="14.25" customHeight="1">
       <c r="A1283" s="2"/>
       <c r="B1283" s="4" t="s">
-        <v>1845</v>
+        <v>1878</v>
       </c>
       <c r="C1283" s="2"/>
       <c r="D1283" s="2"/>
@@ -31557,7 +31731,7 @@
     <row r="1284" ht="14.25" customHeight="1">
       <c r="A1284" s="2"/>
       <c r="B1284" s="4" t="s">
-        <v>1846</v>
+        <v>1879</v>
       </c>
       <c r="C1284" s="2"/>
       <c r="D1284" s="2"/>
@@ -31576,7 +31750,7 @@
     <row r="1285" ht="14.25" customHeight="1">
       <c r="A1285" s="2"/>
       <c r="B1285" s="4" t="s">
-        <v>1847</v>
+        <v>1880</v>
       </c>
       <c r="C1285" s="2"/>
       <c r="D1285" s="2"/>
@@ -31595,7 +31769,7 @@
     <row r="1286" ht="14.25" customHeight="1">
       <c r="A1286" s="2"/>
       <c r="B1286" s="4" t="s">
-        <v>1848</v>
+        <v>1881</v>
       </c>
       <c r="C1286" s="2"/>
       <c r="D1286" s="2"/>
@@ -31614,7 +31788,7 @@
     <row r="1287" ht="14.25" customHeight="1">
       <c r="A1287" s="2"/>
       <c r="B1287" s="4" t="s">
-        <v>1849</v>
+        <v>1882</v>
       </c>
       <c r="C1287" s="2"/>
       <c r="D1287" s="2"/>
@@ -31633,7 +31807,7 @@
     <row r="1288" ht="14.25" customHeight="1">
       <c r="A1288" s="2"/>
       <c r="B1288" s="4" t="s">
-        <v>1850</v>
+        <v>1883</v>
       </c>
       <c r="C1288" s="2"/>
       <c r="D1288" s="2"/>
@@ -31652,7 +31826,7 @@
     <row r="1289" ht="14.25" customHeight="1">
       <c r="A1289" s="2"/>
       <c r="B1289" s="4" t="s">
-        <v>1851</v>
+        <v>1884</v>
       </c>
       <c r="C1289" s="2"/>
       <c r="D1289" s="2"/>
@@ -31671,7 +31845,7 @@
     <row r="1290" ht="14.25" customHeight="1">
       <c r="A1290" s="2"/>
       <c r="B1290" s="4" t="s">
-        <v>1852</v>
+        <v>1885</v>
       </c>
       <c r="C1290" s="2"/>
       <c r="D1290" s="2"/>
@@ -31690,7 +31864,7 @@
     <row r="1291" ht="14.25" customHeight="1">
       <c r="A1291" s="2"/>
       <c r="B1291" s="4" t="s">
-        <v>1853</v>
+        <v>1886</v>
       </c>
       <c r="C1291" s="2"/>
       <c r="D1291" s="2"/>
@@ -31709,7 +31883,7 @@
     <row r="1292" ht="14.25" customHeight="1">
       <c r="A1292" s="2"/>
       <c r="B1292" s="4" t="s">
-        <v>1854</v>
+        <v>1887</v>
       </c>
       <c r="C1292" s="2"/>
       <c r="D1292" s="2"/>
@@ -31728,7 +31902,7 @@
     <row r="1293" ht="14.25" customHeight="1">
       <c r="A1293" s="2"/>
       <c r="B1293" s="4" t="s">
-        <v>1855</v>
+        <v>1888</v>
       </c>
       <c r="C1293" s="2"/>
       <c r="D1293" s="2"/>
@@ -31747,7 +31921,7 @@
     <row r="1294" ht="14.25" customHeight="1">
       <c r="A1294" s="2"/>
       <c r="B1294" s="4" t="s">
-        <v>1856</v>
+        <v>1889</v>
       </c>
       <c r="C1294" s="2"/>
       <c r="D1294" s="2"/>
@@ -31766,7 +31940,7 @@
     <row r="1295" ht="14.25" customHeight="1">
       <c r="A1295" s="2"/>
       <c r="B1295" s="4" t="s">
-        <v>1857</v>
+        <v>1890</v>
       </c>
       <c r="C1295" s="2"/>
       <c r="D1295" s="2"/>
@@ -31785,7 +31959,7 @@
     <row r="1296" ht="14.25" customHeight="1">
       <c r="A1296" s="2"/>
       <c r="B1296" s="4" t="s">
-        <v>1858</v>
+        <v>1891</v>
       </c>
       <c r="C1296" s="2"/>
       <c r="D1296" s="2"/>
@@ -31804,7 +31978,7 @@
     <row r="1297" ht="14.25" customHeight="1">
       <c r="A1297" s="2"/>
       <c r="B1297" s="4" t="s">
-        <v>1859</v>
+        <v>1892</v>
       </c>
       <c r="C1297" s="2"/>
       <c r="D1297" s="2"/>
@@ -31823,7 +31997,7 @@
     <row r="1298" ht="14.25" customHeight="1">
       <c r="A1298" s="2"/>
       <c r="B1298" s="4" t="s">
-        <v>1860</v>
+        <v>1893</v>
       </c>
       <c r="C1298" s="2"/>
       <c r="D1298" s="2"/>
@@ -31842,7 +32016,7 @@
     <row r="1299" ht="14.25" customHeight="1">
       <c r="A1299" s="2"/>
       <c r="B1299" s="4" t="s">
-        <v>1861</v>
+        <v>1894</v>
       </c>
       <c r="C1299" s="2"/>
       <c r="D1299" s="2"/>
@@ -31861,7 +32035,7 @@
     <row r="1300" ht="14.25" customHeight="1">
       <c r="A1300" s="2"/>
       <c r="B1300" s="4" t="s">
-        <v>1862</v>
+        <v>1895</v>
       </c>
       <c r="C1300" s="2"/>
       <c r="D1300" s="2"/>
@@ -31880,7 +32054,7 @@
     <row r="1301" ht="14.25" customHeight="1">
       <c r="A1301" s="2"/>
       <c r="B1301" s="4" t="s">
-        <v>1863</v>
+        <v>1896</v>
       </c>
       <c r="C1301" s="2"/>
       <c r="D1301" s="2"/>
@@ -31899,7 +32073,7 @@
     <row r="1302" ht="14.25" customHeight="1">
       <c r="A1302" s="2"/>
       <c r="B1302" s="4" t="s">
-        <v>1864</v>
+        <v>1897</v>
       </c>
       <c r="C1302" s="2"/>
       <c r="D1302" s="2"/>
@@ -31918,7 +32092,7 @@
     <row r="1303" ht="14.25" customHeight="1">
       <c r="A1303" s="2"/>
       <c r="B1303" s="4" t="s">
-        <v>1865</v>
+        <v>1898</v>
       </c>
       <c r="C1303" s="2"/>
       <c r="D1303" s="2"/>
@@ -31937,7 +32111,7 @@
     <row r="1304" ht="14.25" customHeight="1">
       <c r="A1304" s="2"/>
       <c r="B1304" s="4" t="s">
-        <v>1866</v>
+        <v>1899</v>
       </c>
       <c r="C1304" s="2"/>
       <c r="D1304" s="2"/>
@@ -31956,7 +32130,7 @@
     <row r="1305" ht="14.25" customHeight="1">
       <c r="A1305" s="2"/>
       <c r="B1305" s="4" t="s">
-        <v>1867</v>
+        <v>1900</v>
       </c>
       <c r="C1305" s="2"/>
       <c r="D1305" s="2"/>
@@ -31975,7 +32149,7 @@
     <row r="1306" ht="14.25" customHeight="1">
       <c r="A1306" s="2"/>
       <c r="B1306" s="4" t="s">
-        <v>1868</v>
+        <v>1901</v>
       </c>
       <c r="C1306" s="2"/>
       <c r="D1306" s="2"/>
@@ -31994,7 +32168,7 @@
     <row r="1307" ht="14.25" customHeight="1">
       <c r="A1307" s="2"/>
       <c r="B1307" s="4" t="s">
-        <v>1869</v>
+        <v>1902</v>
       </c>
       <c r="C1307" s="2"/>
       <c r="D1307" s="2"/>
@@ -32013,7 +32187,7 @@
     <row r="1308" ht="14.25" customHeight="1">
       <c r="A1308" s="2"/>
       <c r="B1308" s="4" t="s">
-        <v>1870</v>
+        <v>1903</v>
       </c>
       <c r="C1308" s="2"/>
       <c r="D1308" s="2"/>
@@ -32032,7 +32206,7 @@
     <row r="1309" ht="14.25" customHeight="1">
       <c r="A1309" s="2"/>
       <c r="B1309" s="4" t="s">
-        <v>1871</v>
+        <v>1904</v>
       </c>
       <c r="C1309" s="2"/>
       <c r="D1309" s="2"/>
@@ -32051,7 +32225,7 @@
     <row r="1310" ht="14.25" customHeight="1">
       <c r="A1310" s="2"/>
       <c r="B1310" s="4" t="s">
-        <v>1872</v>
+        <v>1905</v>
       </c>
       <c r="C1310" s="2"/>
       <c r="D1310" s="2"/>
@@ -32070,7 +32244,7 @@
     <row r="1311" ht="14.25" customHeight="1">
       <c r="A1311" s="2"/>
       <c r="B1311" s="4" t="s">
-        <v>1873</v>
+        <v>1906</v>
       </c>
       <c r="C1311" s="2"/>
       <c r="D1311" s="2"/>
@@ -32089,7 +32263,7 @@
     <row r="1312" ht="14.25" customHeight="1">
       <c r="A1312" s="2"/>
       <c r="B1312" s="4" t="s">
-        <v>1874</v>
+        <v>1907</v>
       </c>
       <c r="C1312" s="2"/>
       <c r="D1312" s="2"/>
@@ -32108,7 +32282,7 @@
     <row r="1313" ht="14.25" customHeight="1">
       <c r="A1313" s="2"/>
       <c r="B1313" s="4" t="s">
-        <v>1875</v>
+        <v>1908</v>
       </c>
       <c r="C1313" s="2"/>
       <c r="D1313" s="2"/>
@@ -32127,7 +32301,7 @@
     <row r="1314" ht="14.25" customHeight="1">
       <c r="A1314" s="2"/>
       <c r="B1314" s="4" t="s">
-        <v>1876</v>
+        <v>1909</v>
       </c>
       <c r="C1314" s="2"/>
       <c r="D1314" s="2"/>
@@ -32146,7 +32320,7 @@
     <row r="1315" ht="14.25" customHeight="1">
       <c r="A1315" s="2"/>
       <c r="B1315" s="4" t="s">
-        <v>1877</v>
+        <v>1910</v>
       </c>
       <c r="C1315" s="2"/>
       <c r="D1315" s="2"/>
@@ -32165,7 +32339,7 @@
     <row r="1316" ht="14.25" customHeight="1">
       <c r="A1316" s="2"/>
       <c r="B1316" s="4" t="s">
-        <v>1878</v>
+        <v>1911</v>
       </c>
       <c r="C1316" s="2"/>
       <c r="D1316" s="2"/>
@@ -32184,7 +32358,7 @@
     <row r="1317" ht="14.25" customHeight="1">
       <c r="A1317" s="2"/>
       <c r="B1317" s="4" t="s">
-        <v>1879</v>
+        <v>1912</v>
       </c>
       <c r="C1317" s="2"/>
       <c r="D1317" s="2"/>
@@ -32203,7 +32377,7 @@
     <row r="1318" ht="14.25" customHeight="1">
       <c r="A1318" s="2"/>
       <c r="B1318" s="4" t="s">
-        <v>1880</v>
+        <v>1913</v>
       </c>
       <c r="C1318" s="2"/>
       <c r="D1318" s="2"/>
@@ -32222,7 +32396,7 @@
     <row r="1319" ht="14.25" customHeight="1">
       <c r="A1319" s="2"/>
       <c r="B1319" s="4" t="s">
-        <v>1881</v>
+        <v>1914</v>
       </c>
       <c r="C1319" s="2"/>
       <c r="D1319" s="2"/>
@@ -32241,7 +32415,7 @@
     <row r="1320" ht="14.25" customHeight="1">
       <c r="A1320" s="2"/>
       <c r="B1320" s="4" t="s">
-        <v>1882</v>
+        <v>1915</v>
       </c>
       <c r="C1320" s="2"/>
       <c r="D1320" s="2"/>
@@ -32260,7 +32434,7 @@
     <row r="1321" ht="14.25" customHeight="1">
       <c r="A1321" s="2"/>
       <c r="B1321" s="4" t="s">
-        <v>1883</v>
+        <v>1916</v>
       </c>
       <c r="C1321" s="2"/>
       <c r="D1321" s="2"/>
@@ -32279,7 +32453,7 @@
     <row r="1322" ht="14.25" customHeight="1">
       <c r="A1322" s="2"/>
       <c r="B1322" s="4" t="s">
-        <v>1884</v>
+        <v>1917</v>
       </c>
       <c r="C1322" s="2"/>
       <c r="D1322" s="2"/>
@@ -32298,7 +32472,7 @@
     <row r="1323" ht="14.25" customHeight="1">
       <c r="A1323" s="2"/>
       <c r="B1323" s="4" t="s">
-        <v>1885</v>
+        <v>1918</v>
       </c>
       <c r="C1323" s="2"/>
       <c r="D1323" s="2"/>
@@ -32317,7 +32491,7 @@
     <row r="1324" ht="14.25" customHeight="1">
       <c r="A1324" s="2"/>
       <c r="B1324" s="4" t="s">
-        <v>1886</v>
+        <v>1919</v>
       </c>
       <c r="C1324" s="2"/>
       <c r="D1324" s="2"/>
@@ -32336,7 +32510,7 @@
     <row r="1325" ht="14.25" customHeight="1">
       <c r="A1325" s="2"/>
       <c r="B1325" s="4" t="s">
-        <v>1887</v>
+        <v>1920</v>
       </c>
       <c r="C1325" s="2"/>
       <c r="D1325" s="2"/>
@@ -32355,7 +32529,7 @@
     <row r="1326" ht="14.25" customHeight="1">
       <c r="A1326" s="2"/>
       <c r="B1326" s="4" t="s">
-        <v>1888</v>
+        <v>1921</v>
       </c>
       <c r="C1326" s="2"/>
       <c r="D1326" s="2"/>
@@ -32374,7 +32548,7 @@
     <row r="1327" ht="14.25" customHeight="1">
       <c r="A1327" s="2"/>
       <c r="B1327" s="4" t="s">
-        <v>1889</v>
+        <v>1922</v>
       </c>
       <c r="C1327" s="2"/>
       <c r="D1327" s="2"/>
@@ -32393,7 +32567,7 @@
     <row r="1328" ht="14.25" customHeight="1">
       <c r="A1328" s="2"/>
       <c r="B1328" s="4" t="s">
-        <v>1890</v>
+        <v>1923</v>
       </c>
       <c r="C1328" s="2"/>
       <c r="D1328" s="2"/>
@@ -32412,7 +32586,7 @@
     <row r="1329" ht="14.25" customHeight="1">
       <c r="A1329" s="2"/>
       <c r="B1329" s="4" t="s">
-        <v>1891</v>
+        <v>1924</v>
       </c>
       <c r="C1329" s="2"/>
       <c r="D1329" s="2"/>
@@ -32431,7 +32605,7 @@
     <row r="1330" ht="14.25" customHeight="1">
       <c r="A1330" s="2"/>
       <c r="B1330" s="4" t="s">
-        <v>1892</v>
+        <v>1925</v>
       </c>
       <c r="C1330" s="2"/>
       <c r="D1330" s="2"/>
@@ -32450,7 +32624,7 @@
     <row r="1331" ht="14.25" customHeight="1">
       <c r="A1331" s="2"/>
       <c r="B1331" s="4" t="s">
-        <v>1893</v>
+        <v>1926</v>
       </c>
       <c r="C1331" s="2"/>
       <c r="D1331" s="2"/>
@@ -32469,7 +32643,7 @@
     <row r="1332" ht="14.25" customHeight="1">
       <c r="A1332" s="2"/>
       <c r="B1332" s="4" t="s">
-        <v>1894</v>
+        <v>1927</v>
       </c>
       <c r="C1332" s="2"/>
       <c r="D1332" s="2"/>
@@ -32488,7 +32662,7 @@
     <row r="1333" ht="14.25" customHeight="1">
       <c r="A1333" s="2"/>
       <c r="B1333" s="4" t="s">
-        <v>1895</v>
+        <v>1928</v>
       </c>
       <c r="C1333" s="2"/>
       <c r="D1333" s="2"/>
@@ -32507,7 +32681,7 @@
     <row r="1334" ht="14.25" customHeight="1">
       <c r="A1334" s="2"/>
       <c r="B1334" s="4" t="s">
-        <v>1896</v>
+        <v>1929</v>
       </c>
       <c r="C1334" s="2"/>
       <c r="D1334" s="2"/>
@@ -32526,7 +32700,7 @@
     <row r="1335" ht="14.25" customHeight="1">
       <c r="A1335" s="2"/>
       <c r="B1335" s="4" t="s">
-        <v>1897</v>
+        <v>1930</v>
       </c>
       <c r="C1335" s="2"/>
       <c r="D1335" s="2"/>
@@ -32545,7 +32719,7 @@
     <row r="1336" ht="14.25" customHeight="1">
       <c r="A1336" s="2"/>
       <c r="B1336" s="4" t="s">
-        <v>1898</v>
+        <v>1931</v>
       </c>
       <c r="C1336" s="2"/>
       <c r="D1336" s="2"/>
@@ -32564,7 +32738,7 @@
     <row r="1337" ht="14.25" customHeight="1">
       <c r="A1337" s="2"/>
       <c r="B1337" s="4" t="s">
-        <v>1899</v>
+        <v>1932</v>
       </c>
       <c r="C1337" s="2"/>
       <c r="D1337" s="2"/>
@@ -32583,7 +32757,7 @@
     <row r="1338" ht="14.25" customHeight="1">
       <c r="A1338" s="2"/>
       <c r="B1338" s="4" t="s">
-        <v>1900</v>
+        <v>1933</v>
       </c>
       <c r="C1338" s="2"/>
       <c r="D1338" s="2"/>
@@ -32602,7 +32776,7 @@
     <row r="1339" ht="14.25" customHeight="1">
       <c r="A1339" s="2"/>
       <c r="B1339" s="4" t="s">
-        <v>1901</v>
+        <v>1934</v>
       </c>
       <c r="C1339" s="2"/>
       <c r="D1339" s="2"/>
@@ -32621,7 +32795,7 @@
     <row r="1340" ht="14.25" customHeight="1">
       <c r="A1340" s="2"/>
       <c r="B1340" s="4" t="s">
-        <v>1902</v>
+        <v>1935</v>
       </c>
       <c r="C1340" s="2"/>
       <c r="D1340" s="2"/>
@@ -32640,7 +32814,7 @@
     <row r="1341" ht="14.25" customHeight="1">
       <c r="A1341" s="2"/>
       <c r="B1341" s="4" t="s">
-        <v>1903</v>
+        <v>1936</v>
       </c>
       <c r="C1341" s="2"/>
       <c r="D1341" s="2"/>
@@ -32659,7 +32833,7 @@
     <row r="1342" ht="14.25" customHeight="1">
       <c r="A1342" s="2"/>
       <c r="B1342" s="4" t="s">
-        <v>1904</v>
+        <v>1937</v>
       </c>
       <c r="C1342" s="2"/>
       <c r="D1342" s="2"/>
@@ -32678,7 +32852,7 @@
     <row r="1343" ht="14.25" customHeight="1">
       <c r="A1343" s="2"/>
       <c r="B1343" s="4" t="s">
-        <v>1905</v>
+        <v>1938</v>
       </c>
       <c r="C1343" s="2"/>
       <c r="D1343" s="2"/>
@@ -32697,7 +32871,7 @@
     <row r="1344" ht="14.25" customHeight="1">
       <c r="A1344" s="2"/>
       <c r="B1344" s="4" t="s">
-        <v>1906</v>
+        <v>1939</v>
       </c>
       <c r="C1344" s="2"/>
       <c r="D1344" s="2"/>
@@ -32716,7 +32890,7 @@
     <row r="1345" ht="14.25" customHeight="1">
       <c r="A1345" s="2"/>
       <c r="B1345" s="4" t="s">
-        <v>1907</v>
+        <v>1940</v>
       </c>
       <c r="C1345" s="2"/>
       <c r="D1345" s="2"/>
@@ -32735,7 +32909,7 @@
     <row r="1346" ht="14.25" customHeight="1">
       <c r="A1346" s="2"/>
       <c r="B1346" s="4" t="s">
-        <v>1908</v>
+        <v>1941</v>
       </c>
       <c r="C1346" s="2"/>
       <c r="D1346" s="2"/>
@@ -32754,7 +32928,7 @@
     <row r="1347" ht="14.25" customHeight="1">
       <c r="A1347" s="2"/>
       <c r="B1347" s="4" t="s">
-        <v>1909</v>
+        <v>1942</v>
       </c>
       <c r="C1347" s="2"/>
       <c r="D1347" s="2"/>
@@ -32773,7 +32947,7 @@
     <row r="1348" ht="14.25" customHeight="1">
       <c r="A1348" s="2"/>
       <c r="B1348" s="4" t="s">
-        <v>1910</v>
+        <v>1943</v>
       </c>
       <c r="C1348" s="2"/>
       <c r="D1348" s="2"/>
@@ -32794,7 +32968,7 @@
         <v>173</v>
       </c>
       <c r="B1349" s="4" t="s">
-        <v>1911</v>
+        <v>1944</v>
       </c>
       <c r="C1349" s="2"/>
       <c r="D1349" s="2"/>
@@ -32813,7 +32987,7 @@
     <row r="1350" ht="14.25" customHeight="1">
       <c r="A1350" s="2"/>
       <c r="B1350" s="4" t="s">
-        <v>1912</v>
+        <v>1945</v>
       </c>
       <c r="C1350" s="2"/>
       <c r="D1350" s="2"/>
@@ -32832,7 +33006,7 @@
     <row r="1351" ht="14.25" customHeight="1">
       <c r="A1351" s="2"/>
       <c r="B1351" s="4" t="s">
-        <v>1913</v>
+        <v>1946</v>
       </c>
       <c r="C1351" s="2"/>
       <c r="D1351" s="2"/>
@@ -32851,7 +33025,7 @@
     <row r="1352" ht="14.25" customHeight="1">
       <c r="A1352" s="2"/>
       <c r="B1352" s="4" t="s">
-        <v>1914</v>
+        <v>1947</v>
       </c>
       <c r="C1352" s="2"/>
       <c r="D1352" s="2"/>
@@ -32870,7 +33044,7 @@
     <row r="1353" ht="14.25" customHeight="1">
       <c r="A1353" s="2"/>
       <c r="B1353" s="4" t="s">
-        <v>1915</v>
+        <v>1948</v>
       </c>
       <c r="C1353" s="2"/>
       <c r="D1353" s="2"/>
@@ -32889,7 +33063,7 @@
     <row r="1354" ht="14.25" customHeight="1">
       <c r="A1354" s="2"/>
       <c r="B1354" s="4" t="s">
-        <v>1916</v>
+        <v>1949</v>
       </c>
       <c r="C1354" s="2"/>
       <c r="D1354" s="2"/>
@@ -32908,7 +33082,7 @@
     <row r="1355" ht="14.25" customHeight="1">
       <c r="A1355" s="2"/>
       <c r="B1355" s="4" t="s">
-        <v>1917</v>
+        <v>1950</v>
       </c>
       <c r="C1355" s="2"/>
       <c r="D1355" s="2"/>
@@ -32927,7 +33101,7 @@
     <row r="1356" ht="14.25" customHeight="1">
       <c r="A1356" s="2"/>
       <c r="B1356" s="4" t="s">
-        <v>1918</v>
+        <v>1951</v>
       </c>
       <c r="C1356" s="2"/>
       <c r="D1356" s="2"/>
@@ -32946,7 +33120,7 @@
     <row r="1357" ht="14.25" customHeight="1">
       <c r="A1357" s="2"/>
       <c r="B1357" s="4" t="s">
-        <v>1919</v>
+        <v>1952</v>
       </c>
       <c r="C1357" s="2"/>
       <c r="D1357" s="2"/>
@@ -32965,7 +33139,7 @@
     <row r="1358" ht="14.25" customHeight="1">
       <c r="A1358" s="2"/>
       <c r="B1358" s="4" t="s">
-        <v>1920</v>
+        <v>1953</v>
       </c>
       <c r="C1358" s="2"/>
       <c r="D1358" s="2"/>
@@ -32984,7 +33158,7 @@
     <row r="1359" ht="14.25" customHeight="1">
       <c r="A1359" s="2"/>
       <c r="B1359" s="4" t="s">
-        <v>1921</v>
+        <v>1954</v>
       </c>
       <c r="C1359" s="2"/>
       <c r="D1359" s="2"/>
@@ -33003,7 +33177,7 @@
     <row r="1360" ht="14.25" customHeight="1">
       <c r="A1360" s="2"/>
       <c r="B1360" s="4" t="s">
-        <v>1922</v>
+        <v>1955</v>
       </c>
       <c r="C1360" s="2"/>
       <c r="D1360" s="2"/>
@@ -33022,7 +33196,7 @@
     <row r="1361" ht="14.25" customHeight="1">
       <c r="A1361" s="2"/>
       <c r="B1361" s="4" t="s">
-        <v>1923</v>
+        <v>1956</v>
       </c>
       <c r="C1361" s="2"/>
       <c r="D1361" s="2"/>
@@ -33041,7 +33215,7 @@
     <row r="1362" ht="14.25" customHeight="1">
       <c r="A1362" s="2"/>
       <c r="B1362" s="4" t="s">
-        <v>1924</v>
+        <v>1957</v>
       </c>
       <c r="C1362" s="2"/>
       <c r="D1362" s="2"/>
@@ -33060,7 +33234,7 @@
     <row r="1363" ht="14.25" customHeight="1">
       <c r="A1363" s="2"/>
       <c r="B1363" s="4" t="s">
-        <v>1925</v>
+        <v>1958</v>
       </c>
       <c r="C1363" s="2"/>
       <c r="D1363" s="2"/>
@@ -33079,7 +33253,7 @@
     <row r="1364" ht="14.25" customHeight="1">
       <c r="A1364" s="2"/>
       <c r="B1364" s="4" t="s">
-        <v>1926</v>
+        <v>1959</v>
       </c>
       <c r="C1364" s="2"/>
       <c r="D1364" s="2"/>
@@ -33098,7 +33272,7 @@
     <row r="1365" ht="14.25" customHeight="1">
       <c r="A1365" s="2"/>
       <c r="B1365" s="4" t="s">
-        <v>1927</v>
+        <v>1960</v>
       </c>
       <c r="C1365" s="2"/>
       <c r="D1365" s="2"/>
@@ -33117,7 +33291,7 @@
     <row r="1366" ht="14.25" customHeight="1">
       <c r="A1366" s="2"/>
       <c r="B1366" s="4" t="s">
-        <v>1928</v>
+        <v>1961</v>
       </c>
       <c r="C1366" s="2"/>
       <c r="D1366" s="2"/>
@@ -33136,7 +33310,7 @@
     <row r="1367" ht="14.25" customHeight="1">
       <c r="A1367" s="2"/>
       <c r="B1367" s="8" t="s">
-        <v>1929</v>
+        <v>1962</v>
       </c>
       <c r="C1367" s="2"/>
       <c r="D1367" s="2"/>
@@ -33155,7 +33329,7 @@
     <row r="1368" ht="14.25" customHeight="1">
       <c r="A1368" s="2"/>
       <c r="B1368" s="8" t="s">
-        <v>1930</v>
+        <v>1963</v>
       </c>
       <c r="C1368" s="2"/>
       <c r="D1368" s="2"/>
@@ -33174,7 +33348,7 @@
     <row r="1369" ht="14.25" customHeight="1">
       <c r="A1369" s="2"/>
       <c r="B1369" s="4" t="s">
-        <v>1931</v>
+        <v>1964</v>
       </c>
       <c r="C1369" s="2"/>
       <c r="D1369" s="2"/>
@@ -33193,7 +33367,7 @@
     <row r="1370" ht="14.25" customHeight="1">
       <c r="A1370" s="2"/>
       <c r="B1370" s="4" t="s">
-        <v>1932</v>
+        <v>1965</v>
       </c>
       <c r="C1370" s="2"/>
       <c r="D1370" s="2"/>
@@ -33212,7 +33386,7 @@
     <row r="1371" ht="14.25" customHeight="1">
       <c r="A1371" s="2"/>
       <c r="B1371" s="4" t="s">
-        <v>1933</v>
+        <v>1966</v>
       </c>
       <c r="C1371" s="2"/>
       <c r="D1371" s="2"/>
@@ -33231,7 +33405,7 @@
     <row r="1372" ht="14.25" customHeight="1">
       <c r="A1372" s="2"/>
       <c r="B1372" s="4" t="s">
-        <v>1934</v>
+        <v>1967</v>
       </c>
       <c r="C1372" s="2"/>
       <c r="D1372" s="2"/>
@@ -33250,7 +33424,7 @@
     <row r="1373" ht="14.25" customHeight="1">
       <c r="A1373" s="2"/>
       <c r="B1373" s="4" t="s">
-        <v>1935</v>
+        <v>1968</v>
       </c>
       <c r="C1373" s="2"/>
       <c r="D1373" s="2"/>
@@ -33269,7 +33443,7 @@
     <row r="1374" ht="14.25" customHeight="1">
       <c r="A1374" s="2"/>
       <c r="B1374" s="4" t="s">
-        <v>1936</v>
+        <v>1969</v>
       </c>
       <c r="C1374" s="2"/>
       <c r="D1374" s="2"/>
@@ -33288,7 +33462,7 @@
     <row r="1375" ht="14.25" customHeight="1">
       <c r="A1375" s="2"/>
       <c r="B1375" s="4" t="s">
-        <v>1937</v>
+        <v>1970</v>
       </c>
       <c r="C1375" s="2"/>
       <c r="D1375" s="2"/>
@@ -33307,7 +33481,7 @@
     <row r="1376" ht="14.25" customHeight="1">
       <c r="A1376" s="2"/>
       <c r="B1376" s="4" t="s">
-        <v>1938</v>
+        <v>1971</v>
       </c>
       <c r="C1376" s="2"/>
       <c r="D1376" s="2"/>
@@ -33326,7 +33500,7 @@
     <row r="1377" ht="14.25" customHeight="1">
       <c r="A1377" s="2"/>
       <c r="B1377" s="4" t="s">
-        <v>1939</v>
+        <v>1972</v>
       </c>
       <c r="C1377" s="2"/>
       <c r="D1377" s="2"/>
@@ -33345,7 +33519,7 @@
     <row r="1378" ht="14.25" customHeight="1">
       <c r="A1378" s="2"/>
       <c r="B1378" s="4" t="s">
-        <v>1940</v>
+        <v>1973</v>
       </c>
       <c r="C1378" s="2"/>
       <c r="D1378" s="2"/>
@@ -33364,7 +33538,7 @@
     <row r="1379" ht="14.25" customHeight="1">
       <c r="A1379" s="2"/>
       <c r="B1379" s="4" t="s">
-        <v>1941</v>
+        <v>1974</v>
       </c>
       <c r="C1379" s="2"/>
       <c r="D1379" s="2"/>
@@ -33383,7 +33557,7 @@
     <row r="1380" ht="14.25" customHeight="1">
       <c r="A1380" s="2"/>
       <c r="B1380" s="4" t="s">
-        <v>1942</v>
+        <v>1975</v>
       </c>
       <c r="C1380" s="2"/>
       <c r="D1380" s="2"/>
@@ -33402,7 +33576,7 @@
     <row r="1381" ht="14.25" customHeight="1">
       <c r="A1381" s="2"/>
       <c r="B1381" s="4" t="s">
-        <v>1943</v>
+        <v>1976</v>
       </c>
       <c r="C1381" s="2"/>
       <c r="D1381" s="2"/>
@@ -33421,7 +33595,7 @@
     <row r="1382" ht="14.25" customHeight="1">
       <c r="A1382" s="2"/>
       <c r="B1382" s="4" t="s">
-        <v>1944</v>
+        <v>1977</v>
       </c>
       <c r="C1382" s="2"/>
       <c r="D1382" s="2"/>
@@ -33440,7 +33614,7 @@
     <row r="1383" ht="14.25" customHeight="1">
       <c r="A1383" s="2"/>
       <c r="B1383" s="4" t="s">
-        <v>1945</v>
+        <v>1978</v>
       </c>
       <c r="C1383" s="2"/>
       <c r="D1383" s="2"/>
@@ -33459,7 +33633,7 @@
     <row r="1384" ht="14.25" customHeight="1">
       <c r="A1384" s="2"/>
       <c r="B1384" s="4" t="s">
-        <v>1946</v>
+        <v>1979</v>
       </c>
       <c r="C1384" s="2"/>
       <c r="D1384" s="2"/>
@@ -33478,7 +33652,7 @@
     <row r="1385" ht="14.25" customHeight="1">
       <c r="A1385" s="2"/>
       <c r="B1385" s="4" t="s">
-        <v>1947</v>
+        <v>1980</v>
       </c>
       <c r="C1385" s="2"/>
       <c r="D1385" s="2"/>
@@ -33497,7 +33671,7 @@
     <row r="1386" ht="14.25" customHeight="1">
       <c r="A1386" s="2"/>
       <c r="B1386" s="4" t="s">
-        <v>1948</v>
+        <v>1981</v>
       </c>
       <c r="C1386" s="2"/>
       <c r="D1386" s="2"/>
@@ -33516,7 +33690,7 @@
     <row r="1387" ht="14.25" customHeight="1">
       <c r="A1387" s="2"/>
       <c r="B1387" s="4" t="s">
-        <v>1949</v>
+        <v>1982</v>
       </c>
       <c r="C1387" s="2"/>
       <c r="D1387" s="2"/>
@@ -33535,7 +33709,7 @@
     <row r="1388" ht="14.25" customHeight="1">
       <c r="A1388" s="2"/>
       <c r="B1388" s="4" t="s">
-        <v>1950</v>
+        <v>1983</v>
       </c>
       <c r="C1388" s="2"/>
       <c r="D1388" s="2"/>
@@ -33554,7 +33728,7 @@
     <row r="1389" ht="14.25" customHeight="1">
       <c r="A1389" s="2"/>
       <c r="B1389" s="4" t="s">
-        <v>1951</v>
+        <v>1984</v>
       </c>
       <c r="C1389" s="2"/>
       <c r="D1389" s="2"/>
@@ -33573,7 +33747,7 @@
     <row r="1390" ht="14.25" customHeight="1">
       <c r="A1390" s="2"/>
       <c r="B1390" s="4" t="s">
-        <v>1952</v>
+        <v>1985</v>
       </c>
       <c r="C1390" s="2"/>
       <c r="D1390" s="2"/>
@@ -33592,7 +33766,7 @@
     <row r="1391" ht="14.25" customHeight="1">
       <c r="A1391" s="2"/>
       <c r="B1391" s="4" t="s">
-        <v>1953</v>
+        <v>1986</v>
       </c>
       <c r="C1391" s="2"/>
       <c r="D1391" s="2"/>
@@ -33611,7 +33785,7 @@
     <row r="1392" ht="14.25" customHeight="1">
       <c r="A1392" s="2"/>
       <c r="B1392" s="4" t="s">
-        <v>1954</v>
+        <v>1987</v>
       </c>
       <c r="C1392" s="2"/>
       <c r="D1392" s="2"/>
@@ -33630,7 +33804,7 @@
     <row r="1393" ht="14.25" customHeight="1">
       <c r="A1393" s="2"/>
       <c r="B1393" s="4" t="s">
-        <v>1955</v>
+        <v>1988</v>
       </c>
       <c r="C1393" s="2"/>
       <c r="D1393" s="2"/>
@@ -33649,7 +33823,7 @@
     <row r="1394" ht="14.25" customHeight="1">
       <c r="A1394" s="2"/>
       <c r="B1394" s="4" t="s">
-        <v>1956</v>
+        <v>1989</v>
       </c>
       <c r="C1394" s="2"/>
       <c r="D1394" s="2"/>
@@ -33668,7 +33842,7 @@
     <row r="1395" ht="14.25" customHeight="1">
       <c r="A1395" s="2"/>
       <c r="B1395" s="4" t="s">
-        <v>1957</v>
+        <v>1990</v>
       </c>
       <c r="C1395" s="2"/>
       <c r="D1395" s="2"/>
@@ -33687,7 +33861,7 @@
     <row r="1396" ht="14.25" customHeight="1">
       <c r="A1396" s="2"/>
       <c r="B1396" s="4" t="s">
-        <v>1958</v>
+        <v>1991</v>
       </c>
       <c r="C1396" s="2"/>
       <c r="D1396" s="2"/>
@@ -33706,7 +33880,7 @@
     <row r="1397" ht="14.25" customHeight="1">
       <c r="A1397" s="2"/>
       <c r="B1397" s="4" t="s">
-        <v>1959</v>
+        <v>1992</v>
       </c>
       <c r="C1397" s="2"/>
       <c r="D1397" s="2"/>
@@ -33725,7 +33899,7 @@
     <row r="1398" ht="14.25" customHeight="1">
       <c r="A1398" s="2"/>
       <c r="B1398" s="4" t="s">
-        <v>1960</v>
+        <v>1993</v>
       </c>
       <c r="C1398" s="2"/>
       <c r="D1398" s="2"/>
@@ -33744,7 +33918,7 @@
     <row r="1399" ht="14.25" customHeight="1">
       <c r="A1399" s="2"/>
       <c r="B1399" s="4" t="s">
-        <v>1961</v>
+        <v>1994</v>
       </c>
       <c r="C1399" s="2"/>
       <c r="D1399" s="2"/>
@@ -33763,7 +33937,7 @@
     <row r="1400" ht="14.25" customHeight="1">
       <c r="A1400" s="2"/>
       <c r="B1400" s="4" t="s">
-        <v>1962</v>
+        <v>1995</v>
       </c>
       <c r="C1400" s="2"/>
       <c r="D1400" s="2"/>
@@ -33782,7 +33956,7 @@
     <row r="1401" ht="14.25" customHeight="1">
       <c r="A1401" s="2"/>
       <c r="B1401" s="8" t="s">
-        <v>1963</v>
+        <v>1996</v>
       </c>
       <c r="C1401" s="2"/>
       <c r="D1401" s="2"/>
@@ -33801,7 +33975,7 @@
     <row r="1402" ht="14.25" customHeight="1">
       <c r="A1402" s="2"/>
       <c r="B1402" s="8" t="s">
-        <v>1964</v>
+        <v>1997</v>
       </c>
       <c r="C1402" s="2"/>
       <c r="D1402" s="2"/>
@@ -33820,7 +33994,7 @@
     <row r="1403" ht="14.25" customHeight="1">
       <c r="A1403" s="2"/>
       <c r="B1403" s="8" t="s">
-        <v>1965</v>
+        <v>1998</v>
       </c>
       <c r="C1403" s="2"/>
       <c r="D1403" s="2"/>
@@ -33839,7 +34013,7 @@
     <row r="1404" ht="14.25" customHeight="1">
       <c r="A1404" s="2"/>
       <c r="B1404" s="8" t="s">
-        <v>1966</v>
+        <v>1999</v>
       </c>
       <c r="C1404" s="2"/>
       <c r="D1404" s="2"/>
@@ -33858,7 +34032,7 @@
     <row r="1405" ht="14.25" customHeight="1">
       <c r="A1405" s="2"/>
       <c r="B1405" s="8" t="s">
-        <v>1967</v>
+        <v>2000</v>
       </c>
       <c r="C1405" s="2"/>
       <c r="D1405" s="2"/>
@@ -33877,7 +34051,7 @@
     <row r="1406" ht="14.25" customHeight="1">
       <c r="A1406" s="2"/>
       <c r="B1406" s="8" t="s">
-        <v>1968</v>
+        <v>2001</v>
       </c>
       <c r="C1406" s="2"/>
       <c r="D1406" s="2"/>
@@ -33896,7 +34070,7 @@
     <row r="1407" ht="14.25" customHeight="1">
       <c r="A1407" s="2"/>
       <c r="B1407" s="8" t="s">
-        <v>1969</v>
+        <v>2002</v>
       </c>
       <c r="C1407" s="2"/>
       <c r="D1407" s="2"/>
@@ -33915,7 +34089,7 @@
     <row r="1408" ht="14.25" customHeight="1">
       <c r="A1408" s="2"/>
       <c r="B1408" s="8" t="s">
-        <v>1970</v>
+        <v>2003</v>
       </c>
       <c r="C1408" s="2"/>
       <c r="D1408" s="2"/>
@@ -33934,7 +34108,7 @@
     <row r="1409" ht="14.25" customHeight="1">
       <c r="A1409" s="2"/>
       <c r="B1409" s="8" t="s">
-        <v>1971</v>
+        <v>2004</v>
       </c>
       <c r="C1409" s="2"/>
       <c r="D1409" s="2"/>
@@ -33953,7 +34127,7 @@
     <row r="1410" ht="14.25" customHeight="1">
       <c r="A1410" s="2"/>
       <c r="B1410" s="8" t="s">
-        <v>1972</v>
+        <v>2005</v>
       </c>
       <c r="C1410" s="2"/>
       <c r="D1410" s="2"/>
@@ -33972,7 +34146,7 @@
     <row r="1411" ht="14.25" customHeight="1">
       <c r="A1411" s="2"/>
       <c r="B1411" s="8" t="s">
-        <v>1973</v>
+        <v>2006</v>
       </c>
       <c r="C1411" s="2"/>
       <c r="D1411" s="2"/>
@@ -33991,7 +34165,7 @@
     <row r="1412" ht="14.25" customHeight="1">
       <c r="A1412" s="2"/>
       <c r="B1412" s="8" t="s">
-        <v>1974</v>
+        <v>2007</v>
       </c>
       <c r="C1412" s="2"/>
       <c r="D1412" s="2"/>
@@ -34010,7 +34184,7 @@
     <row r="1413" ht="14.25" customHeight="1">
       <c r="A1413" s="2"/>
       <c r="B1413" s="8" t="s">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="C1413" s="2"/>
       <c r="D1413" s="2"/>
@@ -34028,7 +34202,9 @@
     </row>
     <row r="1414" ht="14.25" customHeight="1">
       <c r="A1414" s="2"/>
-      <c r="B1414" s="8"/>
+      <c r="B1414" s="8" t="s">
+        <v>2009</v>
+      </c>
       <c r="C1414" s="2"/>
       <c r="D1414" s="2"/>
       <c r="E1414" s="2"/>
@@ -34045,7 +34221,9 @@
     </row>
     <row r="1415" ht="14.25" customHeight="1">
       <c r="A1415" s="2"/>
-      <c r="B1415" s="8"/>
+      <c r="B1415" s="8" t="s">
+        <v>2010</v>
+      </c>
       <c r="C1415" s="2"/>
       <c r="D1415" s="2"/>
       <c r="E1415" s="2"/>
@@ -34062,7 +34240,9 @@
     </row>
     <row r="1416" ht="14.25" customHeight="1">
       <c r="A1416" s="2"/>
-      <c r="B1416" s="8"/>
+      <c r="B1416" s="8" t="s">
+        <v>2011</v>
+      </c>
       <c r="C1416" s="2"/>
       <c r="D1416" s="2"/>
       <c r="E1416" s="2"/>
